--- a/tests/Feature/config/car_tenpercent.xlsx
+++ b/tests/Feature/config/car_tenpercent.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="private" sheetId="1" r:id="rId4"/>
     <sheet name="Avensis" sheetId="2" r:id="rId5"/>
+    <sheet name="Statistics" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -141,112 +142,184 @@
     <t>car</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Drivstoff/Forsikring/Vedlikehold/Bompenger 4000,- pr mndNormal: 48000verditap Asset rule Normal: 100000</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Drivstoff/Forsikring/Vedlikehold/Bompenger 4000,- pr mndUsing current value: 4000 * 12verditap Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 52800 Asset rule Normal: 90000</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 52800 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 58080 Asset rule Normal: 81000</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 58080 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 63888 Asset rule Normal: 72900</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 63888 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 70277 Asset rule Normal: 65610</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 70277 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 77304 Asset rule Normal: 59049</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 77304 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 85035 Asset rule Normal: 53144</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 85035 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 93538 Asset rule Normal: 47830</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 93538 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 102892 Asset rule Normal: 43047</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 102892 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 113181 Asset rule Normal: 38742</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 113181 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 124500 Asset rule Normal: 34868</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 124500 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 136950 Asset rule Normal: 31381</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 136950 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 150645 Asset rule Normal: 28243</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 150645 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 165709 Asset rule Normal: 25419</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 165709 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 182280 Asset rule Normal: 22877</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 182280 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 200508 Asset rule Normal: 20589</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 200508 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 220559 Asset rule Normal: 18530</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 220559 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 242615 Asset rule Normal: 16677</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 242615 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 266876 Asset rule Normal: 15009</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 266876 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 293564 Asset rule Normal: 13508</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 293564 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 322920 Asset rule Normal: 12157</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 322920 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 355212 Asset rule Normal: 10941</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 355212 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 390733 Asset rule Normal: 9847</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 390733 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 429807 Asset rule Normal: 8862</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 429807 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 472787 Asset rule Normal: 7976</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 472787 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 520066 Asset rule Normal: 7178</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 520066 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 572072 Asset rule Normal: 6460</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 572072 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 629280 Asset rule Normal: 5814</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 629280 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 692208 Asset rule Normal: 5233</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 692208 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 761428 Asset rule Normal: 4710</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 761428 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 837571 Asset rule Normal: 4239</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 837571 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 921328 Asset rule Normal: 3815</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 921328 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 1013461 Asset rule Normal: 3434</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 1013461 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 1114807 Asset rule Normal: 3091</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 1114807 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t>Using previous value: 1226288 Asset rule Normal: 2782</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 1226288 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
 </sst>
 </file>
@@ -825,11 +898,11 @@
         <v>16</v>
       </c>
       <c r="C6" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1">
@@ -847,18 +920,18 @@
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="1">
         <v>0</v>
       </c>
       <c r="P6" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="1">
@@ -868,7 +941,7 @@
         <v>0.0</v>
       </c>
       <c r="V6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="1">
@@ -897,11 +970,11 @@
         <v>17</v>
       </c>
       <c r="C7" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1">
@@ -919,18 +992,18 @@
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="1">
         <v>0</v>
       </c>
       <c r="P7" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="1">
@@ -940,7 +1013,7 @@
         <v>0.0</v>
       </c>
       <c r="V7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="1">
@@ -969,11 +1042,11 @@
         <v>18</v>
       </c>
       <c r="C8" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1">
@@ -991,18 +1064,18 @@
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="1">
         <v>0</v>
       </c>
       <c r="P8" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="1">
@@ -1012,7 +1085,7 @@
         <v>0.0</v>
       </c>
       <c r="V8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="1">
@@ -1041,11 +1114,11 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1">
@@ -1063,18 +1136,18 @@
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="1">
         <v>0</v>
       </c>
       <c r="P9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="1">
@@ -1084,7 +1157,7 @@
         <v>0.0</v>
       </c>
       <c r="V9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="1">
@@ -1113,11 +1186,11 @@
         <v>20</v>
       </c>
       <c r="C10" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1">
@@ -1135,18 +1208,18 @@
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="1">
         <v>0</v>
       </c>
       <c r="P10" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="1">
@@ -1156,7 +1229,7 @@
         <v>0.0</v>
       </c>
       <c r="V10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="1">
@@ -1185,11 +1258,11 @@
         <v>21</v>
       </c>
       <c r="C11" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1">
@@ -1207,18 +1280,18 @@
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="1">
         <v>0</v>
       </c>
       <c r="P11" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="1">
@@ -1228,7 +1301,7 @@
         <v>0.0</v>
       </c>
       <c r="V11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="1">
@@ -1257,11 +1330,11 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1">
@@ -1279,18 +1352,18 @@
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="1">
         <v>0</v>
       </c>
       <c r="P12" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="1">
@@ -1300,7 +1373,7 @@
         <v>0.0</v>
       </c>
       <c r="V12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="1">
@@ -1329,11 +1402,11 @@
         <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1">
@@ -1351,18 +1424,18 @@
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="1">
         <v>0</v>
       </c>
       <c r="P13" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="1">
@@ -1372,7 +1445,7 @@
         <v>0.0</v>
       </c>
       <c r="V13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="1">
@@ -1401,11 +1474,11 @@
         <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1">
@@ -1423,18 +1496,18 @@
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="1">
@@ -1444,7 +1517,7 @@
         <v>0.0</v>
       </c>
       <c r="V14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="1">
@@ -1473,11 +1546,11 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1">
@@ -1495,18 +1568,18 @@
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="1">
         <v>0</v>
       </c>
       <c r="P15" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="1">
@@ -1516,7 +1589,7 @@
         <v>0.0</v>
       </c>
       <c r="V15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="1">
@@ -1545,11 +1618,11 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1">
@@ -1567,18 +1640,18 @@
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="1">
         <v>0</v>
       </c>
       <c r="P16" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="1">
@@ -1588,7 +1661,7 @@
         <v>0.0</v>
       </c>
       <c r="V16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="1">
@@ -1617,11 +1690,11 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1">
@@ -1639,18 +1712,18 @@
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="1">
         <v>0</v>
       </c>
       <c r="P17" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="1">
@@ -1660,7 +1733,7 @@
         <v>0.0</v>
       </c>
       <c r="V17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="1">
@@ -1689,11 +1762,11 @@
         <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1">
@@ -1711,18 +1784,18 @@
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="1">
         <v>0</v>
       </c>
       <c r="P18" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="1">
@@ -1732,7 +1805,7 @@
         <v>0.0</v>
       </c>
       <c r="V18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="1">
@@ -1761,11 +1834,11 @@
         <v>29</v>
       </c>
       <c r="C19" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1">
@@ -1783,18 +1856,18 @@
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="1">
         <v>0</v>
       </c>
       <c r="P19" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="1">
@@ -1804,7 +1877,7 @@
         <v>0.0</v>
       </c>
       <c r="V19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="1">
@@ -1833,11 +1906,11 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1">
@@ -1855,18 +1928,18 @@
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="1">
         <v>0</v>
       </c>
       <c r="P20" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="1">
@@ -1876,7 +1949,7 @@
         <v>0.0</v>
       </c>
       <c r="V20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="1">
@@ -1905,11 +1978,11 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1">
@@ -1927,18 +2000,18 @@
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="1">
         <v>0</v>
       </c>
       <c r="P21" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="1">
@@ -1948,7 +2021,7 @@
         <v>0.0</v>
       </c>
       <c r="V21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="1">
@@ -1977,11 +2050,11 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1">
@@ -1999,18 +2072,18 @@
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="1">
         <v>0</v>
       </c>
       <c r="P22" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="1">
@@ -2020,7 +2093,7 @@
         <v>0.0</v>
       </c>
       <c r="V22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="1">
@@ -2049,11 +2122,11 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1">
@@ -2071,18 +2144,18 @@
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="1">
         <v>0</v>
       </c>
       <c r="P23" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="1">
@@ -2092,7 +2165,7 @@
         <v>0.0</v>
       </c>
       <c r="V23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="1">
@@ -2121,11 +2194,11 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1">
@@ -2143,18 +2216,18 @@
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="1">
         <v>0</v>
       </c>
       <c r="P24" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="1">
@@ -2164,7 +2237,7 @@
         <v>0.0</v>
       </c>
       <c r="V24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="1">
@@ -2193,11 +2266,11 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1">
@@ -2215,18 +2288,18 @@
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="1">
         <v>0</v>
       </c>
       <c r="P25" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="1">
@@ -2236,7 +2309,7 @@
         <v>0.0</v>
       </c>
       <c r="V25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="1">
@@ -2265,11 +2338,11 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1">
@@ -2287,18 +2360,18 @@
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="1">
         <v>0</v>
       </c>
       <c r="P26" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="1">
@@ -2308,7 +2381,7 @@
         <v>0.0</v>
       </c>
       <c r="V26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="1">
@@ -2337,11 +2410,11 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1">
@@ -2359,18 +2432,18 @@
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="1">
         <v>0</v>
       </c>
       <c r="P27" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="1">
@@ -2380,7 +2453,7 @@
         <v>0.0</v>
       </c>
       <c r="V27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="1">
@@ -2409,11 +2482,11 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1">
@@ -2431,18 +2504,18 @@
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="1">
         <v>0</v>
       </c>
       <c r="P28" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="1">
@@ -2452,7 +2525,7 @@
         <v>0.0</v>
       </c>
       <c r="V28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="1">
@@ -2481,11 +2554,11 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1">
@@ -2503,18 +2576,18 @@
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="1">
         <v>0</v>
       </c>
       <c r="P29" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="1">
@@ -2524,7 +2597,7 @@
         <v>0.0</v>
       </c>
       <c r="V29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="1">
@@ -2553,11 +2626,11 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1">
@@ -2575,18 +2648,18 @@
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="1">
         <v>0</v>
       </c>
       <c r="P30" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="1">
@@ -2596,7 +2669,7 @@
         <v>0.0</v>
       </c>
       <c r="V30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="1">
@@ -2625,11 +2698,11 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1">
@@ -2647,18 +2720,18 @@
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="1">
         <v>0</v>
       </c>
       <c r="P31" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="1">
@@ -2668,7 +2741,7 @@
         <v>0.0</v>
       </c>
       <c r="V31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="1">
@@ -2697,11 +2770,11 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1">
@@ -2719,18 +2792,18 @@
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="1">
         <v>0</v>
       </c>
       <c r="P32" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="1">
@@ -2740,7 +2813,7 @@
         <v>0.0</v>
       </c>
       <c r="V32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="1">
@@ -2769,11 +2842,11 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1">
@@ -2791,18 +2864,18 @@
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="1">
         <v>0</v>
       </c>
       <c r="P33" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33" s="1">
@@ -2812,7 +2885,7 @@
         <v>0.0</v>
       </c>
       <c r="V33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="1">
@@ -2841,11 +2914,11 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1">
@@ -2863,18 +2936,18 @@
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="1">
         <v>0</v>
       </c>
       <c r="P34" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="1">
@@ -2884,7 +2957,7 @@
         <v>0.0</v>
       </c>
       <c r="V34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="1">
@@ -2913,11 +2986,11 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1">
@@ -2935,18 +3008,18 @@
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="1">
         <v>0</v>
       </c>
       <c r="P35" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="1">
@@ -2956,7 +3029,7 @@
         <v>0.0</v>
       </c>
       <c r="V35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="1">
@@ -2985,11 +3058,11 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1">
@@ -3007,18 +3080,18 @@
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="1">
         <v>0</v>
       </c>
       <c r="P36" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S36" s="2"/>
       <c r="T36" s="1">
@@ -3028,7 +3101,7 @@
         <v>0.0</v>
       </c>
       <c r="V36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="1">
@@ -3057,11 +3130,11 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1">
@@ -3079,18 +3152,18 @@
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="1">
         <v>0</v>
       </c>
       <c r="P37" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="1">
@@ -3100,7 +3173,7 @@
         <v>0.0</v>
       </c>
       <c r="V37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="1">
@@ -3129,11 +3202,11 @@
         <v>48</v>
       </c>
       <c r="C38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="8">
-        <v>48000.0</v>
+        <v>48000</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="8">
@@ -3151,18 +3224,18 @@
       </c>
       <c r="L38" s="9"/>
       <c r="M38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N38" s="9"/>
       <c r="O38" s="8">
         <v>0</v>
       </c>
       <c r="P38" s="8">
-        <v>100000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q38" s="9"/>
       <c r="R38" s="8">
-        <v>100000.0</v>
+        <v>100000</v>
       </c>
       <c r="S38" s="9">
         <v>0.01</v>
@@ -3174,7 +3247,7 @@
         <v>-49000.0</v>
       </c>
       <c r="V38" s="8">
-        <v>100000.0</v>
+        <v>100000</v>
       </c>
       <c r="W38" s="9"/>
       <c r="X38" s="8">
@@ -3203,11 +3276,11 @@
         <v>49</v>
       </c>
       <c r="C39" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="5">
-        <v>52800.0</v>
+        <v>52800</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="1">
@@ -3225,18 +3298,18 @@
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="1">
         <v>0</v>
       </c>
       <c r="P39" s="6">
-        <v>90000.0</v>
+        <v>90000</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="1">
-        <v>90000.0</v>
+        <v>90000</v>
       </c>
       <c r="S39" s="2">
         <v>0.01</v>
@@ -3248,7 +3321,7 @@
         <v>-53700.0</v>
       </c>
       <c r="V39" s="1">
-        <v>90000.0</v>
+        <v>90000</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="1">
@@ -3277,11 +3350,11 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>58080.0</v>
+        <v>58080</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
@@ -3299,18 +3372,18 @@
       </c>
       <c r="L40" s="12"/>
       <c r="M40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="11">
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <v>81000.0</v>
+        <v>81000</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>81000.0</v>
+        <v>81000</v>
       </c>
       <c r="S40" s="12">
         <v>0.01</v>
@@ -3322,7 +3395,7 @@
         <v>-58890.0</v>
       </c>
       <c r="V40" s="11">
-        <v>81000.0</v>
+        <v>81000</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
@@ -3351,11 +3424,11 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>63888.0</v>
+        <v>63888</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
@@ -3373,18 +3446,18 @@
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="1">
         <v>0</v>
       </c>
       <c r="P41" s="6">
-        <v>72900.0</v>
+        <v>72900</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>72900.0</v>
+        <v>72900</v>
       </c>
       <c r="S41" s="2">
         <v>0.01</v>
@@ -3396,7 +3469,7 @@
         <v>-64617.0</v>
       </c>
       <c r="V41" s="1">
-        <v>72900.0</v>
+        <v>72900</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
@@ -3425,7 +3498,7 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
@@ -3447,18 +3520,18 @@
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="1">
         <v>0</v>
       </c>
       <c r="P42" s="6">
-        <v>65610.0</v>
+        <v>65610</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>65610.0</v>
+        <v>65610</v>
       </c>
       <c r="S42" s="2">
         <v>0.01</v>
@@ -3467,10 +3540,10 @@
         <v>0.0</v>
       </c>
       <c r="U42" s="6">
-        <v>-70932.9</v>
+        <v>-70932.1</v>
       </c>
       <c r="V42" s="1">
-        <v>65610.0</v>
+        <v>65610</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
@@ -3499,7 +3572,7 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
@@ -3521,18 +3594,18 @@
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="1">
         <v>0</v>
       </c>
       <c r="P43" s="6">
-        <v>59049.0</v>
+        <v>59049</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>59049.0</v>
+        <v>59049</v>
       </c>
       <c r="S43" s="2">
         <v>0.01</v>
@@ -3541,10 +3614,10 @@
         <v>0.0</v>
       </c>
       <c r="U43" s="6">
-        <v>-77894.97</v>
+        <v>-77894.49</v>
       </c>
       <c r="V43" s="1">
-        <v>59049.0</v>
+        <v>59049</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
@@ -3573,7 +3646,7 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
@@ -3595,18 +3668,18 @@
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="1">
         <v>0</v>
       </c>
       <c r="P44" s="6">
-        <v>53144.0</v>
+        <v>53144</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>53144.0</v>
+        <v>53144</v>
       </c>
       <c r="S44" s="2">
         <v>0.01</v>
@@ -3615,10 +3688,10 @@
         <v>0.0</v>
       </c>
       <c r="U44" s="6">
-        <v>-85566.368</v>
+        <v>-85565.44</v>
       </c>
       <c r="V44" s="1">
-        <v>53144.0</v>
+        <v>53144</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
@@ -3647,7 +3720,7 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
@@ -3669,18 +3742,18 @@
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="1">
         <v>0</v>
       </c>
       <c r="P45" s="6">
-        <v>47830.0</v>
+        <v>47830</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>47830.0</v>
+        <v>47830</v>
       </c>
       <c r="S45" s="2">
         <v>0.01</v>
@@ -3689,10 +3762,10 @@
         <v>0.0</v>
       </c>
       <c r="U45" s="6">
-        <v>-94016.7208</v>
+        <v>-94016.3</v>
       </c>
       <c r="V45" s="1">
-        <v>47830.0</v>
+        <v>47830</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
@@ -3721,7 +3794,7 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
@@ -3743,18 +3816,18 @@
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="1">
         <v>0</v>
       </c>
       <c r="P46" s="6">
-        <v>43047.0</v>
+        <v>43047</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>43047.0</v>
+        <v>43047</v>
       </c>
       <c r="S46" s="2">
         <v>0.01</v>
@@ -3763,10 +3836,10 @@
         <v>0.0</v>
       </c>
       <c r="U46" s="6">
-        <v>-103322.73288</v>
+        <v>-103322.47</v>
       </c>
       <c r="V46" s="1">
-        <v>43047.0</v>
+        <v>43047</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
@@ -3795,7 +3868,7 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
@@ -3817,18 +3890,18 @@
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="1">
         <v>0</v>
       </c>
       <c r="P47" s="6">
-        <v>38742.0</v>
+        <v>38742</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>38742.0</v>
+        <v>38742</v>
       </c>
       <c r="S47" s="2">
         <v>0.01</v>
@@ -3837,10 +3910,10 @@
         <v>0.0</v>
       </c>
       <c r="U47" s="6">
-        <v>-113568.909168</v>
+        <v>-113568.42</v>
       </c>
       <c r="V47" s="1">
-        <v>38742.0</v>
+        <v>38742</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
@@ -3869,7 +3942,7 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
@@ -3891,18 +3964,18 @@
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="1">
         <v>0</v>
       </c>
       <c r="P48" s="6">
-        <v>34868.0</v>
+        <v>34868</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>34868.0</v>
+        <v>34868</v>
       </c>
       <c r="S48" s="2">
         <v>0.01</v>
@@ -3911,10 +3984,10 @@
         <v>0.0</v>
       </c>
       <c r="U48" s="6">
-        <v>-124848.3180848</v>
+        <v>-124847.68</v>
       </c>
       <c r="V48" s="1">
-        <v>34868.0</v>
+        <v>34868</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
@@ -3943,7 +4016,7 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
@@ -3965,18 +4038,18 @@
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="1">
         <v>0</v>
       </c>
       <c r="P49" s="6">
-        <v>31381.0</v>
+        <v>31381</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>31381.0</v>
+        <v>31381</v>
       </c>
       <c r="S49" s="2">
         <v>0.01</v>
@@ -3985,10 +4058,10 @@
         <v>0.0</v>
       </c>
       <c r="U49" s="6">
-        <v>-137263.41189328</v>
+        <v>-137262.81</v>
       </c>
       <c r="V49" s="1">
-        <v>31381.0</v>
+        <v>31381</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
@@ -4017,7 +4090,7 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
@@ -4039,18 +4112,18 @@
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="1">
         <v>0</v>
       </c>
       <c r="P50" s="6">
-        <v>28243.0</v>
+        <v>28243</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>28243.0</v>
+        <v>28243</v>
       </c>
       <c r="S50" s="2">
         <v>0.01</v>
@@ -4059,10 +4132,10 @@
         <v>0.0</v>
       </c>
       <c r="U50" s="6">
-        <v>-150926.99208261</v>
+        <v>-150926.43</v>
       </c>
       <c r="V50" s="1">
-        <v>28243.0</v>
+        <v>28243</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
@@ -4091,7 +4164,7 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
@@ -4113,18 +4186,18 @@
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="1">
         <v>0</v>
       </c>
       <c r="P51" s="6">
-        <v>25419.0</v>
+        <v>25419</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>25419.0</v>
+        <v>25419</v>
       </c>
       <c r="S51" s="2">
         <v>0.01</v>
@@ -4133,10 +4206,10 @@
         <v>0.0</v>
       </c>
       <c r="U51" s="6">
-        <v>-165963.20829087</v>
+        <v>-165963.19</v>
       </c>
       <c r="V51" s="1">
-        <v>25419.0</v>
+        <v>25419</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
@@ -4165,7 +4238,7 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
@@ -4187,18 +4260,18 @@
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="1">
         <v>0</v>
       </c>
       <c r="P52" s="6">
-        <v>22877.0</v>
+        <v>22877</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>22877.0</v>
+        <v>22877</v>
       </c>
       <c r="S52" s="2">
         <v>0.01</v>
@@ -4207,10 +4280,10 @@
         <v>0.0</v>
       </c>
       <c r="U52" s="6">
-        <v>-182508.69011996</v>
+        <v>-182507.77</v>
       </c>
       <c r="V52" s="1">
-        <v>22877.0</v>
+        <v>22877</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
@@ -4239,11 +4312,11 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>200507.91213195</v>
+        <v>200507.91213196</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
@@ -4261,18 +4334,18 @@
       </c>
       <c r="L53" s="14"/>
       <c r="M53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N53" s="14"/>
       <c r="O53" s="13">
         <v>0</v>
       </c>
       <c r="P53" s="13">
-        <v>20589.0</v>
+        <v>20589</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>20589.0</v>
+        <v>20589</v>
       </c>
       <c r="S53" s="14">
         <v>0.01</v>
@@ -4281,10 +4354,10 @@
         <v>0.0</v>
       </c>
       <c r="U53" s="13">
-        <v>-200713.80213195</v>
+        <v>-200712.89</v>
       </c>
       <c r="V53" s="13">
-        <v>20589.0</v>
+        <v>20589</v>
       </c>
       <c r="W53" s="14"/>
       <c r="X53" s="13">
@@ -4313,11 +4386,11 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>220558.70334515</v>
+        <v>220558.70334516</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
@@ -4335,18 +4408,18 @@
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="1">
         <v>0</v>
       </c>
       <c r="P54" s="6">
-        <v>18530.0</v>
+        <v>18530</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>18530.0</v>
+        <v>18530</v>
       </c>
       <c r="S54" s="2">
         <v>0.01</v>
@@ -4355,10 +4428,10 @@
         <v>0.0</v>
       </c>
       <c r="U54" s="6">
-        <v>-220744.00334515</v>
+        <v>-220743.3</v>
       </c>
       <c r="V54" s="1">
-        <v>18530.0</v>
+        <v>18530</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="1">
@@ -4387,11 +4460,11 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>242614.57367966</v>
+        <v>242614.57367968</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
@@ -4409,18 +4482,18 @@
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="1">
         <v>0</v>
       </c>
       <c r="P55" s="6">
-        <v>16677.0</v>
+        <v>16677</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>16677.0</v>
+        <v>16677</v>
       </c>
       <c r="S55" s="2">
         <v>0.01</v>
@@ -4429,10 +4502,10 @@
         <v>0.0</v>
       </c>
       <c r="U55" s="6">
-        <v>-242781.34367966</v>
+        <v>-242780.77</v>
       </c>
       <c r="V55" s="1">
-        <v>16677.0</v>
+        <v>16677</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="1">
@@ -4461,11 +4534,11 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>266876.03104763</v>
+        <v>266876.03104765</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
@@ -4483,18 +4556,18 @@
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="1">
         <v>0</v>
       </c>
       <c r="P56" s="6">
-        <v>15009.0</v>
+        <v>15009</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>15009.0</v>
+        <v>15009</v>
       </c>
       <c r="S56" s="2">
         <v>0.01</v>
@@ -4503,10 +4576,10 @@
         <v>0.0</v>
       </c>
       <c r="U56" s="6">
-        <v>-267026.12104763</v>
+        <v>-267026.09</v>
       </c>
       <c r="V56" s="1">
-        <v>15009.0</v>
+        <v>15009</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="1">
@@ -4535,11 +4608,11 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>293563.63415239</v>
+        <v>293563.63415241</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
@@ -4557,18 +4630,18 @@
       </c>
       <c r="L57" s="14"/>
       <c r="M57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N57" s="14"/>
       <c r="O57" s="13">
         <v>0</v>
       </c>
       <c r="P57" s="13">
-        <v>13508.0</v>
+        <v>13508</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>13508.0</v>
+        <v>13508</v>
       </c>
       <c r="S57" s="14">
         <v>0.01</v>
@@ -4577,10 +4650,10 @@
         <v>0.0</v>
       </c>
       <c r="U57" s="13">
-        <v>-293698.71415239</v>
+        <v>-293698.08</v>
       </c>
       <c r="V57" s="13">
-        <v>13508.0</v>
+        <v>13508</v>
       </c>
       <c r="W57" s="14"/>
       <c r="X57" s="13">
@@ -4609,11 +4682,11 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>322919.99756763</v>
+        <v>322919.99756765</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
@@ -4631,18 +4704,18 @@
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="1">
         <v>0</v>
       </c>
       <c r="P58" s="6">
-        <v>12157.0</v>
+        <v>12157</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>12157.0</v>
+        <v>12157</v>
       </c>
       <c r="S58" s="2">
         <v>0.01</v>
@@ -4651,10 +4724,10 @@
         <v>0.0</v>
       </c>
       <c r="U58" s="6">
-        <v>-323041.56756763</v>
+        <v>-323040.57</v>
       </c>
       <c r="V58" s="1">
-        <v>12157.0</v>
+        <v>12157</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="1">
@@ -4683,11 +4756,11 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>355211.99732439</v>
+        <v>355211.99732442</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
@@ -4705,18 +4778,18 @@
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="1">
         <v>0</v>
       </c>
       <c r="P59" s="6">
-        <v>10941.0</v>
+        <v>10941</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>10941.0</v>
+        <v>10941</v>
       </c>
       <c r="S59" s="2">
         <v>0.01</v>
@@ -4725,10 +4798,10 @@
         <v>0.0</v>
       </c>
       <c r="U59" s="6">
-        <v>-355321.40732439</v>
+        <v>-355320.41</v>
       </c>
       <c r="V59" s="1">
-        <v>10941.0</v>
+        <v>10941</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="1">
@@ -4757,11 +4830,11 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>390733.19705683</v>
+        <v>390733.19705686</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
@@ -4779,18 +4852,18 @@
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="1">
         <v>0</v>
       </c>
       <c r="P60" s="6">
-        <v>9847.0</v>
+        <v>9847</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>9847.0</v>
+        <v>9847</v>
       </c>
       <c r="S60" s="2">
         <v>0.01</v>
@@ -4799,10 +4872,10 @@
         <v>0.0</v>
       </c>
       <c r="U60" s="6">
-        <v>-390831.66705683</v>
+        <v>-390831.47</v>
       </c>
       <c r="V60" s="1">
-        <v>9847.0</v>
+        <v>9847</v>
       </c>
       <c r="W60" s="2"/>
       <c r="X60" s="1">
@@ -4831,11 +4904,11 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>429806.51676251</v>
+        <v>429806.51676255</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
@@ -4853,18 +4926,18 @@
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="1">
         <v>0</v>
       </c>
       <c r="P61" s="6">
-        <v>8862.0</v>
+        <v>8862</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>8862.0</v>
+        <v>8862</v>
       </c>
       <c r="S61" s="2">
         <v>0.01</v>
@@ -4873,10 +4946,10 @@
         <v>0.0</v>
       </c>
       <c r="U61" s="6">
-        <v>-429895.13676251</v>
+        <v>-429894.62</v>
       </c>
       <c r="V61" s="1">
-        <v>8862.0</v>
+        <v>8862</v>
       </c>
       <c r="W61" s="2"/>
       <c r="X61" s="1">
@@ -4905,11 +4978,11 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>472787.16843877</v>
+        <v>472787.16843881</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
@@ -4927,18 +5000,18 @@
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="1">
         <v>0</v>
       </c>
       <c r="P62" s="6">
-        <v>7976.0</v>
+        <v>7976</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>7976.0</v>
+        <v>7976</v>
       </c>
       <c r="S62" s="2">
         <v>0.01</v>
@@ -4947,10 +5020,10 @@
         <v>0.0</v>
       </c>
       <c r="U62" s="6">
-        <v>-472866.92843877</v>
+        <v>-472866.76</v>
       </c>
       <c r="V62" s="1">
-        <v>7976.0</v>
+        <v>7976</v>
       </c>
       <c r="W62" s="2"/>
       <c r="X62" s="1">
@@ -4979,11 +5052,11 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>520065.88528264</v>
+        <v>520065.88528269</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
@@ -5001,18 +5074,18 @@
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="1">
         <v>0</v>
       </c>
       <c r="P63" s="6">
-        <v>7178.0</v>
+        <v>7178</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>7178.0</v>
+        <v>7178</v>
       </c>
       <c r="S63" s="2">
         <v>0.01</v>
@@ -5021,10 +5094,10 @@
         <v>0.0</v>
       </c>
       <c r="U63" s="6">
-        <v>-520137.66528264</v>
+        <v>-520136.78</v>
       </c>
       <c r="V63" s="1">
-        <v>7178.0</v>
+        <v>7178</v>
       </c>
       <c r="W63" s="2"/>
       <c r="X63" s="1">
@@ -5053,11 +5126,11 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>572072.47381091</v>
+        <v>572072.47381096</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
@@ -5075,18 +5148,18 @@
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="1">
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <v>6460.0</v>
+        <v>6460</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>6460.0</v>
+        <v>6460</v>
       </c>
       <c r="S64" s="2">
         <v>0.01</v>
@@ -5095,10 +5168,10 @@
         <v>0.0</v>
       </c>
       <c r="U64" s="6">
-        <v>-572137.07381091</v>
+        <v>-572136.6</v>
       </c>
       <c r="V64" s="1">
-        <v>6460.0</v>
+        <v>6460</v>
       </c>
       <c r="W64" s="2"/>
       <c r="X64" s="1">
@@ -5127,11 +5200,11 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>629279.721192</v>
+        <v>629279.72119206</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
@@ -5149,18 +5222,18 @@
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="1">
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <v>5814.0</v>
+        <v>5814</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>5814.0</v>
+        <v>5814</v>
       </c>
       <c r="S65" s="2">
         <v>0.01</v>
@@ -5169,10 +5242,10 @@
         <v>0.0</v>
       </c>
       <c r="U65" s="6">
-        <v>-629337.861192</v>
+        <v>-629337.14</v>
       </c>
       <c r="V65" s="1">
-        <v>5814.0</v>
+        <v>5814</v>
       </c>
       <c r="W65" s="2"/>
       <c r="X65" s="1">
@@ -5201,11 +5274,11 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>692207.6933112</v>
+        <v>692207.69331127</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
@@ -5223,18 +5296,18 @@
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="1">
         <v>0</v>
       </c>
       <c r="P66" s="6">
-        <v>5233.0</v>
+        <v>5233</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>5233.0</v>
+        <v>5233</v>
       </c>
       <c r="S66" s="2">
         <v>0.01</v>
@@ -5243,10 +5316,10 @@
         <v>0.0</v>
       </c>
       <c r="U66" s="6">
-        <v>-692260.0233112</v>
+        <v>-692259.33</v>
       </c>
       <c r="V66" s="1">
-        <v>5233.0</v>
+        <v>5233</v>
       </c>
       <c r="W66" s="2"/>
       <c r="X66" s="1">
@@ -5275,11 +5348,11 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>761428.46264232</v>
+        <v>761428.4626424</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
@@ -5297,18 +5370,18 @@
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="1">
         <v>0</v>
       </c>
       <c r="P67" s="6">
-        <v>4710.0</v>
+        <v>4710</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>4710.0</v>
+        <v>4710</v>
       </c>
       <c r="S67" s="2">
         <v>0.01</v>
@@ -5317,10 +5390,10 @@
         <v>0.0</v>
       </c>
       <c r="U67" s="6">
-        <v>-761475.56264232</v>
+        <v>-761475.1</v>
       </c>
       <c r="V67" s="1">
-        <v>4710.0</v>
+        <v>4710</v>
       </c>
       <c r="W67" s="2"/>
       <c r="X67" s="1">
@@ -5349,11 +5422,11 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>837571.30890655</v>
+        <v>837571.30890664</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
@@ -5371,18 +5444,18 @@
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="1">
         <v>0</v>
       </c>
       <c r="P68" s="6">
-        <v>4239.0</v>
+        <v>4239</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>4239.0</v>
+        <v>4239</v>
       </c>
       <c r="S68" s="2">
         <v>0.01</v>
@@ -5391,10 +5464,10 @@
         <v>0.0</v>
       </c>
       <c r="U68" s="6">
-        <v>-837613.69890655</v>
+        <v>-837613.39</v>
       </c>
       <c r="V68" s="1">
-        <v>4239.0</v>
+        <v>4239</v>
       </c>
       <c r="W68" s="2"/>
       <c r="X68" s="1">
@@ -5423,11 +5496,11 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>921328.4397972</v>
+        <v>921328.4397973</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
@@ -5445,18 +5518,18 @@
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="1">
         <v>0</v>
       </c>
       <c r="P69" s="6">
-        <v>3815.0</v>
+        <v>3815</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>3815.0</v>
+        <v>3815</v>
       </c>
       <c r="S69" s="2">
         <v>0.01</v>
@@ -5465,10 +5538,10 @@
         <v>0.0</v>
       </c>
       <c r="U69" s="6">
-        <v>-921366.5897972</v>
+        <v>-921366.15</v>
       </c>
       <c r="V69" s="1">
-        <v>3815.0</v>
+        <v>3815</v>
       </c>
       <c r="W69" s="2"/>
       <c r="X69" s="1">
@@ -5497,11 +5570,11 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>1013461.2837769</v>
+        <v>1013461.283777</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
@@ -5519,18 +5592,18 @@
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="1">
         <v>0</v>
       </c>
       <c r="P70" s="6">
-        <v>3434.0</v>
+        <v>3434</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>3434.0</v>
+        <v>3434</v>
       </c>
       <c r="S70" s="2">
         <v>0.01</v>
@@ -5539,10 +5612,10 @@
         <v>0.0</v>
       </c>
       <c r="U70" s="6">
-        <v>-1013495.6237769</v>
+        <v>-1013495.34</v>
       </c>
       <c r="V70" s="1">
-        <v>3434.0</v>
+        <v>3434</v>
       </c>
       <c r="W70" s="2"/>
       <c r="X70" s="1">
@@ -5571,11 +5644,11 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>1114807.4121546</v>
+        <v>1114807.4121547</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
@@ -5593,18 +5666,18 @@
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="1">
         <v>0</v>
       </c>
       <c r="P71" s="6">
-        <v>3091.0</v>
+        <v>3091</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>3091.0</v>
+        <v>3091</v>
       </c>
       <c r="S71" s="2">
         <v>0.01</v>
@@ -5613,10 +5686,10 @@
         <v>0.0</v>
       </c>
       <c r="U71" s="6">
-        <v>-1114838.3221546</v>
+        <v>-1114837.91</v>
       </c>
       <c r="V71" s="1">
-        <v>3091.0</v>
+        <v>3091</v>
       </c>
       <c r="W71" s="2"/>
       <c r="X71" s="1">
@@ -5645,11 +5718,11 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>1226288.1533701</v>
+        <v>1226288.1533702</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
@@ -5667,18 +5740,18 @@
       </c>
       <c r="L72" s="16"/>
       <c r="M72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N72" s="16"/>
       <c r="O72" s="5">
         <v>0</v>
       </c>
       <c r="P72" s="5">
-        <v>2782.0</v>
+        <v>2782</v>
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="5">
-        <v>2782.0</v>
+        <v>2782</v>
       </c>
       <c r="S72" s="16">
         <v>0.01</v>
@@ -5687,10 +5760,10 @@
         <v>0.0</v>
       </c>
       <c r="U72" s="5">
-        <v>-1226315.9733701</v>
+        <v>-1226315.82</v>
       </c>
       <c r="V72" s="5">
-        <v>2782.0</v>
+        <v>2782</v>
       </c>
       <c r="W72" s="16"/>
       <c r="X72" s="5">
@@ -6142,11 +6215,11 @@
         <v>16</v>
       </c>
       <c r="C6" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1"/>
@@ -6156,18 +6229,18 @@
       <c r="K6" s="1"/>
       <c r="L6" s="2"/>
       <c r="M6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="1">
         <v>0</v>
       </c>
       <c r="P6" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="1">
@@ -6177,7 +6250,7 @@
         <v>0.0</v>
       </c>
       <c r="V6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="1">
@@ -6206,11 +6279,11 @@
         <v>17</v>
       </c>
       <c r="C7" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
@@ -6220,18 +6293,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="2"/>
       <c r="M7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="1">
         <v>0</v>
       </c>
       <c r="P7" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="1">
@@ -6241,7 +6314,7 @@
         <v>0.0</v>
       </c>
       <c r="V7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="1">
@@ -6270,11 +6343,11 @@
         <v>18</v>
       </c>
       <c r="C8" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1"/>
@@ -6284,18 +6357,18 @@
       <c r="K8" s="1"/>
       <c r="L8" s="2"/>
       <c r="M8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="1">
         <v>0</v>
       </c>
       <c r="P8" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="1">
@@ -6305,7 +6378,7 @@
         <v>0.0</v>
       </c>
       <c r="V8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="1">
@@ -6334,11 +6407,11 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
@@ -6348,18 +6421,18 @@
       <c r="K9" s="1"/>
       <c r="L9" s="2"/>
       <c r="M9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="1">
         <v>0</v>
       </c>
       <c r="P9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="1">
@@ -6369,7 +6442,7 @@
         <v>0.0</v>
       </c>
       <c r="V9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="1">
@@ -6398,11 +6471,11 @@
         <v>20</v>
       </c>
       <c r="C10" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
@@ -6412,18 +6485,18 @@
       <c r="K10" s="1"/>
       <c r="L10" s="2"/>
       <c r="M10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="1">
         <v>0</v>
       </c>
       <c r="P10" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="1">
@@ -6433,7 +6506,7 @@
         <v>0.0</v>
       </c>
       <c r="V10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="1">
@@ -6462,11 +6535,11 @@
         <v>21</v>
       </c>
       <c r="C11" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
@@ -6476,18 +6549,18 @@
       <c r="K11" s="1"/>
       <c r="L11" s="2"/>
       <c r="M11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="1">
         <v>0</v>
       </c>
       <c r="P11" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="1">
@@ -6497,7 +6570,7 @@
         <v>0.0</v>
       </c>
       <c r="V11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="1">
@@ -6526,11 +6599,11 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
@@ -6540,18 +6613,18 @@
       <c r="K12" s="1"/>
       <c r="L12" s="2"/>
       <c r="M12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="1">
         <v>0</v>
       </c>
       <c r="P12" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="1">
@@ -6561,7 +6634,7 @@
         <v>0.0</v>
       </c>
       <c r="V12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="1">
@@ -6590,11 +6663,11 @@
         <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
@@ -6604,18 +6677,18 @@
       <c r="K13" s="1"/>
       <c r="L13" s="2"/>
       <c r="M13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="1">
         <v>0</v>
       </c>
       <c r="P13" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="1">
@@ -6625,7 +6698,7 @@
         <v>0.0</v>
       </c>
       <c r="V13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="1">
@@ -6654,11 +6727,11 @@
         <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
@@ -6668,18 +6741,18 @@
       <c r="K14" s="1"/>
       <c r="L14" s="2"/>
       <c r="M14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="1">
@@ -6689,7 +6762,7 @@
         <v>0.0</v>
       </c>
       <c r="V14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="1">
@@ -6718,11 +6791,11 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
@@ -6732,18 +6805,18 @@
       <c r="K15" s="1"/>
       <c r="L15" s="2"/>
       <c r="M15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="1">
         <v>0</v>
       </c>
       <c r="P15" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="1">
@@ -6753,7 +6826,7 @@
         <v>0.0</v>
       </c>
       <c r="V15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="1">
@@ -6782,11 +6855,11 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
@@ -6796,18 +6869,18 @@
       <c r="K16" s="1"/>
       <c r="L16" s="2"/>
       <c r="M16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="1">
         <v>0</v>
       </c>
       <c r="P16" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="1">
@@ -6817,7 +6890,7 @@
         <v>0.0</v>
       </c>
       <c r="V16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="1">
@@ -6846,11 +6919,11 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
@@ -6860,18 +6933,18 @@
       <c r="K17" s="1"/>
       <c r="L17" s="2"/>
       <c r="M17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="1">
         <v>0</v>
       </c>
       <c r="P17" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="1">
@@ -6881,7 +6954,7 @@
         <v>0.0</v>
       </c>
       <c r="V17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="1">
@@ -6910,11 +6983,11 @@
         <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
@@ -6924,18 +6997,18 @@
       <c r="K18" s="1"/>
       <c r="L18" s="2"/>
       <c r="M18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="1">
         <v>0</v>
       </c>
       <c r="P18" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="1">
@@ -6945,7 +7018,7 @@
         <v>0.0</v>
       </c>
       <c r="V18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="1">
@@ -6974,11 +7047,11 @@
         <v>29</v>
       </c>
       <c r="C19" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
@@ -6988,18 +7061,18 @@
       <c r="K19" s="1"/>
       <c r="L19" s="2"/>
       <c r="M19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="1">
         <v>0</v>
       </c>
       <c r="P19" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="1">
@@ -7009,7 +7082,7 @@
         <v>0.0</v>
       </c>
       <c r="V19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="1">
@@ -7038,11 +7111,11 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
@@ -7052,18 +7125,18 @@
       <c r="K20" s="1"/>
       <c r="L20" s="2"/>
       <c r="M20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="1">
         <v>0</v>
       </c>
       <c r="P20" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="1">
@@ -7073,7 +7146,7 @@
         <v>0.0</v>
       </c>
       <c r="V20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="1">
@@ -7102,11 +7175,11 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
@@ -7116,18 +7189,18 @@
       <c r="K21" s="1"/>
       <c r="L21" s="2"/>
       <c r="M21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="1">
         <v>0</v>
       </c>
       <c r="P21" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="1">
@@ -7137,7 +7210,7 @@
         <v>0.0</v>
       </c>
       <c r="V21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="1">
@@ -7166,11 +7239,11 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1"/>
@@ -7180,18 +7253,18 @@
       <c r="K22" s="1"/>
       <c r="L22" s="2"/>
       <c r="M22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="1">
         <v>0</v>
       </c>
       <c r="P22" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="1">
@@ -7201,7 +7274,7 @@
         <v>0.0</v>
       </c>
       <c r="V22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="1">
@@ -7230,11 +7303,11 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1"/>
@@ -7244,18 +7317,18 @@
       <c r="K23" s="1"/>
       <c r="L23" s="2"/>
       <c r="M23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="1">
         <v>0</v>
       </c>
       <c r="P23" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="1">
@@ -7265,7 +7338,7 @@
         <v>0.0</v>
       </c>
       <c r="V23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="1">
@@ -7294,11 +7367,11 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1"/>
@@ -7308,18 +7381,18 @@
       <c r="K24" s="1"/>
       <c r="L24" s="2"/>
       <c r="M24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="1">
         <v>0</v>
       </c>
       <c r="P24" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="1">
@@ -7329,7 +7402,7 @@
         <v>0.0</v>
       </c>
       <c r="V24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="1">
@@ -7358,11 +7431,11 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1"/>
@@ -7372,18 +7445,18 @@
       <c r="K25" s="1"/>
       <c r="L25" s="2"/>
       <c r="M25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="1">
         <v>0</v>
       </c>
       <c r="P25" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="1">
@@ -7393,7 +7466,7 @@
         <v>0.0</v>
       </c>
       <c r="V25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="1">
@@ -7422,11 +7495,11 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1"/>
@@ -7436,18 +7509,18 @@
       <c r="K26" s="1"/>
       <c r="L26" s="2"/>
       <c r="M26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="1">
         <v>0</v>
       </c>
       <c r="P26" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="1">
@@ -7457,7 +7530,7 @@
         <v>0.0</v>
       </c>
       <c r="V26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="1">
@@ -7486,11 +7559,11 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1"/>
@@ -7500,18 +7573,18 @@
       <c r="K27" s="1"/>
       <c r="L27" s="2"/>
       <c r="M27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="1">
         <v>0</v>
       </c>
       <c r="P27" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="1">
@@ -7521,7 +7594,7 @@
         <v>0.0</v>
       </c>
       <c r="V27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="1">
@@ -7550,11 +7623,11 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1"/>
@@ -7564,18 +7637,18 @@
       <c r="K28" s="1"/>
       <c r="L28" s="2"/>
       <c r="M28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="1">
         <v>0</v>
       </c>
       <c r="P28" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="1">
@@ -7585,7 +7658,7 @@
         <v>0.0</v>
       </c>
       <c r="V28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="1">
@@ -7614,11 +7687,11 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1"/>
@@ -7628,18 +7701,18 @@
       <c r="K29" s="1"/>
       <c r="L29" s="2"/>
       <c r="M29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="1">
         <v>0</v>
       </c>
       <c r="P29" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="1">
@@ -7649,7 +7722,7 @@
         <v>0.0</v>
       </c>
       <c r="V29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="1">
@@ -7678,11 +7751,11 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1"/>
@@ -7692,18 +7765,18 @@
       <c r="K30" s="1"/>
       <c r="L30" s="2"/>
       <c r="M30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="1">
         <v>0</v>
       </c>
       <c r="P30" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="1">
@@ -7713,7 +7786,7 @@
         <v>0.0</v>
       </c>
       <c r="V30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="1">
@@ -7742,11 +7815,11 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1"/>
@@ -7756,18 +7829,18 @@
       <c r="K31" s="1"/>
       <c r="L31" s="2"/>
       <c r="M31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="1">
         <v>0</v>
       </c>
       <c r="P31" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="1">
@@ -7777,7 +7850,7 @@
         <v>0.0</v>
       </c>
       <c r="V31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="1">
@@ -7806,11 +7879,11 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1"/>
@@ -7820,18 +7893,18 @@
       <c r="K32" s="1"/>
       <c r="L32" s="2"/>
       <c r="M32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="1">
         <v>0</v>
       </c>
       <c r="P32" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="1">
@@ -7841,7 +7914,7 @@
         <v>0.0</v>
       </c>
       <c r="V32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="1">
@@ -7870,11 +7943,11 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1"/>
@@ -7884,18 +7957,18 @@
       <c r="K33" s="1"/>
       <c r="L33" s="2"/>
       <c r="M33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="1">
         <v>0</v>
       </c>
       <c r="P33" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33" s="1">
@@ -7905,7 +7978,7 @@
         <v>0.0</v>
       </c>
       <c r="V33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="1">
@@ -7934,11 +8007,11 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1"/>
@@ -7948,18 +8021,18 @@
       <c r="K34" s="1"/>
       <c r="L34" s="2"/>
       <c r="M34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="1">
         <v>0</v>
       </c>
       <c r="P34" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="1">
@@ -7969,7 +8042,7 @@
         <v>0.0</v>
       </c>
       <c r="V34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="1">
@@ -7998,11 +8071,11 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1"/>
@@ -8012,18 +8085,18 @@
       <c r="K35" s="1"/>
       <c r="L35" s="2"/>
       <c r="M35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="1">
         <v>0</v>
       </c>
       <c r="P35" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="1">
@@ -8033,7 +8106,7 @@
         <v>0.0</v>
       </c>
       <c r="V35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="1">
@@ -8062,11 +8135,11 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1"/>
@@ -8076,18 +8149,18 @@
       <c r="K36" s="1"/>
       <c r="L36" s="2"/>
       <c r="M36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="1">
         <v>0</v>
       </c>
       <c r="P36" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S36" s="2"/>
       <c r="T36" s="1">
@@ -8097,7 +8170,7 @@
         <v>0.0</v>
       </c>
       <c r="V36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="1">
@@ -8126,11 +8199,11 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1"/>
@@ -8140,18 +8213,18 @@
       <c r="K37" s="1"/>
       <c r="L37" s="2"/>
       <c r="M37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="1">
         <v>0</v>
       </c>
       <c r="P37" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="1">
@@ -8161,7 +8234,7 @@
         <v>0.0</v>
       </c>
       <c r="V37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="1">
@@ -8190,11 +8263,11 @@
         <v>48</v>
       </c>
       <c r="C38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="8">
-        <v>48000.0</v>
+        <v>48000</v>
       </c>
       <c r="F38" s="9">
         <v>0.1</v>
@@ -8206,20 +8279,20 @@
       <c r="K38" s="8"/>
       <c r="L38" s="9"/>
       <c r="M38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N38" s="9"/>
       <c r="O38" s="8">
         <v>0</v>
       </c>
       <c r="P38" s="8">
-        <v>100000.0</v>
+        <v>100000</v>
       </c>
       <c r="Q38" s="9">
         <v>-0.1</v>
       </c>
       <c r="R38" s="8">
-        <v>100000.0</v>
+        <v>100000</v>
       </c>
       <c r="S38" s="9">
         <v>0.01</v>
@@ -8231,7 +8304,7 @@
         <v>-49000.0</v>
       </c>
       <c r="V38" s="8">
-        <v>100000.0</v>
+        <v>100000</v>
       </c>
       <c r="W38" s="9"/>
       <c r="X38" s="8">
@@ -8260,11 +8333,11 @@
         <v>49</v>
       </c>
       <c r="C39" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="5">
-        <v>52800.0</v>
+        <v>52800</v>
       </c>
       <c r="F39" s="2">
         <v>0.1</v>
@@ -8276,20 +8349,20 @@
       <c r="K39" s="1"/>
       <c r="L39" s="2"/>
       <c r="M39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="1">
         <v>0</v>
       </c>
       <c r="P39" s="6">
-        <v>90000.0</v>
+        <v>90000</v>
       </c>
       <c r="Q39" s="2">
         <v>-0.1</v>
       </c>
       <c r="R39" s="1">
-        <v>90000.0</v>
+        <v>90000</v>
       </c>
       <c r="S39" s="2">
         <v>0.01</v>
@@ -8301,7 +8374,7 @@
         <v>-53700.0</v>
       </c>
       <c r="V39" s="1">
-        <v>90000.0</v>
+        <v>90000</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="1">
@@ -8330,11 +8403,11 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>58080.0</v>
+        <v>58080</v>
       </c>
       <c r="F40" s="12">
         <v>0.1</v>
@@ -8346,20 +8419,20 @@
       <c r="K40" s="11"/>
       <c r="L40" s="12"/>
       <c r="M40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="11">
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <v>81000.0</v>
+        <v>81000</v>
       </c>
       <c r="Q40" s="12">
         <v>-0.1</v>
       </c>
       <c r="R40" s="11">
-        <v>81000.0</v>
+        <v>81000</v>
       </c>
       <c r="S40" s="12">
         <v>0.01</v>
@@ -8371,7 +8444,7 @@
         <v>-58890.0</v>
       </c>
       <c r="V40" s="11">
-        <v>81000.0</v>
+        <v>81000</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
@@ -8400,11 +8473,11 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>63888.0</v>
+        <v>63888</v>
       </c>
       <c r="F41" s="2">
         <v>0.1</v>
@@ -8416,20 +8489,20 @@
       <c r="K41" s="1"/>
       <c r="L41" s="2"/>
       <c r="M41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="1">
         <v>0</v>
       </c>
       <c r="P41" s="6">
-        <v>72900.0</v>
+        <v>72900</v>
       </c>
       <c r="Q41" s="2">
         <v>-0.1</v>
       </c>
       <c r="R41" s="1">
-        <v>72900.0</v>
+        <v>72900</v>
       </c>
       <c r="S41" s="2">
         <v>0.01</v>
@@ -8441,7 +8514,7 @@
         <v>-64617.0</v>
       </c>
       <c r="V41" s="1">
-        <v>72900.0</v>
+        <v>72900</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
@@ -8470,7 +8543,7 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
@@ -8486,20 +8559,20 @@
       <c r="K42" s="1"/>
       <c r="L42" s="2"/>
       <c r="M42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="1">
         <v>0</v>
       </c>
       <c r="P42" s="6">
-        <v>65610.0</v>
+        <v>65610</v>
       </c>
       <c r="Q42" s="2">
         <v>-0.1</v>
       </c>
       <c r="R42" s="1">
-        <v>65610.0</v>
+        <v>65610</v>
       </c>
       <c r="S42" s="2">
         <v>0.01</v>
@@ -8508,10 +8581,10 @@
         <v>656.1</v>
       </c>
       <c r="U42" s="6">
-        <v>-70932.9</v>
+        <v>-70932.1</v>
       </c>
       <c r="V42" s="1">
-        <v>65610.0</v>
+        <v>65610</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
@@ -8540,7 +8613,7 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
@@ -8556,20 +8629,20 @@
       <c r="K43" s="1"/>
       <c r="L43" s="2"/>
       <c r="M43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="1">
         <v>0</v>
       </c>
       <c r="P43" s="6">
-        <v>59049.0</v>
+        <v>59049</v>
       </c>
       <c r="Q43" s="2">
         <v>-0.1</v>
       </c>
       <c r="R43" s="1">
-        <v>59049.0</v>
+        <v>59049</v>
       </c>
       <c r="S43" s="2">
         <v>0.01</v>
@@ -8578,10 +8651,10 @@
         <v>590.49</v>
       </c>
       <c r="U43" s="6">
-        <v>-77894.97</v>
+        <v>-77894.49</v>
       </c>
       <c r="V43" s="1">
-        <v>59049.0</v>
+        <v>59049</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
@@ -8610,7 +8683,7 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
@@ -8626,20 +8699,20 @@
       <c r="K44" s="1"/>
       <c r="L44" s="2"/>
       <c r="M44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="1">
         <v>0</v>
       </c>
       <c r="P44" s="6">
-        <v>53144.0</v>
+        <v>53144</v>
       </c>
       <c r="Q44" s="2">
         <v>-0.1</v>
       </c>
       <c r="R44" s="1">
-        <v>53144.0</v>
+        <v>53144</v>
       </c>
       <c r="S44" s="2">
         <v>0.01</v>
@@ -8648,10 +8721,10 @@
         <v>531.44</v>
       </c>
       <c r="U44" s="6">
-        <v>-85566.368</v>
+        <v>-85565.44</v>
       </c>
       <c r="V44" s="1">
-        <v>53144.0</v>
+        <v>53144</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
@@ -8680,7 +8753,7 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
@@ -8696,20 +8769,20 @@
       <c r="K45" s="1"/>
       <c r="L45" s="2"/>
       <c r="M45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="1">
         <v>0</v>
       </c>
       <c r="P45" s="6">
-        <v>47830.0</v>
+        <v>47830</v>
       </c>
       <c r="Q45" s="2">
         <v>-0.1</v>
       </c>
       <c r="R45" s="1">
-        <v>47830.0</v>
+        <v>47830</v>
       </c>
       <c r="S45" s="2">
         <v>0.01</v>
@@ -8718,10 +8791,10 @@
         <v>478.3</v>
       </c>
       <c r="U45" s="6">
-        <v>-94016.7208</v>
+        <v>-94016.3</v>
       </c>
       <c r="V45" s="1">
-        <v>47830.0</v>
+        <v>47830</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
@@ -8750,7 +8823,7 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
@@ -8766,20 +8839,20 @@
       <c r="K46" s="1"/>
       <c r="L46" s="2"/>
       <c r="M46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="1">
         <v>0</v>
       </c>
       <c r="P46" s="6">
-        <v>43047.0</v>
+        <v>43047</v>
       </c>
       <c r="Q46" s="2">
         <v>-0.1</v>
       </c>
       <c r="R46" s="1">
-        <v>43047.0</v>
+        <v>43047</v>
       </c>
       <c r="S46" s="2">
         <v>0.01</v>
@@ -8788,10 +8861,10 @@
         <v>430.47</v>
       </c>
       <c r="U46" s="6">
-        <v>-103322.73288</v>
+        <v>-103322.47</v>
       </c>
       <c r="V46" s="1">
-        <v>43047.0</v>
+        <v>43047</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
@@ -8820,7 +8893,7 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
@@ -8836,20 +8909,20 @@
       <c r="K47" s="1"/>
       <c r="L47" s="2"/>
       <c r="M47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="1">
         <v>0</v>
       </c>
       <c r="P47" s="6">
-        <v>38742.0</v>
+        <v>38742</v>
       </c>
       <c r="Q47" s="2">
         <v>-0.1</v>
       </c>
       <c r="R47" s="1">
-        <v>38742.0</v>
+        <v>38742</v>
       </c>
       <c r="S47" s="2">
         <v>0.01</v>
@@ -8858,10 +8931,10 @@
         <v>387.42</v>
       </c>
       <c r="U47" s="6">
-        <v>-113568.909168</v>
+        <v>-113568.42</v>
       </c>
       <c r="V47" s="1">
-        <v>38742.0</v>
+        <v>38742</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
@@ -8890,7 +8963,7 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
@@ -8906,20 +8979,20 @@
       <c r="K48" s="1"/>
       <c r="L48" s="2"/>
       <c r="M48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="1">
         <v>0</v>
       </c>
       <c r="P48" s="6">
-        <v>34868.0</v>
+        <v>34868</v>
       </c>
       <c r="Q48" s="2">
         <v>-0.1</v>
       </c>
       <c r="R48" s="1">
-        <v>34868.0</v>
+        <v>34868</v>
       </c>
       <c r="S48" s="2">
         <v>0.01</v>
@@ -8928,10 +9001,10 @@
         <v>348.68</v>
       </c>
       <c r="U48" s="6">
-        <v>-124848.3180848</v>
+        <v>-124847.68</v>
       </c>
       <c r="V48" s="1">
-        <v>34868.0</v>
+        <v>34868</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
@@ -8960,7 +9033,7 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
@@ -8976,20 +9049,20 @@
       <c r="K49" s="1"/>
       <c r="L49" s="2"/>
       <c r="M49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="1">
         <v>0</v>
       </c>
       <c r="P49" s="6">
-        <v>31381.0</v>
+        <v>31381</v>
       </c>
       <c r="Q49" s="2">
         <v>-0.1</v>
       </c>
       <c r="R49" s="1">
-        <v>31381.0</v>
+        <v>31381</v>
       </c>
       <c r="S49" s="2">
         <v>0.01</v>
@@ -8998,10 +9071,10 @@
         <v>313.81</v>
       </c>
       <c r="U49" s="6">
-        <v>-137263.41189328</v>
+        <v>-137262.81</v>
       </c>
       <c r="V49" s="1">
-        <v>31381.0</v>
+        <v>31381</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
@@ -9030,7 +9103,7 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
@@ -9046,20 +9119,20 @@
       <c r="K50" s="1"/>
       <c r="L50" s="2"/>
       <c r="M50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="1">
         <v>0</v>
       </c>
       <c r="P50" s="6">
-        <v>28243.0</v>
+        <v>28243</v>
       </c>
       <c r="Q50" s="2">
         <v>-0.1</v>
       </c>
       <c r="R50" s="1">
-        <v>28243.0</v>
+        <v>28243</v>
       </c>
       <c r="S50" s="2">
         <v>0.01</v>
@@ -9068,10 +9141,10 @@
         <v>282.43</v>
       </c>
       <c r="U50" s="6">
-        <v>-150926.99208261</v>
+        <v>-150926.43</v>
       </c>
       <c r="V50" s="1">
-        <v>28243.0</v>
+        <v>28243</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
@@ -9100,7 +9173,7 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
@@ -9116,20 +9189,20 @@
       <c r="K51" s="1"/>
       <c r="L51" s="2"/>
       <c r="M51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="1">
         <v>0</v>
       </c>
       <c r="P51" s="6">
-        <v>25419.0</v>
+        <v>25419</v>
       </c>
       <c r="Q51" s="2">
         <v>-0.1</v>
       </c>
       <c r="R51" s="1">
-        <v>25419.0</v>
+        <v>25419</v>
       </c>
       <c r="S51" s="2">
         <v>0.01</v>
@@ -9138,10 +9211,10 @@
         <v>254.19</v>
       </c>
       <c r="U51" s="6">
-        <v>-165963.20829087</v>
+        <v>-165963.19</v>
       </c>
       <c r="V51" s="1">
-        <v>25419.0</v>
+        <v>25419</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
@@ -9170,7 +9243,7 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
@@ -9186,20 +9259,20 @@
       <c r="K52" s="1"/>
       <c r="L52" s="2"/>
       <c r="M52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="1">
         <v>0</v>
       </c>
       <c r="P52" s="6">
-        <v>22877.0</v>
+        <v>22877</v>
       </c>
       <c r="Q52" s="2">
         <v>-0.1</v>
       </c>
       <c r="R52" s="1">
-        <v>22877.0</v>
+        <v>22877</v>
       </c>
       <c r="S52" s="2">
         <v>0.01</v>
@@ -9208,10 +9281,10 @@
         <v>228.77</v>
       </c>
       <c r="U52" s="6">
-        <v>-182508.69011996</v>
+        <v>-182507.77</v>
       </c>
       <c r="V52" s="1">
-        <v>22877.0</v>
+        <v>22877</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
@@ -9240,11 +9313,11 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>200507.91213195</v>
+        <v>200507.91213196</v>
       </c>
       <c r="F53" s="14">
         <v>0.1</v>
@@ -9256,20 +9329,20 @@
       <c r="K53" s="13"/>
       <c r="L53" s="14"/>
       <c r="M53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N53" s="14"/>
       <c r="O53" s="13">
         <v>0</v>
       </c>
       <c r="P53" s="13">
-        <v>20589.0</v>
+        <v>20589</v>
       </c>
       <c r="Q53" s="14">
         <v>-0.1</v>
       </c>
       <c r="R53" s="13">
-        <v>20589.0</v>
+        <v>20589</v>
       </c>
       <c r="S53" s="14">
         <v>0.01</v>
@@ -9278,10 +9351,10 @@
         <v>205.89</v>
       </c>
       <c r="U53" s="13">
-        <v>-200713.80213195</v>
+        <v>-200712.89</v>
       </c>
       <c r="V53" s="13">
-        <v>20589.0</v>
+        <v>20589</v>
       </c>
       <c r="W53" s="14"/>
       <c r="X53" s="13">
@@ -9310,11 +9383,11 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>220558.70334515</v>
+        <v>220558.70334516</v>
       </c>
       <c r="F54" s="2">
         <v>0.1</v>
@@ -9326,20 +9399,20 @@
       <c r="K54" s="1"/>
       <c r="L54" s="2"/>
       <c r="M54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="1">
         <v>0</v>
       </c>
       <c r="P54" s="6">
-        <v>18530.0</v>
+        <v>18530</v>
       </c>
       <c r="Q54" s="2">
         <v>-0.1</v>
       </c>
       <c r="R54" s="1">
-        <v>18530.0</v>
+        <v>18530</v>
       </c>
       <c r="S54" s="2">
         <v>0.01</v>
@@ -9348,10 +9421,10 @@
         <v>185.3</v>
       </c>
       <c r="U54" s="6">
-        <v>-220744.00334515</v>
+        <v>-220743.3</v>
       </c>
       <c r="V54" s="1">
-        <v>18530.0</v>
+        <v>18530</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="1">
@@ -9380,11 +9453,11 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>242614.57367966</v>
+        <v>242614.57367968</v>
       </c>
       <c r="F55" s="2">
         <v>0.1</v>
@@ -9396,20 +9469,20 @@
       <c r="K55" s="1"/>
       <c r="L55" s="2"/>
       <c r="M55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="1">
         <v>0</v>
       </c>
       <c r="P55" s="6">
-        <v>16677.0</v>
+        <v>16677</v>
       </c>
       <c r="Q55" s="2">
         <v>-0.1</v>
       </c>
       <c r="R55" s="1">
-        <v>16677.0</v>
+        <v>16677</v>
       </c>
       <c r="S55" s="2">
         <v>0.01</v>
@@ -9418,10 +9491,10 @@
         <v>166.77</v>
       </c>
       <c r="U55" s="6">
-        <v>-242781.34367966</v>
+        <v>-242780.77</v>
       </c>
       <c r="V55" s="1">
-        <v>16677.0</v>
+        <v>16677</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="1">
@@ -9450,11 +9523,11 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>266876.03104763</v>
+        <v>266876.03104765</v>
       </c>
       <c r="F56" s="2">
         <v>0.1</v>
@@ -9466,20 +9539,20 @@
       <c r="K56" s="1"/>
       <c r="L56" s="2"/>
       <c r="M56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="1">
         <v>0</v>
       </c>
       <c r="P56" s="6">
-        <v>15009.0</v>
+        <v>15009</v>
       </c>
       <c r="Q56" s="2">
         <v>-0.1</v>
       </c>
       <c r="R56" s="1">
-        <v>15009.0</v>
+        <v>15009</v>
       </c>
       <c r="S56" s="2">
         <v>0.01</v>
@@ -9488,10 +9561,10 @@
         <v>150.09</v>
       </c>
       <c r="U56" s="6">
-        <v>-267026.12104763</v>
+        <v>-267026.09</v>
       </c>
       <c r="V56" s="1">
-        <v>15009.0</v>
+        <v>15009</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="1">
@@ -9520,11 +9593,11 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>293563.63415239</v>
+        <v>293563.63415241</v>
       </c>
       <c r="F57" s="14">
         <v>0.1</v>
@@ -9536,20 +9609,20 @@
       <c r="K57" s="13"/>
       <c r="L57" s="14"/>
       <c r="M57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N57" s="14"/>
       <c r="O57" s="13">
         <v>0</v>
       </c>
       <c r="P57" s="13">
-        <v>13508.0</v>
+        <v>13508</v>
       </c>
       <c r="Q57" s="14">
         <v>-0.1</v>
       </c>
       <c r="R57" s="13">
-        <v>13508.0</v>
+        <v>13508</v>
       </c>
       <c r="S57" s="14">
         <v>0.01</v>
@@ -9558,10 +9631,10 @@
         <v>135.08</v>
       </c>
       <c r="U57" s="13">
-        <v>-293698.71415239</v>
+        <v>-293698.08</v>
       </c>
       <c r="V57" s="13">
-        <v>13508.0</v>
+        <v>13508</v>
       </c>
       <c r="W57" s="14"/>
       <c r="X57" s="13">
@@ -9590,11 +9663,11 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>322919.99756763</v>
+        <v>322919.99756765</v>
       </c>
       <c r="F58" s="2">
         <v>0.1</v>
@@ -9606,20 +9679,20 @@
       <c r="K58" s="1"/>
       <c r="L58" s="2"/>
       <c r="M58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="1">
         <v>0</v>
       </c>
       <c r="P58" s="6">
-        <v>12157.0</v>
+        <v>12157</v>
       </c>
       <c r="Q58" s="2">
         <v>-0.1</v>
       </c>
       <c r="R58" s="1">
-        <v>12157.0</v>
+        <v>12157</v>
       </c>
       <c r="S58" s="2">
         <v>0.01</v>
@@ -9628,10 +9701,10 @@
         <v>121.57</v>
       </c>
       <c r="U58" s="6">
-        <v>-323041.56756763</v>
+        <v>-323040.57</v>
       </c>
       <c r="V58" s="1">
-        <v>12157.0</v>
+        <v>12157</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="1">
@@ -9660,11 +9733,11 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>355211.99732439</v>
+        <v>355211.99732442</v>
       </c>
       <c r="F59" s="2">
         <v>0.1</v>
@@ -9676,20 +9749,20 @@
       <c r="K59" s="1"/>
       <c r="L59" s="2"/>
       <c r="M59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="1">
         <v>0</v>
       </c>
       <c r="P59" s="6">
-        <v>10941.0</v>
+        <v>10941</v>
       </c>
       <c r="Q59" s="2">
         <v>-0.1</v>
       </c>
       <c r="R59" s="1">
-        <v>10941.0</v>
+        <v>10941</v>
       </c>
       <c r="S59" s="2">
         <v>0.01</v>
@@ -9698,10 +9771,10 @@
         <v>109.41</v>
       </c>
       <c r="U59" s="6">
-        <v>-355321.40732439</v>
+        <v>-355320.41</v>
       </c>
       <c r="V59" s="1">
-        <v>10941.0</v>
+        <v>10941</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="1">
@@ -9730,11 +9803,11 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>390733.19705683</v>
+        <v>390733.19705686</v>
       </c>
       <c r="F60" s="2">
         <v>0.1</v>
@@ -9746,20 +9819,20 @@
       <c r="K60" s="1"/>
       <c r="L60" s="2"/>
       <c r="M60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="1">
         <v>0</v>
       </c>
       <c r="P60" s="6">
-        <v>9847.0</v>
+        <v>9847</v>
       </c>
       <c r="Q60" s="2">
         <v>-0.1</v>
       </c>
       <c r="R60" s="1">
-        <v>9847.0</v>
+        <v>9847</v>
       </c>
       <c r="S60" s="2">
         <v>0.01</v>
@@ -9768,10 +9841,10 @@
         <v>98.47</v>
       </c>
       <c r="U60" s="6">
-        <v>-390831.66705683</v>
+        <v>-390831.47</v>
       </c>
       <c r="V60" s="1">
-        <v>9847.0</v>
+        <v>9847</v>
       </c>
       <c r="W60" s="2"/>
       <c r="X60" s="1">
@@ -9800,11 +9873,11 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>429806.51676251</v>
+        <v>429806.51676255</v>
       </c>
       <c r="F61" s="2">
         <v>0.1</v>
@@ -9816,20 +9889,20 @@
       <c r="K61" s="1"/>
       <c r="L61" s="2"/>
       <c r="M61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="1">
         <v>0</v>
       </c>
       <c r="P61" s="6">
-        <v>8862.0</v>
+        <v>8862</v>
       </c>
       <c r="Q61" s="2">
         <v>-0.1</v>
       </c>
       <c r="R61" s="1">
-        <v>8862.0</v>
+        <v>8862</v>
       </c>
       <c r="S61" s="2">
         <v>0.01</v>
@@ -9838,10 +9911,10 @@
         <v>88.62</v>
       </c>
       <c r="U61" s="6">
-        <v>-429895.13676251</v>
+        <v>-429894.62</v>
       </c>
       <c r="V61" s="1">
-        <v>8862.0</v>
+        <v>8862</v>
       </c>
       <c r="W61" s="2"/>
       <c r="X61" s="1">
@@ -9870,11 +9943,11 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>472787.16843877</v>
+        <v>472787.16843881</v>
       </c>
       <c r="F62" s="2">
         <v>0.1</v>
@@ -9886,20 +9959,20 @@
       <c r="K62" s="1"/>
       <c r="L62" s="2"/>
       <c r="M62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="1">
         <v>0</v>
       </c>
       <c r="P62" s="6">
-        <v>7976.0</v>
+        <v>7976</v>
       </c>
       <c r="Q62" s="2">
         <v>-0.1</v>
       </c>
       <c r="R62" s="1">
-        <v>7976.0</v>
+        <v>7976</v>
       </c>
       <c r="S62" s="2">
         <v>0.01</v>
@@ -9908,10 +9981,10 @@
         <v>79.76</v>
       </c>
       <c r="U62" s="6">
-        <v>-472866.92843877</v>
+        <v>-472866.76</v>
       </c>
       <c r="V62" s="1">
-        <v>7976.0</v>
+        <v>7976</v>
       </c>
       <c r="W62" s="2"/>
       <c r="X62" s="1">
@@ -9940,11 +10013,11 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>520065.88528264</v>
+        <v>520065.88528269</v>
       </c>
       <c r="F63" s="2">
         <v>0.1</v>
@@ -9956,20 +10029,20 @@
       <c r="K63" s="1"/>
       <c r="L63" s="2"/>
       <c r="M63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="1">
         <v>0</v>
       </c>
       <c r="P63" s="6">
-        <v>7178.0</v>
+        <v>7178</v>
       </c>
       <c r="Q63" s="2">
         <v>-0.1</v>
       </c>
       <c r="R63" s="1">
-        <v>7178.0</v>
+        <v>7178</v>
       </c>
       <c r="S63" s="2">
         <v>0.01</v>
@@ -9978,10 +10051,10 @@
         <v>71.78</v>
       </c>
       <c r="U63" s="6">
-        <v>-520137.66528264</v>
+        <v>-520136.78</v>
       </c>
       <c r="V63" s="1">
-        <v>7178.0</v>
+        <v>7178</v>
       </c>
       <c r="W63" s="2"/>
       <c r="X63" s="1">
@@ -10010,11 +10083,11 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>572072.47381091</v>
+        <v>572072.47381096</v>
       </c>
       <c r="F64" s="2">
         <v>0.1</v>
@@ -10026,20 +10099,20 @@
       <c r="K64" s="1"/>
       <c r="L64" s="2"/>
       <c r="M64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="1">
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <v>6460.0</v>
+        <v>6460</v>
       </c>
       <c r="Q64" s="2">
         <v>-0.1</v>
       </c>
       <c r="R64" s="1">
-        <v>6460.0</v>
+        <v>6460</v>
       </c>
       <c r="S64" s="2">
         <v>0.01</v>
@@ -10048,10 +10121,10 @@
         <v>64.6</v>
       </c>
       <c r="U64" s="6">
-        <v>-572137.07381091</v>
+        <v>-572136.6</v>
       </c>
       <c r="V64" s="1">
-        <v>6460.0</v>
+        <v>6460</v>
       </c>
       <c r="W64" s="2"/>
       <c r="X64" s="1">
@@ -10080,11 +10153,11 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>629279.721192</v>
+        <v>629279.72119206</v>
       </c>
       <c r="F65" s="2">
         <v>0.1</v>
@@ -10096,20 +10169,20 @@
       <c r="K65" s="1"/>
       <c r="L65" s="2"/>
       <c r="M65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="1">
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <v>5814.0</v>
+        <v>5814</v>
       </c>
       <c r="Q65" s="2">
         <v>-0.1</v>
       </c>
       <c r="R65" s="1">
-        <v>5814.0</v>
+        <v>5814</v>
       </c>
       <c r="S65" s="2">
         <v>0.01</v>
@@ -10118,10 +10191,10 @@
         <v>58.14</v>
       </c>
       <c r="U65" s="6">
-        <v>-629337.861192</v>
+        <v>-629337.14</v>
       </c>
       <c r="V65" s="1">
-        <v>5814.0</v>
+        <v>5814</v>
       </c>
       <c r="W65" s="2"/>
       <c r="X65" s="1">
@@ -10150,11 +10223,11 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>692207.6933112</v>
+        <v>692207.69331127</v>
       </c>
       <c r="F66" s="2">
         <v>0.1</v>
@@ -10166,20 +10239,20 @@
       <c r="K66" s="1"/>
       <c r="L66" s="2"/>
       <c r="M66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="1">
         <v>0</v>
       </c>
       <c r="P66" s="6">
-        <v>5233.0</v>
+        <v>5233</v>
       </c>
       <c r="Q66" s="2">
         <v>-0.1</v>
       </c>
       <c r="R66" s="1">
-        <v>5233.0</v>
+        <v>5233</v>
       </c>
       <c r="S66" s="2">
         <v>0.01</v>
@@ -10188,10 +10261,10 @@
         <v>52.33</v>
       </c>
       <c r="U66" s="6">
-        <v>-692260.0233112</v>
+        <v>-692259.33</v>
       </c>
       <c r="V66" s="1">
-        <v>5233.0</v>
+        <v>5233</v>
       </c>
       <c r="W66" s="2"/>
       <c r="X66" s="1">
@@ -10220,11 +10293,11 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>761428.46264232</v>
+        <v>761428.4626424</v>
       </c>
       <c r="F67" s="2">
         <v>0.1</v>
@@ -10236,20 +10309,20 @@
       <c r="K67" s="1"/>
       <c r="L67" s="2"/>
       <c r="M67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="1">
         <v>0</v>
       </c>
       <c r="P67" s="6">
-        <v>4710.0</v>
+        <v>4710</v>
       </c>
       <c r="Q67" s="2">
         <v>-0.1</v>
       </c>
       <c r="R67" s="1">
-        <v>4710.0</v>
+        <v>4710</v>
       </c>
       <c r="S67" s="2">
         <v>0.01</v>
@@ -10258,10 +10331,10 @@
         <v>47.1</v>
       </c>
       <c r="U67" s="6">
-        <v>-761475.56264232</v>
+        <v>-761475.1</v>
       </c>
       <c r="V67" s="1">
-        <v>4710.0</v>
+        <v>4710</v>
       </c>
       <c r="W67" s="2"/>
       <c r="X67" s="1">
@@ -10290,11 +10363,11 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>837571.30890655</v>
+        <v>837571.30890664</v>
       </c>
       <c r="F68" s="2">
         <v>0.1</v>
@@ -10306,20 +10379,20 @@
       <c r="K68" s="1"/>
       <c r="L68" s="2"/>
       <c r="M68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="1">
         <v>0</v>
       </c>
       <c r="P68" s="6">
-        <v>4239.0</v>
+        <v>4239</v>
       </c>
       <c r="Q68" s="2">
         <v>-0.1</v>
       </c>
       <c r="R68" s="1">
-        <v>4239.0</v>
+        <v>4239</v>
       </c>
       <c r="S68" s="2">
         <v>0.01</v>
@@ -10328,10 +10401,10 @@
         <v>42.39</v>
       </c>
       <c r="U68" s="6">
-        <v>-837613.69890655</v>
+        <v>-837613.39</v>
       </c>
       <c r="V68" s="1">
-        <v>4239.0</v>
+        <v>4239</v>
       </c>
       <c r="W68" s="2"/>
       <c r="X68" s="1">
@@ -10360,11 +10433,11 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>921328.4397972</v>
+        <v>921328.4397973</v>
       </c>
       <c r="F69" s="2">
         <v>0.1</v>
@@ -10376,20 +10449,20 @@
       <c r="K69" s="1"/>
       <c r="L69" s="2"/>
       <c r="M69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="1">
         <v>0</v>
       </c>
       <c r="P69" s="6">
-        <v>3815.0</v>
+        <v>3815</v>
       </c>
       <c r="Q69" s="2">
         <v>-0.1</v>
       </c>
       <c r="R69" s="1">
-        <v>3815.0</v>
+        <v>3815</v>
       </c>
       <c r="S69" s="2">
         <v>0.01</v>
@@ -10398,10 +10471,10 @@
         <v>38.15</v>
       </c>
       <c r="U69" s="6">
-        <v>-921366.5897972</v>
+        <v>-921366.15</v>
       </c>
       <c r="V69" s="1">
-        <v>3815.0</v>
+        <v>3815</v>
       </c>
       <c r="W69" s="2"/>
       <c r="X69" s="1">
@@ -10430,11 +10503,11 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>1013461.2837769</v>
+        <v>1013461.283777</v>
       </c>
       <c r="F70" s="2">
         <v>0.1</v>
@@ -10446,20 +10519,20 @@
       <c r="K70" s="1"/>
       <c r="L70" s="2"/>
       <c r="M70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="1">
         <v>0</v>
       </c>
       <c r="P70" s="6">
-        <v>3434.0</v>
+        <v>3434</v>
       </c>
       <c r="Q70" s="2">
         <v>-0.1</v>
       </c>
       <c r="R70" s="1">
-        <v>3434.0</v>
+        <v>3434</v>
       </c>
       <c r="S70" s="2">
         <v>0.01</v>
@@ -10468,10 +10541,10 @@
         <v>34.34</v>
       </c>
       <c r="U70" s="6">
-        <v>-1013495.6237769</v>
+        <v>-1013495.34</v>
       </c>
       <c r="V70" s="1">
-        <v>3434.0</v>
+        <v>3434</v>
       </c>
       <c r="W70" s="2"/>
       <c r="X70" s="1">
@@ -10500,11 +10573,11 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>1114807.4121546</v>
+        <v>1114807.4121547</v>
       </c>
       <c r="F71" s="2">
         <v>0.1</v>
@@ -10516,20 +10589,20 @@
       <c r="K71" s="1"/>
       <c r="L71" s="2"/>
       <c r="M71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="1">
         <v>0</v>
       </c>
       <c r="P71" s="6">
-        <v>3091.0</v>
+        <v>3091</v>
       </c>
       <c r="Q71" s="2">
         <v>-0.1</v>
       </c>
       <c r="R71" s="1">
-        <v>3091.0</v>
+        <v>3091</v>
       </c>
       <c r="S71" s="2">
         <v>0.01</v>
@@ -10538,10 +10611,10 @@
         <v>30.91</v>
       </c>
       <c r="U71" s="6">
-        <v>-1114838.3221546</v>
+        <v>-1114837.91</v>
       </c>
       <c r="V71" s="1">
-        <v>3091.0</v>
+        <v>3091</v>
       </c>
       <c r="W71" s="2"/>
       <c r="X71" s="1">
@@ -10570,11 +10643,11 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>1226288.1533701</v>
+        <v>1226288.1533702</v>
       </c>
       <c r="F72" s="16">
         <v>0.1</v>
@@ -10586,20 +10659,20 @@
       <c r="K72" s="5"/>
       <c r="L72" s="16"/>
       <c r="M72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N72" s="16"/>
       <c r="O72" s="5">
         <v>0</v>
       </c>
       <c r="P72" s="5">
-        <v>2782.0</v>
+        <v>2782</v>
       </c>
       <c r="Q72" s="16">
         <v>-0.1</v>
       </c>
       <c r="R72" s="5">
-        <v>2782.0</v>
+        <v>2782</v>
       </c>
       <c r="S72" s="16">
         <v>0.01</v>
@@ -10608,10 +10681,10 @@
         <v>27.82</v>
       </c>
       <c r="U72" s="5">
-        <v>-1226315.9733701</v>
+        <v>-1226315.82</v>
       </c>
       <c r="V72" s="5">
-        <v>2782.0</v>
+        <v>2782</v>
       </c>
       <c r="W72" s="16"/>
       <c r="X72" s="5">
@@ -10870,4 +10943,32 @@
   </headerFooter>
   <tableParts count="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
 </file>
--- a/tests/Feature/config/car_tenpercent.xlsx
+++ b/tests/Feature/config/car_tenpercent.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>private</t>
   </si>
@@ -100,6 +100,9 @@
     <t>% Økning</t>
   </si>
   <si>
+    <t>Formue innskutt</t>
+  </si>
+  <si>
     <t>Formue skattbar</t>
   </si>
   <si>
@@ -142,183 +145,147 @@
     <t>car</t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 0 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Drivstoff/Forsikring/Vedlikehold/Bompenger 4000,- pr mndUsing current value: 4000 * 12verditap Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Drivstoff/Forsikring/Vedlikehold/Bompenger 4000,- pr mndUsing current amount: 4000 * 12verditap Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 52800 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 52800 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 58080 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 58080 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 63888 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 63888 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 70277 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 70277 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 77304 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 77304 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 85035 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 85035 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 93538 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 93538 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 102892 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 102892 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 113181 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 113181 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 124500 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 124500 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 136950 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 136950 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 150645 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 150645 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 165709 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 165709 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 182280 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 182280 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 200508 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 200508 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 220559 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 220559 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 242615 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 242615 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 266876 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 266876 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 293564 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 293564 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 322920 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 322920 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 355212 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 355212 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 390733 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 390733 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 429807 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 429807 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 472787 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 472787 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 520066 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 520066 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 572072 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 572072 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 629280 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 629280 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 692208 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 692208 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 761428 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 761428 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 837571 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 837571 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 921328 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 921328 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 1013461 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 1013461 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 1114807 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 1114807 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 1226288 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 1226288 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
 </sst>
@@ -740,14 +707,14 @@
     <col min="16" max="16" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="25.851" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="5.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="25.851" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -790,10 +757,10 @@
       <c r="P4" t="s">
         <v>8</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -856,10 +823,10 @@
         <v>28</v>
       </c>
       <c r="T5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>30</v>
@@ -888,7 +855,9 @@
       <c r="AD5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE5" s="3"/>
+      <c r="AE5" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6">
@@ -933,20 +902,18 @@
       <c r="R6" s="1">
         <v>0</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U6" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="6"/>
       <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2"/>
-      <c r="X6" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1"/>
       <c r="Y6" s="1">
         <v>0</v>
       </c>
@@ -954,13 +921,15 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0.0</v>
       </c>
-      <c r="AC6" s="2"/>
-      <c r="AD6"/>
+      <c r="AC6">
+        <v>0.0</v>
+      </c>
+      <c r="AE6"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7">
@@ -1005,20 +974,18 @@
       <c r="R7" s="1">
         <v>0</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U7" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="6"/>
       <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2"/>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1"/>
       <c r="Y7" s="1">
         <v>0</v>
       </c>
@@ -1026,13 +993,15 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>0.0</v>
       </c>
-      <c r="AC7" s="2"/>
-      <c r="AD7"/>
+      <c r="AC7">
+        <v>0.0</v>
+      </c>
+      <c r="AE7"/>
     </row>
     <row r="8" spans="1:31">
       <c r="A8">
@@ -1077,20 +1046,18 @@
       <c r="R8" s="1">
         <v>0</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U8" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="6"/>
       <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2"/>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1"/>
       <c r="Y8" s="1">
         <v>0</v>
       </c>
@@ -1098,13 +1065,15 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <v>0.0</v>
       </c>
-      <c r="AC8" s="2"/>
-      <c r="AD8"/>
+      <c r="AC8">
+        <v>0.0</v>
+      </c>
+      <c r="AE8"/>
     </row>
     <row r="9" spans="1:31">
       <c r="A9">
@@ -1149,20 +1118,18 @@
       <c r="R9" s="1">
         <v>0</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U9" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="6"/>
       <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2"/>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1"/>
       <c r="Y9" s="1">
         <v>0</v>
       </c>
@@ -1170,13 +1137,15 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>0.0</v>
       </c>
-      <c r="AC9" s="2"/>
-      <c r="AD9"/>
+      <c r="AC9">
+        <v>0.0</v>
+      </c>
+      <c r="AE9"/>
     </row>
     <row r="10" spans="1:31">
       <c r="A10">
@@ -1221,20 +1190,18 @@
       <c r="R10" s="1">
         <v>0</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U10" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="6"/>
       <c r="V10" s="1">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2"/>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1"/>
       <c r="Y10" s="1">
         <v>0</v>
       </c>
@@ -1242,13 +1209,15 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>0.0</v>
       </c>
-      <c r="AC10" s="2"/>
-      <c r="AD10"/>
+      <c r="AC10">
+        <v>0.0</v>
+      </c>
+      <c r="AE10"/>
     </row>
     <row r="11" spans="1:31">
       <c r="A11">
@@ -1293,20 +1262,18 @@
       <c r="R11" s="1">
         <v>0</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U11" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="6"/>
       <c r="V11" s="1">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2"/>
-      <c r="X11" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1"/>
       <c r="Y11" s="1">
         <v>0</v>
       </c>
@@ -1314,13 +1281,15 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <v>0.0</v>
       </c>
-      <c r="AC11" s="2"/>
-      <c r="AD11"/>
+      <c r="AC11">
+        <v>0.0</v>
+      </c>
+      <c r="AE11"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12">
@@ -1365,20 +1334,18 @@
       <c r="R12" s="1">
         <v>0</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U12" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="6"/>
       <c r="V12" s="1">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2"/>
-      <c r="X12" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1"/>
       <c r="Y12" s="1">
         <v>0</v>
       </c>
@@ -1386,13 +1353,15 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB12">
         <v>0.0</v>
       </c>
-      <c r="AC12" s="2"/>
-      <c r="AD12"/>
+      <c r="AC12">
+        <v>0.0</v>
+      </c>
+      <c r="AE12"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13">
@@ -1437,20 +1406,18 @@
       <c r="R13" s="1">
         <v>0</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U13" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="6"/>
       <c r="V13" s="1">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2"/>
-      <c r="X13" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1"/>
       <c r="Y13" s="1">
         <v>0</v>
       </c>
@@ -1458,13 +1425,15 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB13">
         <v>0.0</v>
       </c>
-      <c r="AC13" s="2"/>
-      <c r="AD13"/>
+      <c r="AC13">
+        <v>0.0</v>
+      </c>
+      <c r="AE13"/>
     </row>
     <row r="14" spans="1:31">
       <c r="A14">
@@ -1509,20 +1478,18 @@
       <c r="R14" s="1">
         <v>0</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U14" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="6"/>
       <c r="V14" s="1">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2"/>
-      <c r="X14" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1"/>
       <c r="Y14" s="1">
         <v>0</v>
       </c>
@@ -1530,13 +1497,15 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB14">
         <v>0.0</v>
       </c>
-      <c r="AC14" s="2"/>
-      <c r="AD14"/>
+      <c r="AC14">
+        <v>0.0</v>
+      </c>
+      <c r="AE14"/>
     </row>
     <row r="15" spans="1:31">
       <c r="A15">
@@ -1581,20 +1550,18 @@
       <c r="R15" s="1">
         <v>0</v>
       </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U15" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="6"/>
       <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2"/>
-      <c r="X15" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1"/>
       <c r="Y15" s="1">
         <v>0</v>
       </c>
@@ -1602,13 +1569,15 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB15">
         <v>0.0</v>
       </c>
-      <c r="AC15" s="2"/>
-      <c r="AD15"/>
+      <c r="AC15">
+        <v>0.0</v>
+      </c>
+      <c r="AE15"/>
     </row>
     <row r="16" spans="1:31">
       <c r="A16">
@@ -1653,20 +1622,18 @@
       <c r="R16" s="1">
         <v>0</v>
       </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U16" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="6"/>
       <c r="V16" s="1">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2"/>
-      <c r="X16" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1"/>
       <c r="Y16" s="1">
         <v>0</v>
       </c>
@@ -1674,13 +1641,15 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB16">
         <v>0.0</v>
       </c>
-      <c r="AC16" s="2"/>
-      <c r="AD16"/>
+      <c r="AC16">
+        <v>0.0</v>
+      </c>
+      <c r="AE16"/>
     </row>
     <row r="17" spans="1:31">
       <c r="A17">
@@ -1725,20 +1694,18 @@
       <c r="R17" s="1">
         <v>0</v>
       </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U17" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="6"/>
       <c r="V17" s="1">
-        <v>0</v>
-      </c>
-      <c r="W17" s="2"/>
-      <c r="X17" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1"/>
       <c r="Y17" s="1">
         <v>0</v>
       </c>
@@ -1746,13 +1713,15 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB17">
         <v>0.0</v>
       </c>
-      <c r="AC17" s="2"/>
-      <c r="AD17"/>
+      <c r="AC17">
+        <v>0.0</v>
+      </c>
+      <c r="AE17"/>
     </row>
     <row r="18" spans="1:31">
       <c r="A18">
@@ -1797,20 +1766,18 @@
       <c r="R18" s="1">
         <v>0</v>
       </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U18" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="6"/>
       <c r="V18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" s="2"/>
-      <c r="X18" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1"/>
       <c r="Y18" s="1">
         <v>0</v>
       </c>
@@ -1818,13 +1785,15 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB18">
         <v>0.0</v>
       </c>
-      <c r="AC18" s="2"/>
-      <c r="AD18"/>
+      <c r="AC18">
+        <v>0.0</v>
+      </c>
+      <c r="AE18"/>
     </row>
     <row r="19" spans="1:31">
       <c r="A19">
@@ -1869,20 +1838,18 @@
       <c r="R19" s="1">
         <v>0</v>
       </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U19" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="6"/>
       <c r="V19" s="1">
-        <v>0</v>
-      </c>
-      <c r="W19" s="2"/>
-      <c r="X19" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1"/>
       <c r="Y19" s="1">
         <v>0</v>
       </c>
@@ -1890,13 +1857,15 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB19">
         <v>0.0</v>
       </c>
-      <c r="AC19" s="2"/>
-      <c r="AD19"/>
+      <c r="AC19">
+        <v>0.0</v>
+      </c>
+      <c r="AE19"/>
     </row>
     <row r="20" spans="1:31">
       <c r="A20">
@@ -1941,20 +1910,18 @@
       <c r="R20" s="1">
         <v>0</v>
       </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U20" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="6"/>
       <c r="V20" s="1">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2"/>
-      <c r="X20" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1"/>
       <c r="Y20" s="1">
         <v>0</v>
       </c>
@@ -1962,13 +1929,15 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB20">
         <v>0.0</v>
       </c>
-      <c r="AC20" s="2"/>
-      <c r="AD20"/>
+      <c r="AC20">
+        <v>0.0</v>
+      </c>
+      <c r="AE20"/>
     </row>
     <row r="21" spans="1:31">
       <c r="A21">
@@ -2013,20 +1982,18 @@
       <c r="R21" s="1">
         <v>0</v>
       </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U21" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="6"/>
       <c r="V21" s="1">
-        <v>0</v>
-      </c>
-      <c r="W21" s="2"/>
-      <c r="X21" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1"/>
       <c r="Y21" s="1">
         <v>0</v>
       </c>
@@ -2034,13 +2001,15 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB21">
         <v>0.0</v>
       </c>
-      <c r="AC21" s="2"/>
-      <c r="AD21"/>
+      <c r="AC21">
+        <v>0.0</v>
+      </c>
+      <c r="AE21"/>
     </row>
     <row r="22" spans="1:31">
       <c r="A22">
@@ -2085,20 +2054,18 @@
       <c r="R22" s="1">
         <v>0</v>
       </c>
-      <c r="S22" s="2"/>
-      <c r="T22" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U22" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="6"/>
       <c r="V22" s="1">
-        <v>0</v>
-      </c>
-      <c r="W22" s="2"/>
-      <c r="X22" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1"/>
       <c r="Y22" s="1">
         <v>0</v>
       </c>
@@ -2106,13 +2073,15 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB22">
         <v>0.0</v>
       </c>
-      <c r="AC22" s="2"/>
-      <c r="AD22"/>
+      <c r="AC22">
+        <v>0.0</v>
+      </c>
+      <c r="AE22"/>
     </row>
     <row r="23" spans="1:31">
       <c r="A23">
@@ -2157,20 +2126,18 @@
       <c r="R23" s="1">
         <v>0</v>
       </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U23" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="6"/>
       <c r="V23" s="1">
-        <v>0</v>
-      </c>
-      <c r="W23" s="2"/>
-      <c r="X23" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1"/>
       <c r="Y23" s="1">
         <v>0</v>
       </c>
@@ -2178,13 +2145,15 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB23">
         <v>0.0</v>
       </c>
-      <c r="AC23" s="2"/>
-      <c r="AD23"/>
+      <c r="AC23">
+        <v>0.0</v>
+      </c>
+      <c r="AE23"/>
     </row>
     <row r="24" spans="1:31">
       <c r="A24">
@@ -2229,20 +2198,18 @@
       <c r="R24" s="1">
         <v>0</v>
       </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U24" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="6"/>
       <c r="V24" s="1">
-        <v>0</v>
-      </c>
-      <c r="W24" s="2"/>
-      <c r="X24" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1"/>
       <c r="Y24" s="1">
         <v>0</v>
       </c>
@@ -2250,13 +2217,15 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB24">
         <v>0.0</v>
       </c>
-      <c r="AC24" s="2"/>
-      <c r="AD24"/>
+      <c r="AC24">
+        <v>0.0</v>
+      </c>
+      <c r="AE24"/>
     </row>
     <row r="25" spans="1:31">
       <c r="A25">
@@ -2301,20 +2270,18 @@
       <c r="R25" s="1">
         <v>0</v>
       </c>
-      <c r="S25" s="2"/>
-      <c r="T25" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U25" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="6"/>
       <c r="V25" s="1">
-        <v>0</v>
-      </c>
-      <c r="W25" s="2"/>
-      <c r="X25" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1"/>
       <c r="Y25" s="1">
         <v>0</v>
       </c>
@@ -2322,13 +2289,15 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB25">
         <v>0.0</v>
       </c>
-      <c r="AC25" s="2"/>
-      <c r="AD25"/>
+      <c r="AC25">
+        <v>0.0</v>
+      </c>
+      <c r="AE25"/>
     </row>
     <row r="26" spans="1:31">
       <c r="A26">
@@ -2373,20 +2342,18 @@
       <c r="R26" s="1">
         <v>0</v>
       </c>
-      <c r="S26" s="2"/>
-      <c r="T26" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U26" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="6"/>
       <c r="V26" s="1">
-        <v>0</v>
-      </c>
-      <c r="W26" s="2"/>
-      <c r="X26" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1"/>
       <c r="Y26" s="1">
         <v>0</v>
       </c>
@@ -2394,13 +2361,15 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB26">
         <v>0.0</v>
       </c>
-      <c r="AC26" s="2"/>
-      <c r="AD26"/>
+      <c r="AC26">
+        <v>0.0</v>
+      </c>
+      <c r="AE26"/>
     </row>
     <row r="27" spans="1:31">
       <c r="A27">
@@ -2445,20 +2414,18 @@
       <c r="R27" s="1">
         <v>0</v>
       </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U27" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="6"/>
       <c r="V27" s="1">
-        <v>0</v>
-      </c>
-      <c r="W27" s="2"/>
-      <c r="X27" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1"/>
       <c r="Y27" s="1">
         <v>0</v>
       </c>
@@ -2466,13 +2433,15 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB27">
         <v>0.0</v>
       </c>
-      <c r="AC27" s="2"/>
-      <c r="AD27"/>
+      <c r="AC27">
+        <v>0.0</v>
+      </c>
+      <c r="AE27"/>
     </row>
     <row r="28" spans="1:31">
       <c r="A28">
@@ -2517,20 +2486,18 @@
       <c r="R28" s="1">
         <v>0</v>
       </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U28" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="6"/>
       <c r="V28" s="1">
-        <v>0</v>
-      </c>
-      <c r="W28" s="2"/>
-      <c r="X28" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1"/>
       <c r="Y28" s="1">
         <v>0</v>
       </c>
@@ -2538,13 +2505,15 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB28">
         <v>0.0</v>
       </c>
-      <c r="AC28" s="2"/>
-      <c r="AD28"/>
+      <c r="AC28">
+        <v>0.0</v>
+      </c>
+      <c r="AE28"/>
     </row>
     <row r="29" spans="1:31">
       <c r="A29">
@@ -2589,20 +2558,18 @@
       <c r="R29" s="1">
         <v>0</v>
       </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U29" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="6"/>
       <c r="V29" s="1">
-        <v>0</v>
-      </c>
-      <c r="W29" s="2"/>
-      <c r="X29" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1"/>
       <c r="Y29" s="1">
         <v>0</v>
       </c>
@@ -2610,13 +2577,15 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB29">
         <v>0.0</v>
       </c>
-      <c r="AC29" s="2"/>
-      <c r="AD29"/>
+      <c r="AC29">
+        <v>0.0</v>
+      </c>
+      <c r="AE29"/>
     </row>
     <row r="30" spans="1:31">
       <c r="A30">
@@ -2661,20 +2630,18 @@
       <c r="R30" s="1">
         <v>0</v>
       </c>
-      <c r="S30" s="2"/>
-      <c r="T30" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U30" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="6"/>
       <c r="V30" s="1">
-        <v>0</v>
-      </c>
-      <c r="W30" s="2"/>
-      <c r="X30" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1"/>
       <c r="Y30" s="1">
         <v>0</v>
       </c>
@@ -2682,13 +2649,15 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB30">
         <v>0.0</v>
       </c>
-      <c r="AC30" s="2"/>
-      <c r="AD30"/>
+      <c r="AC30">
+        <v>0.0</v>
+      </c>
+      <c r="AE30"/>
     </row>
     <row r="31" spans="1:31">
       <c r="A31">
@@ -2733,20 +2702,18 @@
       <c r="R31" s="1">
         <v>0</v>
       </c>
-      <c r="S31" s="2"/>
-      <c r="T31" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U31" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="6"/>
       <c r="V31" s="1">
-        <v>0</v>
-      </c>
-      <c r="W31" s="2"/>
-      <c r="X31" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1"/>
       <c r="Y31" s="1">
         <v>0</v>
       </c>
@@ -2754,13 +2721,15 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB31">
         <v>0.0</v>
       </c>
-      <c r="AC31" s="2"/>
-      <c r="AD31"/>
+      <c r="AC31">
+        <v>0.0</v>
+      </c>
+      <c r="AE31"/>
     </row>
     <row r="32" spans="1:31">
       <c r="A32">
@@ -2805,20 +2774,18 @@
       <c r="R32" s="1">
         <v>0</v>
       </c>
-      <c r="S32" s="2"/>
-      <c r="T32" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U32" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1"/>
+      <c r="U32" s="6"/>
       <c r="V32" s="1">
-        <v>0</v>
-      </c>
-      <c r="W32" s="2"/>
-      <c r="X32" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1"/>
       <c r="Y32" s="1">
         <v>0</v>
       </c>
@@ -2826,13 +2793,15 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB32">
         <v>0.0</v>
       </c>
-      <c r="AC32" s="2"/>
-      <c r="AD32"/>
+      <c r="AC32">
+        <v>0.0</v>
+      </c>
+      <c r="AE32"/>
     </row>
     <row r="33" spans="1:31">
       <c r="A33">
@@ -2877,20 +2846,18 @@
       <c r="R33" s="1">
         <v>0</v>
       </c>
-      <c r="S33" s="2"/>
-      <c r="T33" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U33" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1"/>
+      <c r="U33" s="6"/>
       <c r="V33" s="1">
-        <v>0</v>
-      </c>
-      <c r="W33" s="2"/>
-      <c r="X33" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1"/>
       <c r="Y33" s="1">
         <v>0</v>
       </c>
@@ -2898,13 +2865,15 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB33">
         <v>0.0</v>
       </c>
-      <c r="AC33" s="2"/>
-      <c r="AD33"/>
+      <c r="AC33">
+        <v>0.0</v>
+      </c>
+      <c r="AE33"/>
     </row>
     <row r="34" spans="1:31">
       <c r="A34">
@@ -2949,20 +2918,18 @@
       <c r="R34" s="1">
         <v>0</v>
       </c>
-      <c r="S34" s="2"/>
-      <c r="T34" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U34" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1"/>
+      <c r="U34" s="6"/>
       <c r="V34" s="1">
-        <v>0</v>
-      </c>
-      <c r="W34" s="2"/>
-      <c r="X34" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1"/>
       <c r="Y34" s="1">
         <v>0</v>
       </c>
@@ -2970,13 +2937,15 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB34">
         <v>0.0</v>
       </c>
-      <c r="AC34" s="2"/>
-      <c r="AD34"/>
+      <c r="AC34">
+        <v>0.0</v>
+      </c>
+      <c r="AE34"/>
     </row>
     <row r="35" spans="1:31">
       <c r="A35">
@@ -3021,20 +2990,18 @@
       <c r="R35" s="1">
         <v>0</v>
       </c>
-      <c r="S35" s="2"/>
-      <c r="T35" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U35" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1"/>
+      <c r="U35" s="6"/>
       <c r="V35" s="1">
-        <v>0</v>
-      </c>
-      <c r="W35" s="2"/>
-      <c r="X35" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1"/>
       <c r="Y35" s="1">
         <v>0</v>
       </c>
@@ -3042,13 +3009,15 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB35">
         <v>0.0</v>
       </c>
-      <c r="AC35" s="2"/>
-      <c r="AD35"/>
+      <c r="AC35">
+        <v>0.0</v>
+      </c>
+      <c r="AE35"/>
     </row>
     <row r="36" spans="1:31">
       <c r="A36">
@@ -3093,20 +3062,18 @@
       <c r="R36" s="1">
         <v>0</v>
       </c>
-      <c r="S36" s="2"/>
-      <c r="T36" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U36" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="6"/>
       <c r="V36" s="1">
-        <v>0</v>
-      </c>
-      <c r="W36" s="2"/>
-      <c r="X36" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1"/>
       <c r="Y36" s="1">
         <v>0</v>
       </c>
@@ -3114,13 +3081,15 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB36">
         <v>0.0</v>
       </c>
-      <c r="AC36" s="2"/>
-      <c r="AD36"/>
+      <c r="AC36">
+        <v>0.0</v>
+      </c>
+      <c r="AE36"/>
     </row>
     <row r="37" spans="1:31">
       <c r="A37">
@@ -3165,20 +3134,18 @@
       <c r="R37" s="1">
         <v>0</v>
       </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U37" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1"/>
+      <c r="U37" s="6"/>
       <c r="V37" s="1">
-        <v>0</v>
-      </c>
-      <c r="W37" s="2"/>
-      <c r="X37" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1"/>
       <c r="Y37" s="1">
         <v>0</v>
       </c>
@@ -3186,13 +3153,15 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB37">
         <v>0.0</v>
       </c>
-      <c r="AC37" s="2"/>
-      <c r="AD37"/>
+      <c r="AC37">
+        <v>0.0</v>
+      </c>
+      <c r="AE37"/>
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="7">
@@ -3237,22 +3206,18 @@
       <c r="R38" s="8">
         <v>100000</v>
       </c>
-      <c r="S38" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="T38" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="U38" s="8">
+      <c r="S38" s="8">
+        <v>100000</v>
+      </c>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8">
         <v>-49000.0</v>
       </c>
-      <c r="V38" s="8">
+      <c r="W38" s="8">
         <v>100000</v>
       </c>
-      <c r="W38" s="9"/>
-      <c r="X38" s="8">
-        <v>0</v>
-      </c>
+      <c r="X38" s="8"/>
       <c r="Y38" s="8">
         <v>0</v>
       </c>
@@ -3260,13 +3225,16 @@
         <v>0</v>
       </c>
       <c r="AA38" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="AC38" s="7">
         <v>-48000.0</v>
       </c>
-      <c r="AC38" s="9"/>
       <c r="AD38" s="7"/>
+      <c r="AE38"/>
     </row>
     <row r="39" spans="1:31">
       <c r="A39">
@@ -3309,24 +3277,20 @@
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S39" s="1">
         <v>90000</v>
       </c>
-      <c r="S39" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U39" s="6">
+      <c r="T39" s="1"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="1">
         <v>-53700.0</v>
       </c>
-      <c r="V39" s="1">
+      <c r="W39" s="1">
         <v>90000</v>
       </c>
-      <c r="W39" s="2"/>
-      <c r="X39" s="1">
-        <v>0</v>
-      </c>
+      <c r="X39" s="1"/>
       <c r="Y39" s="1">
         <v>0</v>
       </c>
@@ -3334,13 +3298,15 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB39">
+        <v>0.0</v>
+      </c>
+      <c r="AC39">
         <v>-52800.0</v>
       </c>
-      <c r="AC39" s="2"/>
-      <c r="AD39"/>
+      <c r="AE39"/>
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="10">
@@ -3383,24 +3349,20 @@
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
+        <v>100000</v>
+      </c>
+      <c r="S40" s="11">
         <v>81000</v>
       </c>
-      <c r="S40" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="T40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="U40" s="11">
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11">
         <v>-58890.0</v>
       </c>
-      <c r="V40" s="11">
+      <c r="W40" s="11">
         <v>81000</v>
       </c>
-      <c r="W40" s="12"/>
-      <c r="X40" s="11">
-        <v>0</v>
-      </c>
+      <c r="X40" s="11"/>
       <c r="Y40" s="11">
         <v>0</v>
       </c>
@@ -3408,13 +3370,16 @@
         <v>0</v>
       </c>
       <c r="AA40" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AC40" s="10">
         <v>-58080.0</v>
       </c>
-      <c r="AC40" s="12"/>
       <c r="AD40" s="10"/>
+      <c r="AE40"/>
     </row>
     <row r="41" spans="1:31">
       <c r="A41">
@@ -3457,24 +3422,20 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S41" s="1">
         <v>72900</v>
       </c>
-      <c r="S41" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U41" s="6">
+      <c r="T41" s="1"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="1">
         <v>-64617.0</v>
       </c>
-      <c r="V41" s="1">
+      <c r="W41" s="1">
         <v>72900</v>
       </c>
-      <c r="W41" s="2"/>
-      <c r="X41" s="1">
-        <v>0</v>
-      </c>
+      <c r="X41" s="1"/>
       <c r="Y41" s="1">
         <v>0</v>
       </c>
@@ -3482,13 +3443,15 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB41">
+        <v>0.0</v>
+      </c>
+      <c r="AC41">
         <v>-63888.0</v>
       </c>
-      <c r="AC41" s="2"/>
-      <c r="AD41"/>
+      <c r="AE41"/>
     </row>
     <row r="42" spans="1:31">
       <c r="A42">
@@ -3531,24 +3494,20 @@
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S42" s="1">
         <v>65610</v>
       </c>
-      <c r="S42" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U42" s="6">
+      <c r="T42" s="1"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="1">
         <v>-70932.1</v>
       </c>
-      <c r="V42" s="1">
+      <c r="W42" s="1">
         <v>65610</v>
       </c>
-      <c r="W42" s="2"/>
-      <c r="X42" s="1">
-        <v>0</v>
-      </c>
+      <c r="X42" s="1"/>
       <c r="Y42" s="1">
         <v>0</v>
       </c>
@@ -3556,13 +3515,15 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB42">
+        <v>0.0</v>
+      </c>
+      <c r="AC42">
         <v>-70277.0</v>
       </c>
-      <c r="AC42" s="2"/>
-      <c r="AD42"/>
+      <c r="AE42"/>
     </row>
     <row r="43" spans="1:31">
       <c r="A43">
@@ -3605,24 +3566,20 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S43" s="1">
         <v>59049</v>
       </c>
-      <c r="S43" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U43" s="6">
+      <c r="T43" s="1"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="1">
         <v>-77894.49</v>
       </c>
-      <c r="V43" s="1">
+      <c r="W43" s="1">
         <v>59049</v>
       </c>
-      <c r="W43" s="2"/>
-      <c r="X43" s="1">
-        <v>0</v>
-      </c>
+      <c r="X43" s="1"/>
       <c r="Y43" s="1">
         <v>0</v>
       </c>
@@ -3630,13 +3587,15 @@
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB43">
+        <v>0.0</v>
+      </c>
+      <c r="AC43">
         <v>-77304.0</v>
       </c>
-      <c r="AC43" s="2"/>
-      <c r="AD43"/>
+      <c r="AE43"/>
     </row>
     <row r="44" spans="1:31">
       <c r="A44">
@@ -3679,24 +3638,20 @@
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S44" s="1">
         <v>53144</v>
       </c>
-      <c r="S44" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U44" s="6">
+      <c r="T44" s="1"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="1">
         <v>-85565.44</v>
       </c>
-      <c r="V44" s="1">
+      <c r="W44" s="1">
         <v>53144</v>
       </c>
-      <c r="W44" s="2"/>
-      <c r="X44" s="1">
-        <v>0</v>
-      </c>
+      <c r="X44" s="1"/>
       <c r="Y44" s="1">
         <v>0</v>
       </c>
@@ -3704,13 +3659,15 @@
         <v>0</v>
       </c>
       <c r="AA44">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB44">
+        <v>0.0</v>
+      </c>
+      <c r="AC44">
         <v>-85035.0</v>
       </c>
-      <c r="AC44" s="2"/>
-      <c r="AD44"/>
+      <c r="AE44"/>
     </row>
     <row r="45" spans="1:31">
       <c r="A45">
@@ -3753,24 +3710,20 @@
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S45" s="1">
         <v>47830</v>
       </c>
-      <c r="S45" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U45" s="6">
+      <c r="T45" s="1"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="1">
         <v>-94016.3</v>
       </c>
-      <c r="V45" s="1">
+      <c r="W45" s="1">
         <v>47830</v>
       </c>
-      <c r="W45" s="2"/>
-      <c r="X45" s="1">
-        <v>0</v>
-      </c>
+      <c r="X45" s="1"/>
       <c r="Y45" s="1">
         <v>0</v>
       </c>
@@ -3778,13 +3731,15 @@
         <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB45">
+        <v>0.0</v>
+      </c>
+      <c r="AC45">
         <v>-93538.0</v>
       </c>
-      <c r="AC45" s="2"/>
-      <c r="AD45"/>
+      <c r="AE45"/>
     </row>
     <row r="46" spans="1:31">
       <c r="A46">
@@ -3827,24 +3782,20 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S46" s="1">
         <v>43047</v>
       </c>
-      <c r="S46" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U46" s="6">
+      <c r="T46" s="1"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="1">
         <v>-103322.47</v>
       </c>
-      <c r="V46" s="1">
+      <c r="W46" s="1">
         <v>43047</v>
       </c>
-      <c r="W46" s="2"/>
-      <c r="X46" s="1">
-        <v>0</v>
-      </c>
+      <c r="X46" s="1"/>
       <c r="Y46" s="1">
         <v>0</v>
       </c>
@@ -3852,13 +3803,15 @@
         <v>0</v>
       </c>
       <c r="AA46">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB46">
+        <v>0.0</v>
+      </c>
+      <c r="AC46">
         <v>-102892.0</v>
       </c>
-      <c r="AC46" s="2"/>
-      <c r="AD46"/>
+      <c r="AE46"/>
     </row>
     <row r="47" spans="1:31">
       <c r="A47">
@@ -3901,24 +3854,20 @@
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S47" s="1">
         <v>38742</v>
       </c>
-      <c r="S47" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U47" s="6">
+      <c r="T47" s="1"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="1">
         <v>-113568.42</v>
       </c>
-      <c r="V47" s="1">
+      <c r="W47" s="1">
         <v>38742</v>
       </c>
-      <c r="W47" s="2"/>
-      <c r="X47" s="1">
-        <v>0</v>
-      </c>
+      <c r="X47" s="1"/>
       <c r="Y47" s="1">
         <v>0</v>
       </c>
@@ -3926,13 +3875,15 @@
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB47">
+        <v>0.0</v>
+      </c>
+      <c r="AC47">
         <v>-113181.0</v>
       </c>
-      <c r="AC47" s="2"/>
-      <c r="AD47"/>
+      <c r="AE47"/>
     </row>
     <row r="48" spans="1:31">
       <c r="A48">
@@ -3975,24 +3926,20 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S48" s="1">
         <v>34868</v>
       </c>
-      <c r="S48" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U48" s="6">
+      <c r="T48" s="1"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="1">
         <v>-124847.68</v>
       </c>
-      <c r="V48" s="1">
+      <c r="W48" s="1">
         <v>34868</v>
       </c>
-      <c r="W48" s="2"/>
-      <c r="X48" s="1">
-        <v>0</v>
-      </c>
+      <c r="X48" s="1"/>
       <c r="Y48" s="1">
         <v>0</v>
       </c>
@@ -4000,13 +3947,15 @@
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB48">
+        <v>0.0</v>
+      </c>
+      <c r="AC48">
         <v>-124500.0</v>
       </c>
-      <c r="AC48" s="2"/>
-      <c r="AD48"/>
+      <c r="AE48"/>
     </row>
     <row r="49" spans="1:31">
       <c r="A49">
@@ -4049,24 +3998,20 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S49" s="1">
         <v>31381</v>
       </c>
-      <c r="S49" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U49" s="6">
+      <c r="T49" s="1"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="1">
         <v>-137262.81</v>
       </c>
-      <c r="V49" s="1">
+      <c r="W49" s="1">
         <v>31381</v>
       </c>
-      <c r="W49" s="2"/>
-      <c r="X49" s="1">
-        <v>0</v>
-      </c>
+      <c r="X49" s="1"/>
       <c r="Y49" s="1">
         <v>0</v>
       </c>
@@ -4074,13 +4019,15 @@
         <v>0</v>
       </c>
       <c r="AA49">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB49">
+        <v>0.0</v>
+      </c>
+      <c r="AC49">
         <v>-136950.0</v>
       </c>
-      <c r="AC49" s="2"/>
-      <c r="AD49"/>
+      <c r="AE49"/>
     </row>
     <row r="50" spans="1:31">
       <c r="A50">
@@ -4123,24 +4070,20 @@
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S50" s="1">
         <v>28243</v>
       </c>
-      <c r="S50" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U50" s="6">
+      <c r="T50" s="1"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="1">
         <v>-150926.43</v>
       </c>
-      <c r="V50" s="1">
+      <c r="W50" s="1">
         <v>28243</v>
       </c>
-      <c r="W50" s="2"/>
-      <c r="X50" s="1">
-        <v>0</v>
-      </c>
+      <c r="X50" s="1"/>
       <c r="Y50" s="1">
         <v>0</v>
       </c>
@@ -4148,13 +4091,15 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB50">
+        <v>0.0</v>
+      </c>
+      <c r="AC50">
         <v>-150645.0</v>
       </c>
-      <c r="AC50" s="2"/>
-      <c r="AD50"/>
+      <c r="AE50"/>
     </row>
     <row r="51" spans="1:31">
       <c r="A51">
@@ -4197,24 +4142,20 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S51" s="1">
         <v>25419</v>
       </c>
-      <c r="S51" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U51" s="6">
+      <c r="T51" s="1"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="1">
         <v>-165963.19</v>
       </c>
-      <c r="V51" s="1">
+      <c r="W51" s="1">
         <v>25419</v>
       </c>
-      <c r="W51" s="2"/>
-      <c r="X51" s="1">
-        <v>0</v>
-      </c>
+      <c r="X51" s="1"/>
       <c r="Y51" s="1">
         <v>0</v>
       </c>
@@ -4222,13 +4163,15 @@
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB51">
+        <v>0.0</v>
+      </c>
+      <c r="AC51">
         <v>-165709.0</v>
       </c>
-      <c r="AC51" s="2"/>
-      <c r="AD51"/>
+      <c r="AE51"/>
     </row>
     <row r="52" spans="1:31">
       <c r="A52">
@@ -4271,24 +4214,20 @@
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S52" s="1">
         <v>22877</v>
       </c>
-      <c r="S52" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U52" s="6">
+      <c r="T52" s="1"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="1">
         <v>-182507.77</v>
       </c>
-      <c r="V52" s="1">
+      <c r="W52" s="1">
         <v>22877</v>
       </c>
-      <c r="W52" s="2"/>
-      <c r="X52" s="1">
-        <v>0</v>
-      </c>
+      <c r="X52" s="1"/>
       <c r="Y52" s="1">
         <v>0</v>
       </c>
@@ -4296,13 +4235,15 @@
         <v>0</v>
       </c>
       <c r="AA52">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB52">
+        <v>0.0</v>
+      </c>
+      <c r="AC52">
         <v>-182280.0</v>
       </c>
-      <c r="AC52" s="2"/>
-      <c r="AD52"/>
+      <c r="AE52"/>
     </row>
     <row r="53" spans="1:31">
       <c r="A53" s="3">
@@ -4345,24 +4286,20 @@
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
+        <v>100000</v>
+      </c>
+      <c r="S53" s="13">
         <v>20589</v>
       </c>
-      <c r="S53" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="T53" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="U53" s="13">
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13">
         <v>-200712.89</v>
       </c>
-      <c r="V53" s="13">
+      <c r="W53" s="13">
         <v>20589</v>
       </c>
-      <c r="W53" s="14"/>
-      <c r="X53" s="13">
-        <v>0</v>
-      </c>
+      <c r="X53" s="13"/>
       <c r="Y53" s="13">
         <v>0</v>
       </c>
@@ -4370,13 +4307,16 @@
         <v>0</v>
       </c>
       <c r="AA53" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC53" s="3">
         <v>-200508.0</v>
       </c>
-      <c r="AC53" s="14"/>
       <c r="AD53" s="3"/>
+      <c r="AE53"/>
     </row>
     <row r="54" spans="1:31">
       <c r="A54">
@@ -4419,24 +4359,20 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S54" s="1">
         <v>18530</v>
       </c>
-      <c r="S54" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T54" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U54" s="6">
+      <c r="T54" s="1"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="1">
         <v>-220743.3</v>
       </c>
-      <c r="V54" s="1">
+      <c r="W54" s="1">
         <v>18530</v>
       </c>
-      <c r="W54" s="2"/>
-      <c r="X54" s="1">
-        <v>0</v>
-      </c>
+      <c r="X54" s="1"/>
       <c r="Y54" s="1">
         <v>0</v>
       </c>
@@ -4444,13 +4380,15 @@
         <v>0</v>
       </c>
       <c r="AA54">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB54">
+        <v>0.0</v>
+      </c>
+      <c r="AC54">
         <v>-220559.0</v>
       </c>
-      <c r="AC54" s="2"/>
-      <c r="AD54"/>
+      <c r="AE54"/>
     </row>
     <row r="55" spans="1:31">
       <c r="A55">
@@ -4493,24 +4431,20 @@
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S55" s="1">
         <v>16677</v>
       </c>
-      <c r="S55" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T55" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U55" s="6">
+      <c r="T55" s="1"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="1">
         <v>-242780.77</v>
       </c>
-      <c r="V55" s="1">
+      <c r="W55" s="1">
         <v>16677</v>
       </c>
-      <c r="W55" s="2"/>
-      <c r="X55" s="1">
-        <v>0</v>
-      </c>
+      <c r="X55" s="1"/>
       <c r="Y55" s="1">
         <v>0</v>
       </c>
@@ -4518,13 +4452,15 @@
         <v>0</v>
       </c>
       <c r="AA55">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB55">
+        <v>0.0</v>
+      </c>
+      <c r="AC55">
         <v>-242615.0</v>
       </c>
-      <c r="AC55" s="2"/>
-      <c r="AD55"/>
+      <c r="AE55"/>
     </row>
     <row r="56" spans="1:31">
       <c r="A56">
@@ -4567,24 +4503,20 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S56" s="1">
         <v>15009</v>
       </c>
-      <c r="S56" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U56" s="6">
+      <c r="T56" s="1"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="1">
         <v>-267026.09</v>
       </c>
-      <c r="V56" s="1">
+      <c r="W56" s="1">
         <v>15009</v>
       </c>
-      <c r="W56" s="2"/>
-      <c r="X56" s="1">
-        <v>0</v>
-      </c>
+      <c r="X56" s="1"/>
       <c r="Y56" s="1">
         <v>0</v>
       </c>
@@ -4592,13 +4524,15 @@
         <v>0</v>
       </c>
       <c r="AA56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB56">
+        <v>0.0</v>
+      </c>
+      <c r="AC56">
         <v>-266876.0</v>
       </c>
-      <c r="AC56" s="2"/>
-      <c r="AD56"/>
+      <c r="AE56"/>
     </row>
     <row r="57" spans="1:31">
       <c r="A57" s="3">
@@ -4641,24 +4575,20 @@
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
+        <v>100000</v>
+      </c>
+      <c r="S57" s="13">
         <v>13508</v>
       </c>
-      <c r="S57" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="T57" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="U57" s="13">
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13">
         <v>-293698.08</v>
       </c>
-      <c r="V57" s="13">
+      <c r="W57" s="13">
         <v>13508</v>
       </c>
-      <c r="W57" s="14"/>
-      <c r="X57" s="13">
-        <v>0</v>
-      </c>
+      <c r="X57" s="13"/>
       <c r="Y57" s="13">
         <v>0</v>
       </c>
@@ -4666,13 +4596,16 @@
         <v>0</v>
       </c>
       <c r="AA57" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC57" s="3">
         <v>-293564.0</v>
       </c>
-      <c r="AC57" s="14"/>
       <c r="AD57" s="3"/>
+      <c r="AE57"/>
     </row>
     <row r="58" spans="1:31">
       <c r="A58">
@@ -4715,24 +4648,20 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S58" s="1">
         <v>12157</v>
       </c>
-      <c r="S58" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T58" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U58" s="6">
+      <c r="T58" s="1"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="1">
         <v>-323040.57</v>
       </c>
-      <c r="V58" s="1">
+      <c r="W58" s="1">
         <v>12157</v>
       </c>
-      <c r="W58" s="2"/>
-      <c r="X58" s="1">
-        <v>0</v>
-      </c>
+      <c r="X58" s="1"/>
       <c r="Y58" s="1">
         <v>0</v>
       </c>
@@ -4740,13 +4669,15 @@
         <v>0</v>
       </c>
       <c r="AA58">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB58">
+        <v>0.0</v>
+      </c>
+      <c r="AC58">
         <v>-322920.0</v>
       </c>
-      <c r="AC58" s="2"/>
-      <c r="AD58"/>
+      <c r="AE58"/>
     </row>
     <row r="59" spans="1:31">
       <c r="A59">
@@ -4789,24 +4720,20 @@
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S59" s="1">
         <v>10941</v>
       </c>
-      <c r="S59" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T59" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U59" s="6">
+      <c r="T59" s="1"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="1">
         <v>-355320.41</v>
       </c>
-      <c r="V59" s="1">
+      <c r="W59" s="1">
         <v>10941</v>
       </c>
-      <c r="W59" s="2"/>
-      <c r="X59" s="1">
-        <v>0</v>
-      </c>
+      <c r="X59" s="1"/>
       <c r="Y59" s="1">
         <v>0</v>
       </c>
@@ -4814,13 +4741,15 @@
         <v>0</v>
       </c>
       <c r="AA59">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB59">
+        <v>0.0</v>
+      </c>
+      <c r="AC59">
         <v>-355212.0</v>
       </c>
-      <c r="AC59" s="2"/>
-      <c r="AD59"/>
+      <c r="AE59"/>
     </row>
     <row r="60" spans="1:31">
       <c r="A60">
@@ -4863,24 +4792,20 @@
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S60" s="1">
         <v>9847</v>
       </c>
-      <c r="S60" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T60" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U60" s="6">
+      <c r="T60" s="1"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="1">
         <v>-390831.47</v>
       </c>
-      <c r="V60" s="1">
+      <c r="W60" s="1">
         <v>9847</v>
       </c>
-      <c r="W60" s="2"/>
-      <c r="X60" s="1">
-        <v>0</v>
-      </c>
+      <c r="X60" s="1"/>
       <c r="Y60" s="1">
         <v>0</v>
       </c>
@@ -4888,13 +4813,15 @@
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB60">
+        <v>0.0</v>
+      </c>
+      <c r="AC60">
         <v>-390733.0</v>
       </c>
-      <c r="AC60" s="2"/>
-      <c r="AD60"/>
+      <c r="AE60"/>
     </row>
     <row r="61" spans="1:31">
       <c r="A61">
@@ -4937,24 +4864,20 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S61" s="1">
         <v>8862</v>
       </c>
-      <c r="S61" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T61" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U61" s="6">
+      <c r="T61" s="1"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="1">
         <v>-429894.62</v>
       </c>
-      <c r="V61" s="1">
+      <c r="W61" s="1">
         <v>8862</v>
       </c>
-      <c r="W61" s="2"/>
-      <c r="X61" s="1">
-        <v>0</v>
-      </c>
+      <c r="X61" s="1"/>
       <c r="Y61" s="1">
         <v>0</v>
       </c>
@@ -4962,13 +4885,15 @@
         <v>0</v>
       </c>
       <c r="AA61">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB61">
+        <v>0.0</v>
+      </c>
+      <c r="AC61">
         <v>-429807.0</v>
       </c>
-      <c r="AC61" s="2"/>
-      <c r="AD61"/>
+      <c r="AE61"/>
     </row>
     <row r="62" spans="1:31">
       <c r="A62">
@@ -5011,24 +4936,20 @@
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S62" s="1">
         <v>7976</v>
       </c>
-      <c r="S62" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T62" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U62" s="6">
+      <c r="T62" s="1"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="1">
         <v>-472866.76</v>
       </c>
-      <c r="V62" s="1">
+      <c r="W62" s="1">
         <v>7976</v>
       </c>
-      <c r="W62" s="2"/>
-      <c r="X62" s="1">
-        <v>0</v>
-      </c>
+      <c r="X62" s="1"/>
       <c r="Y62" s="1">
         <v>0</v>
       </c>
@@ -5036,13 +4957,15 @@
         <v>0</v>
       </c>
       <c r="AA62">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB62">
+        <v>0.0</v>
+      </c>
+      <c r="AC62">
         <v>-472787.0</v>
       </c>
-      <c r="AC62" s="2"/>
-      <c r="AD62"/>
+      <c r="AE62"/>
     </row>
     <row r="63" spans="1:31">
       <c r="A63">
@@ -5085,24 +5008,20 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S63" s="1">
         <v>7178</v>
       </c>
-      <c r="S63" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T63" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U63" s="6">
+      <c r="T63" s="1"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="1">
         <v>-520136.78</v>
       </c>
-      <c r="V63" s="1">
+      <c r="W63" s="1">
         <v>7178</v>
       </c>
-      <c r="W63" s="2"/>
-      <c r="X63" s="1">
-        <v>0</v>
-      </c>
+      <c r="X63" s="1"/>
       <c r="Y63" s="1">
         <v>0</v>
       </c>
@@ -5110,13 +5029,15 @@
         <v>0</v>
       </c>
       <c r="AA63">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB63">
+        <v>0.0</v>
+      </c>
+      <c r="AC63">
         <v>-520066.0</v>
       </c>
-      <c r="AC63" s="2"/>
-      <c r="AD63"/>
+      <c r="AE63"/>
     </row>
     <row r="64" spans="1:31">
       <c r="A64">
@@ -5159,24 +5080,20 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S64" s="1">
         <v>6460</v>
       </c>
-      <c r="S64" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T64" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U64" s="6">
+      <c r="T64" s="1"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="1">
         <v>-572136.6</v>
       </c>
-      <c r="V64" s="1">
+      <c r="W64" s="1">
         <v>6460</v>
       </c>
-      <c r="W64" s="2"/>
-      <c r="X64" s="1">
-        <v>0</v>
-      </c>
+      <c r="X64" s="1"/>
       <c r="Y64" s="1">
         <v>0</v>
       </c>
@@ -5184,13 +5101,15 @@
         <v>0</v>
       </c>
       <c r="AA64">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB64">
+        <v>0.0</v>
+      </c>
+      <c r="AC64">
         <v>-572072.0</v>
       </c>
-      <c r="AC64" s="2"/>
-      <c r="AD64"/>
+      <c r="AE64"/>
     </row>
     <row r="65" spans="1:31">
       <c r="A65">
@@ -5233,24 +5152,20 @@
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S65" s="1">
         <v>5814</v>
       </c>
-      <c r="S65" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T65" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U65" s="6">
+      <c r="T65" s="1"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="1">
         <v>-629337.14</v>
       </c>
-      <c r="V65" s="1">
+      <c r="W65" s="1">
         <v>5814</v>
       </c>
-      <c r="W65" s="2"/>
-      <c r="X65" s="1">
-        <v>0</v>
-      </c>
+      <c r="X65" s="1"/>
       <c r="Y65" s="1">
         <v>0</v>
       </c>
@@ -5258,13 +5173,15 @@
         <v>0</v>
       </c>
       <c r="AA65">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB65">
+        <v>0.0</v>
+      </c>
+      <c r="AC65">
         <v>-629280.0</v>
       </c>
-      <c r="AC65" s="2"/>
-      <c r="AD65"/>
+      <c r="AE65"/>
     </row>
     <row r="66" spans="1:31">
       <c r="A66">
@@ -5307,24 +5224,20 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S66" s="1">
         <v>5233</v>
       </c>
-      <c r="S66" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T66" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U66" s="6">
+      <c r="T66" s="1"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="1">
         <v>-692259.33</v>
       </c>
-      <c r="V66" s="1">
+      <c r="W66" s="1">
         <v>5233</v>
       </c>
-      <c r="W66" s="2"/>
-      <c r="X66" s="1">
-        <v>0</v>
-      </c>
+      <c r="X66" s="1"/>
       <c r="Y66" s="1">
         <v>0</v>
       </c>
@@ -5332,13 +5245,15 @@
         <v>0</v>
       </c>
       <c r="AA66">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB66">
+        <v>0.0</v>
+      </c>
+      <c r="AC66">
         <v>-692208.0</v>
       </c>
-      <c r="AC66" s="2"/>
-      <c r="AD66"/>
+      <c r="AE66"/>
     </row>
     <row r="67" spans="1:31">
       <c r="A67">
@@ -5381,24 +5296,20 @@
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S67" s="1">
         <v>4710</v>
       </c>
-      <c r="S67" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T67" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U67" s="6">
+      <c r="T67" s="1"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="1">
         <v>-761475.1</v>
       </c>
-      <c r="V67" s="1">
+      <c r="W67" s="1">
         <v>4710</v>
       </c>
-      <c r="W67" s="2"/>
-      <c r="X67" s="1">
-        <v>0</v>
-      </c>
+      <c r="X67" s="1"/>
       <c r="Y67" s="1">
         <v>0</v>
       </c>
@@ -5406,13 +5317,15 @@
         <v>0</v>
       </c>
       <c r="AA67">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB67">
+        <v>0.0</v>
+      </c>
+      <c r="AC67">
         <v>-761428.0</v>
       </c>
-      <c r="AC67" s="2"/>
-      <c r="AD67"/>
+      <c r="AE67"/>
     </row>
     <row r="68" spans="1:31">
       <c r="A68">
@@ -5455,24 +5368,20 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S68" s="1">
         <v>4239</v>
       </c>
-      <c r="S68" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T68" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U68" s="6">
+      <c r="T68" s="1"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="1">
         <v>-837613.39</v>
       </c>
-      <c r="V68" s="1">
+      <c r="W68" s="1">
         <v>4239</v>
       </c>
-      <c r="W68" s="2"/>
-      <c r="X68" s="1">
-        <v>0</v>
-      </c>
+      <c r="X68" s="1"/>
       <c r="Y68" s="1">
         <v>0</v>
       </c>
@@ -5480,13 +5389,15 @@
         <v>0</v>
       </c>
       <c r="AA68">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB68">
+        <v>0.0</v>
+      </c>
+      <c r="AC68">
         <v>-837571.0</v>
       </c>
-      <c r="AC68" s="2"/>
-      <c r="AD68"/>
+      <c r="AE68"/>
     </row>
     <row r="69" spans="1:31">
       <c r="A69">
@@ -5529,24 +5440,20 @@
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S69" s="1">
         <v>3815</v>
       </c>
-      <c r="S69" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T69" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U69" s="6">
+      <c r="T69" s="1"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="1">
         <v>-921366.15</v>
       </c>
-      <c r="V69" s="1">
+      <c r="W69" s="1">
         <v>3815</v>
       </c>
-      <c r="W69" s="2"/>
-      <c r="X69" s="1">
-        <v>0</v>
-      </c>
+      <c r="X69" s="1"/>
       <c r="Y69" s="1">
         <v>0</v>
       </c>
@@ -5554,13 +5461,15 @@
         <v>0</v>
       </c>
       <c r="AA69">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB69">
+        <v>0.0</v>
+      </c>
+      <c r="AC69">
         <v>-921328.0</v>
       </c>
-      <c r="AC69" s="2"/>
-      <c r="AD69"/>
+      <c r="AE69"/>
     </row>
     <row r="70" spans="1:31">
       <c r="A70">
@@ -5603,24 +5512,20 @@
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S70" s="1">
         <v>3434</v>
       </c>
-      <c r="S70" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T70" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U70" s="6">
+      <c r="T70" s="1"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="1">
         <v>-1013495.34</v>
       </c>
-      <c r="V70" s="1">
+      <c r="W70" s="1">
         <v>3434</v>
       </c>
-      <c r="W70" s="2"/>
-      <c r="X70" s="1">
-        <v>0</v>
-      </c>
+      <c r="X70" s="1"/>
       <c r="Y70" s="1">
         <v>0</v>
       </c>
@@ -5628,13 +5533,15 @@
         <v>0</v>
       </c>
       <c r="AA70">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB70">
+        <v>0.0</v>
+      </c>
+      <c r="AC70">
         <v>-1013461.0</v>
       </c>
-      <c r="AC70" s="2"/>
-      <c r="AD70"/>
+      <c r="AE70"/>
     </row>
     <row r="71" spans="1:31">
       <c r="A71">
@@ -5677,24 +5584,20 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S71" s="1">
         <v>3091</v>
       </c>
-      <c r="S71" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T71" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U71" s="6">
+      <c r="T71" s="1"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="1">
         <v>-1114837.91</v>
       </c>
-      <c r="V71" s="1">
+      <c r="W71" s="1">
         <v>3091</v>
       </c>
-      <c r="W71" s="2"/>
-      <c r="X71" s="1">
-        <v>0</v>
-      </c>
+      <c r="X71" s="1"/>
       <c r="Y71" s="1">
         <v>0</v>
       </c>
@@ -5702,13 +5605,15 @@
         <v>0</v>
       </c>
       <c r="AA71">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB71">
+        <v>0.0</v>
+      </c>
+      <c r="AC71">
         <v>-1114807.0</v>
       </c>
-      <c r="AC71" s="2"/>
-      <c r="AD71"/>
+      <c r="AE71"/>
     </row>
     <row r="72" spans="1:31">
       <c r="A72" s="15">
@@ -5751,24 +5656,20 @@
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="5">
+        <v>100000</v>
+      </c>
+      <c r="S72" s="5">
         <v>2782</v>
       </c>
-      <c r="S72" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="T72" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="U72" s="5">
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5">
         <v>-1226315.82</v>
       </c>
-      <c r="V72" s="5">
+      <c r="W72" s="5">
         <v>2782</v>
       </c>
-      <c r="W72" s="16"/>
-      <c r="X72" s="5">
-        <v>0</v>
-      </c>
+      <c r="X72" s="5"/>
       <c r="Y72" s="5">
         <v>0</v>
       </c>
@@ -5776,13 +5677,16 @@
         <v>0</v>
       </c>
       <c r="AA72" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB72" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="AC72" s="15">
         <v>-1226288.0</v>
       </c>
-      <c r="AC72" s="16"/>
       <c r="AD72" s="15"/>
+      <c r="AE72"/>
     </row>
     <row r="73" spans="1:31">
       <c r="B73" s="1"/>
@@ -5802,15 +5706,14 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="1"/>
-      <c r="S73" s="2"/>
+      <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
-      <c r="W73" s="2"/>
+      <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
-      <c r="AC73" s="2"/>
     </row>
     <row r="74" spans="1:31">
       <c r="B74" s="1"/>
@@ -5830,15 +5733,14 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="1"/>
-      <c r="S74" s="2"/>
+      <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
-      <c r="W74" s="2"/>
+      <c r="W74" s="1"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
-      <c r="AC74" s="2"/>
     </row>
     <row r="75" spans="1:31">
       <c r="B75" s="1"/>
@@ -5858,15 +5760,14 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="1"/>
-      <c r="S75" s="2"/>
+      <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
-      <c r="W75" s="2"/>
+      <c r="W75" s="1"/>
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
-      <c r="AC75" s="2"/>
     </row>
     <row r="76" spans="1:31">
       <c r="B76" s="1"/>
@@ -5886,15 +5787,14 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="1"/>
-      <c r="S76" s="2"/>
+      <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
-      <c r="W76" s="2"/>
+      <c r="W76" s="1"/>
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
-      <c r="AC76" s="2"/>
     </row>
     <row r="77" spans="1:31">
       <c r="B77" s="1"/>
@@ -5914,15 +5814,14 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="1"/>
-      <c r="S77" s="2"/>
+      <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
-      <c r="W77" s="2"/>
+      <c r="W77" s="1"/>
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
-      <c r="AC77" s="2"/>
     </row>
     <row r="78" spans="1:31">
       <c r="B78" s="1"/>
@@ -5942,15 +5841,14 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="1"/>
-      <c r="S78" s="2"/>
+      <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
-      <c r="W78" s="2"/>
+      <c r="W78" s="1"/>
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
-      <c r="AC78" s="2"/>
     </row>
     <row r="79" spans="1:31">
       <c r="B79" s="1"/>
@@ -5970,15 +5868,14 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="1"/>
-      <c r="S79" s="2"/>
+      <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
-      <c r="W79" s="2"/>
+      <c r="W79" s="1"/>
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
-      <c r="AC79" s="2"/>
     </row>
     <row r="80" spans="1:31">
       <c r="B80" s="1"/>
@@ -5998,15 +5895,14 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="1"/>
-      <c r="S80" s="2"/>
+      <c r="S80" s="1"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
-      <c r="W80" s="2"/>
+      <c r="W80" s="1"/>
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
-      <c r="AC80" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -6055,19 +5951,19 @@
     <col min="16" max="16" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="25.851" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="5.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="25.851" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -6075,7 +5971,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -6087,7 +5983,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -6107,10 +6003,10 @@
       <c r="P4" t="s">
         <v>8</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6173,10 +6069,10 @@
         <v>28</v>
       </c>
       <c r="T5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>30</v>
@@ -6205,7 +6101,9 @@
       <c r="AD5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE5" s="3"/>
+      <c r="AE5" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6">
@@ -6242,33 +6140,35 @@
       <c r="R6" s="1">
         <v>0</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1"/>
       <c r="U6" s="6">
         <v>0.0</v>
       </c>
       <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2"/>
-      <c r="X6" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1"/>
       <c r="Y6" s="1">
         <v>0</v>
       </c>
-      <c r="Z6" s="1"/>
-      <c r="AA6">
-        <v>0.0</v>
-      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6"/>
       <c r="AB6">
         <v>0.0</v>
       </c>
-      <c r="AC6" s="2"/>
-      <c r="AD6" t="s">
-        <v>41</v>
+      <c r="AC6">
+        <v>0.0</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -6306,33 +6206,35 @@
       <c r="R7" s="1">
         <v>0</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1"/>
       <c r="U7" s="6">
         <v>0.0</v>
       </c>
       <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2"/>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1"/>
       <c r="Y7" s="1">
         <v>0</v>
       </c>
-      <c r="Z7" s="1"/>
-      <c r="AA7">
-        <v>0.0</v>
-      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7"/>
       <c r="AB7">
         <v>0.0</v>
       </c>
-      <c r="AC7" s="2"/>
-      <c r="AD7" t="s">
-        <v>41</v>
+      <c r="AC7">
+        <v>0.0</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -6370,33 +6272,35 @@
       <c r="R8" s="1">
         <v>0</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1"/>
       <c r="U8" s="6">
         <v>0.0</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2"/>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1"/>
       <c r="Y8" s="1">
         <v>0</v>
       </c>
-      <c r="Z8" s="1"/>
-      <c r="AA8">
-        <v>0.0</v>
-      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8"/>
       <c r="AB8">
         <v>0.0</v>
       </c>
-      <c r="AC8" s="2"/>
-      <c r="AD8" t="s">
-        <v>41</v>
+      <c r="AC8">
+        <v>0.0</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -6434,33 +6338,35 @@
       <c r="R9" s="1">
         <v>0</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1"/>
       <c r="U9" s="6">
         <v>0.0</v>
       </c>
       <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2"/>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1"/>
       <c r="Y9" s="1">
         <v>0</v>
       </c>
-      <c r="Z9" s="1"/>
-      <c r="AA9">
-        <v>0.0</v>
-      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9"/>
       <c r="AB9">
         <v>0.0</v>
       </c>
-      <c r="AC9" s="2"/>
-      <c r="AD9" t="s">
-        <v>41</v>
+      <c r="AC9">
+        <v>0.0</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -6498,33 +6404,35 @@
       <c r="R10" s="1">
         <v>0</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1"/>
       <c r="U10" s="6">
         <v>0.0</v>
       </c>
       <c r="V10" s="1">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2"/>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1"/>
       <c r="Y10" s="1">
         <v>0</v>
       </c>
-      <c r="Z10" s="1"/>
-      <c r="AA10">
-        <v>0.0</v>
-      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10"/>
       <c r="AB10">
         <v>0.0</v>
       </c>
-      <c r="AC10" s="2"/>
-      <c r="AD10" t="s">
-        <v>41</v>
+      <c r="AC10">
+        <v>0.0</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -6562,33 +6470,35 @@
       <c r="R11" s="1">
         <v>0</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1"/>
       <c r="U11" s="6">
         <v>0.0</v>
       </c>
       <c r="V11" s="1">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2"/>
-      <c r="X11" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1"/>
       <c r="Y11" s="1">
         <v>0</v>
       </c>
-      <c r="Z11" s="1"/>
-      <c r="AA11">
-        <v>0.0</v>
-      </c>
+      <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA11"/>
       <c r="AB11">
         <v>0.0</v>
       </c>
-      <c r="AC11" s="2"/>
-      <c r="AD11" t="s">
-        <v>41</v>
+      <c r="AC11">
+        <v>0.0</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -6626,33 +6536,35 @@
       <c r="R12" s="1">
         <v>0</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1"/>
       <c r="U12" s="6">
         <v>0.0</v>
       </c>
       <c r="V12" s="1">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2"/>
-      <c r="X12" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1"/>
       <c r="Y12" s="1">
         <v>0</v>
       </c>
-      <c r="Z12" s="1"/>
-      <c r="AA12">
-        <v>0.0</v>
-      </c>
+      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12"/>
       <c r="AB12">
         <v>0.0</v>
       </c>
-      <c r="AC12" s="2"/>
-      <c r="AD12" t="s">
-        <v>41</v>
+      <c r="AC12">
+        <v>0.0</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -6690,33 +6602,35 @@
       <c r="R13" s="1">
         <v>0</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1"/>
       <c r="U13" s="6">
         <v>0.0</v>
       </c>
       <c r="V13" s="1">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2"/>
-      <c r="X13" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1"/>
       <c r="Y13" s="1">
         <v>0</v>
       </c>
-      <c r="Z13" s="1"/>
-      <c r="AA13">
-        <v>0.0</v>
-      </c>
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13"/>
       <c r="AB13">
         <v>0.0</v>
       </c>
-      <c r="AC13" s="2"/>
-      <c r="AD13" t="s">
-        <v>41</v>
+      <c r="AC13">
+        <v>0.0</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -6754,33 +6668,35 @@
       <c r="R14" s="1">
         <v>0</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1"/>
       <c r="U14" s="6">
         <v>0.0</v>
       </c>
       <c r="V14" s="1">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2"/>
-      <c r="X14" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1"/>
       <c r="Y14" s="1">
         <v>0</v>
       </c>
-      <c r="Z14" s="1"/>
-      <c r="AA14">
-        <v>0.0</v>
-      </c>
+      <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA14"/>
       <c r="AB14">
         <v>0.0</v>
       </c>
-      <c r="AC14" s="2"/>
-      <c r="AD14" t="s">
-        <v>41</v>
+      <c r="AC14">
+        <v>0.0</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -6818,33 +6734,35 @@
       <c r="R15" s="1">
         <v>0</v>
       </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1"/>
       <c r="U15" s="6">
         <v>0.0</v>
       </c>
       <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2"/>
-      <c r="X15" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1"/>
       <c r="Y15" s="1">
         <v>0</v>
       </c>
-      <c r="Z15" s="1"/>
-      <c r="AA15">
-        <v>0.0</v>
-      </c>
+      <c r="Z15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA15"/>
       <c r="AB15">
         <v>0.0</v>
       </c>
-      <c r="AC15" s="2"/>
-      <c r="AD15" t="s">
-        <v>41</v>
+      <c r="AC15">
+        <v>0.0</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -6882,33 +6800,35 @@
       <c r="R16" s="1">
         <v>0</v>
       </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1"/>
       <c r="U16" s="6">
         <v>0.0</v>
       </c>
       <c r="V16" s="1">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2"/>
-      <c r="X16" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1"/>
       <c r="Y16" s="1">
         <v>0</v>
       </c>
-      <c r="Z16" s="1"/>
-      <c r="AA16">
-        <v>0.0</v>
-      </c>
+      <c r="Z16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA16"/>
       <c r="AB16">
         <v>0.0</v>
       </c>
-      <c r="AC16" s="2"/>
-      <c r="AD16" t="s">
-        <v>41</v>
+      <c r="AC16">
+        <v>0.0</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -6946,33 +6866,35 @@
       <c r="R17" s="1">
         <v>0</v>
       </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1"/>
       <c r="U17" s="6">
         <v>0.0</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
-      </c>
-      <c r="W17" s="2"/>
-      <c r="X17" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1"/>
       <c r="Y17" s="1">
         <v>0</v>
       </c>
-      <c r="Z17" s="1"/>
-      <c r="AA17">
-        <v>0.0</v>
-      </c>
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA17"/>
       <c r="AB17">
         <v>0.0</v>
       </c>
-      <c r="AC17" s="2"/>
-      <c r="AD17" t="s">
-        <v>41</v>
+      <c r="AC17">
+        <v>0.0</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -7010,33 +6932,35 @@
       <c r="R18" s="1">
         <v>0</v>
       </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1"/>
       <c r="U18" s="6">
         <v>0.0</v>
       </c>
       <c r="V18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" s="2"/>
-      <c r="X18" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1"/>
       <c r="Y18" s="1">
         <v>0</v>
       </c>
-      <c r="Z18" s="1"/>
-      <c r="AA18">
-        <v>0.0</v>
-      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18"/>
       <c r="AB18">
         <v>0.0</v>
       </c>
-      <c r="AC18" s="2"/>
-      <c r="AD18" t="s">
-        <v>41</v>
+      <c r="AC18">
+        <v>0.0</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -7074,33 +6998,35 @@
       <c r="R19" s="1">
         <v>0</v>
       </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1"/>
       <c r="U19" s="6">
         <v>0.0</v>
       </c>
       <c r="V19" s="1">
-        <v>0</v>
-      </c>
-      <c r="W19" s="2"/>
-      <c r="X19" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1"/>
       <c r="Y19" s="1">
         <v>0</v>
       </c>
-      <c r="Z19" s="1"/>
-      <c r="AA19">
-        <v>0.0</v>
-      </c>
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA19"/>
       <c r="AB19">
         <v>0.0</v>
       </c>
-      <c r="AC19" s="2"/>
-      <c r="AD19" t="s">
-        <v>41</v>
+      <c r="AC19">
+        <v>0.0</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -7138,33 +7064,35 @@
       <c r="R20" s="1">
         <v>0</v>
       </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1"/>
       <c r="U20" s="6">
         <v>0.0</v>
       </c>
       <c r="V20" s="1">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2"/>
-      <c r="X20" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1"/>
       <c r="Y20" s="1">
         <v>0</v>
       </c>
-      <c r="Z20" s="1"/>
-      <c r="AA20">
-        <v>0.0</v>
-      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA20"/>
       <c r="AB20">
         <v>0.0</v>
       </c>
-      <c r="AC20" s="2"/>
-      <c r="AD20" t="s">
-        <v>41</v>
+      <c r="AC20">
+        <v>0.0</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -7202,33 +7130,35 @@
       <c r="R21" s="1">
         <v>0</v>
       </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1"/>
       <c r="U21" s="6">
         <v>0.0</v>
       </c>
       <c r="V21" s="1">
-        <v>0</v>
-      </c>
-      <c r="W21" s="2"/>
-      <c r="X21" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1"/>
       <c r="Y21" s="1">
         <v>0</v>
       </c>
-      <c r="Z21" s="1"/>
-      <c r="AA21">
-        <v>0.0</v>
-      </c>
+      <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21"/>
       <c r="AB21">
         <v>0.0</v>
       </c>
-      <c r="AC21" s="2"/>
-      <c r="AD21" t="s">
-        <v>41</v>
+      <c r="AC21">
+        <v>0.0</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -7266,33 +7196,35 @@
       <c r="R22" s="1">
         <v>0</v>
       </c>
-      <c r="S22" s="2"/>
-      <c r="T22" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1"/>
       <c r="U22" s="6">
         <v>0.0</v>
       </c>
       <c r="V22" s="1">
-        <v>0</v>
-      </c>
-      <c r="W22" s="2"/>
-      <c r="X22" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1"/>
       <c r="Y22" s="1">
         <v>0</v>
       </c>
-      <c r="Z22" s="1"/>
-      <c r="AA22">
-        <v>0.0</v>
-      </c>
+      <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA22"/>
       <c r="AB22">
         <v>0.0</v>
       </c>
-      <c r="AC22" s="2"/>
-      <c r="AD22" t="s">
-        <v>41</v>
+      <c r="AC22">
+        <v>0.0</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -7330,33 +7262,35 @@
       <c r="R23" s="1">
         <v>0</v>
       </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1"/>
       <c r="U23" s="6">
         <v>0.0</v>
       </c>
       <c r="V23" s="1">
-        <v>0</v>
-      </c>
-      <c r="W23" s="2"/>
-      <c r="X23" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1"/>
       <c r="Y23" s="1">
         <v>0</v>
       </c>
-      <c r="Z23" s="1"/>
-      <c r="AA23">
-        <v>0.0</v>
-      </c>
+      <c r="Z23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA23"/>
       <c r="AB23">
         <v>0.0</v>
       </c>
-      <c r="AC23" s="2"/>
-      <c r="AD23" t="s">
-        <v>41</v>
+      <c r="AC23">
+        <v>0.0</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -7394,33 +7328,35 @@
       <c r="R24" s="1">
         <v>0</v>
       </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1"/>
       <c r="U24" s="6">
         <v>0.0</v>
       </c>
       <c r="V24" s="1">
-        <v>0</v>
-      </c>
-      <c r="W24" s="2"/>
-      <c r="X24" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1"/>
       <c r="Y24" s="1">
         <v>0</v>
       </c>
-      <c r="Z24" s="1"/>
-      <c r="AA24">
-        <v>0.0</v>
-      </c>
+      <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA24"/>
       <c r="AB24">
         <v>0.0</v>
       </c>
-      <c r="AC24" s="2"/>
-      <c r="AD24" t="s">
-        <v>41</v>
+      <c r="AC24">
+        <v>0.0</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -7458,33 +7394,35 @@
       <c r="R25" s="1">
         <v>0</v>
       </c>
-      <c r="S25" s="2"/>
-      <c r="T25" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1"/>
       <c r="U25" s="6">
         <v>0.0</v>
       </c>
       <c r="V25" s="1">
-        <v>0</v>
-      </c>
-      <c r="W25" s="2"/>
-      <c r="X25" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1"/>
       <c r="Y25" s="1">
         <v>0</v>
       </c>
-      <c r="Z25" s="1"/>
-      <c r="AA25">
-        <v>0.0</v>
-      </c>
+      <c r="Z25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA25"/>
       <c r="AB25">
         <v>0.0</v>
       </c>
-      <c r="AC25" s="2"/>
-      <c r="AD25" t="s">
-        <v>41</v>
+      <c r="AC25">
+        <v>0.0</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -7522,33 +7460,35 @@
       <c r="R26" s="1">
         <v>0</v>
       </c>
-      <c r="S26" s="2"/>
-      <c r="T26" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1"/>
       <c r="U26" s="6">
         <v>0.0</v>
       </c>
       <c r="V26" s="1">
-        <v>0</v>
-      </c>
-      <c r="W26" s="2"/>
-      <c r="X26" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1"/>
       <c r="Y26" s="1">
         <v>0</v>
       </c>
-      <c r="Z26" s="1"/>
-      <c r="AA26">
-        <v>0.0</v>
-      </c>
+      <c r="Z26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA26"/>
       <c r="AB26">
         <v>0.0</v>
       </c>
-      <c r="AC26" s="2"/>
-      <c r="AD26" t="s">
-        <v>41</v>
+      <c r="AC26">
+        <v>0.0</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -7586,33 +7526,35 @@
       <c r="R27" s="1">
         <v>0</v>
       </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1"/>
       <c r="U27" s="6">
         <v>0.0</v>
       </c>
       <c r="V27" s="1">
-        <v>0</v>
-      </c>
-      <c r="W27" s="2"/>
-      <c r="X27" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1"/>
       <c r="Y27" s="1">
         <v>0</v>
       </c>
-      <c r="Z27" s="1"/>
-      <c r="AA27">
-        <v>0.0</v>
-      </c>
+      <c r="Z27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA27"/>
       <c r="AB27">
         <v>0.0</v>
       </c>
-      <c r="AC27" s="2"/>
-      <c r="AD27" t="s">
-        <v>41</v>
+      <c r="AC27">
+        <v>0.0</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -7650,33 +7592,35 @@
       <c r="R28" s="1">
         <v>0</v>
       </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1"/>
       <c r="U28" s="6">
         <v>0.0</v>
       </c>
       <c r="V28" s="1">
-        <v>0</v>
-      </c>
-      <c r="W28" s="2"/>
-      <c r="X28" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1"/>
       <c r="Y28" s="1">
         <v>0</v>
       </c>
-      <c r="Z28" s="1"/>
-      <c r="AA28">
-        <v>0.0</v>
-      </c>
+      <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28"/>
       <c r="AB28">
         <v>0.0</v>
       </c>
-      <c r="AC28" s="2"/>
-      <c r="AD28" t="s">
-        <v>41</v>
+      <c r="AC28">
+        <v>0.0</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -7714,33 +7658,35 @@
       <c r="R29" s="1">
         <v>0</v>
       </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1"/>
       <c r="U29" s="6">
         <v>0.0</v>
       </c>
       <c r="V29" s="1">
-        <v>0</v>
-      </c>
-      <c r="W29" s="2"/>
-      <c r="X29" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1"/>
       <c r="Y29" s="1">
         <v>0</v>
       </c>
-      <c r="Z29" s="1"/>
-      <c r="AA29">
-        <v>0.0</v>
-      </c>
+      <c r="Z29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA29"/>
       <c r="AB29">
         <v>0.0</v>
       </c>
-      <c r="AC29" s="2"/>
-      <c r="AD29" t="s">
-        <v>41</v>
+      <c r="AC29">
+        <v>0.0</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -7778,33 +7724,35 @@
       <c r="R30" s="1">
         <v>0</v>
       </c>
-      <c r="S30" s="2"/>
-      <c r="T30" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1"/>
       <c r="U30" s="6">
         <v>0.0</v>
       </c>
       <c r="V30" s="1">
-        <v>0</v>
-      </c>
-      <c r="W30" s="2"/>
-      <c r="X30" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1"/>
       <c r="Y30" s="1">
         <v>0</v>
       </c>
-      <c r="Z30" s="1"/>
-      <c r="AA30">
-        <v>0.0</v>
-      </c>
+      <c r="Z30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA30"/>
       <c r="AB30">
         <v>0.0</v>
       </c>
-      <c r="AC30" s="2"/>
-      <c r="AD30" t="s">
-        <v>41</v>
+      <c r="AC30">
+        <v>0.0</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -7842,33 +7790,35 @@
       <c r="R31" s="1">
         <v>0</v>
       </c>
-      <c r="S31" s="2"/>
-      <c r="T31" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1"/>
       <c r="U31" s="6">
         <v>0.0</v>
       </c>
       <c r="V31" s="1">
-        <v>0</v>
-      </c>
-      <c r="W31" s="2"/>
-      <c r="X31" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1"/>
       <c r="Y31" s="1">
         <v>0</v>
       </c>
-      <c r="Z31" s="1"/>
-      <c r="AA31">
-        <v>0.0</v>
-      </c>
+      <c r="Z31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA31"/>
       <c r="AB31">
         <v>0.0</v>
       </c>
-      <c r="AC31" s="2"/>
-      <c r="AD31" t="s">
-        <v>41</v>
+      <c r="AC31">
+        <v>0.0</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -7906,33 +7856,35 @@
       <c r="R32" s="1">
         <v>0</v>
       </c>
-      <c r="S32" s="2"/>
-      <c r="T32" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1"/>
       <c r="U32" s="6">
         <v>0.0</v>
       </c>
       <c r="V32" s="1">
-        <v>0</v>
-      </c>
-      <c r="W32" s="2"/>
-      <c r="X32" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1"/>
       <c r="Y32" s="1">
         <v>0</v>
       </c>
-      <c r="Z32" s="1"/>
-      <c r="AA32">
-        <v>0.0</v>
-      </c>
+      <c r="Z32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA32"/>
       <c r="AB32">
         <v>0.0</v>
       </c>
-      <c r="AC32" s="2"/>
-      <c r="AD32" t="s">
-        <v>41</v>
+      <c r="AC32">
+        <v>0.0</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -7970,33 +7922,35 @@
       <c r="R33" s="1">
         <v>0</v>
       </c>
-      <c r="S33" s="2"/>
-      <c r="T33" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1"/>
       <c r="U33" s="6">
         <v>0.0</v>
       </c>
       <c r="V33" s="1">
-        <v>0</v>
-      </c>
-      <c r="W33" s="2"/>
-      <c r="X33" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1"/>
       <c r="Y33" s="1">
         <v>0</v>
       </c>
-      <c r="Z33" s="1"/>
-      <c r="AA33">
-        <v>0.0</v>
-      </c>
+      <c r="Z33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA33"/>
       <c r="AB33">
         <v>0.0</v>
       </c>
-      <c r="AC33" s="2"/>
-      <c r="AD33" t="s">
-        <v>41</v>
+      <c r="AC33">
+        <v>0.0</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -8034,33 +7988,35 @@
       <c r="R34" s="1">
         <v>0</v>
       </c>
-      <c r="S34" s="2"/>
-      <c r="T34" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1"/>
       <c r="U34" s="6">
         <v>0.0</v>
       </c>
       <c r="V34" s="1">
-        <v>0</v>
-      </c>
-      <c r="W34" s="2"/>
-      <c r="X34" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1"/>
       <c r="Y34" s="1">
         <v>0</v>
       </c>
-      <c r="Z34" s="1"/>
-      <c r="AA34">
-        <v>0.0</v>
-      </c>
+      <c r="Z34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA34"/>
       <c r="AB34">
         <v>0.0</v>
       </c>
-      <c r="AC34" s="2"/>
-      <c r="AD34" t="s">
-        <v>41</v>
+      <c r="AC34">
+        <v>0.0</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -8098,33 +8054,35 @@
       <c r="R35" s="1">
         <v>0</v>
       </c>
-      <c r="S35" s="2"/>
-      <c r="T35" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1"/>
       <c r="U35" s="6">
         <v>0.0</v>
       </c>
       <c r="V35" s="1">
-        <v>0</v>
-      </c>
-      <c r="W35" s="2"/>
-      <c r="X35" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1"/>
       <c r="Y35" s="1">
         <v>0</v>
       </c>
-      <c r="Z35" s="1"/>
-      <c r="AA35">
-        <v>0.0</v>
-      </c>
+      <c r="Z35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA35"/>
       <c r="AB35">
         <v>0.0</v>
       </c>
-      <c r="AC35" s="2"/>
-      <c r="AD35" t="s">
-        <v>41</v>
+      <c r="AC35">
+        <v>0.0</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -8162,33 +8120,35 @@
       <c r="R36" s="1">
         <v>0</v>
       </c>
-      <c r="S36" s="2"/>
-      <c r="T36" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1"/>
       <c r="U36" s="6">
         <v>0.0</v>
       </c>
       <c r="V36" s="1">
-        <v>0</v>
-      </c>
-      <c r="W36" s="2"/>
-      <c r="X36" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1"/>
       <c r="Y36" s="1">
         <v>0</v>
       </c>
-      <c r="Z36" s="1"/>
-      <c r="AA36">
-        <v>0.0</v>
-      </c>
+      <c r="Z36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA36"/>
       <c r="AB36">
         <v>0.0</v>
       </c>
-      <c r="AC36" s="2"/>
-      <c r="AD36" t="s">
-        <v>41</v>
+      <c r="AC36">
+        <v>0.0</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -8226,33 +8186,35 @@
       <c r="R37" s="1">
         <v>0</v>
       </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1"/>
       <c r="U37" s="6">
         <v>0.0</v>
       </c>
       <c r="V37" s="1">
-        <v>0</v>
-      </c>
-      <c r="W37" s="2"/>
-      <c r="X37" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1"/>
       <c r="Y37" s="1">
         <v>0</v>
       </c>
-      <c r="Z37" s="1"/>
-      <c r="AA37">
-        <v>0.0</v>
-      </c>
+      <c r="Z37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA37"/>
       <c r="AB37">
         <v>0.0</v>
       </c>
-      <c r="AC37" s="2"/>
-      <c r="AD37" t="s">
-        <v>41</v>
+      <c r="AC37">
+        <v>0.0</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -8294,35 +8256,36 @@
       <c r="R38" s="8">
         <v>100000</v>
       </c>
-      <c r="S38" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="T38" s="8">
+      <c r="S38" s="8">
+        <v>100000</v>
+      </c>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8">
         <v>1000.0</v>
       </c>
-      <c r="U38" s="8">
+      <c r="V38" s="8">
         <v>-49000.0</v>
       </c>
-      <c r="V38" s="8">
+      <c r="W38" s="8">
         <v>100000</v>
       </c>
-      <c r="W38" s="9"/>
-      <c r="X38" s="8">
-        <v>0</v>
-      </c>
+      <c r="X38" s="8"/>
       <c r="Y38" s="8">
         <v>0</v>
       </c>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="7">
-        <v>0.0</v>
-      </c>
+      <c r="Z38" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="7"/>
       <c r="AB38" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="AC38" s="7">
         <v>-48000.0</v>
       </c>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="7" t="s">
-        <v>42</v>
+      <c r="AD38" s="7"/>
+      <c r="AE38" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -8362,37 +8325,37 @@
         <v>-0.1</v>
       </c>
       <c r="R39" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S39" s="1">
         <v>90000</v>
       </c>
-      <c r="S39" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T39" s="1">
+      <c r="T39" s="1"/>
+      <c r="U39" s="6">
         <v>900.0</v>
       </c>
-      <c r="U39" s="6">
+      <c r="V39" s="1">
         <v>-53700.0</v>
       </c>
-      <c r="V39" s="1">
+      <c r="W39" s="1">
         <v>90000</v>
       </c>
-      <c r="W39" s="2"/>
-      <c r="X39" s="1">
-        <v>0</v>
-      </c>
+      <c r="X39" s="1"/>
       <c r="Y39" s="1">
         <v>0</v>
       </c>
-      <c r="Z39" s="1"/>
-      <c r="AA39">
-        <v>0.0</v>
-      </c>
+      <c r="Z39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39"/>
       <c r="AB39">
+        <v>0.0</v>
+      </c>
+      <c r="AC39">
         <v>-52800.0</v>
       </c>
-      <c r="AC39" s="2"/>
-      <c r="AD39" t="s">
-        <v>43</v>
+      <c r="AE39" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -8432,37 +8395,38 @@
         <v>-0.1</v>
       </c>
       <c r="R40" s="11">
+        <v>100000</v>
+      </c>
+      <c r="S40" s="11">
         <v>81000</v>
       </c>
-      <c r="S40" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="T40" s="11">
+      <c r="T40" s="11"/>
+      <c r="U40" s="11">
         <v>810.0</v>
       </c>
-      <c r="U40" s="11">
+      <c r="V40" s="11">
         <v>-58890.0</v>
       </c>
-      <c r="V40" s="11">
+      <c r="W40" s="11">
         <v>81000</v>
       </c>
-      <c r="W40" s="12"/>
-      <c r="X40" s="11">
-        <v>0</v>
-      </c>
+      <c r="X40" s="11"/>
       <c r="Y40" s="11">
         <v>0</v>
       </c>
-      <c r="Z40" s="11"/>
-      <c r="AA40" s="10">
-        <v>0.0</v>
-      </c>
+      <c r="Z40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="10"/>
       <c r="AB40" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AC40" s="10">
         <v>-58080.0</v>
       </c>
-      <c r="AC40" s="12"/>
-      <c r="AD40" s="10" t="s">
-        <v>44</v>
+      <c r="AD40" s="10"/>
+      <c r="AE40" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -8502,37 +8466,37 @@
         <v>-0.1</v>
       </c>
       <c r="R41" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S41" s="1">
         <v>72900</v>
       </c>
-      <c r="S41" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T41" s="1">
+      <c r="T41" s="1"/>
+      <c r="U41" s="6">
         <v>729.0</v>
       </c>
-      <c r="U41" s="6">
+      <c r="V41" s="1">
         <v>-64617.0</v>
       </c>
-      <c r="V41" s="1">
+      <c r="W41" s="1">
         <v>72900</v>
       </c>
-      <c r="W41" s="2"/>
-      <c r="X41" s="1">
-        <v>0</v>
-      </c>
+      <c r="X41" s="1"/>
       <c r="Y41" s="1">
         <v>0</v>
       </c>
-      <c r="Z41" s="1"/>
-      <c r="AA41">
-        <v>0.0</v>
-      </c>
+      <c r="Z41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA41"/>
       <c r="AB41">
+        <v>0.0</v>
+      </c>
+      <c r="AC41">
         <v>-63888.0</v>
       </c>
-      <c r="AC41" s="2"/>
-      <c r="AD41" t="s">
-        <v>45</v>
+      <c r="AE41" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -8572,37 +8536,37 @@
         <v>-0.1</v>
       </c>
       <c r="R42" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S42" s="1">
         <v>65610</v>
       </c>
-      <c r="S42" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T42" s="1">
+      <c r="T42" s="1"/>
+      <c r="U42" s="6">
         <v>656.1</v>
       </c>
-      <c r="U42" s="6">
+      <c r="V42" s="1">
         <v>-70932.1</v>
       </c>
-      <c r="V42" s="1">
+      <c r="W42" s="1">
         <v>65610</v>
       </c>
-      <c r="W42" s="2"/>
-      <c r="X42" s="1">
-        <v>0</v>
-      </c>
+      <c r="X42" s="1"/>
       <c r="Y42" s="1">
         <v>0</v>
       </c>
-      <c r="Z42" s="1"/>
-      <c r="AA42">
-        <v>0.0</v>
-      </c>
+      <c r="Z42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42"/>
       <c r="AB42">
+        <v>0.0</v>
+      </c>
+      <c r="AC42">
         <v>-70277.0</v>
       </c>
-      <c r="AC42" s="2"/>
-      <c r="AD42" t="s">
-        <v>46</v>
+      <c r="AE42" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -8642,37 +8606,37 @@
         <v>-0.1</v>
       </c>
       <c r="R43" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S43" s="1">
         <v>59049</v>
       </c>
-      <c r="S43" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T43" s="1">
+      <c r="T43" s="1"/>
+      <c r="U43" s="6">
         <v>590.49</v>
       </c>
-      <c r="U43" s="6">
+      <c r="V43" s="1">
         <v>-77894.49</v>
       </c>
-      <c r="V43" s="1">
+      <c r="W43" s="1">
         <v>59049</v>
       </c>
-      <c r="W43" s="2"/>
-      <c r="X43" s="1">
-        <v>0</v>
-      </c>
+      <c r="X43" s="1"/>
       <c r="Y43" s="1">
         <v>0</v>
       </c>
-      <c r="Z43" s="1"/>
-      <c r="AA43">
-        <v>0.0</v>
-      </c>
+      <c r="Z43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43"/>
       <c r="AB43">
+        <v>0.0</v>
+      </c>
+      <c r="AC43">
         <v>-77304.0</v>
       </c>
-      <c r="AC43" s="2"/>
-      <c r="AD43" t="s">
-        <v>47</v>
+      <c r="AE43" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -8712,37 +8676,37 @@
         <v>-0.1</v>
       </c>
       <c r="R44" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S44" s="1">
         <v>53144</v>
       </c>
-      <c r="S44" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T44" s="1">
+      <c r="T44" s="1"/>
+      <c r="U44" s="6">
         <v>531.44</v>
       </c>
-      <c r="U44" s="6">
+      <c r="V44" s="1">
         <v>-85565.44</v>
       </c>
-      <c r="V44" s="1">
+      <c r="W44" s="1">
         <v>53144</v>
       </c>
-      <c r="W44" s="2"/>
-      <c r="X44" s="1">
-        <v>0</v>
-      </c>
+      <c r="X44" s="1"/>
       <c r="Y44" s="1">
         <v>0</v>
       </c>
-      <c r="Z44" s="1"/>
-      <c r="AA44">
-        <v>0.0</v>
-      </c>
+      <c r="Z44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA44"/>
       <c r="AB44">
+        <v>0.0</v>
+      </c>
+      <c r="AC44">
         <v>-85035.0</v>
       </c>
-      <c r="AC44" s="2"/>
-      <c r="AD44" t="s">
-        <v>48</v>
+      <c r="AE44" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -8782,37 +8746,37 @@
         <v>-0.1</v>
       </c>
       <c r="R45" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S45" s="1">
         <v>47830</v>
       </c>
-      <c r="S45" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T45" s="1">
+      <c r="T45" s="1"/>
+      <c r="U45" s="6">
         <v>478.3</v>
       </c>
-      <c r="U45" s="6">
+      <c r="V45" s="1">
         <v>-94016.3</v>
       </c>
-      <c r="V45" s="1">
+      <c r="W45" s="1">
         <v>47830</v>
       </c>
-      <c r="W45" s="2"/>
-      <c r="X45" s="1">
-        <v>0</v>
-      </c>
+      <c r="X45" s="1"/>
       <c r="Y45" s="1">
         <v>0</v>
       </c>
-      <c r="Z45" s="1"/>
-      <c r="AA45">
-        <v>0.0</v>
-      </c>
+      <c r="Z45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA45"/>
       <c r="AB45">
+        <v>0.0</v>
+      </c>
+      <c r="AC45">
         <v>-93538.0</v>
       </c>
-      <c r="AC45" s="2"/>
-      <c r="AD45" t="s">
-        <v>49</v>
+      <c r="AE45" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -8852,37 +8816,37 @@
         <v>-0.1</v>
       </c>
       <c r="R46" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S46" s="1">
         <v>43047</v>
       </c>
-      <c r="S46" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T46" s="1">
+      <c r="T46" s="1"/>
+      <c r="U46" s="6">
         <v>430.47</v>
       </c>
-      <c r="U46" s="6">
+      <c r="V46" s="1">
         <v>-103322.47</v>
       </c>
-      <c r="V46" s="1">
+      <c r="W46" s="1">
         <v>43047</v>
       </c>
-      <c r="W46" s="2"/>
-      <c r="X46" s="1">
-        <v>0</v>
-      </c>
+      <c r="X46" s="1"/>
       <c r="Y46" s="1">
         <v>0</v>
       </c>
-      <c r="Z46" s="1"/>
-      <c r="AA46">
-        <v>0.0</v>
-      </c>
+      <c r="Z46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46"/>
       <c r="AB46">
+        <v>0.0</v>
+      </c>
+      <c r="AC46">
         <v>-102892.0</v>
       </c>
-      <c r="AC46" s="2"/>
-      <c r="AD46" t="s">
-        <v>50</v>
+      <c r="AE46" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -8922,37 +8886,37 @@
         <v>-0.1</v>
       </c>
       <c r="R47" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S47" s="1">
         <v>38742</v>
       </c>
-      <c r="S47" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T47" s="1">
+      <c r="T47" s="1"/>
+      <c r="U47" s="6">
         <v>387.42</v>
       </c>
-      <c r="U47" s="6">
+      <c r="V47" s="1">
         <v>-113568.42</v>
       </c>
-      <c r="V47" s="1">
+      <c r="W47" s="1">
         <v>38742</v>
       </c>
-      <c r="W47" s="2"/>
-      <c r="X47" s="1">
-        <v>0</v>
-      </c>
+      <c r="X47" s="1"/>
       <c r="Y47" s="1">
         <v>0</v>
       </c>
-      <c r="Z47" s="1"/>
-      <c r="AA47">
-        <v>0.0</v>
-      </c>
+      <c r="Z47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA47"/>
       <c r="AB47">
+        <v>0.0</v>
+      </c>
+      <c r="AC47">
         <v>-113181.0</v>
       </c>
-      <c r="AC47" s="2"/>
-      <c r="AD47" t="s">
-        <v>51</v>
+      <c r="AE47" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -8992,37 +8956,37 @@
         <v>-0.1</v>
       </c>
       <c r="R48" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S48" s="1">
         <v>34868</v>
       </c>
-      <c r="S48" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T48" s="1">
+      <c r="T48" s="1"/>
+      <c r="U48" s="6">
         <v>348.68</v>
       </c>
-      <c r="U48" s="6">
+      <c r="V48" s="1">
         <v>-124847.68</v>
       </c>
-      <c r="V48" s="1">
+      <c r="W48" s="1">
         <v>34868</v>
       </c>
-      <c r="W48" s="2"/>
-      <c r="X48" s="1">
-        <v>0</v>
-      </c>
+      <c r="X48" s="1"/>
       <c r="Y48" s="1">
         <v>0</v>
       </c>
-      <c r="Z48" s="1"/>
-      <c r="AA48">
-        <v>0.0</v>
-      </c>
+      <c r="Z48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA48"/>
       <c r="AB48">
+        <v>0.0</v>
+      </c>
+      <c r="AC48">
         <v>-124500.0</v>
       </c>
-      <c r="AC48" s="2"/>
-      <c r="AD48" t="s">
-        <v>52</v>
+      <c r="AE48" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -9062,37 +9026,37 @@
         <v>-0.1</v>
       </c>
       <c r="R49" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S49" s="1">
         <v>31381</v>
       </c>
-      <c r="S49" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T49" s="1">
+      <c r="T49" s="1"/>
+      <c r="U49" s="6">
         <v>313.81</v>
       </c>
-      <c r="U49" s="6">
+      <c r="V49" s="1">
         <v>-137262.81</v>
       </c>
-      <c r="V49" s="1">
+      <c r="W49" s="1">
         <v>31381</v>
       </c>
-      <c r="W49" s="2"/>
-      <c r="X49" s="1">
-        <v>0</v>
-      </c>
+      <c r="X49" s="1"/>
       <c r="Y49" s="1">
         <v>0</v>
       </c>
-      <c r="Z49" s="1"/>
-      <c r="AA49">
-        <v>0.0</v>
-      </c>
+      <c r="Z49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA49"/>
       <c r="AB49">
+        <v>0.0</v>
+      </c>
+      <c r="AC49">
         <v>-136950.0</v>
       </c>
-      <c r="AC49" s="2"/>
-      <c r="AD49" t="s">
-        <v>53</v>
+      <c r="AE49" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -9132,37 +9096,37 @@
         <v>-0.1</v>
       </c>
       <c r="R50" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S50" s="1">
         <v>28243</v>
       </c>
-      <c r="S50" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T50" s="1">
+      <c r="T50" s="1"/>
+      <c r="U50" s="6">
         <v>282.43</v>
       </c>
-      <c r="U50" s="6">
+      <c r="V50" s="1">
         <v>-150926.43</v>
       </c>
-      <c r="V50" s="1">
+      <c r="W50" s="1">
         <v>28243</v>
       </c>
-      <c r="W50" s="2"/>
-      <c r="X50" s="1">
-        <v>0</v>
-      </c>
+      <c r="X50" s="1"/>
       <c r="Y50" s="1">
         <v>0</v>
       </c>
-      <c r="Z50" s="1"/>
-      <c r="AA50">
-        <v>0.0</v>
-      </c>
+      <c r="Z50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA50"/>
       <c r="AB50">
+        <v>0.0</v>
+      </c>
+      <c r="AC50">
         <v>-150645.0</v>
       </c>
-      <c r="AC50" s="2"/>
-      <c r="AD50" t="s">
-        <v>54</v>
+      <c r="AE50" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -9202,37 +9166,37 @@
         <v>-0.1</v>
       </c>
       <c r="R51" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S51" s="1">
         <v>25419</v>
       </c>
-      <c r="S51" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T51" s="1">
+      <c r="T51" s="1"/>
+      <c r="U51" s="6">
         <v>254.19</v>
       </c>
-      <c r="U51" s="6">
+      <c r="V51" s="1">
         <v>-165963.19</v>
       </c>
-      <c r="V51" s="1">
+      <c r="W51" s="1">
         <v>25419</v>
       </c>
-      <c r="W51" s="2"/>
-      <c r="X51" s="1">
-        <v>0</v>
-      </c>
+      <c r="X51" s="1"/>
       <c r="Y51" s="1">
         <v>0</v>
       </c>
-      <c r="Z51" s="1"/>
-      <c r="AA51">
-        <v>0.0</v>
-      </c>
+      <c r="Z51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA51"/>
       <c r="AB51">
+        <v>0.0</v>
+      </c>
+      <c r="AC51">
         <v>-165709.0</v>
       </c>
-      <c r="AC51" s="2"/>
-      <c r="AD51" t="s">
-        <v>55</v>
+      <c r="AE51" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -9272,37 +9236,37 @@
         <v>-0.1</v>
       </c>
       <c r="R52" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S52" s="1">
         <v>22877</v>
       </c>
-      <c r="S52" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T52" s="1">
+      <c r="T52" s="1"/>
+      <c r="U52" s="6">
         <v>228.77</v>
       </c>
-      <c r="U52" s="6">
+      <c r="V52" s="1">
         <v>-182507.77</v>
       </c>
-      <c r="V52" s="1">
+      <c r="W52" s="1">
         <v>22877</v>
       </c>
-      <c r="W52" s="2"/>
-      <c r="X52" s="1">
-        <v>0</v>
-      </c>
+      <c r="X52" s="1"/>
       <c r="Y52" s="1">
         <v>0</v>
       </c>
-      <c r="Z52" s="1"/>
-      <c r="AA52">
-        <v>0.0</v>
-      </c>
+      <c r="Z52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA52"/>
       <c r="AB52">
+        <v>0.0</v>
+      </c>
+      <c r="AC52">
         <v>-182280.0</v>
       </c>
-      <c r="AC52" s="2"/>
-      <c r="AD52" t="s">
-        <v>56</v>
+      <c r="AE52" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -9342,37 +9306,38 @@
         <v>-0.1</v>
       </c>
       <c r="R53" s="13">
+        <v>100000</v>
+      </c>
+      <c r="S53" s="13">
         <v>20589</v>
       </c>
-      <c r="S53" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="T53" s="13">
+      <c r="T53" s="13"/>
+      <c r="U53" s="13">
         <v>205.89</v>
       </c>
-      <c r="U53" s="13">
+      <c r="V53" s="13">
         <v>-200712.89</v>
       </c>
-      <c r="V53" s="13">
+      <c r="W53" s="13">
         <v>20589</v>
       </c>
-      <c r="W53" s="14"/>
-      <c r="X53" s="13">
-        <v>0</v>
-      </c>
+      <c r="X53" s="13"/>
       <c r="Y53" s="13">
         <v>0</v>
       </c>
-      <c r="Z53" s="13"/>
-      <c r="AA53" s="3">
-        <v>0.0</v>
-      </c>
+      <c r="Z53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3"/>
       <c r="AB53" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC53" s="3">
         <v>-200508.0</v>
       </c>
-      <c r="AC53" s="14"/>
-      <c r="AD53" s="3" t="s">
-        <v>57</v>
+      <c r="AD53" s="3"/>
+      <c r="AE53" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -9412,37 +9377,37 @@
         <v>-0.1</v>
       </c>
       <c r="R54" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S54" s="1">
         <v>18530</v>
       </c>
-      <c r="S54" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T54" s="1">
+      <c r="T54" s="1"/>
+      <c r="U54" s="6">
         <v>185.3</v>
       </c>
-      <c r="U54" s="6">
+      <c r="V54" s="1">
         <v>-220743.3</v>
       </c>
-      <c r="V54" s="1">
+      <c r="W54" s="1">
         <v>18530</v>
       </c>
-      <c r="W54" s="2"/>
-      <c r="X54" s="1">
-        <v>0</v>
-      </c>
+      <c r="X54" s="1"/>
       <c r="Y54" s="1">
         <v>0</v>
       </c>
-      <c r="Z54" s="1"/>
-      <c r="AA54">
-        <v>0.0</v>
-      </c>
+      <c r="Z54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA54"/>
       <c r="AB54">
+        <v>0.0</v>
+      </c>
+      <c r="AC54">
         <v>-220559.0</v>
       </c>
-      <c r="AC54" s="2"/>
-      <c r="AD54" t="s">
-        <v>58</v>
+      <c r="AE54" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -9482,37 +9447,37 @@
         <v>-0.1</v>
       </c>
       <c r="R55" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S55" s="1">
         <v>16677</v>
       </c>
-      <c r="S55" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T55" s="1">
+      <c r="T55" s="1"/>
+      <c r="U55" s="6">
         <v>166.77</v>
       </c>
-      <c r="U55" s="6">
+      <c r="V55" s="1">
         <v>-242780.77</v>
       </c>
-      <c r="V55" s="1">
+      <c r="W55" s="1">
         <v>16677</v>
       </c>
-      <c r="W55" s="2"/>
-      <c r="X55" s="1">
-        <v>0</v>
-      </c>
+      <c r="X55" s="1"/>
       <c r="Y55" s="1">
         <v>0</v>
       </c>
-      <c r="Z55" s="1"/>
-      <c r="AA55">
-        <v>0.0</v>
-      </c>
+      <c r="Z55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA55"/>
       <c r="AB55">
+        <v>0.0</v>
+      </c>
+      <c r="AC55">
         <v>-242615.0</v>
       </c>
-      <c r="AC55" s="2"/>
-      <c r="AD55" t="s">
-        <v>59</v>
+      <c r="AE55" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -9552,37 +9517,37 @@
         <v>-0.1</v>
       </c>
       <c r="R56" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S56" s="1">
         <v>15009</v>
       </c>
-      <c r="S56" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T56" s="1">
+      <c r="T56" s="1"/>
+      <c r="U56" s="6">
         <v>150.09</v>
       </c>
-      <c r="U56" s="6">
+      <c r="V56" s="1">
         <v>-267026.09</v>
       </c>
-      <c r="V56" s="1">
+      <c r="W56" s="1">
         <v>15009</v>
       </c>
-      <c r="W56" s="2"/>
-      <c r="X56" s="1">
-        <v>0</v>
-      </c>
+      <c r="X56" s="1"/>
       <c r="Y56" s="1">
         <v>0</v>
       </c>
-      <c r="Z56" s="1"/>
-      <c r="AA56">
-        <v>0.0</v>
-      </c>
+      <c r="Z56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA56"/>
       <c r="AB56">
+        <v>0.0</v>
+      </c>
+      <c r="AC56">
         <v>-266876.0</v>
       </c>
-      <c r="AC56" s="2"/>
-      <c r="AD56" t="s">
-        <v>60</v>
+      <c r="AE56" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -9622,37 +9587,38 @@
         <v>-0.1</v>
       </c>
       <c r="R57" s="13">
+        <v>100000</v>
+      </c>
+      <c r="S57" s="13">
         <v>13508</v>
       </c>
-      <c r="S57" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="T57" s="13">
+      <c r="T57" s="13"/>
+      <c r="U57" s="13">
         <v>135.08</v>
       </c>
-      <c r="U57" s="13">
+      <c r="V57" s="13">
         <v>-293698.08</v>
       </c>
-      <c r="V57" s="13">
+      <c r="W57" s="13">
         <v>13508</v>
       </c>
-      <c r="W57" s="14"/>
-      <c r="X57" s="13">
-        <v>0</v>
-      </c>
+      <c r="X57" s="13"/>
       <c r="Y57" s="13">
         <v>0</v>
       </c>
-      <c r="Z57" s="13"/>
-      <c r="AA57" s="3">
-        <v>0.0</v>
-      </c>
+      <c r="Z57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3"/>
       <c r="AB57" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AC57" s="3">
         <v>-293564.0</v>
       </c>
-      <c r="AC57" s="14"/>
-      <c r="AD57" s="3" t="s">
-        <v>61</v>
+      <c r="AD57" s="3"/>
+      <c r="AE57" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -9692,37 +9658,37 @@
         <v>-0.1</v>
       </c>
       <c r="R58" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S58" s="1">
         <v>12157</v>
       </c>
-      <c r="S58" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T58" s="1">
+      <c r="T58" s="1"/>
+      <c r="U58" s="6">
         <v>121.57</v>
       </c>
-      <c r="U58" s="6">
+      <c r="V58" s="1">
         <v>-323040.57</v>
       </c>
-      <c r="V58" s="1">
+      <c r="W58" s="1">
         <v>12157</v>
       </c>
-      <c r="W58" s="2"/>
-      <c r="X58" s="1">
-        <v>0</v>
-      </c>
+      <c r="X58" s="1"/>
       <c r="Y58" s="1">
         <v>0</v>
       </c>
-      <c r="Z58" s="1"/>
-      <c r="AA58">
-        <v>0.0</v>
-      </c>
+      <c r="Z58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA58"/>
       <c r="AB58">
+        <v>0.0</v>
+      </c>
+      <c r="AC58">
         <v>-322920.0</v>
       </c>
-      <c r="AC58" s="2"/>
-      <c r="AD58" t="s">
-        <v>62</v>
+      <c r="AE58" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -9762,37 +9728,37 @@
         <v>-0.1</v>
       </c>
       <c r="R59" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S59" s="1">
         <v>10941</v>
       </c>
-      <c r="S59" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T59" s="1">
+      <c r="T59" s="1"/>
+      <c r="U59" s="6">
         <v>109.41</v>
       </c>
-      <c r="U59" s="6">
+      <c r="V59" s="1">
         <v>-355320.41</v>
       </c>
-      <c r="V59" s="1">
+      <c r="W59" s="1">
         <v>10941</v>
       </c>
-      <c r="W59" s="2"/>
-      <c r="X59" s="1">
-        <v>0</v>
-      </c>
+      <c r="X59" s="1"/>
       <c r="Y59" s="1">
         <v>0</v>
       </c>
-      <c r="Z59" s="1"/>
-      <c r="AA59">
-        <v>0.0</v>
-      </c>
+      <c r="Z59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA59"/>
       <c r="AB59">
+        <v>0.0</v>
+      </c>
+      <c r="AC59">
         <v>-355212.0</v>
       </c>
-      <c r="AC59" s="2"/>
-      <c r="AD59" t="s">
-        <v>63</v>
+      <c r="AE59" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -9832,37 +9798,37 @@
         <v>-0.1</v>
       </c>
       <c r="R60" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S60" s="1">
         <v>9847</v>
       </c>
-      <c r="S60" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T60" s="1">
+      <c r="T60" s="1"/>
+      <c r="U60" s="6">
         <v>98.47</v>
       </c>
-      <c r="U60" s="6">
+      <c r="V60" s="1">
         <v>-390831.47</v>
       </c>
-      <c r="V60" s="1">
+      <c r="W60" s="1">
         <v>9847</v>
       </c>
-      <c r="W60" s="2"/>
-      <c r="X60" s="1">
-        <v>0</v>
-      </c>
+      <c r="X60" s="1"/>
       <c r="Y60" s="1">
         <v>0</v>
       </c>
-      <c r="Z60" s="1"/>
-      <c r="AA60">
-        <v>0.0</v>
-      </c>
+      <c r="Z60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA60"/>
       <c r="AB60">
+        <v>0.0</v>
+      </c>
+      <c r="AC60">
         <v>-390733.0</v>
       </c>
-      <c r="AC60" s="2"/>
-      <c r="AD60" t="s">
-        <v>64</v>
+      <c r="AE60" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -9902,37 +9868,37 @@
         <v>-0.1</v>
       </c>
       <c r="R61" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S61" s="1">
         <v>8862</v>
       </c>
-      <c r="S61" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T61" s="1">
+      <c r="T61" s="1"/>
+      <c r="U61" s="6">
         <v>88.62</v>
       </c>
-      <c r="U61" s="6">
+      <c r="V61" s="1">
         <v>-429894.62</v>
       </c>
-      <c r="V61" s="1">
+      <c r="W61" s="1">
         <v>8862</v>
       </c>
-      <c r="W61" s="2"/>
-      <c r="X61" s="1">
-        <v>0</v>
-      </c>
+      <c r="X61" s="1"/>
       <c r="Y61" s="1">
         <v>0</v>
       </c>
-      <c r="Z61" s="1"/>
-      <c r="AA61">
-        <v>0.0</v>
-      </c>
+      <c r="Z61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA61"/>
       <c r="AB61">
+        <v>0.0</v>
+      </c>
+      <c r="AC61">
         <v>-429807.0</v>
       </c>
-      <c r="AC61" s="2"/>
-      <c r="AD61" t="s">
-        <v>65</v>
+      <c r="AE61" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -9972,37 +9938,37 @@
         <v>-0.1</v>
       </c>
       <c r="R62" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S62" s="1">
         <v>7976</v>
       </c>
-      <c r="S62" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T62" s="1">
+      <c r="T62" s="1"/>
+      <c r="U62" s="6">
         <v>79.76</v>
       </c>
-      <c r="U62" s="6">
+      <c r="V62" s="1">
         <v>-472866.76</v>
       </c>
-      <c r="V62" s="1">
+      <c r="W62" s="1">
         <v>7976</v>
       </c>
-      <c r="W62" s="2"/>
-      <c r="X62" s="1">
-        <v>0</v>
-      </c>
+      <c r="X62" s="1"/>
       <c r="Y62" s="1">
         <v>0</v>
       </c>
-      <c r="Z62" s="1"/>
-      <c r="AA62">
-        <v>0.0</v>
-      </c>
+      <c r="Z62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA62"/>
       <c r="AB62">
+        <v>0.0</v>
+      </c>
+      <c r="AC62">
         <v>-472787.0</v>
       </c>
-      <c r="AC62" s="2"/>
-      <c r="AD62" t="s">
-        <v>66</v>
+      <c r="AE62" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -10042,37 +10008,37 @@
         <v>-0.1</v>
       </c>
       <c r="R63" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S63" s="1">
         <v>7178</v>
       </c>
-      <c r="S63" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T63" s="1">
+      <c r="T63" s="1"/>
+      <c r="U63" s="6">
         <v>71.78</v>
       </c>
-      <c r="U63" s="6">
+      <c r="V63" s="1">
         <v>-520136.78</v>
       </c>
-      <c r="V63" s="1">
+      <c r="W63" s="1">
         <v>7178</v>
       </c>
-      <c r="W63" s="2"/>
-      <c r="X63" s="1">
-        <v>0</v>
-      </c>
+      <c r="X63" s="1"/>
       <c r="Y63" s="1">
         <v>0</v>
       </c>
-      <c r="Z63" s="1"/>
-      <c r="AA63">
-        <v>0.0</v>
-      </c>
+      <c r="Z63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA63"/>
       <c r="AB63">
+        <v>0.0</v>
+      </c>
+      <c r="AC63">
         <v>-520066.0</v>
       </c>
-      <c r="AC63" s="2"/>
-      <c r="AD63" t="s">
-        <v>67</v>
+      <c r="AE63" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -10112,37 +10078,37 @@
         <v>-0.1</v>
       </c>
       <c r="R64" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S64" s="1">
         <v>6460</v>
       </c>
-      <c r="S64" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T64" s="1">
+      <c r="T64" s="1"/>
+      <c r="U64" s="6">
         <v>64.6</v>
       </c>
-      <c r="U64" s="6">
+      <c r="V64" s="1">
         <v>-572136.6</v>
       </c>
-      <c r="V64" s="1">
+      <c r="W64" s="1">
         <v>6460</v>
       </c>
-      <c r="W64" s="2"/>
-      <c r="X64" s="1">
-        <v>0</v>
-      </c>
+      <c r="X64" s="1"/>
       <c r="Y64" s="1">
         <v>0</v>
       </c>
-      <c r="Z64" s="1"/>
-      <c r="AA64">
-        <v>0.0</v>
-      </c>
+      <c r="Z64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA64"/>
       <c r="AB64">
+        <v>0.0</v>
+      </c>
+      <c r="AC64">
         <v>-572072.0</v>
       </c>
-      <c r="AC64" s="2"/>
-      <c r="AD64" t="s">
-        <v>68</v>
+      <c r="AE64" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -10182,37 +10148,37 @@
         <v>-0.1</v>
       </c>
       <c r="R65" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S65" s="1">
         <v>5814</v>
       </c>
-      <c r="S65" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T65" s="1">
+      <c r="T65" s="1"/>
+      <c r="U65" s="6">
         <v>58.14</v>
       </c>
-      <c r="U65" s="6">
+      <c r="V65" s="1">
         <v>-629337.14</v>
       </c>
-      <c r="V65" s="1">
+      <c r="W65" s="1">
         <v>5814</v>
       </c>
-      <c r="W65" s="2"/>
-      <c r="X65" s="1">
-        <v>0</v>
-      </c>
+      <c r="X65" s="1"/>
       <c r="Y65" s="1">
         <v>0</v>
       </c>
-      <c r="Z65" s="1"/>
-      <c r="AA65">
-        <v>0.0</v>
-      </c>
+      <c r="Z65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA65"/>
       <c r="AB65">
+        <v>0.0</v>
+      </c>
+      <c r="AC65">
         <v>-629280.0</v>
       </c>
-      <c r="AC65" s="2"/>
-      <c r="AD65" t="s">
-        <v>69</v>
+      <c r="AE65" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -10252,37 +10218,37 @@
         <v>-0.1</v>
       </c>
       <c r="R66" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S66" s="1">
         <v>5233</v>
       </c>
-      <c r="S66" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T66" s="1">
+      <c r="T66" s="1"/>
+      <c r="U66" s="6">
         <v>52.33</v>
       </c>
-      <c r="U66" s="6">
+      <c r="V66" s="1">
         <v>-692259.33</v>
       </c>
-      <c r="V66" s="1">
+      <c r="W66" s="1">
         <v>5233</v>
       </c>
-      <c r="W66" s="2"/>
-      <c r="X66" s="1">
-        <v>0</v>
-      </c>
+      <c r="X66" s="1"/>
       <c r="Y66" s="1">
         <v>0</v>
       </c>
-      <c r="Z66" s="1"/>
-      <c r="AA66">
-        <v>0.0</v>
-      </c>
+      <c r="Z66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA66"/>
       <c r="AB66">
+        <v>0.0</v>
+      </c>
+      <c r="AC66">
         <v>-692208.0</v>
       </c>
-      <c r="AC66" s="2"/>
-      <c r="AD66" t="s">
-        <v>70</v>
+      <c r="AE66" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -10322,37 +10288,37 @@
         <v>-0.1</v>
       </c>
       <c r="R67" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S67" s="1">
         <v>4710</v>
       </c>
-      <c r="S67" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T67" s="1">
+      <c r="T67" s="1"/>
+      <c r="U67" s="6">
         <v>47.1</v>
       </c>
-      <c r="U67" s="6">
+      <c r="V67" s="1">
         <v>-761475.1</v>
       </c>
-      <c r="V67" s="1">
+      <c r="W67" s="1">
         <v>4710</v>
       </c>
-      <c r="W67" s="2"/>
-      <c r="X67" s="1">
-        <v>0</v>
-      </c>
+      <c r="X67" s="1"/>
       <c r="Y67" s="1">
         <v>0</v>
       </c>
-      <c r="Z67" s="1"/>
-      <c r="AA67">
-        <v>0.0</v>
-      </c>
+      <c r="Z67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA67"/>
       <c r="AB67">
+        <v>0.0</v>
+      </c>
+      <c r="AC67">
         <v>-761428.0</v>
       </c>
-      <c r="AC67" s="2"/>
-      <c r="AD67" t="s">
-        <v>71</v>
+      <c r="AE67" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -10392,37 +10358,37 @@
         <v>-0.1</v>
       </c>
       <c r="R68" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S68" s="1">
         <v>4239</v>
       </c>
-      <c r="S68" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T68" s="1">
+      <c r="T68" s="1"/>
+      <c r="U68" s="6">
         <v>42.39</v>
       </c>
-      <c r="U68" s="6">
+      <c r="V68" s="1">
         <v>-837613.39</v>
       </c>
-      <c r="V68" s="1">
+      <c r="W68" s="1">
         <v>4239</v>
       </c>
-      <c r="W68" s="2"/>
-      <c r="X68" s="1">
-        <v>0</v>
-      </c>
+      <c r="X68" s="1"/>
       <c r="Y68" s="1">
         <v>0</v>
       </c>
-      <c r="Z68" s="1"/>
-      <c r="AA68">
-        <v>0.0</v>
-      </c>
+      <c r="Z68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA68"/>
       <c r="AB68">
+        <v>0.0</v>
+      </c>
+      <c r="AC68">
         <v>-837571.0</v>
       </c>
-      <c r="AC68" s="2"/>
-      <c r="AD68" t="s">
-        <v>72</v>
+      <c r="AE68" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -10462,37 +10428,37 @@
         <v>-0.1</v>
       </c>
       <c r="R69" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S69" s="1">
         <v>3815</v>
       </c>
-      <c r="S69" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T69" s="1">
+      <c r="T69" s="1"/>
+      <c r="U69" s="6">
         <v>38.15</v>
       </c>
-      <c r="U69" s="6">
+      <c r="V69" s="1">
         <v>-921366.15</v>
       </c>
-      <c r="V69" s="1">
+      <c r="W69" s="1">
         <v>3815</v>
       </c>
-      <c r="W69" s="2"/>
-      <c r="X69" s="1">
-        <v>0</v>
-      </c>
+      <c r="X69" s="1"/>
       <c r="Y69" s="1">
         <v>0</v>
       </c>
-      <c r="Z69" s="1"/>
-      <c r="AA69">
-        <v>0.0</v>
-      </c>
+      <c r="Z69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA69"/>
       <c r="AB69">
+        <v>0.0</v>
+      </c>
+      <c r="AC69">
         <v>-921328.0</v>
       </c>
-      <c r="AC69" s="2"/>
-      <c r="AD69" t="s">
-        <v>73</v>
+      <c r="AE69" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -10532,37 +10498,37 @@
         <v>-0.1</v>
       </c>
       <c r="R70" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S70" s="1">
         <v>3434</v>
       </c>
-      <c r="S70" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T70" s="1">
+      <c r="T70" s="1"/>
+      <c r="U70" s="6">
         <v>34.34</v>
       </c>
-      <c r="U70" s="6">
+      <c r="V70" s="1">
         <v>-1013495.34</v>
       </c>
-      <c r="V70" s="1">
+      <c r="W70" s="1">
         <v>3434</v>
       </c>
-      <c r="W70" s="2"/>
-      <c r="X70" s="1">
-        <v>0</v>
-      </c>
+      <c r="X70" s="1"/>
       <c r="Y70" s="1">
         <v>0</v>
       </c>
-      <c r="Z70" s="1"/>
-      <c r="AA70">
-        <v>0.0</v>
-      </c>
+      <c r="Z70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA70"/>
       <c r="AB70">
+        <v>0.0</v>
+      </c>
+      <c r="AC70">
         <v>-1013461.0</v>
       </c>
-      <c r="AC70" s="2"/>
-      <c r="AD70" t="s">
-        <v>74</v>
+      <c r="AE70" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -10602,37 +10568,37 @@
         <v>-0.1</v>
       </c>
       <c r="R71" s="1">
+        <v>100000</v>
+      </c>
+      <c r="S71" s="1">
         <v>3091</v>
       </c>
-      <c r="S71" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T71" s="1">
+      <c r="T71" s="1"/>
+      <c r="U71" s="6">
         <v>30.91</v>
       </c>
-      <c r="U71" s="6">
+      <c r="V71" s="1">
         <v>-1114837.91</v>
       </c>
-      <c r="V71" s="1">
+      <c r="W71" s="1">
         <v>3091</v>
       </c>
-      <c r="W71" s="2"/>
-      <c r="X71" s="1">
-        <v>0</v>
-      </c>
+      <c r="X71" s="1"/>
       <c r="Y71" s="1">
         <v>0</v>
       </c>
-      <c r="Z71" s="1"/>
-      <c r="AA71">
-        <v>0.0</v>
-      </c>
+      <c r="Z71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA71"/>
       <c r="AB71">
+        <v>0.0</v>
+      </c>
+      <c r="AC71">
         <v>-1114807.0</v>
       </c>
-      <c r="AC71" s="2"/>
-      <c r="AD71" t="s">
-        <v>75</v>
+      <c r="AE71" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -10672,37 +10638,38 @@
         <v>-0.1</v>
       </c>
       <c r="R72" s="5">
+        <v>100000</v>
+      </c>
+      <c r="S72" s="5">
         <v>2782</v>
       </c>
-      <c r="S72" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="T72" s="5">
+      <c r="T72" s="5"/>
+      <c r="U72" s="5">
         <v>27.82</v>
       </c>
-      <c r="U72" s="5">
+      <c r="V72" s="5">
         <v>-1226315.82</v>
       </c>
-      <c r="V72" s="5">
+      <c r="W72" s="5">
         <v>2782</v>
       </c>
-      <c r="W72" s="16"/>
-      <c r="X72" s="5">
-        <v>0</v>
-      </c>
+      <c r="X72" s="5"/>
       <c r="Y72" s="5">
         <v>0</v>
       </c>
-      <c r="Z72" s="5"/>
-      <c r="AA72" s="15">
-        <v>0.0</v>
-      </c>
+      <c r="Z72" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="15"/>
       <c r="AB72" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="AC72" s="15">
         <v>-1226288.0</v>
       </c>
-      <c r="AC72" s="16"/>
-      <c r="AD72" s="15" t="s">
-        <v>76</v>
+      <c r="AD72" s="15"/>
+      <c r="AE72" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -10723,15 +10690,14 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="1"/>
-      <c r="S73" s="2"/>
+      <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
-      <c r="W73" s="2"/>
+      <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
-      <c r="AC73" s="2"/>
     </row>
     <row r="74" spans="1:31">
       <c r="B74" s="1"/>
@@ -10751,15 +10717,14 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="1"/>
-      <c r="S74" s="2"/>
+      <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
-      <c r="W74" s="2"/>
+      <c r="W74" s="1"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
-      <c r="AC74" s="2"/>
     </row>
     <row r="75" spans="1:31">
       <c r="B75" s="1"/>
@@ -10779,15 +10744,14 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="1"/>
-      <c r="S75" s="2"/>
+      <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
-      <c r="W75" s="2"/>
+      <c r="W75" s="1"/>
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
-      <c r="AC75" s="2"/>
     </row>
     <row r="76" spans="1:31">
       <c r="B76" s="1"/>
@@ -10807,15 +10771,14 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="1"/>
-      <c r="S76" s="2"/>
+      <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
-      <c r="W76" s="2"/>
+      <c r="W76" s="1"/>
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
-      <c r="AC76" s="2"/>
     </row>
     <row r="77" spans="1:31">
       <c r="B77" s="1"/>
@@ -10835,15 +10798,14 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="1"/>
-      <c r="S77" s="2"/>
+      <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
-      <c r="W77" s="2"/>
+      <c r="W77" s="1"/>
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
-      <c r="AC77" s="2"/>
     </row>
     <row r="78" spans="1:31">
       <c r="B78" s="1"/>
@@ -10863,15 +10825,14 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="1"/>
-      <c r="S78" s="2"/>
+      <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
-      <c r="W78" s="2"/>
+      <c r="W78" s="1"/>
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
-      <c r="AC78" s="2"/>
     </row>
     <row r="79" spans="1:31">
       <c r="B79" s="1"/>
@@ -10891,15 +10852,14 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="1"/>
-      <c r="S79" s="2"/>
+      <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
-      <c r="W79" s="2"/>
+      <c r="W79" s="1"/>
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
-      <c r="AC79" s="2"/>
     </row>
     <row r="80" spans="1:31">
       <c r="B80" s="1"/>
@@ -10919,15 +10879,14 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="1"/>
-      <c r="S80" s="2"/>
+      <c r="S80" s="1"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
-      <c r="W80" s="2"/>
+      <c r="W80" s="1"/>
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
-      <c r="AC80" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/tests/Feature/config/car_tenpercent.xlsx
+++ b/tests/Feature/config/car_tenpercent.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>private</t>
   </si>
@@ -106,16 +106,13 @@
     <t>Markedsverdi</t>
   </si>
   <si>
-    <t>% Økning</t>
-  </si>
-  <si>
     <t>Markedsverdi fratrukket lån</t>
   </si>
   <si>
     <t>Anskaffelsesverdi</t>
   </si>
   <si>
-    <t>Betalt (inkl renter)</t>
+    <t>Betalt (inkl kostnader)</t>
   </si>
   <si>
     <t>Skattbar</t>
@@ -136,13 +133,10 @@
     <t>Rest evne</t>
   </si>
   <si>
-    <t>FIRE sparing</t>
+    <t>Sparing</t>
   </si>
   <si>
-    <t>FIRE cashflow</t>
-  </si>
-  <si>
-    <t>FIRE sparerate</t>
+    <t>Sparerate</t>
   </si>
   <si>
     <t>Description</t>
@@ -154,148 +148,112 @@
     <t>car</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 0, decimal: 1Using previous amount: 0 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve">000 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">0Drivstoff/Forsikring/Vedlikehold/Bompenger 4000,- pr mndoriginal er satt til en variabel: changerates.kpi = 10% = 1.1verditap Asset rule 0original er satt til en variabel: changerates.car = -10% = 0.9Using current amount: 100000 * 1 no transferResource &amp;&amp; transferRule
-</t>
+    <t>0Drivstoff/Forsikring/Vedlikehold/Bompenger 4000,- pr mndverditap Asset rule Using current amount: 100000 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 90000 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 90000 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 81000 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 81000 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 72900 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 72900 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 65610 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 65610 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 59049 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 59049 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 53144 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 53144 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 47830 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 47830 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 43047 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 43047 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 38742 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 38742 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 34868 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 34868 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 31381 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 31381 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 28243 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 28243 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 25419 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 25419 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 22877 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 22877 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 20589 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 20589 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 18530 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 18530 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 16677 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 16677 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 15009 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 15009 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 13508 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 13508 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 12157 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 12157 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 10941 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 10941 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 9847 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 9847 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 8862 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 8862 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 7976 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 7976 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 7178 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 7178 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 6460 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 6460 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 5814 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 5814 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 5233 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 5233 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 4710 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 4710 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 4239 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 4239 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 3815 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 3815 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 3434 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 3434 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 3091 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 3091 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 2782 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 2782 * 1</t>
   </si>
 </sst>
 </file>
@@ -693,7 +651,7 @@
   <dimension ref="A1:AG80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A72" sqref="A72:AD72"/>
+      <selection activeCell="A72" sqref="A72:AF72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -702,7 +660,7 @@
     <col min="2" max="2" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -714,16 +672,20 @@
     <col min="14" max="14" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="28" max="28" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="29" max="29" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="30" max="30" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -778,7 +740,7 @@
       <c r="Z4" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -832,22 +794,22 @@
         <v>28</v>
       </c>
       <c r="Q5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>19</v>
@@ -859,28 +821,28 @@
         <v>7</v>
       </c>
       <c r="Z5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF5" t="s">
         <v>39</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AG5" t="s">
         <v>40</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -891,16 +853,20 @@
         <v>16</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="1">
         <v>0</v>
@@ -911,15 +877,23 @@
       <c r="M6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q6" s="2"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+      <c r="R6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
       <c r="U6" s="6">
         <v>0</v>
       </c>
@@ -941,7 +915,7 @@
       <c r="AC6" s="1">
         <v>0</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6"/>
@@ -955,16 +929,20 @@
         <v>17</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="1">
         <v>0</v>
@@ -975,15 +953,23 @@
       <c r="M7" s="1">
         <v>0</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q7" s="2"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="R7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
       <c r="U7" s="6">
         <v>0</v>
       </c>
@@ -1005,7 +991,7 @@
       <c r="AC7" s="1">
         <v>0</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AD7">
         <v>0</v>
       </c>
       <c r="AE7"/>
@@ -1019,16 +1005,20 @@
         <v>18</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="1">
         <v>0</v>
@@ -1039,15 +1029,23 @@
       <c r="M8" s="1">
         <v>0</v>
       </c>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8" s="2"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="R8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
       <c r="U8" s="6">
         <v>0</v>
       </c>
@@ -1069,7 +1067,7 @@
       <c r="AC8" s="1">
         <v>0</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8">
         <v>0</v>
       </c>
       <c r="AE8"/>
@@ -1083,16 +1081,20 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="1">
         <v>0</v>
@@ -1103,15 +1105,23 @@
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q9" s="2"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="R9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
       <c r="U9" s="6">
         <v>0</v>
       </c>
@@ -1133,7 +1143,7 @@
       <c r="AC9" s="1">
         <v>0</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9"/>
@@ -1147,16 +1157,20 @@
         <v>20</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="1">
         <v>0</v>
@@ -1167,15 +1181,23 @@
       <c r="M10" s="1">
         <v>0</v>
       </c>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q10" s="2"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="R10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
       <c r="U10" s="6">
         <v>0</v>
       </c>
@@ -1197,7 +1219,7 @@
       <c r="AC10" s="1">
         <v>0</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10"/>
@@ -1211,16 +1233,20 @@
         <v>21</v>
       </c>
       <c r="C11" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="1">
         <v>0</v>
@@ -1231,15 +1257,23 @@
       <c r="M11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q11" s="2"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="R11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
       <c r="U11" s="6">
         <v>0</v>
       </c>
@@ -1261,7 +1295,7 @@
       <c r="AC11" s="1">
         <v>0</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11"/>
@@ -1275,16 +1309,20 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="1">
         <v>0</v>
@@ -1295,15 +1333,23 @@
       <c r="M12" s="1">
         <v>0</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q12" s="2"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="R12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
       <c r="U12" s="6">
         <v>0</v>
       </c>
@@ -1325,7 +1371,7 @@
       <c r="AC12" s="1">
         <v>0</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AD12">
         <v>0</v>
       </c>
       <c r="AE12"/>
@@ -1339,16 +1385,20 @@
         <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="1">
         <v>0</v>
@@ -1359,15 +1409,23 @@
       <c r="M13" s="1">
         <v>0</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q13" s="2"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
+      <c r="R13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
       <c r="U13" s="6">
         <v>0</v>
       </c>
@@ -1389,7 +1447,7 @@
       <c r="AC13" s="1">
         <v>0</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AD13">
         <v>0</v>
       </c>
       <c r="AE13"/>
@@ -1403,16 +1461,20 @@
         <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="1">
         <v>0</v>
@@ -1423,15 +1485,23 @@
       <c r="M14" s="1">
         <v>0</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q14" s="2"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
+      <c r="R14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
       <c r="U14" s="6">
         <v>0</v>
       </c>
@@ -1453,7 +1523,7 @@
       <c r="AC14" s="1">
         <v>0</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AD14">
         <v>0</v>
       </c>
       <c r="AE14"/>
@@ -1467,16 +1537,20 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="1">
         <v>0</v>
@@ -1487,15 +1561,23 @@
       <c r="M15" s="1">
         <v>0</v>
       </c>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q15" s="2"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
+      <c r="R15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
       <c r="U15" s="6">
         <v>0</v>
       </c>
@@ -1517,7 +1599,7 @@
       <c r="AC15" s="1">
         <v>0</v>
       </c>
-      <c r="AD15" s="2">
+      <c r="AD15">
         <v>0</v>
       </c>
       <c r="AE15"/>
@@ -1531,16 +1613,20 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="1">
         <v>0</v>
@@ -1551,15 +1637,23 @@
       <c r="M16" s="1">
         <v>0</v>
       </c>
-      <c r="N16" s="1"/>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q16" s="2"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
+      <c r="R16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
       <c r="U16" s="6">
         <v>0</v>
       </c>
@@ -1581,7 +1675,7 @@
       <c r="AC16" s="1">
         <v>0</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AD16">
         <v>0</v>
       </c>
       <c r="AE16"/>
@@ -1595,16 +1689,20 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="1">
         <v>0</v>
@@ -1615,15 +1713,23 @@
       <c r="M17" s="1">
         <v>0</v>
       </c>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q17" s="2"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
+      <c r="R17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
       <c r="U17" s="6">
         <v>0</v>
       </c>
@@ -1645,7 +1751,7 @@
       <c r="AC17" s="1">
         <v>0</v>
       </c>
-      <c r="AD17" s="2">
+      <c r="AD17">
         <v>0</v>
       </c>
       <c r="AE17"/>
@@ -1659,16 +1765,20 @@
         <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="1">
         <v>0</v>
@@ -1679,15 +1789,23 @@
       <c r="M18" s="1">
         <v>0</v>
       </c>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q18" s="2"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
+      <c r="R18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
       <c r="U18" s="6">
         <v>0</v>
       </c>
@@ -1709,7 +1827,7 @@
       <c r="AC18" s="1">
         <v>0</v>
       </c>
-      <c r="AD18" s="2">
+      <c r="AD18">
         <v>0</v>
       </c>
       <c r="AE18"/>
@@ -1723,16 +1841,20 @@
         <v>29</v>
       </c>
       <c r="C19" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="1">
         <v>0</v>
@@ -1743,15 +1865,23 @@
       <c r="M19" s="1">
         <v>0</v>
       </c>
-      <c r="N19" s="1"/>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q19" s="2"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
+      <c r="R19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
       <c r="U19" s="6">
         <v>0</v>
       </c>
@@ -1773,7 +1903,7 @@
       <c r="AC19" s="1">
         <v>0</v>
       </c>
-      <c r="AD19" s="2">
+      <c r="AD19">
         <v>0</v>
       </c>
       <c r="AE19"/>
@@ -1787,16 +1917,20 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="1">
         <v>0</v>
@@ -1807,15 +1941,23 @@
       <c r="M20" s="1">
         <v>0</v>
       </c>
-      <c r="N20" s="1"/>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q20" s="2"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
+      <c r="R20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
       <c r="U20" s="6">
         <v>0</v>
       </c>
@@ -1837,7 +1979,7 @@
       <c r="AC20" s="1">
         <v>0</v>
       </c>
-      <c r="AD20" s="2">
+      <c r="AD20">
         <v>0</v>
       </c>
       <c r="AE20"/>
@@ -1851,16 +1993,20 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="1">
         <v>0</v>
@@ -1871,15 +2017,23 @@
       <c r="M21" s="1">
         <v>0</v>
       </c>
-      <c r="N21" s="1"/>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q21" s="2"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
+      <c r="R21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
       <c r="U21" s="6">
         <v>0</v>
       </c>
@@ -1901,7 +2055,7 @@
       <c r="AC21" s="1">
         <v>0</v>
       </c>
-      <c r="AD21" s="2">
+      <c r="AD21">
         <v>0</v>
       </c>
       <c r="AE21"/>
@@ -1915,16 +2069,20 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="1">
         <v>0</v>
@@ -1935,15 +2093,23 @@
       <c r="M22" s="1">
         <v>0</v>
       </c>
-      <c r="N22" s="1"/>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q22" s="2"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
+      <c r="R22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
       <c r="U22" s="6">
         <v>0</v>
       </c>
@@ -1965,7 +2131,7 @@
       <c r="AC22" s="1">
         <v>0</v>
       </c>
-      <c r="AD22" s="2">
+      <c r="AD22">
         <v>0</v>
       </c>
       <c r="AE22"/>
@@ -1979,16 +2145,20 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="1">
         <v>0</v>
@@ -1999,15 +2169,23 @@
       <c r="M23" s="1">
         <v>0</v>
       </c>
-      <c r="N23" s="1"/>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q23" s="2"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
+      <c r="R23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
       <c r="U23" s="6">
         <v>0</v>
       </c>
@@ -2029,7 +2207,7 @@
       <c r="AC23" s="1">
         <v>0</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AD23">
         <v>0</v>
       </c>
       <c r="AE23"/>
@@ -2043,16 +2221,20 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="1">
         <v>0</v>
@@ -2063,15 +2245,23 @@
       <c r="M24" s="1">
         <v>0</v>
       </c>
-      <c r="N24" s="1"/>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q24" s="2"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
+      <c r="R24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
       <c r="U24" s="6">
         <v>0</v>
       </c>
@@ -2093,7 +2283,7 @@
       <c r="AC24" s="1">
         <v>0</v>
       </c>
-      <c r="AD24" s="2">
+      <c r="AD24">
         <v>0</v>
       </c>
       <c r="AE24"/>
@@ -2107,16 +2297,20 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="1">
         <v>0</v>
@@ -2127,15 +2321,23 @@
       <c r="M25" s="1">
         <v>0</v>
       </c>
-      <c r="N25" s="1"/>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q25" s="2"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
+      <c r="R25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
       <c r="U25" s="6">
         <v>0</v>
       </c>
@@ -2157,7 +2359,7 @@
       <c r="AC25" s="1">
         <v>0</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AD25">
         <v>0</v>
       </c>
       <c r="AE25"/>
@@ -2171,16 +2373,20 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="1">
         <v>0</v>
@@ -2191,15 +2397,23 @@
       <c r="M26" s="1">
         <v>0</v>
       </c>
-      <c r="N26" s="1"/>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q26" s="2"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
+      <c r="R26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
       <c r="U26" s="6">
         <v>0</v>
       </c>
@@ -2221,7 +2435,7 @@
       <c r="AC26" s="1">
         <v>0</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AD26">
         <v>0</v>
       </c>
       <c r="AE26"/>
@@ -2235,16 +2449,20 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H27" s="2"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="1">
         <v>0</v>
@@ -2255,15 +2473,23 @@
       <c r="M27" s="1">
         <v>0</v>
       </c>
-      <c r="N27" s="1"/>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q27" s="2"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
+      <c r="R27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
       <c r="U27" s="6">
         <v>0</v>
       </c>
@@ -2285,7 +2511,7 @@
       <c r="AC27" s="1">
         <v>0</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AD27">
         <v>0</v>
       </c>
       <c r="AE27"/>
@@ -2299,16 +2525,20 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H28" s="2"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="1">
         <v>0</v>
@@ -2319,15 +2549,23 @@
       <c r="M28" s="1">
         <v>0</v>
       </c>
-      <c r="N28" s="1"/>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q28" s="2"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
+      <c r="R28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
       <c r="U28" s="6">
         <v>0</v>
       </c>
@@ -2349,7 +2587,7 @@
       <c r="AC28" s="1">
         <v>0</v>
       </c>
-      <c r="AD28" s="2">
+      <c r="AD28">
         <v>0</v>
       </c>
       <c r="AE28"/>
@@ -2363,16 +2601,20 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H29" s="2"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="1">
         <v>0</v>
@@ -2383,15 +2625,23 @@
       <c r="M29" s="1">
         <v>0</v>
       </c>
-      <c r="N29" s="1"/>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q29" s="2"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
+      <c r="R29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
       <c r="U29" s="6">
         <v>0</v>
       </c>
@@ -2413,7 +2663,7 @@
       <c r="AC29" s="1">
         <v>0</v>
       </c>
-      <c r="AD29" s="2">
+      <c r="AD29">
         <v>0</v>
       </c>
       <c r="AE29"/>
@@ -2427,16 +2677,20 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H30" s="2"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="1">
         <v>0</v>
@@ -2447,15 +2701,23 @@
       <c r="M30" s="1">
         <v>0</v>
       </c>
-      <c r="N30" s="1"/>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q30" s="2"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
+      <c r="R30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
       <c r="U30" s="6">
         <v>0</v>
       </c>
@@ -2477,7 +2739,7 @@
       <c r="AC30" s="1">
         <v>0</v>
       </c>
-      <c r="AD30" s="2">
+      <c r="AD30">
         <v>0</v>
       </c>
       <c r="AE30"/>
@@ -2491,16 +2753,20 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H31" s="2"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
       <c r="J31" s="2"/>
       <c r="K31" s="1">
         <v>0</v>
@@ -2511,15 +2777,23 @@
       <c r="M31" s="1">
         <v>0</v>
       </c>
-      <c r="N31" s="1"/>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q31" s="2"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
+      <c r="R31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
       <c r="U31" s="6">
         <v>0</v>
       </c>
@@ -2541,7 +2815,7 @@
       <c r="AC31" s="1">
         <v>0</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AD31">
         <v>0</v>
       </c>
       <c r="AE31"/>
@@ -2555,16 +2829,20 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H32" s="2"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
       <c r="J32" s="2"/>
       <c r="K32" s="1">
         <v>0</v>
@@ -2575,15 +2853,23 @@
       <c r="M32" s="1">
         <v>0</v>
       </c>
-      <c r="N32" s="1"/>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q32" s="2"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
+      <c r="R32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0</v>
+      </c>
       <c r="U32" s="6">
         <v>0</v>
       </c>
@@ -2605,7 +2891,7 @@
       <c r="AC32" s="1">
         <v>0</v>
       </c>
-      <c r="AD32" s="2">
+      <c r="AD32">
         <v>0</v>
       </c>
       <c r="AE32"/>
@@ -2619,16 +2905,20 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H33" s="2"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
       <c r="J33" s="2"/>
       <c r="K33" s="1">
         <v>0</v>
@@ -2639,15 +2929,23 @@
       <c r="M33" s="1">
         <v>0</v>
       </c>
-      <c r="N33" s="1"/>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q33" s="2"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
+      <c r="R33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
       <c r="U33" s="6">
         <v>0</v>
       </c>
@@ -2669,7 +2967,7 @@
       <c r="AC33" s="1">
         <v>0</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="AD33">
         <v>0</v>
       </c>
       <c r="AE33"/>
@@ -2683,16 +2981,20 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F34" s="2"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H34" s="2"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
       <c r="J34" s="2"/>
       <c r="K34" s="1">
         <v>0</v>
@@ -2703,15 +3005,23 @@
       <c r="M34" s="1">
         <v>0</v>
       </c>
-      <c r="N34" s="1"/>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q34" s="2"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
+      <c r="R34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
       <c r="U34" s="6">
         <v>0</v>
       </c>
@@ -2733,7 +3043,7 @@
       <c r="AC34" s="1">
         <v>0</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AD34">
         <v>0</v>
       </c>
       <c r="AE34"/>
@@ -2747,16 +3057,20 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F35" s="2"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H35" s="2"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
       <c r="J35" s="2"/>
       <c r="K35" s="1">
         <v>0</v>
@@ -2767,15 +3081,23 @@
       <c r="M35" s="1">
         <v>0</v>
       </c>
-      <c r="N35" s="1"/>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q35" s="2"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
+      <c r="R35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
       <c r="U35" s="6">
         <v>0</v>
       </c>
@@ -2797,7 +3119,7 @@
       <c r="AC35" s="1">
         <v>0</v>
       </c>
-      <c r="AD35" s="2">
+      <c r="AD35">
         <v>0</v>
       </c>
       <c r="AE35"/>
@@ -2811,16 +3133,20 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H36" s="2"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
       <c r="J36" s="2"/>
       <c r="K36" s="1">
         <v>0</v>
@@ -2831,15 +3157,23 @@
       <c r="M36" s="1">
         <v>0</v>
       </c>
-      <c r="N36" s="1"/>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q36" s="2"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
+      <c r="R36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
       <c r="U36" s="6">
         <v>0</v>
       </c>
@@ -2861,7 +3195,7 @@
       <c r="AC36" s="1">
         <v>0</v>
       </c>
-      <c r="AD36" s="2">
+      <c r="AD36">
         <v>0</v>
       </c>
       <c r="AE36"/>
@@ -2875,16 +3209,20 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H37" s="2"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
       <c r="J37" s="2"/>
       <c r="K37" s="1">
         <v>0</v>
@@ -2895,15 +3233,23 @@
       <c r="M37" s="1">
         <v>0</v>
       </c>
-      <c r="N37" s="1"/>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q37" s="2"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
+      <c r="R37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
       <c r="U37" s="6">
         <v>0</v>
       </c>
@@ -2925,7 +3271,7 @@
       <c r="AC37" s="1">
         <v>0</v>
       </c>
-      <c r="AD37" s="2">
+      <c r="AD37">
         <v>0</v>
       </c>
       <c r="AE37"/>
@@ -2939,16 +3285,20 @@
         <v>48</v>
       </c>
       <c r="C38" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>48000</v>
+        <v>4400.0</v>
       </c>
       <c r="F38" s="2"/>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H38" s="2"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
       <c r="J38" s="2"/>
       <c r="K38" s="1">
         <v>0</v>
@@ -2959,17 +3309,25 @@
       <c r="M38" s="1">
         <v>0</v>
       </c>
-      <c r="N38" s="1"/>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="Q38" s="2"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
+      <c r="R38" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U38" s="6">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="1">
@@ -2977,7 +3335,7 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="1">
-        <v>0.0</v>
+        <v>-4400.0</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
@@ -2989,7 +3347,7 @@
       <c r="AC38" s="1">
         <v>0</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AD38">
         <v>0</v>
       </c>
       <c r="AE38"/>
@@ -3003,16 +3361,20 @@
         <v>49</v>
       </c>
       <c r="C39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="8">
-        <v>52800</v>
+        <v>4840.0</v>
       </c>
       <c r="F39" s="9"/>
-      <c r="G39" s="8"/>
+      <c r="G39" s="8">
+        <v>0.0</v>
+      </c>
       <c r="H39" s="9"/>
-      <c r="I39" s="8"/>
+      <c r="I39" s="8">
+        <v>0</v>
+      </c>
       <c r="J39" s="9"/>
       <c r="K39" s="8">
         <v>0</v>
@@ -3023,17 +3385,25 @@
       <c r="M39" s="8">
         <v>0</v>
       </c>
-      <c r="N39" s="8"/>
+      <c r="N39" s="8">
+        <v>0</v>
+      </c>
       <c r="O39" s="9"/>
       <c r="P39" s="8">
-        <v>90000</v>
+        <v>81000.0</v>
       </c>
       <c r="Q39" s="9"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
+      <c r="R39" s="8">
+        <v>81000.0</v>
+      </c>
+      <c r="S39" s="8">
+        <v>90000.0</v>
+      </c>
+      <c r="T39" s="8">
+        <v>90000.0</v>
+      </c>
       <c r="U39" s="8">
-        <v>90000</v>
+        <v>81000</v>
       </c>
       <c r="V39" s="9"/>
       <c r="W39" s="8">
@@ -3041,7 +3411,7 @@
       </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="8">
-        <v>0.0</v>
+        <v>-4840.0</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="8">
@@ -3053,10 +3423,11 @@
       <c r="AC39" s="8">
         <v>0</v>
       </c>
-      <c r="AD39" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE39"/>
+      <c r="AD39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
       <c r="AG39"/>
     </row>
     <row r="40" spans="1:33">
@@ -3067,16 +3438,20 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>58080</v>
+        <v>5324.0</v>
       </c>
       <c r="F40" s="12"/>
-      <c r="G40" s="11"/>
+      <c r="G40" s="11">
+        <v>0.0</v>
+      </c>
       <c r="H40" s="12"/>
-      <c r="I40" s="11"/>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
       <c r="J40" s="12"/>
       <c r="K40" s="11">
         <v>0</v>
@@ -3087,17 +3462,25 @@
       <c r="M40" s="11">
         <v>0</v>
       </c>
-      <c r="N40" s="11"/>
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>81000</v>
+        <v>72900.0</v>
       </c>
       <c r="Q40" s="12"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
+      <c r="R40" s="11">
+        <v>72900.0</v>
+      </c>
+      <c r="S40" s="11">
+        <v>90000.0</v>
+      </c>
+      <c r="T40" s="11">
+        <v>90000.0</v>
+      </c>
       <c r="U40" s="11">
-        <v>81000</v>
+        <v>72900</v>
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="11">
@@ -3105,7 +3488,7 @@
       </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="11">
-        <v>0.0</v>
+        <v>-5324.0</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
@@ -3117,10 +3500,11 @@
       <c r="AC40" s="11">
         <v>0</v>
       </c>
-      <c r="AD40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE40"/>
+      <c r="AD40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
       <c r="AG40"/>
     </row>
     <row r="41" spans="1:33">
@@ -3131,16 +3515,20 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>63888</v>
+        <v>5856.4</v>
       </c>
       <c r="F41" s="2"/>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H41" s="2"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
       <c r="J41" s="2"/>
       <c r="K41" s="1">
         <v>0</v>
@@ -3151,17 +3539,25 @@
       <c r="M41" s="1">
         <v>0</v>
       </c>
-      <c r="N41" s="1"/>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>72900</v>
+        <v>65610.0</v>
       </c>
       <c r="Q41" s="2"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
+      <c r="R41" s="1">
+        <v>65610.0</v>
+      </c>
+      <c r="S41" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U41" s="6">
-        <v>72900</v>
+        <v>65610</v>
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="1">
@@ -3169,7 +3565,7 @@
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="1">
-        <v>0.0</v>
+        <v>-5856.4</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
@@ -3181,7 +3577,7 @@
       <c r="AC41" s="1">
         <v>0</v>
       </c>
-      <c r="AD41" s="2">
+      <c r="AD41">
         <v>0</v>
       </c>
       <c r="AE41"/>
@@ -3195,16 +3591,20 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>70276.8</v>
+        <v>6441.6</v>
       </c>
       <c r="F42" s="2"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H42" s="2"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
       <c r="J42" s="2"/>
       <c r="K42" s="1">
         <v>0</v>
@@ -3215,17 +3615,25 @@
       <c r="M42" s="1">
         <v>0</v>
       </c>
-      <c r="N42" s="1"/>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>65610</v>
+        <v>59049.0</v>
       </c>
       <c r="Q42" s="2"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
+      <c r="R42" s="1">
+        <v>59049.0</v>
+      </c>
+      <c r="S42" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T42" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U42" s="6">
-        <v>65610</v>
+        <v>59049</v>
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="1">
@@ -3233,7 +3641,7 @@
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="1">
-        <v>0.0</v>
+        <v>-6441.6</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
@@ -3245,7 +3653,7 @@
       <c r="AC42" s="1">
         <v>0</v>
       </c>
-      <c r="AD42" s="2">
+      <c r="AD42">
         <v>0</v>
       </c>
       <c r="AE42"/>
@@ -3259,16 +3667,20 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>77304.48</v>
+        <v>7086.2</v>
       </c>
       <c r="F43" s="2"/>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H43" s="2"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
       <c r="J43" s="2"/>
       <c r="K43" s="1">
         <v>0</v>
@@ -3279,17 +3691,25 @@
       <c r="M43" s="1">
         <v>0</v>
       </c>
-      <c r="N43" s="1"/>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>59049</v>
+        <v>53144.0</v>
       </c>
       <c r="Q43" s="2"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
+      <c r="R43" s="1">
+        <v>53144.0</v>
+      </c>
+      <c r="S43" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U43" s="6">
-        <v>59049</v>
+        <v>53144</v>
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="1">
@@ -3297,7 +3717,7 @@
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="1">
-        <v>0.0</v>
+        <v>-7086.2</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
@@ -3309,7 +3729,7 @@
       <c r="AC43" s="1">
         <v>0</v>
       </c>
-      <c r="AD43" s="2">
+      <c r="AD43">
         <v>0</v>
       </c>
       <c r="AE43"/>
@@ -3323,16 +3743,20 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>85034.928</v>
+        <v>7794.6</v>
       </c>
       <c r="F44" s="2"/>
-      <c r="G44" s="1"/>
+      <c r="G44" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H44" s="2"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
       <c r="J44" s="2"/>
       <c r="K44" s="1">
         <v>0</v>
@@ -3343,17 +3767,25 @@
       <c r="M44" s="1">
         <v>0</v>
       </c>
-      <c r="N44" s="1"/>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>53144</v>
+        <v>47830.0</v>
       </c>
       <c r="Q44" s="2"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
+      <c r="R44" s="1">
+        <v>47830.0</v>
+      </c>
+      <c r="S44" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T44" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U44" s="6">
-        <v>53144</v>
+        <v>47830</v>
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="1">
@@ -3361,7 +3793,7 @@
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="1">
-        <v>0.0</v>
+        <v>-7794.6</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
@@ -3373,7 +3805,7 @@
       <c r="AC44" s="1">
         <v>0</v>
       </c>
-      <c r="AD44" s="2">
+      <c r="AD44">
         <v>0</v>
       </c>
       <c r="AE44"/>
@@ -3387,16 +3819,20 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>93538.4208</v>
+        <v>8574.5</v>
       </c>
       <c r="F45" s="2"/>
-      <c r="G45" s="1"/>
+      <c r="G45" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H45" s="2"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
       <c r="J45" s="2"/>
       <c r="K45" s="1">
         <v>0</v>
@@ -3407,17 +3843,25 @@
       <c r="M45" s="1">
         <v>0</v>
       </c>
-      <c r="N45" s="1"/>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>47830</v>
+        <v>43047.0</v>
       </c>
       <c r="Q45" s="2"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
+      <c r="R45" s="1">
+        <v>43047.0</v>
+      </c>
+      <c r="S45" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T45" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U45" s="6">
-        <v>47830</v>
+        <v>43047</v>
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="1">
@@ -3425,7 +3869,7 @@
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" s="1">
-        <v>0.0</v>
+        <v>-8574.5</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
@@ -3437,7 +3881,7 @@
       <c r="AC45" s="1">
         <v>0</v>
       </c>
-      <c r="AD45" s="2">
+      <c r="AD45">
         <v>0</v>
       </c>
       <c r="AE45"/>
@@ -3451,16 +3895,20 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>102892.26288</v>
+        <v>9432.5</v>
       </c>
       <c r="F46" s="2"/>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H46" s="2"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
       <c r="J46" s="2"/>
       <c r="K46" s="1">
         <v>0</v>
@@ -3471,17 +3919,25 @@
       <c r="M46" s="1">
         <v>0</v>
       </c>
-      <c r="N46" s="1"/>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>43047</v>
+        <v>38742.0</v>
       </c>
       <c r="Q46" s="2"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
+      <c r="R46" s="1">
+        <v>38742.0</v>
+      </c>
+      <c r="S46" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U46" s="6">
-        <v>43047</v>
+        <v>38742</v>
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="1">
@@ -3489,7 +3945,7 @@
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="1">
-        <v>0.0</v>
+        <v>-9432.5</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
@@ -3501,7 +3957,7 @@
       <c r="AC46" s="1">
         <v>0</v>
       </c>
-      <c r="AD46" s="2">
+      <c r="AD46">
         <v>0</v>
       </c>
       <c r="AE46"/>
@@ -3515,16 +3971,20 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>113181.489168</v>
+        <v>10376.3</v>
       </c>
       <c r="F47" s="2"/>
-      <c r="G47" s="1"/>
+      <c r="G47" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H47" s="2"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
       <c r="J47" s="2"/>
       <c r="K47" s="1">
         <v>0</v>
@@ -3535,17 +3995,25 @@
       <c r="M47" s="1">
         <v>0</v>
       </c>
-      <c r="N47" s="1"/>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>38742</v>
+        <v>34868.0</v>
       </c>
       <c r="Q47" s="2"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
+      <c r="R47" s="1">
+        <v>34868.0</v>
+      </c>
+      <c r="S47" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T47" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U47" s="6">
-        <v>38742</v>
+        <v>34868</v>
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="1">
@@ -3553,7 +4021,7 @@
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" s="1">
-        <v>0.0</v>
+        <v>-10376.3</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
@@ -3565,7 +4033,7 @@
       <c r="AC47" s="1">
         <v>0</v>
       </c>
-      <c r="AD47" s="2">
+      <c r="AD47">
         <v>0</v>
       </c>
       <c r="AE47"/>
@@ -3579,16 +4047,20 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>124499.6380848</v>
+        <v>11413.6</v>
       </c>
       <c r="F48" s="2"/>
-      <c r="G48" s="1"/>
+      <c r="G48" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H48" s="2"/>
-      <c r="I48" s="1"/>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
       <c r="J48" s="2"/>
       <c r="K48" s="1">
         <v>0</v>
@@ -3599,17 +4071,25 @@
       <c r="M48" s="1">
         <v>0</v>
       </c>
-      <c r="N48" s="1"/>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>34868</v>
+        <v>31381.0</v>
       </c>
       <c r="Q48" s="2"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
+      <c r="R48" s="1">
+        <v>31381.0</v>
+      </c>
+      <c r="S48" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T48" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U48" s="6">
-        <v>34868</v>
+        <v>31381</v>
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="1">
@@ -3617,7 +4097,7 @@
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" s="1">
-        <v>0.0</v>
+        <v>-11413.6</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
@@ -3629,7 +4109,7 @@
       <c r="AC48" s="1">
         <v>0</v>
       </c>
-      <c r="AD48" s="2">
+      <c r="AD48">
         <v>0</v>
       </c>
       <c r="AE48"/>
@@ -3643,16 +4123,20 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>136949.60189328</v>
+        <v>12555.4</v>
       </c>
       <c r="F49" s="2"/>
-      <c r="G49" s="1"/>
+      <c r="G49" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H49" s="2"/>
-      <c r="I49" s="1"/>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
       <c r="J49" s="2"/>
       <c r="K49" s="1">
         <v>0</v>
@@ -3663,17 +4147,25 @@
       <c r="M49" s="1">
         <v>0</v>
       </c>
-      <c r="N49" s="1"/>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>31381</v>
+        <v>28243.0</v>
       </c>
       <c r="Q49" s="2"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
+      <c r="R49" s="1">
+        <v>28243.0</v>
+      </c>
+      <c r="S49" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T49" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U49" s="6">
-        <v>31381</v>
+        <v>28243</v>
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="1">
@@ -3681,7 +4173,7 @@
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="1">
-        <v>0.0</v>
+        <v>-12555.4</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
@@ -3693,7 +4185,7 @@
       <c r="AC49" s="1">
         <v>0</v>
       </c>
-      <c r="AD49" s="2">
+      <c r="AD49">
         <v>0</v>
       </c>
       <c r="AE49"/>
@@ -3707,16 +4199,20 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>150644.56208261</v>
+        <v>13810.5</v>
       </c>
       <c r="F50" s="2"/>
-      <c r="G50" s="1"/>
+      <c r="G50" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H50" s="2"/>
-      <c r="I50" s="1"/>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
       <c r="J50" s="2"/>
       <c r="K50" s="1">
         <v>0</v>
@@ -3727,17 +4223,25 @@
       <c r="M50" s="1">
         <v>0</v>
       </c>
-      <c r="N50" s="1"/>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>28243</v>
+        <v>25419.0</v>
       </c>
       <c r="Q50" s="2"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
+      <c r="R50" s="1">
+        <v>25419.0</v>
+      </c>
+      <c r="S50" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T50" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U50" s="6">
-        <v>28243</v>
+        <v>25419</v>
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="1">
@@ -3745,7 +4249,7 @@
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="1">
-        <v>0.0</v>
+        <v>-13810.5</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
@@ -3757,7 +4261,7 @@
       <c r="AC50" s="1">
         <v>0</v>
       </c>
-      <c r="AD50" s="2">
+      <c r="AD50">
         <v>0</v>
       </c>
       <c r="AE50"/>
@@ -3771,16 +4275,20 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>165709.01829087</v>
+        <v>15192.1</v>
       </c>
       <c r="F51" s="2"/>
-      <c r="G51" s="1"/>
+      <c r="G51" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H51" s="2"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
       <c r="J51" s="2"/>
       <c r="K51" s="1">
         <v>0</v>
@@ -3791,17 +4299,25 @@
       <c r="M51" s="1">
         <v>0</v>
       </c>
-      <c r="N51" s="1"/>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>25419</v>
+        <v>22877.0</v>
       </c>
       <c r="Q51" s="2"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
+      <c r="R51" s="1">
+        <v>22877.0</v>
+      </c>
+      <c r="S51" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T51" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U51" s="6">
-        <v>25419</v>
+        <v>22877</v>
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="1">
@@ -3809,7 +4325,7 @@
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="1">
-        <v>0.0</v>
+        <v>-15192.1</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
@@ -3821,7 +4337,7 @@
       <c r="AC51" s="1">
         <v>0</v>
       </c>
-      <c r="AD51" s="2">
+      <c r="AD51">
         <v>0</v>
       </c>
       <c r="AE51"/>
@@ -3835,16 +4351,20 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>182279.92011996</v>
+        <v>16711.2</v>
       </c>
       <c r="F52" s="2"/>
-      <c r="G52" s="1"/>
+      <c r="G52" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H52" s="2"/>
-      <c r="I52" s="1"/>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
       <c r="J52" s="2"/>
       <c r="K52" s="1">
         <v>0</v>
@@ -3855,17 +4375,25 @@
       <c r="M52" s="1">
         <v>0</v>
       </c>
-      <c r="N52" s="1"/>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" s="6">
-        <v>22877</v>
+        <v>20589.0</v>
       </c>
       <c r="Q52" s="2"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
+      <c r="R52" s="1">
+        <v>20589.0</v>
+      </c>
+      <c r="S52" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T52" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U52" s="6">
-        <v>22877</v>
+        <v>20589</v>
       </c>
       <c r="V52" s="2"/>
       <c r="W52" s="1">
@@ -3873,7 +4401,7 @@
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" s="1">
-        <v>0.0</v>
+        <v>-16711.2</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
@@ -3885,7 +4413,7 @@
       <c r="AC52" s="1">
         <v>0</v>
       </c>
-      <c r="AD52" s="2">
+      <c r="AD52">
         <v>0</v>
       </c>
       <c r="AE52"/>
@@ -3899,16 +4427,20 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>200507.91213196</v>
+        <v>18382.1</v>
       </c>
       <c r="F53" s="14"/>
-      <c r="G53" s="13"/>
+      <c r="G53" s="13">
+        <v>0.0</v>
+      </c>
       <c r="H53" s="14"/>
-      <c r="I53" s="13"/>
+      <c r="I53" s="13">
+        <v>0</v>
+      </c>
       <c r="J53" s="14"/>
       <c r="K53" s="13">
         <v>0</v>
@@ -3919,17 +4451,25 @@
       <c r="M53" s="13">
         <v>0</v>
       </c>
-      <c r="N53" s="13"/>
+      <c r="N53" s="13">
+        <v>0</v>
+      </c>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
-        <v>20589</v>
+        <v>18530.0</v>
       </c>
       <c r="Q53" s="14"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
+      <c r="R53" s="13">
+        <v>18530.0</v>
+      </c>
+      <c r="S53" s="13">
+        <v>90000.0</v>
+      </c>
+      <c r="T53" s="13">
+        <v>90000.0</v>
+      </c>
       <c r="U53" s="13">
-        <v>20589</v>
+        <v>18530</v>
       </c>
       <c r="V53" s="14"/>
       <c r="W53" s="13">
@@ -3937,7 +4477,7 @@
       </c>
       <c r="X53" s="14"/>
       <c r="Y53" s="13">
-        <v>0.0</v>
+        <v>-18382.1</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
@@ -3949,10 +4489,11 @@
       <c r="AC53" s="13">
         <v>0</v>
       </c>
-      <c r="AD53" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE53"/>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
       <c r="AG53"/>
     </row>
     <row r="54" spans="1:33">
@@ -3963,16 +4504,20 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>220558.70334516</v>
+        <v>20220.2</v>
       </c>
       <c r="F54" s="2"/>
-      <c r="G54" s="1"/>
+      <c r="G54" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H54" s="2"/>
-      <c r="I54" s="1"/>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
       <c r="J54" s="2"/>
       <c r="K54" s="1">
         <v>0</v>
@@ -3983,17 +4528,25 @@
       <c r="M54" s="1">
         <v>0</v>
       </c>
-      <c r="N54" s="1"/>
+      <c r="N54" s="1">
+        <v>0</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
-        <v>18530</v>
+        <v>16677.0</v>
       </c>
       <c r="Q54" s="2"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
+      <c r="R54" s="1">
+        <v>16677.0</v>
+      </c>
+      <c r="S54" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T54" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U54" s="6">
-        <v>18530</v>
+        <v>16677</v>
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="1">
@@ -4001,7 +4554,7 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" s="1">
-        <v>0.0</v>
+        <v>-20220.2</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
@@ -4013,7 +4566,7 @@
       <c r="AC54" s="1">
         <v>0</v>
       </c>
-      <c r="AD54" s="2">
+      <c r="AD54">
         <v>0</v>
       </c>
       <c r="AE54"/>
@@ -4027,16 +4580,20 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>242614.57367968</v>
+        <v>22242.0</v>
       </c>
       <c r="F55" s="2"/>
-      <c r="G55" s="1"/>
+      <c r="G55" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H55" s="2"/>
-      <c r="I55" s="1"/>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
       <c r="J55" s="2"/>
       <c r="K55" s="1">
         <v>0</v>
@@ -4047,17 +4604,25 @@
       <c r="M55" s="1">
         <v>0</v>
       </c>
-      <c r="N55" s="1"/>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
-        <v>16677</v>
+        <v>15009.0</v>
       </c>
       <c r="Q55" s="2"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
+      <c r="R55" s="1">
+        <v>15009.0</v>
+      </c>
+      <c r="S55" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T55" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U55" s="6">
-        <v>16677</v>
+        <v>15009</v>
       </c>
       <c r="V55" s="2"/>
       <c r="W55" s="1">
@@ -4065,7 +4630,7 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" s="1">
-        <v>0.0</v>
+        <v>-22242.0</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
@@ -4077,7 +4642,7 @@
       <c r="AC55" s="1">
         <v>0</v>
       </c>
-      <c r="AD55" s="2">
+      <c r="AD55">
         <v>0</v>
       </c>
       <c r="AE55"/>
@@ -4091,16 +4656,20 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>266876.03104765</v>
+        <v>24466.2</v>
       </c>
       <c r="F56" s="2"/>
-      <c r="G56" s="1"/>
+      <c r="G56" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H56" s="2"/>
-      <c r="I56" s="1"/>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
       <c r="J56" s="2"/>
       <c r="K56" s="1">
         <v>0</v>
@@ -4111,17 +4680,25 @@
       <c r="M56" s="1">
         <v>0</v>
       </c>
-      <c r="N56" s="1"/>
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
-        <v>15009</v>
+        <v>13508.0</v>
       </c>
       <c r="Q56" s="2"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
+      <c r="R56" s="1">
+        <v>13508.0</v>
+      </c>
+      <c r="S56" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T56" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U56" s="6">
-        <v>15009</v>
+        <v>13508</v>
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="1">
@@ -4129,7 +4706,7 @@
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" s="1">
-        <v>0.0</v>
+        <v>-24466.2</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
@@ -4141,7 +4718,7 @@
       <c r="AC56" s="1">
         <v>0</v>
       </c>
-      <c r="AD56" s="2">
+      <c r="AD56">
         <v>0</v>
       </c>
       <c r="AE56"/>
@@ -4155,16 +4732,20 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>293563.63415241</v>
+        <v>26912.6</v>
       </c>
       <c r="F57" s="14"/>
-      <c r="G57" s="13"/>
+      <c r="G57" s="13">
+        <v>0.0</v>
+      </c>
       <c r="H57" s="14"/>
-      <c r="I57" s="13"/>
+      <c r="I57" s="13">
+        <v>0</v>
+      </c>
       <c r="J57" s="14"/>
       <c r="K57" s="13">
         <v>0</v>
@@ -4175,17 +4756,25 @@
       <c r="M57" s="13">
         <v>0</v>
       </c>
-      <c r="N57" s="13"/>
+      <c r="N57" s="13">
+        <v>0</v>
+      </c>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
-        <v>13508</v>
+        <v>12157.0</v>
       </c>
       <c r="Q57" s="14"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
+      <c r="R57" s="13">
+        <v>12157.0</v>
+      </c>
+      <c r="S57" s="13">
+        <v>90000.0</v>
+      </c>
+      <c r="T57" s="13">
+        <v>90000.0</v>
+      </c>
       <c r="U57" s="13">
-        <v>13508</v>
+        <v>12157</v>
       </c>
       <c r="V57" s="14"/>
       <c r="W57" s="13">
@@ -4193,7 +4782,7 @@
       </c>
       <c r="X57" s="14"/>
       <c r="Y57" s="13">
-        <v>0.0</v>
+        <v>-26912.6</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
@@ -4205,10 +4794,11 @@
       <c r="AC57" s="13">
         <v>0</v>
       </c>
-      <c r="AD57" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE57"/>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
       <c r="AG57"/>
     </row>
     <row r="58" spans="1:33">
@@ -4219,16 +4809,20 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>322919.99756765</v>
+        <v>29604.3</v>
       </c>
       <c r="F58" s="2"/>
-      <c r="G58" s="1"/>
+      <c r="G58" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H58" s="2"/>
-      <c r="I58" s="1"/>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
       <c r="J58" s="2"/>
       <c r="K58" s="1">
         <v>0</v>
@@ -4239,17 +4833,25 @@
       <c r="M58" s="1">
         <v>0</v>
       </c>
-      <c r="N58" s="1"/>
+      <c r="N58" s="1">
+        <v>0</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" s="6">
-        <v>12157</v>
+        <v>10941.0</v>
       </c>
       <c r="Q58" s="2"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
+      <c r="R58" s="1">
+        <v>10941.0</v>
+      </c>
+      <c r="S58" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T58" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U58" s="6">
-        <v>12157</v>
+        <v>10941</v>
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="1">
@@ -4257,7 +4859,7 @@
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" s="1">
-        <v>0.0</v>
+        <v>-29604.3</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
@@ -4269,7 +4871,7 @@
       <c r="AC58" s="1">
         <v>0</v>
       </c>
-      <c r="AD58" s="2">
+      <c r="AD58">
         <v>0</v>
       </c>
       <c r="AE58"/>
@@ -4283,16 +4885,20 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>355211.99732442</v>
+        <v>32564.4</v>
       </c>
       <c r="F59" s="2"/>
-      <c r="G59" s="1"/>
+      <c r="G59" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H59" s="2"/>
-      <c r="I59" s="1"/>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
       <c r="J59" s="2"/>
       <c r="K59" s="1">
         <v>0</v>
@@ -4303,17 +4909,25 @@
       <c r="M59" s="1">
         <v>0</v>
       </c>
-      <c r="N59" s="1"/>
+      <c r="N59" s="1">
+        <v>0</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" s="6">
-        <v>10941</v>
+        <v>9847.0</v>
       </c>
       <c r="Q59" s="2"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
+      <c r="R59" s="1">
+        <v>9847.0</v>
+      </c>
+      <c r="S59" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T59" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U59" s="6">
-        <v>10941</v>
+        <v>9847</v>
       </c>
       <c r="V59" s="2"/>
       <c r="W59" s="1">
@@ -4321,7 +4935,7 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" s="1">
-        <v>0.0</v>
+        <v>-32564.4</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
@@ -4333,7 +4947,7 @@
       <c r="AC59" s="1">
         <v>0</v>
       </c>
-      <c r="AD59" s="2">
+      <c r="AD59">
         <v>0</v>
       </c>
       <c r="AE59"/>
@@ -4347,16 +4961,20 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>390733.19705686</v>
+        <v>35820.4</v>
       </c>
       <c r="F60" s="2"/>
-      <c r="G60" s="1"/>
+      <c r="G60" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H60" s="2"/>
-      <c r="I60" s="1"/>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
       <c r="J60" s="2"/>
       <c r="K60" s="1">
         <v>0</v>
@@ -4367,17 +4985,25 @@
       <c r="M60" s="1">
         <v>0</v>
       </c>
-      <c r="N60" s="1"/>
+      <c r="N60" s="1">
+        <v>0</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" s="6">
-        <v>9847</v>
+        <v>8862.0</v>
       </c>
       <c r="Q60" s="2"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
+      <c r="R60" s="1">
+        <v>8862.0</v>
+      </c>
+      <c r="S60" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T60" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U60" s="6">
-        <v>9847</v>
+        <v>8862</v>
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="1">
@@ -4385,7 +5011,7 @@
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" s="1">
-        <v>0.0</v>
+        <v>-35820.4</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
@@ -4397,7 +5023,7 @@
       <c r="AC60" s="1">
         <v>0</v>
       </c>
-      <c r="AD60" s="2">
+      <c r="AD60">
         <v>0</v>
       </c>
       <c r="AE60"/>
@@ -4411,16 +5037,20 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>429806.51676255</v>
+        <v>39402.0</v>
       </c>
       <c r="F61" s="2"/>
-      <c r="G61" s="1"/>
+      <c r="G61" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H61" s="2"/>
-      <c r="I61" s="1"/>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
       <c r="J61" s="2"/>
       <c r="K61" s="1">
         <v>0</v>
@@ -4431,17 +5061,25 @@
       <c r="M61" s="1">
         <v>0</v>
       </c>
-      <c r="N61" s="1"/>
+      <c r="N61" s="1">
+        <v>0</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" s="6">
-        <v>8862</v>
+        <v>7976.0</v>
       </c>
       <c r="Q61" s="2"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
+      <c r="R61" s="1">
+        <v>7976.0</v>
+      </c>
+      <c r="S61" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T61" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U61" s="6">
-        <v>8862</v>
+        <v>7976</v>
       </c>
       <c r="V61" s="2"/>
       <c r="W61" s="1">
@@ -4449,7 +5087,7 @@
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" s="1">
-        <v>0.0</v>
+        <v>-39402.0</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
@@ -4461,7 +5099,7 @@
       <c r="AC61" s="1">
         <v>0</v>
       </c>
-      <c r="AD61" s="2">
+      <c r="AD61">
         <v>0</v>
       </c>
       <c r="AE61"/>
@@ -4475,16 +5113,20 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>472787.16843881</v>
+        <v>43342.2</v>
       </c>
       <c r="F62" s="2"/>
-      <c r="G62" s="1"/>
+      <c r="G62" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H62" s="2"/>
-      <c r="I62" s="1"/>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
       <c r="J62" s="2"/>
       <c r="K62" s="1">
         <v>0</v>
@@ -4495,17 +5137,25 @@
       <c r="M62" s="1">
         <v>0</v>
       </c>
-      <c r="N62" s="1"/>
+      <c r="N62" s="1">
+        <v>0</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" s="6">
-        <v>7976</v>
+        <v>7178.0</v>
       </c>
       <c r="Q62" s="2"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
+      <c r="R62" s="1">
+        <v>7178.0</v>
+      </c>
+      <c r="S62" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T62" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U62" s="6">
-        <v>7976</v>
+        <v>7178</v>
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="1">
@@ -4513,7 +5163,7 @@
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" s="1">
-        <v>0.0</v>
+        <v>-43342.2</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
@@ -4525,7 +5175,7 @@
       <c r="AC62" s="1">
         <v>0</v>
       </c>
-      <c r="AD62" s="2">
+      <c r="AD62">
         <v>0</v>
       </c>
       <c r="AE62"/>
@@ -4539,16 +5189,20 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>520065.88528269</v>
+        <v>47676.2</v>
       </c>
       <c r="F63" s="2"/>
-      <c r="G63" s="1"/>
+      <c r="G63" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H63" s="2"/>
-      <c r="I63" s="1"/>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
       <c r="J63" s="2"/>
       <c r="K63" s="1">
         <v>0</v>
@@ -4559,17 +5213,25 @@
       <c r="M63" s="1">
         <v>0</v>
       </c>
-      <c r="N63" s="1"/>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" s="6">
-        <v>7178</v>
+        <v>6460.0</v>
       </c>
       <c r="Q63" s="2"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
+      <c r="R63" s="1">
+        <v>6460.0</v>
+      </c>
+      <c r="S63" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T63" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U63" s="6">
-        <v>7178</v>
+        <v>6460</v>
       </c>
       <c r="V63" s="2"/>
       <c r="W63" s="1">
@@ -4577,7 +5239,7 @@
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" s="1">
-        <v>0.0</v>
+        <v>-47676.2</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
@@ -4589,7 +5251,7 @@
       <c r="AC63" s="1">
         <v>0</v>
       </c>
-      <c r="AD63" s="2">
+      <c r="AD63">
         <v>0</v>
       </c>
       <c r="AE63"/>
@@ -4603,16 +5265,20 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>572072.47381096</v>
+        <v>52443.6</v>
       </c>
       <c r="F64" s="2"/>
-      <c r="G64" s="1"/>
+      <c r="G64" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H64" s="2"/>
-      <c r="I64" s="1"/>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
       <c r="J64" s="2"/>
       <c r="K64" s="1">
         <v>0</v>
@@ -4623,17 +5289,25 @@
       <c r="M64" s="1">
         <v>0</v>
       </c>
-      <c r="N64" s="1"/>
+      <c r="N64" s="1">
+        <v>0</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" s="6">
-        <v>6460</v>
+        <v>5814.0</v>
       </c>
       <c r="Q64" s="2"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
+      <c r="R64" s="1">
+        <v>5814.0</v>
+      </c>
+      <c r="S64" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T64" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U64" s="6">
-        <v>6460</v>
+        <v>5814</v>
       </c>
       <c r="V64" s="2"/>
       <c r="W64" s="1">
@@ -4641,7 +5315,7 @@
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" s="1">
-        <v>0.0</v>
+        <v>-52443.6</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
@@ -4653,7 +5327,7 @@
       <c r="AC64" s="1">
         <v>0</v>
       </c>
-      <c r="AD64" s="2">
+      <c r="AD64">
         <v>0</v>
       </c>
       <c r="AE64"/>
@@ -4667,16 +5341,20 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>629279.72119206</v>
+        <v>57688.4</v>
       </c>
       <c r="F65" s="2"/>
-      <c r="G65" s="1"/>
+      <c r="G65" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H65" s="2"/>
-      <c r="I65" s="1"/>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
       <c r="J65" s="2"/>
       <c r="K65" s="1">
         <v>0</v>
@@ -4687,17 +5365,25 @@
       <c r="M65" s="1">
         <v>0</v>
       </c>
-      <c r="N65" s="1"/>
+      <c r="N65" s="1">
+        <v>0</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" s="6">
-        <v>5814</v>
+        <v>5233.0</v>
       </c>
       <c r="Q65" s="2"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
+      <c r="R65" s="1">
+        <v>5233.0</v>
+      </c>
+      <c r="S65" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T65" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U65" s="6">
-        <v>5814</v>
+        <v>5233</v>
       </c>
       <c r="V65" s="2"/>
       <c r="W65" s="1">
@@ -4705,7 +5391,7 @@
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" s="1">
-        <v>0.0</v>
+        <v>-57688.4</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
@@ -4717,7 +5403,7 @@
       <c r="AC65" s="1">
         <v>0</v>
       </c>
-      <c r="AD65" s="2">
+      <c r="AD65">
         <v>0</v>
       </c>
       <c r="AE65"/>
@@ -4731,16 +5417,20 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>692207.69331127</v>
+        <v>63456.8</v>
       </c>
       <c r="F66" s="2"/>
-      <c r="G66" s="1"/>
+      <c r="G66" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H66" s="2"/>
-      <c r="I66" s="1"/>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
       <c r="J66" s="2"/>
       <c r="K66" s="1">
         <v>0</v>
@@ -4751,17 +5441,25 @@
       <c r="M66" s="1">
         <v>0</v>
       </c>
-      <c r="N66" s="1"/>
+      <c r="N66" s="1">
+        <v>0</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" s="6">
-        <v>5233</v>
+        <v>4710.0</v>
       </c>
       <c r="Q66" s="2"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
+      <c r="R66" s="1">
+        <v>4710.0</v>
+      </c>
+      <c r="S66" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T66" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U66" s="6">
-        <v>5233</v>
+        <v>4710</v>
       </c>
       <c r="V66" s="2"/>
       <c r="W66" s="1">
@@ -4769,7 +5467,7 @@
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" s="1">
-        <v>0.0</v>
+        <v>-63456.8</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
@@ -4781,7 +5479,7 @@
       <c r="AC66" s="1">
         <v>0</v>
       </c>
-      <c r="AD66" s="2">
+      <c r="AD66">
         <v>0</v>
       </c>
       <c r="AE66"/>
@@ -4795,16 +5493,20 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>761428.4626424</v>
+        <v>69802.7</v>
       </c>
       <c r="F67" s="2"/>
-      <c r="G67" s="1"/>
+      <c r="G67" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H67" s="2"/>
-      <c r="I67" s="1"/>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
       <c r="J67" s="2"/>
       <c r="K67" s="1">
         <v>0</v>
@@ -4815,17 +5517,25 @@
       <c r="M67" s="1">
         <v>0</v>
       </c>
-      <c r="N67" s="1"/>
+      <c r="N67" s="1">
+        <v>0</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" s="6">
-        <v>4710</v>
+        <v>4239.0</v>
       </c>
       <c r="Q67" s="2"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
+      <c r="R67" s="1">
+        <v>4239.0</v>
+      </c>
+      <c r="S67" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T67" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U67" s="6">
-        <v>4710</v>
+        <v>4239</v>
       </c>
       <c r="V67" s="2"/>
       <c r="W67" s="1">
@@ -4833,7 +5543,7 @@
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" s="1">
-        <v>0.0</v>
+        <v>-69802.7</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
@@ -4845,7 +5555,7 @@
       <c r="AC67" s="1">
         <v>0</v>
       </c>
-      <c r="AD67" s="2">
+      <c r="AD67">
         <v>0</v>
       </c>
       <c r="AE67"/>
@@ -4859,16 +5569,20 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>837571.30890664</v>
+        <v>76783.3</v>
       </c>
       <c r="F68" s="2"/>
-      <c r="G68" s="1"/>
+      <c r="G68" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H68" s="2"/>
-      <c r="I68" s="1"/>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
       <c r="J68" s="2"/>
       <c r="K68" s="1">
         <v>0</v>
@@ -4879,17 +5593,25 @@
       <c r="M68" s="1">
         <v>0</v>
       </c>
-      <c r="N68" s="1"/>
+      <c r="N68" s="1">
+        <v>0</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" s="6">
-        <v>4239</v>
+        <v>3815.0</v>
       </c>
       <c r="Q68" s="2"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
+      <c r="R68" s="1">
+        <v>3815.0</v>
+      </c>
+      <c r="S68" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T68" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U68" s="6">
-        <v>4239</v>
+        <v>3815</v>
       </c>
       <c r="V68" s="2"/>
       <c r="W68" s="1">
@@ -4897,7 +5619,7 @@
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" s="1">
-        <v>0.0</v>
+        <v>-76783.3</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
@@ -4909,7 +5631,7 @@
       <c r="AC68" s="1">
         <v>0</v>
       </c>
-      <c r="AD68" s="2">
+      <c r="AD68">
         <v>0</v>
       </c>
       <c r="AE68"/>
@@ -4923,16 +5645,20 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>921328.4397973</v>
+        <v>84461.3</v>
       </c>
       <c r="F69" s="2"/>
-      <c r="G69" s="1"/>
+      <c r="G69" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H69" s="2"/>
-      <c r="I69" s="1"/>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
       <c r="J69" s="2"/>
       <c r="K69" s="1">
         <v>0</v>
@@ -4943,17 +5669,25 @@
       <c r="M69" s="1">
         <v>0</v>
       </c>
-      <c r="N69" s="1"/>
+      <c r="N69" s="1">
+        <v>0</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" s="6">
-        <v>3815</v>
+        <v>3434.0</v>
       </c>
       <c r="Q69" s="2"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
+      <c r="R69" s="1">
+        <v>3434.0</v>
+      </c>
+      <c r="S69" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T69" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U69" s="6">
-        <v>3815</v>
+        <v>3434</v>
       </c>
       <c r="V69" s="2"/>
       <c r="W69" s="1">
@@ -4961,7 +5695,7 @@
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" s="1">
-        <v>0.0</v>
+        <v>-84461.3</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
@@ -4973,7 +5707,7 @@
       <c r="AC69" s="1">
         <v>0</v>
       </c>
-      <c r="AD69" s="2">
+      <c r="AD69">
         <v>0</v>
       </c>
       <c r="AE69"/>
@@ -4987,16 +5721,20 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>1013461.283777</v>
+        <v>92907.1</v>
       </c>
       <c r="F70" s="2"/>
-      <c r="G70" s="1"/>
+      <c r="G70" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H70" s="2"/>
-      <c r="I70" s="1"/>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
       <c r="J70" s="2"/>
       <c r="K70" s="1">
         <v>0</v>
@@ -5007,17 +5745,25 @@
       <c r="M70" s="1">
         <v>0</v>
       </c>
-      <c r="N70" s="1"/>
+      <c r="N70" s="1">
+        <v>0</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" s="6">
-        <v>3434</v>
+        <v>3091.0</v>
       </c>
       <c r="Q70" s="2"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
+      <c r="R70" s="1">
+        <v>3091.0</v>
+      </c>
+      <c r="S70" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T70" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U70" s="6">
-        <v>3434</v>
+        <v>3091</v>
       </c>
       <c r="V70" s="2"/>
       <c r="W70" s="1">
@@ -5025,7 +5771,7 @@
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" s="1">
-        <v>0.0</v>
+        <v>-92907.1</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
@@ -5037,7 +5783,7 @@
       <c r="AC70" s="1">
         <v>0</v>
       </c>
-      <c r="AD70" s="2">
+      <c r="AD70">
         <v>0</v>
       </c>
       <c r="AE70"/>
@@ -5051,16 +5797,20 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>1114807.4121547</v>
+        <v>102197.7</v>
       </c>
       <c r="F71" s="2"/>
-      <c r="G71" s="1"/>
+      <c r="G71" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H71" s="2"/>
-      <c r="I71" s="1"/>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
       <c r="J71" s="2"/>
       <c r="K71" s="1">
         <v>0</v>
@@ -5071,17 +5821,25 @@
       <c r="M71" s="1">
         <v>0</v>
       </c>
-      <c r="N71" s="1"/>
+      <c r="N71" s="1">
+        <v>0</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" s="6">
-        <v>3091</v>
+        <v>2782.0</v>
       </c>
       <c r="Q71" s="2"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
+      <c r="R71" s="1">
+        <v>2782.0</v>
+      </c>
+      <c r="S71" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="T71" s="1">
+        <v>90000.0</v>
+      </c>
       <c r="U71" s="6">
-        <v>3091</v>
+        <v>2782</v>
       </c>
       <c r="V71" s="2"/>
       <c r="W71" s="1">
@@ -5089,7 +5847,7 @@
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" s="1">
-        <v>0.0</v>
+        <v>-102197.7</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
@@ -5101,7 +5859,7 @@
       <c r="AC71" s="1">
         <v>0</v>
       </c>
-      <c r="AD71" s="2">
+      <c r="AD71">
         <v>0</v>
       </c>
       <c r="AE71"/>
@@ -5115,16 +5873,20 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>1226288.1533702</v>
+        <v>112417.8</v>
       </c>
       <c r="F72" s="16"/>
-      <c r="G72" s="5"/>
+      <c r="G72" s="5">
+        <v>0.0</v>
+      </c>
       <c r="H72" s="16"/>
-      <c r="I72" s="5"/>
+      <c r="I72" s="5">
+        <v>0</v>
+      </c>
       <c r="J72" s="16"/>
       <c r="K72" s="5">
         <v>0</v>
@@ -5135,17 +5897,25 @@
       <c r="M72" s="5">
         <v>0</v>
       </c>
-      <c r="N72" s="5"/>
+      <c r="N72" s="5">
+        <v>0</v>
+      </c>
       <c r="O72" s="16"/>
       <c r="P72" s="5">
-        <v>2782</v>
+        <v>2504.0</v>
       </c>
       <c r="Q72" s="16"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
+      <c r="R72" s="5">
+        <v>2504.0</v>
+      </c>
+      <c r="S72" s="5">
+        <v>90000.0</v>
+      </c>
+      <c r="T72" s="5">
+        <v>90000.0</v>
+      </c>
       <c r="U72" s="5">
-        <v>2782</v>
+        <v>2504</v>
       </c>
       <c r="V72" s="16"/>
       <c r="W72" s="5">
@@ -5153,7 +5923,7 @@
       </c>
       <c r="X72" s="16"/>
       <c r="Y72" s="5">
-        <v>0.0</v>
+        <v>-112417.8</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
@@ -5165,10 +5935,11 @@
       <c r="AC72" s="5">
         <v>0</v>
       </c>
-      <c r="AD72" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE72"/>
+      <c r="AD72" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="15"/>
+      <c r="AF72" s="15"/>
       <c r="AG72"/>
     </row>
     <row r="73" spans="1:33">
@@ -5200,7 +5971,6 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
-      <c r="AD73" s="2"/>
     </row>
     <row r="74" spans="1:33">
       <c r="B74" s="1"/>
@@ -5231,7 +6001,6 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
-      <c r="AD74" s="2"/>
     </row>
     <row r="75" spans="1:33">
       <c r="B75" s="1"/>
@@ -5262,7 +6031,6 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
-      <c r="AD75" s="2"/>
     </row>
     <row r="76" spans="1:33">
       <c r="B76" s="1"/>
@@ -5293,7 +6061,6 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
-      <c r="AD76" s="2"/>
     </row>
     <row r="77" spans="1:33">
       <c r="B77" s="1"/>
@@ -5324,7 +6091,6 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
-      <c r="AD77" s="2"/>
     </row>
     <row r="78" spans="1:33">
       <c r="B78" s="1"/>
@@ -5355,7 +6121,6 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
-      <c r="AD78" s="2"/>
     </row>
     <row r="79" spans="1:33">
       <c r="B79" s="1"/>
@@ -5386,7 +6151,6 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
-      <c r="AD79" s="2"/>
     </row>
     <row r="80" spans="1:33">
       <c r="B80" s="1"/>
@@ -5417,7 +6181,6 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
-      <c r="AD80" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -5443,7 +6206,7 @@
   <dimension ref="A1:AG80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A72" sqref="A72:AD72"/>
+      <selection activeCell="A72" sqref="A72:AF72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5452,7 +6215,7 @@
     <col min="2" max="2" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -5464,21 +6227,25 @@
     <col min="14" max="14" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="28" max="28" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="29" max="29" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="30" max="30" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -5486,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -5498,7 +6265,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -5530,7 +6297,7 @@
       <c r="Z4" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5584,22 +6351,22 @@
         <v>28</v>
       </c>
       <c r="Q5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>19</v>
@@ -5611,28 +6378,28 @@
         <v>7</v>
       </c>
       <c r="Z5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF5" t="s">
         <v>39</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AG5" t="s">
         <v>40</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -5643,15 +6410,15 @@
         <v>16</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="1"/>
@@ -5662,11 +6429,11 @@
       <c r="N6" s="1"/>
       <c r="O6" s="2"/>
       <c r="P6" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
@@ -5695,12 +6462,12 @@
       <c r="AC6" s="1">
         <v>0</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6"/>
       <c r="AG6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -5711,15 +6478,15 @@
         <v>17</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="1"/>
@@ -5730,11 +6497,11 @@
       <c r="N7" s="1"/>
       <c r="O7" s="2"/>
       <c r="P7" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S7" s="1">
         <v>0</v>
@@ -5763,12 +6530,12 @@
       <c r="AC7" s="1">
         <v>0</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AD7">
         <v>0</v>
       </c>
       <c r="AE7"/>
       <c r="AG7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -5779,15 +6546,15 @@
         <v>18</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="1"/>
@@ -5798,11 +6565,11 @@
       <c r="N8" s="1"/>
       <c r="O8" s="2"/>
       <c r="P8" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
@@ -5831,12 +6598,12 @@
       <c r="AC8" s="1">
         <v>0</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8">
         <v>0</v>
       </c>
       <c r="AE8"/>
       <c r="AG8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -5847,15 +6614,15 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="1"/>
@@ -5866,11 +6633,11 @@
       <c r="N9" s="1"/>
       <c r="O9" s="2"/>
       <c r="P9" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
@@ -5899,12 +6666,12 @@
       <c r="AC9" s="1">
         <v>0</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9"/>
       <c r="AG9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -5915,15 +6682,15 @@
         <v>20</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="1"/>
@@ -5934,11 +6701,11 @@
       <c r="N10" s="1"/>
       <c r="O10" s="2"/>
       <c r="P10" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S10" s="1">
         <v>0</v>
@@ -5967,12 +6734,12 @@
       <c r="AC10" s="1">
         <v>0</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10"/>
       <c r="AG10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -5983,15 +6750,15 @@
         <v>21</v>
       </c>
       <c r="C11" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="1"/>
@@ -6002,11 +6769,11 @@
       <c r="N11" s="1"/>
       <c r="O11" s="2"/>
       <c r="P11" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
@@ -6035,12 +6802,12 @@
       <c r="AC11" s="1">
         <v>0</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11"/>
       <c r="AG11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -6051,15 +6818,15 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="1"/>
@@ -6070,11 +6837,11 @@
       <c r="N12" s="1"/>
       <c r="O12" s="2"/>
       <c r="P12" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S12" s="1">
         <v>0</v>
@@ -6103,12 +6870,12 @@
       <c r="AC12" s="1">
         <v>0</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AD12">
         <v>0</v>
       </c>
       <c r="AE12"/>
       <c r="AG12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -6119,15 +6886,15 @@
         <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="1"/>
@@ -6138,11 +6905,11 @@
       <c r="N13" s="1"/>
       <c r="O13" s="2"/>
       <c r="P13" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
@@ -6171,12 +6938,12 @@
       <c r="AC13" s="1">
         <v>0</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AD13">
         <v>0</v>
       </c>
       <c r="AE13"/>
       <c r="AG13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -6187,15 +6954,15 @@
         <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="1"/>
@@ -6206,11 +6973,11 @@
       <c r="N14" s="1"/>
       <c r="O14" s="2"/>
       <c r="P14" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S14" s="1">
         <v>0</v>
@@ -6239,12 +7006,12 @@
       <c r="AC14" s="1">
         <v>0</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AD14">
         <v>0</v>
       </c>
       <c r="AE14"/>
       <c r="AG14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -6255,15 +7022,15 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="1"/>
@@ -6274,11 +7041,11 @@
       <c r="N15" s="1"/>
       <c r="O15" s="2"/>
       <c r="P15" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S15" s="1">
         <v>0</v>
@@ -6307,12 +7074,12 @@
       <c r="AC15" s="1">
         <v>0</v>
       </c>
-      <c r="AD15" s="2">
+      <c r="AD15">
         <v>0</v>
       </c>
       <c r="AE15"/>
       <c r="AG15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -6323,15 +7090,15 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="1"/>
@@ -6342,11 +7109,11 @@
       <c r="N16" s="1"/>
       <c r="O16" s="2"/>
       <c r="P16" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S16" s="1">
         <v>0</v>
@@ -6375,12 +7142,12 @@
       <c r="AC16" s="1">
         <v>0</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AD16">
         <v>0</v>
       </c>
       <c r="AE16"/>
       <c r="AG16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -6391,15 +7158,15 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="1"/>
@@ -6410,11 +7177,11 @@
       <c r="N17" s="1"/>
       <c r="O17" s="2"/>
       <c r="P17" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S17" s="1">
         <v>0</v>
@@ -6443,12 +7210,12 @@
       <c r="AC17" s="1">
         <v>0</v>
       </c>
-      <c r="AD17" s="2">
+      <c r="AD17">
         <v>0</v>
       </c>
       <c r="AE17"/>
       <c r="AG17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:33">
@@ -6459,15 +7226,15 @@
         <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="1"/>
@@ -6478,11 +7245,11 @@
       <c r="N18" s="1"/>
       <c r="O18" s="2"/>
       <c r="P18" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S18" s="1">
         <v>0</v>
@@ -6511,12 +7278,12 @@
       <c r="AC18" s="1">
         <v>0</v>
       </c>
-      <c r="AD18" s="2">
+      <c r="AD18">
         <v>0</v>
       </c>
       <c r="AE18"/>
       <c r="AG18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -6527,15 +7294,15 @@
         <v>29</v>
       </c>
       <c r="C19" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="1"/>
@@ -6546,11 +7313,11 @@
       <c r="N19" s="1"/>
       <c r="O19" s="2"/>
       <c r="P19" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S19" s="1">
         <v>0</v>
@@ -6579,12 +7346,12 @@
       <c r="AC19" s="1">
         <v>0</v>
       </c>
-      <c r="AD19" s="2">
+      <c r="AD19">
         <v>0</v>
       </c>
       <c r="AE19"/>
       <c r="AG19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -6595,15 +7362,15 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="1"/>
@@ -6614,11 +7381,11 @@
       <c r="N20" s="1"/>
       <c r="O20" s="2"/>
       <c r="P20" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S20" s="1">
         <v>0</v>
@@ -6647,12 +7414,12 @@
       <c r="AC20" s="1">
         <v>0</v>
       </c>
-      <c r="AD20" s="2">
+      <c r="AD20">
         <v>0</v>
       </c>
       <c r="AE20"/>
       <c r="AG20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:33">
@@ -6663,15 +7430,15 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="1"/>
@@ -6682,11 +7449,11 @@
       <c r="N21" s="1"/>
       <c r="O21" s="2"/>
       <c r="P21" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S21" s="1">
         <v>0</v>
@@ -6715,12 +7482,12 @@
       <c r="AC21" s="1">
         <v>0</v>
       </c>
-      <c r="AD21" s="2">
+      <c r="AD21">
         <v>0</v>
       </c>
       <c r="AE21"/>
       <c r="AG21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:33">
@@ -6731,15 +7498,15 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="1"/>
@@ -6750,11 +7517,11 @@
       <c r="N22" s="1"/>
       <c r="O22" s="2"/>
       <c r="P22" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S22" s="1">
         <v>0</v>
@@ -6783,12 +7550,12 @@
       <c r="AC22" s="1">
         <v>0</v>
       </c>
-      <c r="AD22" s="2">
+      <c r="AD22">
         <v>0</v>
       </c>
       <c r="AE22"/>
       <c r="AG22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:33">
@@ -6799,15 +7566,15 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="1"/>
@@ -6818,11 +7585,11 @@
       <c r="N23" s="1"/>
       <c r="O23" s="2"/>
       <c r="P23" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S23" s="1">
         <v>0</v>
@@ -6851,12 +7618,12 @@
       <c r="AC23" s="1">
         <v>0</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AD23">
         <v>0</v>
       </c>
       <c r="AE23"/>
       <c r="AG23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:33">
@@ -6867,15 +7634,15 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="1"/>
@@ -6886,11 +7653,11 @@
       <c r="N24" s="1"/>
       <c r="O24" s="2"/>
       <c r="P24" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S24" s="1">
         <v>0</v>
@@ -6919,12 +7686,12 @@
       <c r="AC24" s="1">
         <v>0</v>
       </c>
-      <c r="AD24" s="2">
+      <c r="AD24">
         <v>0</v>
       </c>
       <c r="AE24"/>
       <c r="AG24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:33">
@@ -6935,15 +7702,15 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="1"/>
@@ -6954,11 +7721,11 @@
       <c r="N25" s="1"/>
       <c r="O25" s="2"/>
       <c r="P25" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S25" s="1">
         <v>0</v>
@@ -6987,12 +7754,12 @@
       <c r="AC25" s="1">
         <v>0</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AD25">
         <v>0</v>
       </c>
       <c r="AE25"/>
       <c r="AG25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:33">
@@ -7003,15 +7770,15 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="1"/>
@@ -7022,11 +7789,11 @@
       <c r="N26" s="1"/>
       <c r="O26" s="2"/>
       <c r="P26" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S26" s="1">
         <v>0</v>
@@ -7055,12 +7822,12 @@
       <c r="AC26" s="1">
         <v>0</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AD26">
         <v>0</v>
       </c>
       <c r="AE26"/>
       <c r="AG26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -7071,15 +7838,15 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="1"/>
@@ -7090,11 +7857,11 @@
       <c r="N27" s="1"/>
       <c r="O27" s="2"/>
       <c r="P27" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S27" s="1">
         <v>0</v>
@@ -7123,12 +7890,12 @@
       <c r="AC27" s="1">
         <v>0</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AD27">
         <v>0</v>
       </c>
       <c r="AE27"/>
       <c r="AG27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:33">
@@ -7139,15 +7906,15 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="1"/>
@@ -7158,11 +7925,11 @@
       <c r="N28" s="1"/>
       <c r="O28" s="2"/>
       <c r="P28" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S28" s="1">
         <v>0</v>
@@ -7191,12 +7958,12 @@
       <c r="AC28" s="1">
         <v>0</v>
       </c>
-      <c r="AD28" s="2">
+      <c r="AD28">
         <v>0</v>
       </c>
       <c r="AE28"/>
       <c r="AG28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:33">
@@ -7207,15 +7974,15 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="1"/>
@@ -7226,11 +7993,11 @@
       <c r="N29" s="1"/>
       <c r="O29" s="2"/>
       <c r="P29" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S29" s="1">
         <v>0</v>
@@ -7259,12 +8026,12 @@
       <c r="AC29" s="1">
         <v>0</v>
       </c>
-      <c r="AD29" s="2">
+      <c r="AD29">
         <v>0</v>
       </c>
       <c r="AE29"/>
       <c r="AG29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:33">
@@ -7275,15 +8042,15 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="1"/>
@@ -7294,11 +8061,11 @@
       <c r="N30" s="1"/>
       <c r="O30" s="2"/>
       <c r="P30" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S30" s="1">
         <v>0</v>
@@ -7327,12 +8094,12 @@
       <c r="AC30" s="1">
         <v>0</v>
       </c>
-      <c r="AD30" s="2">
+      <c r="AD30">
         <v>0</v>
       </c>
       <c r="AE30"/>
       <c r="AG30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:33">
@@ -7343,15 +8110,15 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="1"/>
@@ -7362,11 +8129,11 @@
       <c r="N31" s="1"/>
       <c r="O31" s="2"/>
       <c r="P31" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S31" s="1">
         <v>0</v>
@@ -7395,12 +8162,12 @@
       <c r="AC31" s="1">
         <v>0</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AD31">
         <v>0</v>
       </c>
       <c r="AE31"/>
       <c r="AG31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:33">
@@ -7411,15 +8178,15 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="1"/>
@@ -7430,11 +8197,11 @@
       <c r="N32" s="1"/>
       <c r="O32" s="2"/>
       <c r="P32" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S32" s="1">
         <v>0</v>
@@ -7463,12 +8230,12 @@
       <c r="AC32" s="1">
         <v>0</v>
       </c>
-      <c r="AD32" s="2">
+      <c r="AD32">
         <v>0</v>
       </c>
       <c r="AE32"/>
       <c r="AG32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:33">
@@ -7479,15 +8246,15 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="1"/>
@@ -7498,11 +8265,11 @@
       <c r="N33" s="1"/>
       <c r="O33" s="2"/>
       <c r="P33" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S33" s="1">
         <v>0</v>
@@ -7531,12 +8298,12 @@
       <c r="AC33" s="1">
         <v>0</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="AD33">
         <v>0</v>
       </c>
       <c r="AE33"/>
       <c r="AG33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:33">
@@ -7547,15 +8314,15 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="1"/>
@@ -7566,11 +8333,11 @@
       <c r="N34" s="1"/>
       <c r="O34" s="2"/>
       <c r="P34" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S34" s="1">
         <v>0</v>
@@ -7599,12 +8366,12 @@
       <c r="AC34" s="1">
         <v>0</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AD34">
         <v>0</v>
       </c>
       <c r="AE34"/>
       <c r="AG34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:33">
@@ -7615,15 +8382,15 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="1"/>
@@ -7634,11 +8401,11 @@
       <c r="N35" s="1"/>
       <c r="O35" s="2"/>
       <c r="P35" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S35" s="1">
         <v>0</v>
@@ -7667,12 +8434,12 @@
       <c r="AC35" s="1">
         <v>0</v>
       </c>
-      <c r="AD35" s="2">
+      <c r="AD35">
         <v>0</v>
       </c>
       <c r="AE35"/>
       <c r="AG35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:33">
@@ -7683,15 +8450,15 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="1"/>
@@ -7702,11 +8469,11 @@
       <c r="N36" s="1"/>
       <c r="O36" s="2"/>
       <c r="P36" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S36" s="1">
         <v>0</v>
@@ -7735,12 +8502,12 @@
       <c r="AC36" s="1">
         <v>0</v>
       </c>
-      <c r="AD36" s="2">
+      <c r="AD36">
         <v>0</v>
       </c>
       <c r="AE36"/>
       <c r="AG36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:33">
@@ -7751,15 +8518,15 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="1"/>
@@ -7770,11 +8537,11 @@
       <c r="N37" s="1"/>
       <c r="O37" s="2"/>
       <c r="P37" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S37" s="1">
         <v>0</v>
@@ -7803,12 +8570,12 @@
       <c r="AC37" s="1">
         <v>0</v>
       </c>
-      <c r="AD37" s="2">
+      <c r="AD37">
         <v>0</v>
       </c>
       <c r="AE37"/>
       <c r="AG37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:33">
@@ -7819,17 +8586,17 @@
         <v>48</v>
       </c>
       <c r="C38" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>48000</v>
+        <v>4400.0</v>
       </c>
       <c r="F38" s="2">
         <v>0.1</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="1"/>
@@ -7840,34 +8607,34 @@
       <c r="N38" s="1"/>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="Q38" s="2">
         <v>0.1</v>
       </c>
       <c r="R38" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="S38" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T38" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U38" s="6">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="V38" s="2">
         <v>1</v>
       </c>
       <c r="W38" s="1">
-        <v>1000.0</v>
+        <v>900.0</v>
       </c>
       <c r="X38" s="2">
         <v>0.01</v>
       </c>
       <c r="Y38" s="1">
-        <v>0.0</v>
+        <v>-4400.0</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
@@ -7879,12 +8646,12 @@
       <c r="AC38" s="1">
         <v>0</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AD38">
         <v>0</v>
       </c>
       <c r="AE38"/>
       <c r="AG38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:33">
@@ -7895,17 +8662,17 @@
         <v>49</v>
       </c>
       <c r="C39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="8">
-        <v>52800</v>
+        <v>4840.0</v>
       </c>
       <c r="F39" s="9">
         <v>0.1</v>
       </c>
       <c r="G39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="8"/>
@@ -7916,34 +8683,34 @@
       <c r="N39" s="8"/>
       <c r="O39" s="9"/>
       <c r="P39" s="8">
-        <v>90000</v>
+        <v>81000.0</v>
       </c>
       <c r="Q39" s="9">
         <v>0.1</v>
       </c>
       <c r="R39" s="8">
-        <v>90000</v>
+        <v>81000.0</v>
       </c>
       <c r="S39" s="8">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T39" s="8">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U39" s="8">
-        <v>90000</v>
+        <v>81000</v>
       </c>
       <c r="V39" s="9">
         <v>1</v>
       </c>
       <c r="W39" s="8">
-        <v>900.0</v>
+        <v>810.0</v>
       </c>
       <c r="X39" s="9">
         <v>0.01</v>
       </c>
       <c r="Y39" s="8">
-        <v>0.0</v>
+        <v>-4840.0</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="8">
@@ -7955,12 +8722,13 @@
       <c r="AC39" s="8">
         <v>0</v>
       </c>
-      <c r="AD39" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE39"/>
+      <c r="AD39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
       <c r="AG39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:33">
@@ -7971,17 +8739,17 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>58080</v>
+        <v>5324.0</v>
       </c>
       <c r="F40" s="12">
         <v>0.1</v>
       </c>
       <c r="G40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="11"/>
@@ -7992,34 +8760,34 @@
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>81000</v>
+        <v>72900.0</v>
       </c>
       <c r="Q40" s="12">
         <v>0.1</v>
       </c>
       <c r="R40" s="11">
-        <v>81000</v>
+        <v>72900.0</v>
       </c>
       <c r="S40" s="11">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T40" s="11">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U40" s="11">
-        <v>81000</v>
+        <v>72900</v>
       </c>
       <c r="V40" s="12">
         <v>1</v>
       </c>
       <c r="W40" s="11">
-        <v>810.0</v>
+        <v>729.0</v>
       </c>
       <c r="X40" s="12">
         <v>0.01</v>
       </c>
       <c r="Y40" s="11">
-        <v>0.0</v>
+        <v>-5324.0</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
@@ -8031,12 +8799,13 @@
       <c r="AC40" s="11">
         <v>0</v>
       </c>
-      <c r="AD40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE40"/>
+      <c r="AD40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
       <c r="AG40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:33">
@@ -8047,17 +8816,17 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>63888</v>
+        <v>5856.4</v>
       </c>
       <c r="F41" s="2">
         <v>0.1</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="1"/>
@@ -8068,34 +8837,34 @@
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>72900</v>
+        <v>65610.0</v>
       </c>
       <c r="Q41" s="2">
         <v>0.1</v>
       </c>
       <c r="R41" s="1">
-        <v>72900</v>
+        <v>65610.0</v>
       </c>
       <c r="S41" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T41" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U41" s="6">
-        <v>72900</v>
+        <v>65610</v>
       </c>
       <c r="V41" s="2">
         <v>1</v>
       </c>
       <c r="W41" s="1">
-        <v>729.0</v>
+        <v>656.1</v>
       </c>
       <c r="X41" s="2">
         <v>0.01</v>
       </c>
       <c r="Y41" s="1">
-        <v>0.0</v>
+        <v>-5856.4</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
@@ -8107,12 +8876,12 @@
       <c r="AC41" s="1">
         <v>0</v>
       </c>
-      <c r="AD41" s="2">
+      <c r="AD41">
         <v>0</v>
       </c>
       <c r="AE41"/>
       <c r="AG41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:33">
@@ -8123,17 +8892,17 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>70276.8</v>
+        <v>6441.6</v>
       </c>
       <c r="F42" s="2">
         <v>0.1</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="1"/>
@@ -8144,34 +8913,34 @@
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>65610</v>
+        <v>59049.0</v>
       </c>
       <c r="Q42" s="2">
         <v>0.1</v>
       </c>
       <c r="R42" s="1">
-        <v>65610</v>
+        <v>59049.0</v>
       </c>
       <c r="S42" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T42" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U42" s="6">
-        <v>65610</v>
+        <v>59049</v>
       </c>
       <c r="V42" s="2">
         <v>1</v>
       </c>
       <c r="W42" s="1">
-        <v>656.1</v>
+        <v>590.49</v>
       </c>
       <c r="X42" s="2">
         <v>0.01</v>
       </c>
       <c r="Y42" s="1">
-        <v>0.0</v>
+        <v>-6441.6</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
@@ -8183,12 +8952,12 @@
       <c r="AC42" s="1">
         <v>0</v>
       </c>
-      <c r="AD42" s="2">
+      <c r="AD42">
         <v>0</v>
       </c>
       <c r="AE42"/>
       <c r="AG42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:33">
@@ -8199,17 +8968,17 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>77304.48</v>
+        <v>7086.2</v>
       </c>
       <c r="F43" s="2">
         <v>0.1</v>
       </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="1"/>
@@ -8220,34 +8989,34 @@
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>59049</v>
+        <v>53144.0</v>
       </c>
       <c r="Q43" s="2">
         <v>0.1</v>
       </c>
       <c r="R43" s="1">
-        <v>59049</v>
+        <v>53144.0</v>
       </c>
       <c r="S43" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T43" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U43" s="6">
-        <v>59049</v>
+        <v>53144</v>
       </c>
       <c r="V43" s="2">
         <v>1</v>
       </c>
       <c r="W43" s="1">
-        <v>590.49</v>
+        <v>531.44</v>
       </c>
       <c r="X43" s="2">
         <v>0.01</v>
       </c>
       <c r="Y43" s="1">
-        <v>0.0</v>
+        <v>-7086.2</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
@@ -8259,12 +9028,12 @@
       <c r="AC43" s="1">
         <v>0</v>
       </c>
-      <c r="AD43" s="2">
+      <c r="AD43">
         <v>0</v>
       </c>
       <c r="AE43"/>
       <c r="AG43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:33">
@@ -8275,17 +9044,17 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>85034.928</v>
+        <v>7794.6</v>
       </c>
       <c r="F44" s="2">
         <v>0.1</v>
       </c>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="1"/>
@@ -8296,34 +9065,34 @@
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>53144</v>
+        <v>47830.0</v>
       </c>
       <c r="Q44" s="2">
         <v>0.1</v>
       </c>
       <c r="R44" s="1">
-        <v>53144</v>
+        <v>47830.0</v>
       </c>
       <c r="S44" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T44" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U44" s="6">
-        <v>53144</v>
+        <v>47830</v>
       </c>
       <c r="V44" s="2">
         <v>1</v>
       </c>
       <c r="W44" s="1">
-        <v>531.44</v>
+        <v>478.3</v>
       </c>
       <c r="X44" s="2">
         <v>0.01</v>
       </c>
       <c r="Y44" s="1">
-        <v>0.0</v>
+        <v>-7794.6</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
@@ -8335,12 +9104,12 @@
       <c r="AC44" s="1">
         <v>0</v>
       </c>
-      <c r="AD44" s="2">
+      <c r="AD44">
         <v>0</v>
       </c>
       <c r="AE44"/>
       <c r="AG44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:33">
@@ -8351,17 +9120,17 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>93538.4208</v>
+        <v>8574.5</v>
       </c>
       <c r="F45" s="2">
         <v>0.1</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="1"/>
@@ -8372,34 +9141,34 @@
       <c r="N45" s="1"/>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>47830</v>
+        <v>43047.0</v>
       </c>
       <c r="Q45" s="2">
         <v>0.1</v>
       </c>
       <c r="R45" s="1">
-        <v>47830</v>
+        <v>43047.0</v>
       </c>
       <c r="S45" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T45" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U45" s="6">
-        <v>47830</v>
+        <v>43047</v>
       </c>
       <c r="V45" s="2">
         <v>1</v>
       </c>
       <c r="W45" s="1">
-        <v>478.3</v>
+        <v>430.47</v>
       </c>
       <c r="X45" s="2">
         <v>0.01</v>
       </c>
       <c r="Y45" s="1">
-        <v>0.0</v>
+        <v>-8574.5</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
@@ -8411,12 +9180,12 @@
       <c r="AC45" s="1">
         <v>0</v>
       </c>
-      <c r="AD45" s="2">
+      <c r="AD45">
         <v>0</v>
       </c>
       <c r="AE45"/>
       <c r="AG45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:33">
@@ -8427,17 +9196,17 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>102892.26288</v>
+        <v>9432.5</v>
       </c>
       <c r="F46" s="2">
         <v>0.1</v>
       </c>
       <c r="G46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="1"/>
@@ -8448,34 +9217,34 @@
       <c r="N46" s="1"/>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>43047</v>
+        <v>38742.0</v>
       </c>
       <c r="Q46" s="2">
         <v>0.1</v>
       </c>
       <c r="R46" s="1">
-        <v>43047</v>
+        <v>38742.0</v>
       </c>
       <c r="S46" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T46" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U46" s="6">
-        <v>43047</v>
+        <v>38742</v>
       </c>
       <c r="V46" s="2">
         <v>1</v>
       </c>
       <c r="W46" s="1">
-        <v>430.47</v>
+        <v>387.42</v>
       </c>
       <c r="X46" s="2">
         <v>0.01</v>
       </c>
       <c r="Y46" s="1">
-        <v>0.0</v>
+        <v>-9432.5</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
@@ -8487,12 +9256,12 @@
       <c r="AC46" s="1">
         <v>0</v>
       </c>
-      <c r="AD46" s="2">
+      <c r="AD46">
         <v>0</v>
       </c>
       <c r="AE46"/>
       <c r="AG46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:33">
@@ -8503,17 +9272,17 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>113181.489168</v>
+        <v>10376.3</v>
       </c>
       <c r="F47" s="2">
         <v>0.1</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="1"/>
@@ -8524,34 +9293,34 @@
       <c r="N47" s="1"/>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>38742</v>
+        <v>34868.0</v>
       </c>
       <c r="Q47" s="2">
         <v>0.1</v>
       </c>
       <c r="R47" s="1">
-        <v>38742</v>
+        <v>34868.0</v>
       </c>
       <c r="S47" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T47" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U47" s="6">
-        <v>38742</v>
+        <v>34868</v>
       </c>
       <c r="V47" s="2">
         <v>1</v>
       </c>
       <c r="W47" s="1">
-        <v>387.42</v>
+        <v>348.68</v>
       </c>
       <c r="X47" s="2">
         <v>0.01</v>
       </c>
       <c r="Y47" s="1">
-        <v>0.0</v>
+        <v>-10376.3</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
@@ -8563,12 +9332,12 @@
       <c r="AC47" s="1">
         <v>0</v>
       </c>
-      <c r="AD47" s="2">
+      <c r="AD47">
         <v>0</v>
       </c>
       <c r="AE47"/>
       <c r="AG47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:33">
@@ -8579,17 +9348,17 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>124499.6380848</v>
+        <v>11413.6</v>
       </c>
       <c r="F48" s="2">
         <v>0.1</v>
       </c>
       <c r="G48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="1"/>
@@ -8600,34 +9369,34 @@
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>34868</v>
+        <v>31381.0</v>
       </c>
       <c r="Q48" s="2">
         <v>0.1</v>
       </c>
       <c r="R48" s="1">
-        <v>34868</v>
+        <v>31381.0</v>
       </c>
       <c r="S48" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T48" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U48" s="6">
-        <v>34868</v>
+        <v>31381</v>
       </c>
       <c r="V48" s="2">
         <v>1</v>
       </c>
       <c r="W48" s="1">
-        <v>348.68</v>
+        <v>313.81</v>
       </c>
       <c r="X48" s="2">
         <v>0.01</v>
       </c>
       <c r="Y48" s="1">
-        <v>0.0</v>
+        <v>-11413.6</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
@@ -8639,12 +9408,12 @@
       <c r="AC48" s="1">
         <v>0</v>
       </c>
-      <c r="AD48" s="2">
+      <c r="AD48">
         <v>0</v>
       </c>
       <c r="AE48"/>
       <c r="AG48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:33">
@@ -8655,17 +9424,17 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>136949.60189328</v>
+        <v>12555.4</v>
       </c>
       <c r="F49" s="2">
         <v>0.1</v>
       </c>
       <c r="G49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="1"/>
@@ -8676,34 +9445,34 @@
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>31381</v>
+        <v>28243.0</v>
       </c>
       <c r="Q49" s="2">
         <v>0.1</v>
       </c>
       <c r="R49" s="1">
-        <v>31381</v>
+        <v>28243.0</v>
       </c>
       <c r="S49" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T49" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U49" s="6">
-        <v>31381</v>
+        <v>28243</v>
       </c>
       <c r="V49" s="2">
         <v>1</v>
       </c>
       <c r="W49" s="1">
-        <v>313.81</v>
+        <v>282.43</v>
       </c>
       <c r="X49" s="2">
         <v>0.01</v>
       </c>
       <c r="Y49" s="1">
-        <v>0.0</v>
+        <v>-12555.4</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
@@ -8715,12 +9484,12 @@
       <c r="AC49" s="1">
         <v>0</v>
       </c>
-      <c r="AD49" s="2">
+      <c r="AD49">
         <v>0</v>
       </c>
       <c r="AE49"/>
       <c r="AG49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:33">
@@ -8731,17 +9500,17 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>150644.56208261</v>
+        <v>13810.5</v>
       </c>
       <c r="F50" s="2">
         <v>0.1</v>
       </c>
       <c r="G50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="1"/>
@@ -8752,34 +9521,34 @@
       <c r="N50" s="1"/>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>28243</v>
+        <v>25419.0</v>
       </c>
       <c r="Q50" s="2">
         <v>0.1</v>
       </c>
       <c r="R50" s="1">
-        <v>28243</v>
+        <v>25419.0</v>
       </c>
       <c r="S50" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T50" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U50" s="6">
-        <v>28243</v>
+        <v>25419</v>
       </c>
       <c r="V50" s="2">
         <v>1</v>
       </c>
       <c r="W50" s="1">
-        <v>282.43</v>
+        <v>254.19</v>
       </c>
       <c r="X50" s="2">
         <v>0.01</v>
       </c>
       <c r="Y50" s="1">
-        <v>0.0</v>
+        <v>-13810.5</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
@@ -8791,12 +9560,12 @@
       <c r="AC50" s="1">
         <v>0</v>
       </c>
-      <c r="AD50" s="2">
+      <c r="AD50">
         <v>0</v>
       </c>
       <c r="AE50"/>
       <c r="AG50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:33">
@@ -8807,17 +9576,17 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>165709.01829087</v>
+        <v>15192.1</v>
       </c>
       <c r="F51" s="2">
         <v>0.1</v>
       </c>
       <c r="G51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="1"/>
@@ -8828,34 +9597,34 @@
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>25419</v>
+        <v>22877.0</v>
       </c>
       <c r="Q51" s="2">
         <v>0.1</v>
       </c>
       <c r="R51" s="1">
-        <v>25419</v>
+        <v>22877.0</v>
       </c>
       <c r="S51" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T51" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U51" s="6">
-        <v>25419</v>
+        <v>22877</v>
       </c>
       <c r="V51" s="2">
         <v>1</v>
       </c>
       <c r="W51" s="1">
-        <v>254.19</v>
+        <v>228.77</v>
       </c>
       <c r="X51" s="2">
         <v>0.01</v>
       </c>
       <c r="Y51" s="1">
-        <v>0.0</v>
+        <v>-15192.1</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
@@ -8867,12 +9636,12 @@
       <c r="AC51" s="1">
         <v>0</v>
       </c>
-      <c r="AD51" s="2">
+      <c r="AD51">
         <v>0</v>
       </c>
       <c r="AE51"/>
       <c r="AG51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:33">
@@ -8883,17 +9652,17 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>182279.92011996</v>
+        <v>16711.2</v>
       </c>
       <c r="F52" s="2">
         <v>0.1</v>
       </c>
       <c r="G52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="1"/>
@@ -8904,34 +9673,34 @@
       <c r="N52" s="1"/>
       <c r="O52" s="2"/>
       <c r="P52" s="6">
-        <v>22877</v>
+        <v>20589.0</v>
       </c>
       <c r="Q52" s="2">
         <v>0.1</v>
       </c>
       <c r="R52" s="1">
-        <v>22877</v>
+        <v>20589.0</v>
       </c>
       <c r="S52" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T52" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U52" s="6">
-        <v>22877</v>
+        <v>20589</v>
       </c>
       <c r="V52" s="2">
         <v>1</v>
       </c>
       <c r="W52" s="1">
-        <v>228.77</v>
+        <v>205.89</v>
       </c>
       <c r="X52" s="2">
         <v>0.01</v>
       </c>
       <c r="Y52" s="1">
-        <v>0.0</v>
+        <v>-16711.2</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
@@ -8943,12 +9712,12 @@
       <c r="AC52" s="1">
         <v>0</v>
       </c>
-      <c r="AD52" s="2">
+      <c r="AD52">
         <v>0</v>
       </c>
       <c r="AE52"/>
       <c r="AG52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:33">
@@ -8959,17 +9728,17 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>200507.91213196</v>
+        <v>18382.1</v>
       </c>
       <c r="F53" s="14">
         <v>0.1</v>
       </c>
       <c r="G53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H53" s="14"/>
       <c r="I53" s="13"/>
@@ -8980,34 +9749,34 @@
       <c r="N53" s="13"/>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
-        <v>20589</v>
+        <v>18530.0</v>
       </c>
       <c r="Q53" s="14">
         <v>0.1</v>
       </c>
       <c r="R53" s="13">
-        <v>20589</v>
+        <v>18530.0</v>
       </c>
       <c r="S53" s="13">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T53" s="13">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U53" s="13">
-        <v>20589</v>
+        <v>18530</v>
       </c>
       <c r="V53" s="14">
         <v>1</v>
       </c>
       <c r="W53" s="13">
-        <v>205.89</v>
+        <v>185.3</v>
       </c>
       <c r="X53" s="14">
         <v>0.01</v>
       </c>
       <c r="Y53" s="13">
-        <v>0.0</v>
+        <v>-18382.1</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
@@ -9019,12 +9788,13 @@
       <c r="AC53" s="13">
         <v>0</v>
       </c>
-      <c r="AD53" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE53"/>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
       <c r="AG53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:33">
@@ -9035,17 +9805,17 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>220558.70334516</v>
+        <v>20220.2</v>
       </c>
       <c r="F54" s="2">
         <v>0.1</v>
       </c>
       <c r="G54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="1"/>
@@ -9056,34 +9826,34 @@
       <c r="N54" s="1"/>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
-        <v>18530</v>
+        <v>16677.0</v>
       </c>
       <c r="Q54" s="2">
         <v>0.1</v>
       </c>
       <c r="R54" s="1">
-        <v>18530</v>
+        <v>16677.0</v>
       </c>
       <c r="S54" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T54" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U54" s="6">
-        <v>18530</v>
+        <v>16677</v>
       </c>
       <c r="V54" s="2">
         <v>1</v>
       </c>
       <c r="W54" s="1">
-        <v>185.3</v>
+        <v>166.77</v>
       </c>
       <c r="X54" s="2">
         <v>0.01</v>
       </c>
       <c r="Y54" s="1">
-        <v>0.0</v>
+        <v>-20220.2</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
@@ -9095,12 +9865,12 @@
       <c r="AC54" s="1">
         <v>0</v>
       </c>
-      <c r="AD54" s="2">
+      <c r="AD54">
         <v>0</v>
       </c>
       <c r="AE54"/>
       <c r="AG54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:33">
@@ -9111,17 +9881,17 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>242614.57367968</v>
+        <v>22242.0</v>
       </c>
       <c r="F55" s="2">
         <v>0.1</v>
       </c>
       <c r="G55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="1"/>
@@ -9132,34 +9902,34 @@
       <c r="N55" s="1"/>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
-        <v>16677</v>
+        <v>15009.0</v>
       </c>
       <c r="Q55" s="2">
         <v>0.1</v>
       </c>
       <c r="R55" s="1">
-        <v>16677</v>
+        <v>15009.0</v>
       </c>
       <c r="S55" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T55" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U55" s="6">
-        <v>16677</v>
+        <v>15009</v>
       </c>
       <c r="V55" s="2">
         <v>1</v>
       </c>
       <c r="W55" s="1">
-        <v>166.77</v>
+        <v>150.09</v>
       </c>
       <c r="X55" s="2">
         <v>0.01</v>
       </c>
       <c r="Y55" s="1">
-        <v>0.0</v>
+        <v>-22242.0</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
@@ -9171,12 +9941,12 @@
       <c r="AC55" s="1">
         <v>0</v>
       </c>
-      <c r="AD55" s="2">
+      <c r="AD55">
         <v>0</v>
       </c>
       <c r="AE55"/>
       <c r="AG55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:33">
@@ -9187,17 +9957,17 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>266876.03104765</v>
+        <v>24466.2</v>
       </c>
       <c r="F56" s="2">
         <v>0.1</v>
       </c>
       <c r="G56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="1"/>
@@ -9208,34 +9978,34 @@
       <c r="N56" s="1"/>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
-        <v>15009</v>
+        <v>13508.0</v>
       </c>
       <c r="Q56" s="2">
         <v>0.1</v>
       </c>
       <c r="R56" s="1">
-        <v>15009</v>
+        <v>13508.0</v>
       </c>
       <c r="S56" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T56" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U56" s="6">
-        <v>15009</v>
+        <v>13508</v>
       </c>
       <c r="V56" s="2">
         <v>1</v>
       </c>
       <c r="W56" s="1">
-        <v>150.09</v>
+        <v>135.08</v>
       </c>
       <c r="X56" s="2">
         <v>0.01</v>
       </c>
       <c r="Y56" s="1">
-        <v>0.0</v>
+        <v>-24466.2</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
@@ -9247,12 +10017,12 @@
       <c r="AC56" s="1">
         <v>0</v>
       </c>
-      <c r="AD56" s="2">
+      <c r="AD56">
         <v>0</v>
       </c>
       <c r="AE56"/>
       <c r="AG56" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:33">
@@ -9263,17 +10033,17 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>293563.63415241</v>
+        <v>26912.6</v>
       </c>
       <c r="F57" s="14">
         <v>0.1</v>
       </c>
       <c r="G57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H57" s="14"/>
       <c r="I57" s="13"/>
@@ -9284,34 +10054,34 @@
       <c r="N57" s="13"/>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
-        <v>13508</v>
+        <v>12157.0</v>
       </c>
       <c r="Q57" s="14">
         <v>0.1</v>
       </c>
       <c r="R57" s="13">
-        <v>13508</v>
+        <v>12157.0</v>
       </c>
       <c r="S57" s="13">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T57" s="13">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U57" s="13">
-        <v>13508</v>
+        <v>12157</v>
       </c>
       <c r="V57" s="14">
         <v>1</v>
       </c>
       <c r="W57" s="13">
-        <v>135.08</v>
+        <v>121.57</v>
       </c>
       <c r="X57" s="14">
         <v>0.01</v>
       </c>
       <c r="Y57" s="13">
-        <v>0.0</v>
+        <v>-26912.6</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
@@ -9323,12 +10093,13 @@
       <c r="AC57" s="13">
         <v>0</v>
       </c>
-      <c r="AD57" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE57"/>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
       <c r="AG57" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:33">
@@ -9339,17 +10110,17 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>322919.99756765</v>
+        <v>29604.3</v>
       </c>
       <c r="F58" s="2">
         <v>0.1</v>
       </c>
       <c r="G58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="1"/>
@@ -9360,34 +10131,34 @@
       <c r="N58" s="1"/>
       <c r="O58" s="2"/>
       <c r="P58" s="6">
-        <v>12157</v>
+        <v>10941.0</v>
       </c>
       <c r="Q58" s="2">
         <v>0.1</v>
       </c>
       <c r="R58" s="1">
-        <v>12157</v>
+        <v>10941.0</v>
       </c>
       <c r="S58" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T58" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U58" s="6">
-        <v>12157</v>
+        <v>10941</v>
       </c>
       <c r="V58" s="2">
         <v>1</v>
       </c>
       <c r="W58" s="1">
-        <v>121.57</v>
+        <v>109.41</v>
       </c>
       <c r="X58" s="2">
         <v>0.01</v>
       </c>
       <c r="Y58" s="1">
-        <v>0.0</v>
+        <v>-29604.3</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
@@ -9399,12 +10170,12 @@
       <c r="AC58" s="1">
         <v>0</v>
       </c>
-      <c r="AD58" s="2">
+      <c r="AD58">
         <v>0</v>
       </c>
       <c r="AE58"/>
       <c r="AG58" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:33">
@@ -9415,17 +10186,17 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>355211.99732442</v>
+        <v>32564.4</v>
       </c>
       <c r="F59" s="2">
         <v>0.1</v>
       </c>
       <c r="G59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="1"/>
@@ -9436,34 +10207,34 @@
       <c r="N59" s="1"/>
       <c r="O59" s="2"/>
       <c r="P59" s="6">
-        <v>10941</v>
+        <v>9847.0</v>
       </c>
       <c r="Q59" s="2">
         <v>0.1</v>
       </c>
       <c r="R59" s="1">
-        <v>10941</v>
+        <v>9847.0</v>
       </c>
       <c r="S59" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T59" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U59" s="6">
-        <v>10941</v>
+        <v>9847</v>
       </c>
       <c r="V59" s="2">
         <v>1</v>
       </c>
       <c r="W59" s="1">
-        <v>109.41</v>
+        <v>98.47</v>
       </c>
       <c r="X59" s="2">
         <v>0.01</v>
       </c>
       <c r="Y59" s="1">
-        <v>0.0</v>
+        <v>-32564.4</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
@@ -9475,12 +10246,12 @@
       <c r="AC59" s="1">
         <v>0</v>
       </c>
-      <c r="AD59" s="2">
+      <c r="AD59">
         <v>0</v>
       </c>
       <c r="AE59"/>
       <c r="AG59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:33">
@@ -9491,17 +10262,17 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>390733.19705686</v>
+        <v>35820.4</v>
       </c>
       <c r="F60" s="2">
         <v>0.1</v>
       </c>
       <c r="G60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="1"/>
@@ -9512,34 +10283,34 @@
       <c r="N60" s="1"/>
       <c r="O60" s="2"/>
       <c r="P60" s="6">
-        <v>9847</v>
+        <v>8862.0</v>
       </c>
       <c r="Q60" s="2">
         <v>0.1</v>
       </c>
       <c r="R60" s="1">
-        <v>9847</v>
+        <v>8862.0</v>
       </c>
       <c r="S60" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T60" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U60" s="6">
-        <v>9847</v>
+        <v>8862</v>
       </c>
       <c r="V60" s="2">
         <v>1</v>
       </c>
       <c r="W60" s="1">
-        <v>98.47</v>
+        <v>88.62</v>
       </c>
       <c r="X60" s="2">
         <v>0.01</v>
       </c>
       <c r="Y60" s="1">
-        <v>0.0</v>
+        <v>-35820.4</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
@@ -9551,12 +10322,12 @@
       <c r="AC60" s="1">
         <v>0</v>
       </c>
-      <c r="AD60" s="2">
+      <c r="AD60">
         <v>0</v>
       </c>
       <c r="AE60"/>
       <c r="AG60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:33">
@@ -9567,17 +10338,17 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>429806.51676255</v>
+        <v>39402.0</v>
       </c>
       <c r="F61" s="2">
         <v>0.1</v>
       </c>
       <c r="G61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="1"/>
@@ -9588,34 +10359,34 @@
       <c r="N61" s="1"/>
       <c r="O61" s="2"/>
       <c r="P61" s="6">
-        <v>8862</v>
+        <v>7976.0</v>
       </c>
       <c r="Q61" s="2">
         <v>0.1</v>
       </c>
       <c r="R61" s="1">
-        <v>8862</v>
+        <v>7976.0</v>
       </c>
       <c r="S61" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T61" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U61" s="6">
-        <v>8862</v>
+        <v>7976</v>
       </c>
       <c r="V61" s="2">
         <v>1</v>
       </c>
       <c r="W61" s="1">
-        <v>88.62</v>
+        <v>79.76</v>
       </c>
       <c r="X61" s="2">
         <v>0.01</v>
       </c>
       <c r="Y61" s="1">
-        <v>0.0</v>
+        <v>-39402.0</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
@@ -9627,12 +10398,12 @@
       <c r="AC61" s="1">
         <v>0</v>
       </c>
-      <c r="AD61" s="2">
+      <c r="AD61">
         <v>0</v>
       </c>
       <c r="AE61"/>
       <c r="AG61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:33">
@@ -9643,17 +10414,17 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>472787.16843881</v>
+        <v>43342.2</v>
       </c>
       <c r="F62" s="2">
         <v>0.1</v>
       </c>
       <c r="G62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="1"/>
@@ -9664,34 +10435,34 @@
       <c r="N62" s="1"/>
       <c r="O62" s="2"/>
       <c r="P62" s="6">
-        <v>7976</v>
+        <v>7178.0</v>
       </c>
       <c r="Q62" s="2">
         <v>0.1</v>
       </c>
       <c r="R62" s="1">
-        <v>7976</v>
+        <v>7178.0</v>
       </c>
       <c r="S62" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T62" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U62" s="6">
-        <v>7976</v>
+        <v>7178</v>
       </c>
       <c r="V62" s="2">
         <v>1</v>
       </c>
       <c r="W62" s="1">
-        <v>79.76</v>
+        <v>71.78</v>
       </c>
       <c r="X62" s="2">
         <v>0.01</v>
       </c>
       <c r="Y62" s="1">
-        <v>0.0</v>
+        <v>-43342.2</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
@@ -9703,12 +10474,12 @@
       <c r="AC62" s="1">
         <v>0</v>
       </c>
-      <c r="AD62" s="2">
+      <c r="AD62">
         <v>0</v>
       </c>
       <c r="AE62"/>
       <c r="AG62" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:33">
@@ -9719,17 +10490,17 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>520065.88528269</v>
+        <v>47676.2</v>
       </c>
       <c r="F63" s="2">
         <v>0.1</v>
       </c>
       <c r="G63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="1"/>
@@ -9740,34 +10511,34 @@
       <c r="N63" s="1"/>
       <c r="O63" s="2"/>
       <c r="P63" s="6">
-        <v>7178</v>
+        <v>6460.0</v>
       </c>
       <c r="Q63" s="2">
         <v>0.1</v>
       </c>
       <c r="R63" s="1">
-        <v>7178</v>
+        <v>6460.0</v>
       </c>
       <c r="S63" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T63" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U63" s="6">
-        <v>7178</v>
+        <v>6460</v>
       </c>
       <c r="V63" s="2">
         <v>1</v>
       </c>
       <c r="W63" s="1">
-        <v>71.78</v>
+        <v>64.6</v>
       </c>
       <c r="X63" s="2">
         <v>0.01</v>
       </c>
       <c r="Y63" s="1">
-        <v>0.0</v>
+        <v>-47676.2</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
@@ -9779,12 +10550,12 @@
       <c r="AC63" s="1">
         <v>0</v>
       </c>
-      <c r="AD63" s="2">
+      <c r="AD63">
         <v>0</v>
       </c>
       <c r="AE63"/>
       <c r="AG63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:33">
@@ -9795,17 +10566,17 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>572072.47381096</v>
+        <v>52443.6</v>
       </c>
       <c r="F64" s="2">
         <v>0.1</v>
       </c>
       <c r="G64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="1"/>
@@ -9816,34 +10587,34 @@
       <c r="N64" s="1"/>
       <c r="O64" s="2"/>
       <c r="P64" s="6">
-        <v>6460</v>
+        <v>5814.0</v>
       </c>
       <c r="Q64" s="2">
         <v>0.1</v>
       </c>
       <c r="R64" s="1">
-        <v>6460</v>
+        <v>5814.0</v>
       </c>
       <c r="S64" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T64" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U64" s="6">
-        <v>6460</v>
+        <v>5814</v>
       </c>
       <c r="V64" s="2">
         <v>1</v>
       </c>
       <c r="W64" s="1">
-        <v>64.6</v>
+        <v>58.14</v>
       </c>
       <c r="X64" s="2">
         <v>0.01</v>
       </c>
       <c r="Y64" s="1">
-        <v>0.0</v>
+        <v>-52443.6</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
@@ -9855,12 +10626,12 @@
       <c r="AC64" s="1">
         <v>0</v>
       </c>
-      <c r="AD64" s="2">
+      <c r="AD64">
         <v>0</v>
       </c>
       <c r="AE64"/>
       <c r="AG64" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:33">
@@ -9871,17 +10642,17 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>629279.72119206</v>
+        <v>57688.4</v>
       </c>
       <c r="F65" s="2">
         <v>0.1</v>
       </c>
       <c r="G65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="1"/>
@@ -9892,34 +10663,34 @@
       <c r="N65" s="1"/>
       <c r="O65" s="2"/>
       <c r="P65" s="6">
-        <v>5814</v>
+        <v>5233.0</v>
       </c>
       <c r="Q65" s="2">
         <v>0.1</v>
       </c>
       <c r="R65" s="1">
-        <v>5814</v>
+        <v>5233.0</v>
       </c>
       <c r="S65" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T65" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U65" s="6">
-        <v>5814</v>
+        <v>5233</v>
       </c>
       <c r="V65" s="2">
         <v>1</v>
       </c>
       <c r="W65" s="1">
-        <v>58.14</v>
+        <v>52.33</v>
       </c>
       <c r="X65" s="2">
         <v>0.01</v>
       </c>
       <c r="Y65" s="1">
-        <v>0.0</v>
+        <v>-57688.4</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
@@ -9931,12 +10702,12 @@
       <c r="AC65" s="1">
         <v>0</v>
       </c>
-      <c r="AD65" s="2">
+      <c r="AD65">
         <v>0</v>
       </c>
       <c r="AE65"/>
       <c r="AG65" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:33">
@@ -9947,17 +10718,17 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>692207.69331127</v>
+        <v>63456.8</v>
       </c>
       <c r="F66" s="2">
         <v>0.1</v>
       </c>
       <c r="G66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="1"/>
@@ -9968,34 +10739,34 @@
       <c r="N66" s="1"/>
       <c r="O66" s="2"/>
       <c r="P66" s="6">
-        <v>5233</v>
+        <v>4710.0</v>
       </c>
       <c r="Q66" s="2">
         <v>0.1</v>
       </c>
       <c r="R66" s="1">
-        <v>5233</v>
+        <v>4710.0</v>
       </c>
       <c r="S66" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T66" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U66" s="6">
-        <v>5233</v>
+        <v>4710</v>
       </c>
       <c r="V66" s="2">
         <v>1</v>
       </c>
       <c r="W66" s="1">
-        <v>52.33</v>
+        <v>47.1</v>
       </c>
       <c r="X66" s="2">
         <v>0.01</v>
       </c>
       <c r="Y66" s="1">
-        <v>0.0</v>
+        <v>-63456.8</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
@@ -10007,12 +10778,12 @@
       <c r="AC66" s="1">
         <v>0</v>
       </c>
-      <c r="AD66" s="2">
+      <c r="AD66">
         <v>0</v>
       </c>
       <c r="AE66"/>
       <c r="AG66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:33">
@@ -10023,17 +10794,17 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>761428.4626424</v>
+        <v>69802.7</v>
       </c>
       <c r="F67" s="2">
         <v>0.1</v>
       </c>
       <c r="G67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="1"/>
@@ -10044,34 +10815,34 @@
       <c r="N67" s="1"/>
       <c r="O67" s="2"/>
       <c r="P67" s="6">
-        <v>4710</v>
+        <v>4239.0</v>
       </c>
       <c r="Q67" s="2">
         <v>0.1</v>
       </c>
       <c r="R67" s="1">
-        <v>4710</v>
+        <v>4239.0</v>
       </c>
       <c r="S67" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T67" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U67" s="6">
-        <v>4710</v>
+        <v>4239</v>
       </c>
       <c r="V67" s="2">
         <v>1</v>
       </c>
       <c r="W67" s="1">
-        <v>47.1</v>
+        <v>42.39</v>
       </c>
       <c r="X67" s="2">
         <v>0.01</v>
       </c>
       <c r="Y67" s="1">
-        <v>0.0</v>
+        <v>-69802.7</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
@@ -10083,12 +10854,12 @@
       <c r="AC67" s="1">
         <v>0</v>
       </c>
-      <c r="AD67" s="2">
+      <c r="AD67">
         <v>0</v>
       </c>
       <c r="AE67"/>
       <c r="AG67" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:33">
@@ -10099,17 +10870,17 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>837571.30890664</v>
+        <v>76783.3</v>
       </c>
       <c r="F68" s="2">
         <v>0.1</v>
       </c>
       <c r="G68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="1"/>
@@ -10120,34 +10891,34 @@
       <c r="N68" s="1"/>
       <c r="O68" s="2"/>
       <c r="P68" s="6">
-        <v>4239</v>
+        <v>3815.0</v>
       </c>
       <c r="Q68" s="2">
         <v>0.1</v>
       </c>
       <c r="R68" s="1">
-        <v>4239</v>
+        <v>3815.0</v>
       </c>
       <c r="S68" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T68" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U68" s="6">
-        <v>4239</v>
+        <v>3815</v>
       </c>
       <c r="V68" s="2">
         <v>1</v>
       </c>
       <c r="W68" s="1">
-        <v>42.39</v>
+        <v>38.15</v>
       </c>
       <c r="X68" s="2">
         <v>0.01</v>
       </c>
       <c r="Y68" s="1">
-        <v>0.0</v>
+        <v>-76783.3</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
@@ -10159,12 +10930,12 @@
       <c r="AC68" s="1">
         <v>0</v>
       </c>
-      <c r="AD68" s="2">
+      <c r="AD68">
         <v>0</v>
       </c>
       <c r="AE68"/>
       <c r="AG68" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:33">
@@ -10175,17 +10946,17 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>921328.4397973</v>
+        <v>84461.3</v>
       </c>
       <c r="F69" s="2">
         <v>0.1</v>
       </c>
       <c r="G69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="1"/>
@@ -10196,34 +10967,34 @@
       <c r="N69" s="1"/>
       <c r="O69" s="2"/>
       <c r="P69" s="6">
-        <v>3815</v>
+        <v>3434.0</v>
       </c>
       <c r="Q69" s="2">
         <v>0.1</v>
       </c>
       <c r="R69" s="1">
-        <v>3815</v>
+        <v>3434.0</v>
       </c>
       <c r="S69" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T69" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U69" s="6">
-        <v>3815</v>
+        <v>3434</v>
       </c>
       <c r="V69" s="2">
         <v>1</v>
       </c>
       <c r="W69" s="1">
-        <v>38.15</v>
+        <v>34.34</v>
       </c>
       <c r="X69" s="2">
         <v>0.01</v>
       </c>
       <c r="Y69" s="1">
-        <v>0.0</v>
+        <v>-84461.3</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
@@ -10235,12 +11006,12 @@
       <c r="AC69" s="1">
         <v>0</v>
       </c>
-      <c r="AD69" s="2">
+      <c r="AD69">
         <v>0</v>
       </c>
       <c r="AE69"/>
       <c r="AG69" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:33">
@@ -10251,17 +11022,17 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>1013461.283777</v>
+        <v>92907.1</v>
       </c>
       <c r="F70" s="2">
         <v>0.1</v>
       </c>
       <c r="G70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="1"/>
@@ -10272,34 +11043,34 @@
       <c r="N70" s="1"/>
       <c r="O70" s="2"/>
       <c r="P70" s="6">
-        <v>3434</v>
+        <v>3091.0</v>
       </c>
       <c r="Q70" s="2">
         <v>0.1</v>
       </c>
       <c r="R70" s="1">
-        <v>3434</v>
+        <v>3091.0</v>
       </c>
       <c r="S70" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T70" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U70" s="6">
-        <v>3434</v>
+        <v>3091</v>
       </c>
       <c r="V70" s="2">
         <v>1</v>
       </c>
       <c r="W70" s="1">
-        <v>34.34</v>
+        <v>30.91</v>
       </c>
       <c r="X70" s="2">
         <v>0.01</v>
       </c>
       <c r="Y70" s="1">
-        <v>0.0</v>
+        <v>-92907.1</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
@@ -10311,12 +11082,12 @@
       <c r="AC70" s="1">
         <v>0</v>
       </c>
-      <c r="AD70" s="2">
+      <c r="AD70">
         <v>0</v>
       </c>
       <c r="AE70"/>
       <c r="AG70" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:33">
@@ -10327,17 +11098,17 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>1114807.4121547</v>
+        <v>102197.7</v>
       </c>
       <c r="F71" s="2">
         <v>0.1</v>
       </c>
       <c r="G71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="1"/>
@@ -10348,34 +11119,34 @@
       <c r="N71" s="1"/>
       <c r="O71" s="2"/>
       <c r="P71" s="6">
-        <v>3091</v>
+        <v>2782.0</v>
       </c>
       <c r="Q71" s="2">
         <v>0.1</v>
       </c>
       <c r="R71" s="1">
-        <v>3091</v>
+        <v>2782.0</v>
       </c>
       <c r="S71" s="1">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T71" s="1">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U71" s="6">
-        <v>3091</v>
+        <v>2782</v>
       </c>
       <c r="V71" s="2">
         <v>1</v>
       </c>
       <c r="W71" s="1">
-        <v>30.91</v>
+        <v>27.82</v>
       </c>
       <c r="X71" s="2">
         <v>0.01</v>
       </c>
       <c r="Y71" s="1">
-        <v>0.0</v>
+        <v>-102197.7</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
@@ -10387,12 +11158,12 @@
       <c r="AC71" s="1">
         <v>0</v>
       </c>
-      <c r="AD71" s="2">
+      <c r="AD71">
         <v>0</v>
       </c>
       <c r="AE71"/>
       <c r="AG71" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:33">
@@ -10403,17 +11174,17 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>1226288.1533702</v>
+        <v>112417.8</v>
       </c>
       <c r="F72" s="16">
         <v>0.1</v>
       </c>
       <c r="G72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H72" s="16"/>
       <c r="I72" s="5"/>
@@ -10424,34 +11195,34 @@
       <c r="N72" s="5"/>
       <c r="O72" s="16"/>
       <c r="P72" s="5">
-        <v>2782</v>
+        <v>2504.0</v>
       </c>
       <c r="Q72" s="16">
         <v>0.1</v>
       </c>
       <c r="R72" s="5">
-        <v>2782</v>
+        <v>2504.0</v>
       </c>
       <c r="S72" s="5">
-        <v>100000</v>
+        <v>90000.0</v>
       </c>
       <c r="T72" s="5">
-        <v>200000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U72" s="5">
-        <v>2782</v>
+        <v>2504</v>
       </c>
       <c r="V72" s="16">
         <v>1</v>
       </c>
       <c r="W72" s="5">
-        <v>27.82</v>
+        <v>25.04</v>
       </c>
       <c r="X72" s="16">
         <v>0.01</v>
       </c>
       <c r="Y72" s="5">
-        <v>0.0</v>
+        <v>-112417.8</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
@@ -10463,12 +11234,13 @@
       <c r="AC72" s="5">
         <v>0</v>
       </c>
-      <c r="AD72" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE72"/>
+      <c r="AD72" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="15"/>
+      <c r="AF72" s="15"/>
       <c r="AG72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:33">
@@ -10500,7 +11272,6 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
-      <c r="AD73" s="2"/>
     </row>
     <row r="74" spans="1:33">
       <c r="B74" s="1"/>
@@ -10531,7 +11302,6 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
-      <c r="AD74" s="2"/>
     </row>
     <row r="75" spans="1:33">
       <c r="B75" s="1"/>
@@ -10562,7 +11332,6 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
-      <c r="AD75" s="2"/>
     </row>
     <row r="76" spans="1:33">
       <c r="B76" s="1"/>
@@ -10593,7 +11362,6 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
-      <c r="AD76" s="2"/>
     </row>
     <row r="77" spans="1:33">
       <c r="B77" s="1"/>
@@ -10624,7 +11392,6 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
-      <c r="AD77" s="2"/>
     </row>
     <row r="78" spans="1:33">
       <c r="B78" s="1"/>
@@ -10655,7 +11422,6 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
-      <c r="AD78" s="2"/>
     </row>
     <row r="79" spans="1:33">
       <c r="B79" s="1"/>
@@ -10686,7 +11452,6 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
-      <c r="AD79" s="2"/>
     </row>
     <row r="80" spans="1:33">
       <c r="B80" s="1"/>
@@ -10717,7 +11482,6 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
-      <c r="AD80" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/tests/Feature/config/car_tenpercent.xlsx
+++ b/tests/Feature/config/car_tenpercent.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>private</t>
   </si>
@@ -112,7 +112,7 @@
     <t>Anskaffelsesverdi</t>
   </si>
   <si>
-    <t>Betalt (inkl kostnader)</t>
+    <t>Finans kostnader)</t>
   </si>
   <si>
     <t>Skattbar</t>
@@ -148,112 +148,115 @@
     <t>car</t>
   </si>
   <si>
-    <t xml:space="preserve">000 Asset rule </t>
+    <t xml:space="preserve"> Asset rule: </t>
   </si>
   <si>
-    <t>0Drivstoff/Forsikring/Vedlikehold/Bompenger 4000,- pr mndverditap Asset rule Using current amount: 100000 * 1</t>
+    <t>Drivstoff/Forsikring/Vedlikehold/Bompenger 4000,- pr mndverditap Asset rule: Using current amount: 200000 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 90000 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 200000 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 81000 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 180000 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 72900 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 162000 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 65610 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 145800 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 59049 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 131220 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 53144 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 118098 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 47830 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 106288 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 43047 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 95659 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 38742 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 86093 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 34868 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 77484 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 31381 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 69736 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 28243 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 62762 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 25419 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 56486 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 22877 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 50837 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 20589 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 45753 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 18530 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 41178 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 16677 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 37060 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 15009 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 33354 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 13508 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 30019 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 12157 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 27017 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 10941 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 24315 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 9847 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 21884 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 8862 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 19696 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 7976 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 17726 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 7178 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 15953 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 6460 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 14358 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 5814 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 12922 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 5233 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 11630 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 4710 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 10467 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 4239 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 9420 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 3815 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 8478 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 3434 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 7630 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 3091 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 6867 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 2782 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 6180 * 1</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -660,7 +663,7 @@
     <col min="2" max="2" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -675,12 +678,12 @@
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="5.856" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -907,13 +910,13 @@
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -983,13 +986,13 @@
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -1059,13 +1062,13 @@
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1135,13 +1138,13 @@
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1211,13 +1214,13 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -1287,13 +1290,13 @@
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -1363,13 +1366,13 @@
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -1439,13 +1442,13 @@
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -1515,13 +1518,13 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -1591,13 +1594,13 @@
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD15">
         <v>0</v>
@@ -1667,13 +1670,13 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -1743,13 +1746,13 @@
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -1819,13 +1822,13 @@
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -1895,13 +1898,13 @@
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD19">
         <v>0</v>
@@ -1971,13 +1974,13 @@
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -2047,13 +2050,13 @@
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -2123,13 +2126,13 @@
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -2199,13 +2202,13 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -2275,13 +2278,13 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -2351,13 +2354,13 @@
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -2427,13 +2430,13 @@
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -2503,13 +2506,13 @@
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -2579,13 +2582,13 @@
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -2655,13 +2658,13 @@
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -2731,13 +2734,13 @@
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD30">
         <v>0</v>
@@ -2807,13 +2810,13 @@
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -2883,13 +2886,13 @@
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD32">
         <v>0</v>
@@ -2959,13 +2962,13 @@
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD33">
         <v>0</v>
@@ -3035,13 +3038,13 @@
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD34">
         <v>0</v>
@@ -3111,13 +3114,13 @@
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD35">
         <v>0</v>
@@ -3187,13 +3190,13 @@
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD36">
         <v>0</v>
@@ -3263,13 +3266,13 @@
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD37">
         <v>0</v>
@@ -3289,7 +3292,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>4400.0</v>
+        <v>52800.0</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1">
@@ -3314,20 +3317,20 @@
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S38" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T38" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U38" s="6">
-        <v>90000</v>
+        <v>200000</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="1">
@@ -3335,17 +3338,17 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="1">
-        <v>-4400.0</v>
+        <v>-52800.0</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD38">
         <v>0</v>
@@ -3365,7 +3368,7 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="8">
-        <v>4840.0</v>
+        <v>58080.0</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="8">
@@ -3390,20 +3393,20 @@
       </c>
       <c r="O39" s="9"/>
       <c r="P39" s="8">
-        <v>81000.0</v>
+        <v>180000.0</v>
       </c>
       <c r="Q39" s="9"/>
       <c r="R39" s="8">
-        <v>81000.0</v>
+        <v>180000.0</v>
       </c>
       <c r="S39" s="8">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T39" s="8">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U39" s="8">
-        <v>81000</v>
+        <v>180000</v>
       </c>
       <c r="V39" s="9"/>
       <c r="W39" s="8">
@@ -3411,17 +3414,17 @@
       </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="8">
-        <v>-4840.0</v>
+        <v>-58080.0</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD39" s="7">
         <v>0</v>
@@ -3442,7 +3445,7 @@
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>5324.0</v>
+        <v>63888.0</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
@@ -3467,20 +3470,20 @@
       </c>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>72900.0</v>
+        <v>162000.0</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>72900.0</v>
+        <v>162000.0</v>
       </c>
       <c r="S40" s="11">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T40" s="11">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U40" s="11">
-        <v>72900</v>
+        <v>162000</v>
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="11">
@@ -3488,17 +3491,17 @@
       </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="11">
-        <v>-5324.0</v>
+        <v>-63888.0</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD40" s="10">
         <v>0</v>
@@ -3519,7 +3522,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>5856.4</v>
+        <v>70276.8</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
@@ -3544,20 +3547,20 @@
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>65610.0</v>
+        <v>145800.0</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>65610.0</v>
+        <v>145800.0</v>
       </c>
       <c r="S41" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T41" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U41" s="6">
-        <v>65610</v>
+        <v>145800</v>
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="1">
@@ -3565,17 +3568,17 @@
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="1">
-        <v>-5856.4</v>
+        <v>-70276.8</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD41">
         <v>0</v>
@@ -3595,7 +3598,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>6441.6</v>
+        <v>77304.7</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1">
@@ -3620,20 +3623,20 @@
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>59049.0</v>
+        <v>131220.0</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>59049.0</v>
+        <v>131220.0</v>
       </c>
       <c r="S42" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T42" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U42" s="6">
-        <v>59049</v>
+        <v>131220</v>
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="1">
@@ -3641,17 +3644,17 @@
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="1">
-        <v>-6441.6</v>
+        <v>-77304.7</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD42">
         <v>0</v>
@@ -3671,7 +3674,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>7086.2</v>
+        <v>85035.5</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1">
@@ -3696,20 +3699,20 @@
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>53144.0</v>
+        <v>118098.0</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>53144.0</v>
+        <v>118098.0</v>
       </c>
       <c r="S43" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T43" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U43" s="6">
-        <v>53144</v>
+        <v>118098</v>
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="1">
@@ -3717,17 +3720,17 @@
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="1">
-        <v>-7086.2</v>
+        <v>-85035.5</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD43">
         <v>0</v>
@@ -3747,7 +3750,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>7794.6</v>
+        <v>93539.6</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1">
@@ -3772,20 +3775,20 @@
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>47830.0</v>
+        <v>106288.0</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>47830.0</v>
+        <v>106288.0</v>
       </c>
       <c r="S44" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T44" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U44" s="6">
-        <v>47830</v>
+        <v>106288</v>
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="1">
@@ -3793,17 +3796,17 @@
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="1">
-        <v>-7794.6</v>
+        <v>-93539.6</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD44">
         <v>0</v>
@@ -3823,7 +3826,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>8574.5</v>
+        <v>102894.0</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1">
@@ -3848,20 +3851,20 @@
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>43047.0</v>
+        <v>95659.0</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>43047.0</v>
+        <v>95659.0</v>
       </c>
       <c r="S45" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T45" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U45" s="6">
-        <v>43047</v>
+        <v>95659</v>
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="1">
@@ -3869,17 +3872,17 @@
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" s="1">
-        <v>-8574.5</v>
+        <v>-102894.0</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD45">
         <v>0</v>
@@ -3899,7 +3902,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>9432.5</v>
+        <v>113183.4</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1">
@@ -3924,20 +3927,20 @@
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>38742.0</v>
+        <v>86093.0</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>38742.0</v>
+        <v>86093.0</v>
       </c>
       <c r="S46" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T46" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U46" s="6">
-        <v>38742</v>
+        <v>86093</v>
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="1">
@@ -3945,17 +3948,17 @@
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="1">
-        <v>-9432.5</v>
+        <v>-113183.4</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD46">
         <v>0</v>
@@ -3975,7 +3978,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>10376.3</v>
+        <v>124501.3</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1">
@@ -4000,20 +4003,20 @@
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>34868.0</v>
+        <v>77484.0</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>34868.0</v>
+        <v>77484.0</v>
       </c>
       <c r="S47" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T47" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U47" s="6">
-        <v>34868</v>
+        <v>77484</v>
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="1">
@@ -4021,17 +4024,17 @@
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" s="1">
-        <v>-10376.3</v>
+        <v>-124501.3</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD47">
         <v>0</v>
@@ -4051,7 +4054,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>11413.6</v>
+        <v>136951.1</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1">
@@ -4076,20 +4079,20 @@
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>31381.0</v>
+        <v>69736.0</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>31381.0</v>
+        <v>69736.0</v>
       </c>
       <c r="S48" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T48" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U48" s="6">
-        <v>31381</v>
+        <v>69736</v>
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="1">
@@ -4097,17 +4100,17 @@
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" s="1">
-        <v>-11413.6</v>
+        <v>-136951.1</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD48">
         <v>0</v>
@@ -4127,7 +4130,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>12555.4</v>
+        <v>150646.1</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1">
@@ -4152,20 +4155,20 @@
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>28243.0</v>
+        <v>62762.0</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>28243.0</v>
+        <v>62762.0</v>
       </c>
       <c r="S49" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T49" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U49" s="6">
-        <v>28243</v>
+        <v>62762</v>
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="1">
@@ -4173,17 +4176,17 @@
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="1">
-        <v>-12555.4</v>
+        <v>-150646.1</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD49">
         <v>0</v>
@@ -4203,7 +4206,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>13810.5</v>
+        <v>165710.6</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1">
@@ -4228,20 +4231,20 @@
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>25419.0</v>
+        <v>56486.0</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>25419.0</v>
+        <v>56486.0</v>
       </c>
       <c r="S50" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T50" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U50" s="6">
-        <v>25419</v>
+        <v>56486</v>
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="1">
@@ -4249,17 +4252,17 @@
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="1">
-        <v>-13810.5</v>
+        <v>-165710.6</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD50">
         <v>0</v>
@@ -4279,7 +4282,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>15192.1</v>
+        <v>182282.1</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1">
@@ -4304,20 +4307,20 @@
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>22877.0</v>
+        <v>50837.0</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>22877.0</v>
+        <v>50837.0</v>
       </c>
       <c r="S51" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T51" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U51" s="6">
-        <v>22877</v>
+        <v>50837</v>
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="1">
@@ -4325,17 +4328,17 @@
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="1">
-        <v>-15192.1</v>
+        <v>-182282.1</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD51">
         <v>0</v>
@@ -4355,7 +4358,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>16711.2</v>
+        <v>200510.2</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1">
@@ -4380,20 +4383,20 @@
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="6">
-        <v>20589.0</v>
+        <v>45753.0</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>20589.0</v>
+        <v>45753.0</v>
       </c>
       <c r="S52" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T52" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U52" s="6">
-        <v>20589</v>
+        <v>45753</v>
       </c>
       <c r="V52" s="2"/>
       <c r="W52" s="1">
@@ -4401,17 +4404,17 @@
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" s="1">
-        <v>-16711.2</v>
+        <v>-200510.2</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD52">
         <v>0</v>
@@ -4431,7 +4434,7 @@
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>18382.1</v>
+        <v>220561.0</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
@@ -4456,20 +4459,20 @@
       </c>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
-        <v>18530.0</v>
+        <v>41178.0</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>18530.0</v>
+        <v>41178.0</v>
       </c>
       <c r="S53" s="13">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T53" s="13">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U53" s="13">
-        <v>18530</v>
+        <v>41178</v>
       </c>
       <c r="V53" s="14"/>
       <c r="W53" s="13">
@@ -4477,17 +4480,17 @@
       </c>
       <c r="X53" s="14"/>
       <c r="Y53" s="13">
-        <v>-18382.1</v>
+        <v>-220561.0</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD53" s="3">
         <v>0</v>
@@ -4508,7 +4511,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>20220.2</v>
+        <v>242617.1</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
@@ -4533,20 +4536,20 @@
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
-        <v>16677.0</v>
+        <v>37060.0</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>16677.0</v>
+        <v>37060.0</v>
       </c>
       <c r="S54" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T54" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U54" s="6">
-        <v>16677</v>
+        <v>37060</v>
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="1">
@@ -4554,17 +4557,17 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" s="1">
-        <v>-20220.2</v>
+        <v>-242617.1</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD54">
         <v>0</v>
@@ -4584,7 +4587,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>22242.0</v>
+        <v>266878.7</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
@@ -4609,20 +4612,20 @@
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
-        <v>15009.0</v>
+        <v>33354.0</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>15009.0</v>
+        <v>33354.0</v>
       </c>
       <c r="S55" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T55" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U55" s="6">
-        <v>15009</v>
+        <v>33354</v>
       </c>
       <c r="V55" s="2"/>
       <c r="W55" s="1">
@@ -4630,17 +4633,17 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" s="1">
-        <v>-22242.0</v>
+        <v>-266878.7</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD55">
         <v>0</v>
@@ -4660,7 +4663,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>24466.2</v>
+        <v>293566.9</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
@@ -4685,20 +4688,20 @@
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
-        <v>13508.0</v>
+        <v>30019.0</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>13508.0</v>
+        <v>30019.0</v>
       </c>
       <c r="S56" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T56" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U56" s="6">
-        <v>13508</v>
+        <v>30019</v>
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="1">
@@ -4706,17 +4709,17 @@
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" s="1">
-        <v>-24466.2</v>
+        <v>-293566.9</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD56">
         <v>0</v>
@@ -4736,7 +4739,7 @@
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>26912.6</v>
+        <v>322923.7</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
@@ -4761,20 +4764,20 @@
       </c>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
-        <v>12157.0</v>
+        <v>27017.0</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>12157.0</v>
+        <v>27017.0</v>
       </c>
       <c r="S57" s="13">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T57" s="13">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U57" s="13">
-        <v>12157</v>
+        <v>27017</v>
       </c>
       <c r="V57" s="14"/>
       <c r="W57" s="13">
@@ -4782,17 +4785,17 @@
       </c>
       <c r="X57" s="14"/>
       <c r="Y57" s="13">
-        <v>-26912.6</v>
+        <v>-322923.7</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD57" s="3">
         <v>0</v>
@@ -4813,7 +4816,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>29604.3</v>
+        <v>355216.4</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
@@ -4838,20 +4841,20 @@
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="6">
-        <v>10941.0</v>
+        <v>24315.0</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>10941.0</v>
+        <v>24315.0</v>
       </c>
       <c r="S58" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T58" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U58" s="6">
-        <v>10941</v>
+        <v>24315</v>
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="1">
@@ -4859,17 +4862,17 @@
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" s="1">
-        <v>-29604.3</v>
+        <v>-355216.4</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD58">
         <v>0</v>
@@ -4889,7 +4892,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>32564.4</v>
+        <v>390737.6</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
@@ -4914,20 +4917,20 @@
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="6">
-        <v>9847.0</v>
+        <v>21884.0</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>9847.0</v>
+        <v>21884.0</v>
       </c>
       <c r="S59" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T59" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U59" s="6">
-        <v>9847</v>
+        <v>21884</v>
       </c>
       <c r="V59" s="2"/>
       <c r="W59" s="1">
@@ -4935,17 +4938,17 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" s="1">
-        <v>-32564.4</v>
+        <v>-390737.6</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD59">
         <v>0</v>
@@ -4965,7 +4968,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>35820.4</v>
+        <v>429811.8</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
@@ -4990,20 +4993,20 @@
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="6">
-        <v>8862.0</v>
+        <v>19696.0</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>8862.0</v>
+        <v>19696.0</v>
       </c>
       <c r="S60" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T60" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U60" s="6">
-        <v>8862</v>
+        <v>19696</v>
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="1">
@@ -5011,17 +5014,17 @@
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" s="1">
-        <v>-35820.4</v>
+        <v>-429811.8</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD60">
         <v>0</v>
@@ -5041,7 +5044,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>39402.0</v>
+        <v>472793.2</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
@@ -5066,20 +5069,20 @@
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="6">
-        <v>7976.0</v>
+        <v>17726.0</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>7976.0</v>
+        <v>17726.0</v>
       </c>
       <c r="S61" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T61" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U61" s="6">
-        <v>7976</v>
+        <v>17726</v>
       </c>
       <c r="V61" s="2"/>
       <c r="W61" s="1">
@@ -5087,17 +5090,17 @@
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" s="1">
-        <v>-39402.0</v>
+        <v>-472793.2</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD61">
         <v>0</v>
@@ -5117,7 +5120,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>43342.2</v>
+        <v>520072.3</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
@@ -5142,20 +5145,20 @@
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="6">
-        <v>7178.0</v>
+        <v>15953.0</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>7178.0</v>
+        <v>15953.0</v>
       </c>
       <c r="S62" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T62" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U62" s="6">
-        <v>7178</v>
+        <v>15953</v>
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="1">
@@ -5163,17 +5166,17 @@
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" s="1">
-        <v>-43342.2</v>
+        <v>-520072.3</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD62">
         <v>0</v>
@@ -5193,7 +5196,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>47676.2</v>
+        <v>572079.2</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
@@ -5218,20 +5221,20 @@
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="6">
-        <v>6460.0</v>
+        <v>14358.0</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>6460.0</v>
+        <v>14358.0</v>
       </c>
       <c r="S63" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T63" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U63" s="6">
-        <v>6460</v>
+        <v>14358</v>
       </c>
       <c r="V63" s="2"/>
       <c r="W63" s="1">
@@ -5239,17 +5242,17 @@
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" s="1">
-        <v>-47676.2</v>
+        <v>-572079.2</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD63">
         <v>0</v>
@@ -5269,7 +5272,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>52443.6</v>
+        <v>629286.9</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
@@ -5294,20 +5297,20 @@
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="6">
-        <v>5814.0</v>
+        <v>12922.0</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>5814.0</v>
+        <v>12922.0</v>
       </c>
       <c r="S64" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T64" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U64" s="6">
-        <v>5814</v>
+        <v>12922</v>
       </c>
       <c r="V64" s="2"/>
       <c r="W64" s="1">
@@ -5315,17 +5318,17 @@
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" s="1">
-        <v>-52443.6</v>
+        <v>-629286.9</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD64">
         <v>0</v>
@@ -5345,7 +5348,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>57688.4</v>
+        <v>692215.7</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
@@ -5370,20 +5373,20 @@
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="6">
-        <v>5233.0</v>
+        <v>11630.0</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>5233.0</v>
+        <v>11630.0</v>
       </c>
       <c r="S65" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T65" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U65" s="6">
-        <v>5233</v>
+        <v>11630</v>
       </c>
       <c r="V65" s="2"/>
       <c r="W65" s="1">
@@ -5391,17 +5394,17 @@
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" s="1">
-        <v>-57688.4</v>
+        <v>-692215.7</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD65">
         <v>0</v>
@@ -5421,7 +5424,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>63456.8</v>
+        <v>761437.6</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
@@ -5446,20 +5449,20 @@
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="6">
-        <v>4710.0</v>
+        <v>10467.0</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>4710.0</v>
+        <v>10467.0</v>
       </c>
       <c r="S66" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T66" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U66" s="6">
-        <v>4710</v>
+        <v>10467</v>
       </c>
       <c r="V66" s="2"/>
       <c r="W66" s="1">
@@ -5467,17 +5470,17 @@
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" s="1">
-        <v>-63456.8</v>
+        <v>-761437.6</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD66">
         <v>0</v>
@@ -5497,7 +5500,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>69802.7</v>
+        <v>837581.8</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
@@ -5522,20 +5525,20 @@
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="6">
-        <v>4239.0</v>
+        <v>9420.0</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>4239.0</v>
+        <v>9420.0</v>
       </c>
       <c r="S67" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T67" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U67" s="6">
-        <v>4239</v>
+        <v>9420</v>
       </c>
       <c r="V67" s="2"/>
       <c r="W67" s="1">
@@ -5543,17 +5546,17 @@
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" s="1">
-        <v>-69802.7</v>
+        <v>-837581.8</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD67">
         <v>0</v>
@@ -5573,7 +5576,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>76783.3</v>
+        <v>921340.2</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
@@ -5598,20 +5601,20 @@
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="6">
-        <v>3815.0</v>
+        <v>8478.0</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>3815.0</v>
+        <v>8478.0</v>
       </c>
       <c r="S68" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T68" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U68" s="6">
-        <v>3815</v>
+        <v>8478</v>
       </c>
       <c r="V68" s="2"/>
       <c r="W68" s="1">
@@ -5619,17 +5622,17 @@
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" s="1">
-        <v>-76783.3</v>
+        <v>-921340.2</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD68">
         <v>0</v>
@@ -5649,7 +5652,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>84461.3</v>
+        <v>1013474.0</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
@@ -5674,20 +5677,20 @@
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="6">
-        <v>3434.0</v>
+        <v>7630.0</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>3434.0</v>
+        <v>7630.0</v>
       </c>
       <c r="S69" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T69" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U69" s="6">
-        <v>3434</v>
+        <v>7630</v>
       </c>
       <c r="V69" s="2"/>
       <c r="W69" s="1">
@@ -5695,17 +5698,17 @@
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" s="1">
-        <v>-84461.3</v>
+        <v>-1013474.0</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD69">
         <v>0</v>
@@ -5725,7 +5728,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>92907.1</v>
+        <v>1114821.4</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
@@ -5750,20 +5753,20 @@
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="6">
-        <v>3091.0</v>
+        <v>6867.0</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>3091.0</v>
+        <v>6867.0</v>
       </c>
       <c r="S70" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T70" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U70" s="6">
-        <v>3091</v>
+        <v>6867</v>
       </c>
       <c r="V70" s="2"/>
       <c r="W70" s="1">
@@ -5771,17 +5774,17 @@
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" s="1">
-        <v>-92907.1</v>
+        <v>-1114821.4</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD70">
         <v>0</v>
@@ -5801,7 +5804,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>102197.7</v>
+        <v>1226303.1</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
@@ -5826,20 +5829,20 @@
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="6">
-        <v>2782.0</v>
+        <v>6180.0</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>2782.0</v>
+        <v>6180.0</v>
       </c>
       <c r="S71" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T71" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U71" s="6">
-        <v>2782</v>
+        <v>6180</v>
       </c>
       <c r="V71" s="2"/>
       <c r="W71" s="1">
@@ -5847,17 +5850,17 @@
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" s="1">
-        <v>-102197.7</v>
+        <v>-1226303.1</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD71">
         <v>0</v>
@@ -5877,7 +5880,7 @@
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>112417.8</v>
+        <v>1348933.3</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
@@ -5902,20 +5905,20 @@
       </c>
       <c r="O72" s="16"/>
       <c r="P72" s="5">
-        <v>2504.0</v>
+        <v>5562.0</v>
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="5">
-        <v>2504.0</v>
+        <v>5562.0</v>
       </c>
       <c r="S72" s="5">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T72" s="5">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U72" s="5">
-        <v>2504</v>
+        <v>5562</v>
       </c>
       <c r="V72" s="16"/>
       <c r="W72" s="5">
@@ -5923,17 +5926,17 @@
       </c>
       <c r="X72" s="16"/>
       <c r="Y72" s="5">
-        <v>-112417.8</v>
+        <v>-1348933.3</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD72" s="15">
         <v>0</v>
@@ -6215,7 +6218,7 @@
     <col min="2" max="2" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -6230,12 +6233,12 @@
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="5.856" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -6446,7 +6449,7 @@
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="1">
@@ -6454,13 +6457,13 @@
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -6514,7 +6517,7 @@
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="1">
@@ -6522,13 +6525,13 @@
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -6582,7 +6585,7 @@
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="1">
@@ -6590,13 +6593,13 @@
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -6650,7 +6653,7 @@
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="1">
@@ -6658,13 +6661,13 @@
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -6718,7 +6721,7 @@
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="1">
@@ -6726,13 +6729,13 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -6786,7 +6789,7 @@
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="1">
@@ -6794,13 +6797,13 @@
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -6854,7 +6857,7 @@
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="1">
@@ -6862,13 +6865,13 @@
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -6922,7 +6925,7 @@
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="1">
@@ -6930,13 +6933,13 @@
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -6990,7 +6993,7 @@
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="1">
@@ -6998,13 +7001,13 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -7058,7 +7061,7 @@
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="1">
@@ -7066,13 +7069,13 @@
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD15">
         <v>0</v>
@@ -7126,7 +7129,7 @@
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="1">
@@ -7134,13 +7137,13 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -7194,7 +7197,7 @@
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="1">
@@ -7202,13 +7205,13 @@
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -7262,7 +7265,7 @@
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="1">
@@ -7270,13 +7273,13 @@
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -7330,7 +7333,7 @@
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="1">
@@ -7338,13 +7341,13 @@
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD19">
         <v>0</v>
@@ -7398,7 +7401,7 @@
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="1">
@@ -7406,13 +7409,13 @@
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -7466,7 +7469,7 @@
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="1">
@@ -7474,13 +7477,13 @@
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -7534,7 +7537,7 @@
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="1">
@@ -7542,13 +7545,13 @@
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -7602,7 +7605,7 @@
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="1">
@@ -7610,13 +7613,13 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -7670,7 +7673,7 @@
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="1">
@@ -7678,13 +7681,13 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -7738,7 +7741,7 @@
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="1">
@@ -7746,13 +7749,13 @@
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -7806,7 +7809,7 @@
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" s="1">
@@ -7814,13 +7817,13 @@
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -7874,7 +7877,7 @@
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" s="1">
@@ -7882,13 +7885,13 @@
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -7942,7 +7945,7 @@
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="1">
@@ -7950,13 +7953,13 @@
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -8010,7 +8013,7 @@
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="1">
@@ -8018,13 +8021,13 @@
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -8078,7 +8081,7 @@
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="1">
@@ -8086,13 +8089,13 @@
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD30">
         <v>0</v>
@@ -8146,7 +8149,7 @@
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" s="1">
@@ -8154,13 +8157,13 @@
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -8214,7 +8217,7 @@
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" s="1">
@@ -8222,13 +8225,13 @@
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD32">
         <v>0</v>
@@ -8282,7 +8285,7 @@
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="1">
@@ -8290,13 +8293,13 @@
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD33">
         <v>0</v>
@@ -8350,7 +8353,7 @@
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="1">
@@ -8358,13 +8361,13 @@
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD34">
         <v>0</v>
@@ -8418,7 +8421,7 @@
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="1">
@@ -8426,13 +8429,13 @@
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD35">
         <v>0</v>
@@ -8486,7 +8489,7 @@
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" s="1">
@@ -8494,13 +8497,13 @@
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD36">
         <v>0</v>
@@ -8554,7 +8557,7 @@
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" s="1">
@@ -8562,13 +8565,13 @@
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD37">
         <v>0</v>
@@ -8590,7 +8593,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>4400.0</v>
+        <v>52800.0</v>
       </c>
       <c r="F38" s="2">
         <v>0.1</v>
@@ -8607,44 +8610,44 @@
       <c r="N38" s="1"/>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q38" s="2">
         <v>0.1</v>
       </c>
       <c r="R38" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S38" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T38" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U38" s="6">
-        <v>90000</v>
+        <v>200000</v>
       </c>
       <c r="V38" s="2">
         <v>1</v>
       </c>
       <c r="W38" s="1">
-        <v>900.0</v>
+        <v>0</v>
       </c>
       <c r="X38" s="2">
         <v>0.01</v>
       </c>
       <c r="Y38" s="1">
-        <v>-4400.0</v>
+        <v>-52800.0</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD38">
         <v>0</v>
@@ -8666,7 +8669,7 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="8">
-        <v>4840.0</v>
+        <v>58080.0</v>
       </c>
       <c r="F39" s="9">
         <v>0.1</v>
@@ -8683,44 +8686,44 @@
       <c r="N39" s="8"/>
       <c r="O39" s="9"/>
       <c r="P39" s="8">
-        <v>81000.0</v>
+        <v>180000.0</v>
       </c>
       <c r="Q39" s="9">
         <v>0.1</v>
       </c>
       <c r="R39" s="8">
-        <v>81000.0</v>
+        <v>180000.0</v>
       </c>
       <c r="S39" s="8">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T39" s="8">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U39" s="8">
-        <v>81000</v>
+        <v>180000</v>
       </c>
       <c r="V39" s="9">
         <v>1</v>
       </c>
       <c r="W39" s="8">
-        <v>810.0</v>
+        <v>0</v>
       </c>
       <c r="X39" s="9">
         <v>0.01</v>
       </c>
       <c r="Y39" s="8">
-        <v>-4840.0</v>
+        <v>-58080.0</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD39" s="7">
         <v>0</v>
@@ -8743,7 +8746,7 @@
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>5324.0</v>
+        <v>63888.0</v>
       </c>
       <c r="F40" s="12">
         <v>0.1</v>
@@ -8760,44 +8763,44 @@
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>72900.0</v>
+        <v>162000.0</v>
       </c>
       <c r="Q40" s="12">
         <v>0.1</v>
       </c>
       <c r="R40" s="11">
-        <v>72900.0</v>
+        <v>162000.0</v>
       </c>
       <c r="S40" s="11">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T40" s="11">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U40" s="11">
-        <v>72900</v>
+        <v>162000</v>
       </c>
       <c r="V40" s="12">
         <v>1</v>
       </c>
       <c r="W40" s="11">
-        <v>729.0</v>
+        <v>0</v>
       </c>
       <c r="X40" s="12">
         <v>0.01</v>
       </c>
       <c r="Y40" s="11">
-        <v>-5324.0</v>
+        <v>-63888.0</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD40" s="10">
         <v>0</v>
@@ -8820,7 +8823,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>5856.4</v>
+        <v>70276.8</v>
       </c>
       <c r="F41" s="2">
         <v>0.1</v>
@@ -8837,44 +8840,44 @@
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>65610.0</v>
+        <v>145800.0</v>
       </c>
       <c r="Q41" s="2">
         <v>0.1</v>
       </c>
       <c r="R41" s="1">
-        <v>65610.0</v>
+        <v>145800.0</v>
       </c>
       <c r="S41" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T41" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U41" s="6">
-        <v>65610</v>
+        <v>145800</v>
       </c>
       <c r="V41" s="2">
         <v>1</v>
       </c>
       <c r="W41" s="1">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="X41" s="2">
         <v>0.01</v>
       </c>
       <c r="Y41" s="1">
-        <v>-5856.4</v>
+        <v>-70276.8</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD41">
         <v>0</v>
@@ -8896,7 +8899,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>6441.6</v>
+        <v>77304.7</v>
       </c>
       <c r="F42" s="2">
         <v>0.1</v>
@@ -8913,44 +8916,44 @@
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>59049.0</v>
+        <v>131220.0</v>
       </c>
       <c r="Q42" s="2">
         <v>0.1</v>
       </c>
       <c r="R42" s="1">
-        <v>59049.0</v>
+        <v>131220.0</v>
       </c>
       <c r="S42" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T42" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U42" s="6">
-        <v>59049</v>
+        <v>131220</v>
       </c>
       <c r="V42" s="2">
         <v>1</v>
       </c>
       <c r="W42" s="1">
-        <v>590.49</v>
+        <v>0</v>
       </c>
       <c r="X42" s="2">
         <v>0.01</v>
       </c>
       <c r="Y42" s="1">
-        <v>-6441.6</v>
+        <v>-77304.7</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD42">
         <v>0</v>
@@ -8972,7 +8975,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>7086.2</v>
+        <v>85035.5</v>
       </c>
       <c r="F43" s="2">
         <v>0.1</v>
@@ -8989,44 +8992,44 @@
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>53144.0</v>
+        <v>118098.0</v>
       </c>
       <c r="Q43" s="2">
         <v>0.1</v>
       </c>
       <c r="R43" s="1">
-        <v>53144.0</v>
+        <v>118098.0</v>
       </c>
       <c r="S43" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T43" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U43" s="6">
-        <v>53144</v>
+        <v>118098</v>
       </c>
       <c r="V43" s="2">
         <v>1</v>
       </c>
       <c r="W43" s="1">
-        <v>531.44</v>
+        <v>0</v>
       </c>
       <c r="X43" s="2">
         <v>0.01</v>
       </c>
       <c r="Y43" s="1">
-        <v>-7086.2</v>
+        <v>-85035.5</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD43">
         <v>0</v>
@@ -9048,7 +9051,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>7794.6</v>
+        <v>93539.6</v>
       </c>
       <c r="F44" s="2">
         <v>0.1</v>
@@ -9065,44 +9068,44 @@
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>47830.0</v>
+        <v>106288.0</v>
       </c>
       <c r="Q44" s="2">
         <v>0.1</v>
       </c>
       <c r="R44" s="1">
-        <v>47830.0</v>
+        <v>106288.0</v>
       </c>
       <c r="S44" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T44" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U44" s="6">
-        <v>47830</v>
+        <v>106288</v>
       </c>
       <c r="V44" s="2">
         <v>1</v>
       </c>
       <c r="W44" s="1">
-        <v>478.3</v>
+        <v>0</v>
       </c>
       <c r="X44" s="2">
         <v>0.01</v>
       </c>
       <c r="Y44" s="1">
-        <v>-7794.6</v>
+        <v>-93539.6</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD44">
         <v>0</v>
@@ -9124,7 +9127,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>8574.5</v>
+        <v>102894.0</v>
       </c>
       <c r="F45" s="2">
         <v>0.1</v>
@@ -9141,44 +9144,44 @@
       <c r="N45" s="1"/>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>43047.0</v>
+        <v>95659.0</v>
       </c>
       <c r="Q45" s="2">
         <v>0.1</v>
       </c>
       <c r="R45" s="1">
-        <v>43047.0</v>
+        <v>95659.0</v>
       </c>
       <c r="S45" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T45" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U45" s="6">
-        <v>43047</v>
+        <v>95659</v>
       </c>
       <c r="V45" s="2">
         <v>1</v>
       </c>
       <c r="W45" s="1">
-        <v>430.47</v>
+        <v>0</v>
       </c>
       <c r="X45" s="2">
         <v>0.01</v>
       </c>
       <c r="Y45" s="1">
-        <v>-8574.5</v>
+        <v>-102894.0</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD45">
         <v>0</v>
@@ -9200,7 +9203,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>9432.5</v>
+        <v>113183.4</v>
       </c>
       <c r="F46" s="2">
         <v>0.1</v>
@@ -9217,44 +9220,44 @@
       <c r="N46" s="1"/>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>38742.0</v>
+        <v>86093.0</v>
       </c>
       <c r="Q46" s="2">
         <v>0.1</v>
       </c>
       <c r="R46" s="1">
-        <v>38742.0</v>
+        <v>86093.0</v>
       </c>
       <c r="S46" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T46" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U46" s="6">
-        <v>38742</v>
+        <v>86093</v>
       </c>
       <c r="V46" s="2">
         <v>1</v>
       </c>
       <c r="W46" s="1">
-        <v>387.42</v>
+        <v>0</v>
       </c>
       <c r="X46" s="2">
         <v>0.01</v>
       </c>
       <c r="Y46" s="1">
-        <v>-9432.5</v>
+        <v>-113183.4</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD46">
         <v>0</v>
@@ -9276,7 +9279,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>10376.3</v>
+        <v>124501.3</v>
       </c>
       <c r="F47" s="2">
         <v>0.1</v>
@@ -9293,44 +9296,44 @@
       <c r="N47" s="1"/>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>34868.0</v>
+        <v>77484.0</v>
       </c>
       <c r="Q47" s="2">
         <v>0.1</v>
       </c>
       <c r="R47" s="1">
-        <v>34868.0</v>
+        <v>77484.0</v>
       </c>
       <c r="S47" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T47" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U47" s="6">
-        <v>34868</v>
+        <v>77484</v>
       </c>
       <c r="V47" s="2">
         <v>1</v>
       </c>
       <c r="W47" s="1">
-        <v>348.68</v>
+        <v>0</v>
       </c>
       <c r="X47" s="2">
         <v>0.01</v>
       </c>
       <c r="Y47" s="1">
-        <v>-10376.3</v>
+        <v>-124501.3</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD47">
         <v>0</v>
@@ -9352,7 +9355,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>11413.6</v>
+        <v>136951.1</v>
       </c>
       <c r="F48" s="2">
         <v>0.1</v>
@@ -9369,44 +9372,44 @@
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>31381.0</v>
+        <v>69736.0</v>
       </c>
       <c r="Q48" s="2">
         <v>0.1</v>
       </c>
       <c r="R48" s="1">
-        <v>31381.0</v>
+        <v>69736.0</v>
       </c>
       <c r="S48" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T48" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U48" s="6">
-        <v>31381</v>
+        <v>69736</v>
       </c>
       <c r="V48" s="2">
         <v>1</v>
       </c>
       <c r="W48" s="1">
-        <v>313.81</v>
+        <v>0</v>
       </c>
       <c r="X48" s="2">
         <v>0.01</v>
       </c>
       <c r="Y48" s="1">
-        <v>-11413.6</v>
+        <v>-136951.1</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD48">
         <v>0</v>
@@ -9428,7 +9431,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>12555.4</v>
+        <v>150646.1</v>
       </c>
       <c r="F49" s="2">
         <v>0.1</v>
@@ -9445,44 +9448,44 @@
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>28243.0</v>
+        <v>62762.0</v>
       </c>
       <c r="Q49" s="2">
         <v>0.1</v>
       </c>
       <c r="R49" s="1">
-        <v>28243.0</v>
+        <v>62762.0</v>
       </c>
       <c r="S49" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T49" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U49" s="6">
-        <v>28243</v>
+        <v>62762</v>
       </c>
       <c r="V49" s="2">
         <v>1</v>
       </c>
       <c r="W49" s="1">
-        <v>282.43</v>
+        <v>0</v>
       </c>
       <c r="X49" s="2">
         <v>0.01</v>
       </c>
       <c r="Y49" s="1">
-        <v>-12555.4</v>
+        <v>-150646.1</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD49">
         <v>0</v>
@@ -9504,7 +9507,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>13810.5</v>
+        <v>165710.6</v>
       </c>
       <c r="F50" s="2">
         <v>0.1</v>
@@ -9521,44 +9524,44 @@
       <c r="N50" s="1"/>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>25419.0</v>
+        <v>56486.0</v>
       </c>
       <c r="Q50" s="2">
         <v>0.1</v>
       </c>
       <c r="R50" s="1">
-        <v>25419.0</v>
+        <v>56486.0</v>
       </c>
       <c r="S50" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T50" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U50" s="6">
-        <v>25419</v>
+        <v>56486</v>
       </c>
       <c r="V50" s="2">
         <v>1</v>
       </c>
       <c r="W50" s="1">
-        <v>254.19</v>
+        <v>0</v>
       </c>
       <c r="X50" s="2">
         <v>0.01</v>
       </c>
       <c r="Y50" s="1">
-        <v>-13810.5</v>
+        <v>-165710.6</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD50">
         <v>0</v>
@@ -9580,7 +9583,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>15192.1</v>
+        <v>182282.1</v>
       </c>
       <c r="F51" s="2">
         <v>0.1</v>
@@ -9597,44 +9600,44 @@
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>22877.0</v>
+        <v>50837.0</v>
       </c>
       <c r="Q51" s="2">
         <v>0.1</v>
       </c>
       <c r="R51" s="1">
-        <v>22877.0</v>
+        <v>50837.0</v>
       </c>
       <c r="S51" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T51" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U51" s="6">
-        <v>22877</v>
+        <v>50837</v>
       </c>
       <c r="V51" s="2">
         <v>1</v>
       </c>
       <c r="W51" s="1">
-        <v>228.77</v>
+        <v>0</v>
       </c>
       <c r="X51" s="2">
         <v>0.01</v>
       </c>
       <c r="Y51" s="1">
-        <v>-15192.1</v>
+        <v>-182282.1</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD51">
         <v>0</v>
@@ -9656,7 +9659,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>16711.2</v>
+        <v>200510.2</v>
       </c>
       <c r="F52" s="2">
         <v>0.1</v>
@@ -9673,44 +9676,44 @@
       <c r="N52" s="1"/>
       <c r="O52" s="2"/>
       <c r="P52" s="6">
-        <v>20589.0</v>
+        <v>45753.0</v>
       </c>
       <c r="Q52" s="2">
         <v>0.1</v>
       </c>
       <c r="R52" s="1">
-        <v>20589.0</v>
+        <v>45753.0</v>
       </c>
       <c r="S52" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T52" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U52" s="6">
-        <v>20589</v>
+        <v>45753</v>
       </c>
       <c r="V52" s="2">
         <v>1</v>
       </c>
       <c r="W52" s="1">
-        <v>205.89</v>
+        <v>0</v>
       </c>
       <c r="X52" s="2">
         <v>0.01</v>
       </c>
       <c r="Y52" s="1">
-        <v>-16711.2</v>
+        <v>-200510.2</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD52">
         <v>0</v>
@@ -9732,7 +9735,7 @@
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>18382.1</v>
+        <v>220561.0</v>
       </c>
       <c r="F53" s="14">
         <v>0.1</v>
@@ -9749,44 +9752,44 @@
       <c r="N53" s="13"/>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
-        <v>18530.0</v>
+        <v>41178.0</v>
       </c>
       <c r="Q53" s="14">
         <v>0.1</v>
       </c>
       <c r="R53" s="13">
-        <v>18530.0</v>
+        <v>41178.0</v>
       </c>
       <c r="S53" s="13">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T53" s="13">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U53" s="13">
-        <v>18530</v>
+        <v>41178</v>
       </c>
       <c r="V53" s="14">
         <v>1</v>
       </c>
       <c r="W53" s="13">
-        <v>185.3</v>
+        <v>0</v>
       </c>
       <c r="X53" s="14">
         <v>0.01</v>
       </c>
       <c r="Y53" s="13">
-        <v>-18382.1</v>
+        <v>-220561.0</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD53" s="3">
         <v>0</v>
@@ -9809,7 +9812,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>20220.2</v>
+        <v>242617.1</v>
       </c>
       <c r="F54" s="2">
         <v>0.1</v>
@@ -9826,44 +9829,44 @@
       <c r="N54" s="1"/>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
-        <v>16677.0</v>
+        <v>37060.0</v>
       </c>
       <c r="Q54" s="2">
         <v>0.1</v>
       </c>
       <c r="R54" s="1">
-        <v>16677.0</v>
+        <v>37060.0</v>
       </c>
       <c r="S54" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T54" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U54" s="6">
-        <v>16677</v>
+        <v>37060</v>
       </c>
       <c r="V54" s="2">
         <v>1</v>
       </c>
       <c r="W54" s="1">
-        <v>166.77</v>
+        <v>0</v>
       </c>
       <c r="X54" s="2">
         <v>0.01</v>
       </c>
       <c r="Y54" s="1">
-        <v>-20220.2</v>
+        <v>-242617.1</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD54">
         <v>0</v>
@@ -9885,7 +9888,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>22242.0</v>
+        <v>266878.7</v>
       </c>
       <c r="F55" s="2">
         <v>0.1</v>
@@ -9902,44 +9905,44 @@
       <c r="N55" s="1"/>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
-        <v>15009.0</v>
+        <v>33354.0</v>
       </c>
       <c r="Q55" s="2">
         <v>0.1</v>
       </c>
       <c r="R55" s="1">
-        <v>15009.0</v>
+        <v>33354.0</v>
       </c>
       <c r="S55" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T55" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U55" s="6">
-        <v>15009</v>
+        <v>33354</v>
       </c>
       <c r="V55" s="2">
         <v>1</v>
       </c>
       <c r="W55" s="1">
-        <v>150.09</v>
+        <v>0</v>
       </c>
       <c r="X55" s="2">
         <v>0.01</v>
       </c>
       <c r="Y55" s="1">
-        <v>-22242.0</v>
+        <v>-266878.7</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD55">
         <v>0</v>
@@ -9961,7 +9964,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>24466.2</v>
+        <v>293566.9</v>
       </c>
       <c r="F56" s="2">
         <v>0.1</v>
@@ -9978,44 +9981,44 @@
       <c r="N56" s="1"/>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
-        <v>13508.0</v>
+        <v>30019.0</v>
       </c>
       <c r="Q56" s="2">
         <v>0.1</v>
       </c>
       <c r="R56" s="1">
-        <v>13508.0</v>
+        <v>30019.0</v>
       </c>
       <c r="S56" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T56" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U56" s="6">
-        <v>13508</v>
+        <v>30019</v>
       </c>
       <c r="V56" s="2">
         <v>1</v>
       </c>
       <c r="W56" s="1">
-        <v>135.08</v>
+        <v>0</v>
       </c>
       <c r="X56" s="2">
         <v>0.01</v>
       </c>
       <c r="Y56" s="1">
-        <v>-24466.2</v>
+        <v>-293566.9</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD56">
         <v>0</v>
@@ -10037,7 +10040,7 @@
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>26912.6</v>
+        <v>322923.7</v>
       </c>
       <c r="F57" s="14">
         <v>0.1</v>
@@ -10054,44 +10057,44 @@
       <c r="N57" s="13"/>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
-        <v>12157.0</v>
+        <v>27017.0</v>
       </c>
       <c r="Q57" s="14">
         <v>0.1</v>
       </c>
       <c r="R57" s="13">
-        <v>12157.0</v>
+        <v>27017.0</v>
       </c>
       <c r="S57" s="13">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T57" s="13">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U57" s="13">
-        <v>12157</v>
+        <v>27017</v>
       </c>
       <c r="V57" s="14">
         <v>1</v>
       </c>
       <c r="W57" s="13">
-        <v>121.57</v>
+        <v>0</v>
       </c>
       <c r="X57" s="14">
         <v>0.01</v>
       </c>
       <c r="Y57" s="13">
-        <v>-26912.6</v>
+        <v>-322923.7</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD57" s="3">
         <v>0</v>
@@ -10114,7 +10117,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>29604.3</v>
+        <v>355216.4</v>
       </c>
       <c r="F58" s="2">
         <v>0.1</v>
@@ -10131,44 +10134,44 @@
       <c r="N58" s="1"/>
       <c r="O58" s="2"/>
       <c r="P58" s="6">
-        <v>10941.0</v>
+        <v>24315.0</v>
       </c>
       <c r="Q58" s="2">
         <v>0.1</v>
       </c>
       <c r="R58" s="1">
-        <v>10941.0</v>
+        <v>24315.0</v>
       </c>
       <c r="S58" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T58" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U58" s="6">
-        <v>10941</v>
+        <v>24315</v>
       </c>
       <c r="V58" s="2">
         <v>1</v>
       </c>
       <c r="W58" s="1">
-        <v>109.41</v>
+        <v>0</v>
       </c>
       <c r="X58" s="2">
         <v>0.01</v>
       </c>
       <c r="Y58" s="1">
-        <v>-29604.3</v>
+        <v>-355216.4</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD58">
         <v>0</v>
@@ -10190,7 +10193,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>32564.4</v>
+        <v>390737.6</v>
       </c>
       <c r="F59" s="2">
         <v>0.1</v>
@@ -10207,44 +10210,44 @@
       <c r="N59" s="1"/>
       <c r="O59" s="2"/>
       <c r="P59" s="6">
-        <v>9847.0</v>
+        <v>21884.0</v>
       </c>
       <c r="Q59" s="2">
         <v>0.1</v>
       </c>
       <c r="R59" s="1">
-        <v>9847.0</v>
+        <v>21884.0</v>
       </c>
       <c r="S59" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T59" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U59" s="6">
-        <v>9847</v>
+        <v>21884</v>
       </c>
       <c r="V59" s="2">
         <v>1</v>
       </c>
       <c r="W59" s="1">
-        <v>98.47</v>
+        <v>0</v>
       </c>
       <c r="X59" s="2">
         <v>0.01</v>
       </c>
       <c r="Y59" s="1">
-        <v>-32564.4</v>
+        <v>-390737.6</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD59">
         <v>0</v>
@@ -10266,7 +10269,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>35820.4</v>
+        <v>429811.8</v>
       </c>
       <c r="F60" s="2">
         <v>0.1</v>
@@ -10283,44 +10286,44 @@
       <c r="N60" s="1"/>
       <c r="O60" s="2"/>
       <c r="P60" s="6">
-        <v>8862.0</v>
+        <v>19696.0</v>
       </c>
       <c r="Q60" s="2">
         <v>0.1</v>
       </c>
       <c r="R60" s="1">
-        <v>8862.0</v>
+        <v>19696.0</v>
       </c>
       <c r="S60" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T60" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U60" s="6">
-        <v>8862</v>
+        <v>19696</v>
       </c>
       <c r="V60" s="2">
         <v>1</v>
       </c>
       <c r="W60" s="1">
-        <v>88.62</v>
+        <v>0</v>
       </c>
       <c r="X60" s="2">
         <v>0.01</v>
       </c>
       <c r="Y60" s="1">
-        <v>-35820.4</v>
+        <v>-429811.8</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD60">
         <v>0</v>
@@ -10342,7 +10345,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>39402.0</v>
+        <v>472793.2</v>
       </c>
       <c r="F61" s="2">
         <v>0.1</v>
@@ -10359,44 +10362,44 @@
       <c r="N61" s="1"/>
       <c r="O61" s="2"/>
       <c r="P61" s="6">
-        <v>7976.0</v>
+        <v>17726.0</v>
       </c>
       <c r="Q61" s="2">
         <v>0.1</v>
       </c>
       <c r="R61" s="1">
-        <v>7976.0</v>
+        <v>17726.0</v>
       </c>
       <c r="S61" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T61" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U61" s="6">
-        <v>7976</v>
+        <v>17726</v>
       </c>
       <c r="V61" s="2">
         <v>1</v>
       </c>
       <c r="W61" s="1">
-        <v>79.76</v>
+        <v>0</v>
       </c>
       <c r="X61" s="2">
         <v>0.01</v>
       </c>
       <c r="Y61" s="1">
-        <v>-39402.0</v>
+        <v>-472793.2</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD61">
         <v>0</v>
@@ -10418,7 +10421,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>43342.2</v>
+        <v>520072.3</v>
       </c>
       <c r="F62" s="2">
         <v>0.1</v>
@@ -10435,44 +10438,44 @@
       <c r="N62" s="1"/>
       <c r="O62" s="2"/>
       <c r="P62" s="6">
-        <v>7178.0</v>
+        <v>15953.0</v>
       </c>
       <c r="Q62" s="2">
         <v>0.1</v>
       </c>
       <c r="R62" s="1">
-        <v>7178.0</v>
+        <v>15953.0</v>
       </c>
       <c r="S62" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T62" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U62" s="6">
-        <v>7178</v>
+        <v>15953</v>
       </c>
       <c r="V62" s="2">
         <v>1</v>
       </c>
       <c r="W62" s="1">
-        <v>71.78</v>
+        <v>0</v>
       </c>
       <c r="X62" s="2">
         <v>0.01</v>
       </c>
       <c r="Y62" s="1">
-        <v>-43342.2</v>
+        <v>-520072.3</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD62">
         <v>0</v>
@@ -10494,7 +10497,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>47676.2</v>
+        <v>572079.2</v>
       </c>
       <c r="F63" s="2">
         <v>0.1</v>
@@ -10511,44 +10514,44 @@
       <c r="N63" s="1"/>
       <c r="O63" s="2"/>
       <c r="P63" s="6">
-        <v>6460.0</v>
+        <v>14358.0</v>
       </c>
       <c r="Q63" s="2">
         <v>0.1</v>
       </c>
       <c r="R63" s="1">
-        <v>6460.0</v>
+        <v>14358.0</v>
       </c>
       <c r="S63" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T63" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U63" s="6">
-        <v>6460</v>
+        <v>14358</v>
       </c>
       <c r="V63" s="2">
         <v>1</v>
       </c>
       <c r="W63" s="1">
-        <v>64.6</v>
+        <v>0</v>
       </c>
       <c r="X63" s="2">
         <v>0.01</v>
       </c>
       <c r="Y63" s="1">
-        <v>-47676.2</v>
+        <v>-572079.2</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD63">
         <v>0</v>
@@ -10570,7 +10573,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>52443.6</v>
+        <v>629286.9</v>
       </c>
       <c r="F64" s="2">
         <v>0.1</v>
@@ -10587,44 +10590,44 @@
       <c r="N64" s="1"/>
       <c r="O64" s="2"/>
       <c r="P64" s="6">
-        <v>5814.0</v>
+        <v>12922.0</v>
       </c>
       <c r="Q64" s="2">
         <v>0.1</v>
       </c>
       <c r="R64" s="1">
-        <v>5814.0</v>
+        <v>12922.0</v>
       </c>
       <c r="S64" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T64" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U64" s="6">
-        <v>5814</v>
+        <v>12922</v>
       </c>
       <c r="V64" s="2">
         <v>1</v>
       </c>
       <c r="W64" s="1">
-        <v>58.14</v>
+        <v>0</v>
       </c>
       <c r="X64" s="2">
         <v>0.01</v>
       </c>
       <c r="Y64" s="1">
-        <v>-52443.6</v>
+        <v>-629286.9</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD64">
         <v>0</v>
@@ -10646,7 +10649,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>57688.4</v>
+        <v>692215.7</v>
       </c>
       <c r="F65" s="2">
         <v>0.1</v>
@@ -10663,44 +10666,44 @@
       <c r="N65" s="1"/>
       <c r="O65" s="2"/>
       <c r="P65" s="6">
-        <v>5233.0</v>
+        <v>11630.0</v>
       </c>
       <c r="Q65" s="2">
         <v>0.1</v>
       </c>
       <c r="R65" s="1">
-        <v>5233.0</v>
+        <v>11630.0</v>
       </c>
       <c r="S65" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T65" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U65" s="6">
-        <v>5233</v>
+        <v>11630</v>
       </c>
       <c r="V65" s="2">
         <v>1</v>
       </c>
       <c r="W65" s="1">
-        <v>52.33</v>
+        <v>0</v>
       </c>
       <c r="X65" s="2">
         <v>0.01</v>
       </c>
       <c r="Y65" s="1">
-        <v>-57688.4</v>
+        <v>-692215.7</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD65">
         <v>0</v>
@@ -10722,7 +10725,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>63456.8</v>
+        <v>761437.6</v>
       </c>
       <c r="F66" s="2">
         <v>0.1</v>
@@ -10739,44 +10742,44 @@
       <c r="N66" s="1"/>
       <c r="O66" s="2"/>
       <c r="P66" s="6">
-        <v>4710.0</v>
+        <v>10467.0</v>
       </c>
       <c r="Q66" s="2">
         <v>0.1</v>
       </c>
       <c r="R66" s="1">
-        <v>4710.0</v>
+        <v>10467.0</v>
       </c>
       <c r="S66" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T66" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U66" s="6">
-        <v>4710</v>
+        <v>10467</v>
       </c>
       <c r="V66" s="2">
         <v>1</v>
       </c>
       <c r="W66" s="1">
-        <v>47.1</v>
+        <v>0</v>
       </c>
       <c r="X66" s="2">
         <v>0.01</v>
       </c>
       <c r="Y66" s="1">
-        <v>-63456.8</v>
+        <v>-761437.6</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD66">
         <v>0</v>
@@ -10798,7 +10801,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>69802.7</v>
+        <v>837581.8</v>
       </c>
       <c r="F67" s="2">
         <v>0.1</v>
@@ -10815,44 +10818,44 @@
       <c r="N67" s="1"/>
       <c r="O67" s="2"/>
       <c r="P67" s="6">
-        <v>4239.0</v>
+        <v>9420.0</v>
       </c>
       <c r="Q67" s="2">
         <v>0.1</v>
       </c>
       <c r="R67" s="1">
-        <v>4239.0</v>
+        <v>9420.0</v>
       </c>
       <c r="S67" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T67" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U67" s="6">
-        <v>4239</v>
+        <v>9420</v>
       </c>
       <c r="V67" s="2">
         <v>1</v>
       </c>
       <c r="W67" s="1">
-        <v>42.39</v>
+        <v>0</v>
       </c>
       <c r="X67" s="2">
         <v>0.01</v>
       </c>
       <c r="Y67" s="1">
-        <v>-69802.7</v>
+        <v>-837581.8</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD67">
         <v>0</v>
@@ -10874,7 +10877,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>76783.3</v>
+        <v>921340.2</v>
       </c>
       <c r="F68" s="2">
         <v>0.1</v>
@@ -10891,44 +10894,44 @@
       <c r="N68" s="1"/>
       <c r="O68" s="2"/>
       <c r="P68" s="6">
-        <v>3815.0</v>
+        <v>8478.0</v>
       </c>
       <c r="Q68" s="2">
         <v>0.1</v>
       </c>
       <c r="R68" s="1">
-        <v>3815.0</v>
+        <v>8478.0</v>
       </c>
       <c r="S68" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T68" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U68" s="6">
-        <v>3815</v>
+        <v>8478</v>
       </c>
       <c r="V68" s="2">
         <v>1</v>
       </c>
       <c r="W68" s="1">
-        <v>38.15</v>
+        <v>0</v>
       </c>
       <c r="X68" s="2">
         <v>0.01</v>
       </c>
       <c r="Y68" s="1">
-        <v>-76783.3</v>
+        <v>-921340.2</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD68">
         <v>0</v>
@@ -10950,7 +10953,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>84461.3</v>
+        <v>1013474.0</v>
       </c>
       <c r="F69" s="2">
         <v>0.1</v>
@@ -10967,44 +10970,44 @@
       <c r="N69" s="1"/>
       <c r="O69" s="2"/>
       <c r="P69" s="6">
-        <v>3434.0</v>
+        <v>7630.0</v>
       </c>
       <c r="Q69" s="2">
         <v>0.1</v>
       </c>
       <c r="R69" s="1">
-        <v>3434.0</v>
+        <v>7630.0</v>
       </c>
       <c r="S69" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T69" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U69" s="6">
-        <v>3434</v>
+        <v>7630</v>
       </c>
       <c r="V69" s="2">
         <v>1</v>
       </c>
       <c r="W69" s="1">
-        <v>34.34</v>
+        <v>0</v>
       </c>
       <c r="X69" s="2">
         <v>0.01</v>
       </c>
       <c r="Y69" s="1">
-        <v>-84461.3</v>
+        <v>-1013474.0</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD69">
         <v>0</v>
@@ -11026,7 +11029,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>92907.1</v>
+        <v>1114821.4</v>
       </c>
       <c r="F70" s="2">
         <v>0.1</v>
@@ -11043,44 +11046,44 @@
       <c r="N70" s="1"/>
       <c r="O70" s="2"/>
       <c r="P70" s="6">
-        <v>3091.0</v>
+        <v>6867.0</v>
       </c>
       <c r="Q70" s="2">
         <v>0.1</v>
       </c>
       <c r="R70" s="1">
-        <v>3091.0</v>
+        <v>6867.0</v>
       </c>
       <c r="S70" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T70" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U70" s="6">
-        <v>3091</v>
+        <v>6867</v>
       </c>
       <c r="V70" s="2">
         <v>1</v>
       </c>
       <c r="W70" s="1">
-        <v>30.91</v>
+        <v>0</v>
       </c>
       <c r="X70" s="2">
         <v>0.01</v>
       </c>
       <c r="Y70" s="1">
-        <v>-92907.1</v>
+        <v>-1114821.4</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD70">
         <v>0</v>
@@ -11102,7 +11105,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>102197.7</v>
+        <v>1226303.1</v>
       </c>
       <c r="F71" s="2">
         <v>0.1</v>
@@ -11119,44 +11122,44 @@
       <c r="N71" s="1"/>
       <c r="O71" s="2"/>
       <c r="P71" s="6">
-        <v>2782.0</v>
+        <v>6180.0</v>
       </c>
       <c r="Q71" s="2">
         <v>0.1</v>
       </c>
       <c r="R71" s="1">
-        <v>2782.0</v>
+        <v>6180.0</v>
       </c>
       <c r="S71" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T71" s="1">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U71" s="6">
-        <v>2782</v>
+        <v>6180</v>
       </c>
       <c r="V71" s="2">
         <v>1</v>
       </c>
       <c r="W71" s="1">
-        <v>27.82</v>
+        <v>0</v>
       </c>
       <c r="X71" s="2">
         <v>0.01</v>
       </c>
       <c r="Y71" s="1">
-        <v>-102197.7</v>
+        <v>-1226303.1</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD71">
         <v>0</v>
@@ -11178,7 +11181,7 @@
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>112417.8</v>
+        <v>1348933.3</v>
       </c>
       <c r="F72" s="16">
         <v>0.1</v>
@@ -11195,44 +11198,44 @@
       <c r="N72" s="5"/>
       <c r="O72" s="16"/>
       <c r="P72" s="5">
-        <v>2504.0</v>
+        <v>5562.0</v>
       </c>
       <c r="Q72" s="16">
         <v>0.1</v>
       </c>
       <c r="R72" s="5">
-        <v>2504.0</v>
+        <v>5562.0</v>
       </c>
       <c r="S72" s="5">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T72" s="5">
-        <v>90000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U72" s="5">
-        <v>2504</v>
+        <v>5562</v>
       </c>
       <c r="V72" s="16">
         <v>1</v>
       </c>
       <c r="W72" s="5">
-        <v>25.04</v>
+        <v>0</v>
       </c>
       <c r="X72" s="16">
         <v>0.01</v>
       </c>
       <c r="Y72" s="5">
-        <v>-112417.8</v>
+        <v>-1348933.3</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD72" s="15">
         <v>0</v>
@@ -11504,14 +11507,568 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>2023</v>
+      </c>
+      <c r="B38">
+        <v>100.0</v>
+      </c>
+      <c r="C38">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>2024</v>
+      </c>
+      <c r="B39">
+        <v>100.0</v>
+      </c>
+      <c r="C39">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>2025</v>
+      </c>
+      <c r="B40">
+        <v>100.0</v>
+      </c>
+      <c r="C40">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>2026</v>
+      </c>
+      <c r="B41">
+        <v>100.0</v>
+      </c>
+      <c r="C41">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>2027</v>
+      </c>
+      <c r="B42">
+        <v>100.0</v>
+      </c>
+      <c r="C42">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>2028</v>
+      </c>
+      <c r="B43">
+        <v>100.0</v>
+      </c>
+      <c r="C43">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>2029</v>
+      </c>
+      <c r="B44">
+        <v>100.0</v>
+      </c>
+      <c r="C44">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>2030</v>
+      </c>
+      <c r="B45">
+        <v>100.0</v>
+      </c>
+      <c r="C45">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>2031</v>
+      </c>
+      <c r="B46">
+        <v>100.0</v>
+      </c>
+      <c r="C46">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>2032</v>
+      </c>
+      <c r="B47">
+        <v>100.0</v>
+      </c>
+      <c r="C47">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>2033</v>
+      </c>
+      <c r="B48">
+        <v>100.0</v>
+      </c>
+      <c r="C48">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>2034</v>
+      </c>
+      <c r="B49">
+        <v>100.0</v>
+      </c>
+      <c r="C49">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>2035</v>
+      </c>
+      <c r="B50">
+        <v>100.0</v>
+      </c>
+      <c r="C50">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>2036</v>
+      </c>
+      <c r="B51">
+        <v>100.0</v>
+      </c>
+      <c r="C51">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>2037</v>
+      </c>
+      <c r="B52">
+        <v>100.0</v>
+      </c>
+      <c r="C52">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>2038</v>
+      </c>
+      <c r="B53">
+        <v>100.0</v>
+      </c>
+      <c r="C53">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>2039</v>
+      </c>
+      <c r="B54">
+        <v>100.0</v>
+      </c>
+      <c r="C54">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>2040</v>
+      </c>
+      <c r="B55">
+        <v>100.0</v>
+      </c>
+      <c r="C55">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>2041</v>
+      </c>
+      <c r="B56">
+        <v>100.0</v>
+      </c>
+      <c r="C56">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>2042</v>
+      </c>
+      <c r="B57">
+        <v>100.0</v>
+      </c>
+      <c r="C57">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>2043</v>
+      </c>
+      <c r="B58">
+        <v>100.0</v>
+      </c>
+      <c r="C58">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>2044</v>
+      </c>
+      <c r="B59">
+        <v>100.0</v>
+      </c>
+      <c r="C59">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>2045</v>
+      </c>
+      <c r="B60">
+        <v>100.0</v>
+      </c>
+      <c r="C60">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>2046</v>
+      </c>
+      <c r="B61">
+        <v>100.0</v>
+      </c>
+      <c r="C61">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>2047</v>
+      </c>
+      <c r="B62">
+        <v>100.0</v>
+      </c>
+      <c r="C62">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>2048</v>
+      </c>
+      <c r="B63">
+        <v>100.0</v>
+      </c>
+      <c r="C63">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>2049</v>
+      </c>
+      <c r="B64">
+        <v>100.0</v>
+      </c>
+      <c r="C64">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>2050</v>
+      </c>
+      <c r="B65">
+        <v>100.0</v>
+      </c>
+      <c r="C65">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>2051</v>
+      </c>
+      <c r="B66">
+        <v>100.0</v>
+      </c>
+      <c r="C66">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>2052</v>
+      </c>
+      <c r="B67">
+        <v>100.0</v>
+      </c>
+      <c r="C67">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>2053</v>
+      </c>
+      <c r="B68">
+        <v>100.0</v>
+      </c>
+      <c r="C68">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>2054</v>
+      </c>
+      <c r="B69">
+        <v>100.0</v>
+      </c>
+      <c r="C69">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>2055</v>
+      </c>
+      <c r="B70">
+        <v>100.0</v>
+      </c>
+      <c r="C70">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>2056</v>
+      </c>
+      <c r="B71">
+        <v>100.0</v>
+      </c>
+      <c r="C71">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>2057</v>
+      </c>
+      <c r="B72">
+        <v>100.0</v>
+      </c>
+      <c r="C72">
+        <v>100.0</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/tests/Feature/config/car_tenpercent.xlsx
+++ b/tests/Feature/config/car_tenpercent.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>private</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Salg</t>
+  </si>
+  <si>
+    <t>Skjermingsfradrag</t>
   </si>
   <si>
     <t>Cashflow</t>
@@ -160,109 +163,109 @@
     <t>car</t>
   </si>
   <si>
-    <t>Drivstoff/Forsikring/Vedlikehold/Bompenger 4000,- pr mndverditap Asset rule: Using current amount: 200000 * 1</t>
+    <t xml:space="preserve">Drivstoff/Forsikring/Vedlikehold/Bompenger 4000,- pr mndverditap Asset rule: Using current amount: 200000 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 200000 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 200000 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 180000 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 180000 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 162000 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 162000 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 145800 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 145800 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 131220 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 131220 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 118098 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 118098 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 106288 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 106288 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 95659 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 95659 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 86093 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 86093 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 77484 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 77484 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 69736 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 69736 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 62762 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 62762 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 56486 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 56486 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 50837 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 50837 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 45753 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 45753 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 41178 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 41178 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 37060 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 37060 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 33354 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 33354 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 30019 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 30019 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 27017 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 27017 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 24315 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 24315 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 21884 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 21884 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 19696 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 19696 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 17726 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 17726 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 15953 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 15953 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 14358 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 14358 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 12922 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 12922 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 11630 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 11630 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 10467 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 10467 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 9420 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 9420 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 8478 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 8478 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 7630 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 7630 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 6867 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 6867 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 6180 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 6180 * 1 </t>
   </si>
   <si>
     <t>total</t>
@@ -660,10 +663,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AM80"/>
+  <dimension ref="A1:AO80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A72" sqref="A72:AM72"/>
+      <selection activeCell="A72" sqref="A72:AO72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -698,20 +701,22 @@
     <col min="28" max="28" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="29" max="29" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="30" max="30" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="35" max="35" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="36" max="36" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="31" max="31" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="32" max="32" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="33" max="33" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="34" max="34" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="35" max="35" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="36" max="36" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="37" max="37" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="38" max="38" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -739,7 +744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -767,109 +772,112 @@
       <c r="AG4" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>16</v>
       </c>
       <c r="AJ4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:39">
+      <c r="AL4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="R5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="AF5" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="AG5" s="3" t="s">
         <v>15</v>
@@ -878,22 +886,28 @@
         <v>40</v>
       </c>
       <c r="AI5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AK5" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="AL5" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AM5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN5" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:39">
+      <c r="AO5" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6">
         <v>1991</v>
       </c>
@@ -950,9 +964,13 @@
         <v>0.0</v>
       </c>
       <c r="X6" s="2"/>
-      <c r="Y6" s="1"/>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="1"/>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
       <c r="AB6" s="1">
         <v>0</v>
       </c>
@@ -961,26 +979,30 @@
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG6" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI6" s="2"/>
       <c r="AJ6" s="1">
         <v>0</v>
       </c>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="2"/>
-      <c r="AM6"/>
-    </row>
-    <row r="7" spans="1:39">
+      <c r="AK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6"/>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7">
         <v>1992</v>
       </c>
@@ -1037,9 +1059,13 @@
         <v>0.0</v>
       </c>
       <c r="X7" s="2"/>
-      <c r="Y7" s="1"/>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="1"/>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
       <c r="AB7" s="1">
         <v>0</v>
       </c>
@@ -1048,26 +1074,30 @@
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG7" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI7" s="2"/>
       <c r="AJ7" s="1">
         <v>0</v>
       </c>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="2"/>
-      <c r="AM7"/>
-    </row>
-    <row r="8" spans="1:39">
+      <c r="AK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7"/>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8">
         <v>1993</v>
       </c>
@@ -1124,9 +1154,13 @@
         <v>0.0</v>
       </c>
       <c r="X8" s="2"/>
-      <c r="Y8" s="1"/>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="1"/>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
       <c r="AB8" s="1">
         <v>0</v>
       </c>
@@ -1135,26 +1169,30 @@
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG8" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI8" s="2"/>
       <c r="AJ8" s="1">
         <v>0</v>
       </c>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="2"/>
-      <c r="AM8"/>
-    </row>
-    <row r="9" spans="1:39">
+      <c r="AK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8"/>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9">
         <v>1994</v>
       </c>
@@ -1211,9 +1249,13 @@
         <v>0.0</v>
       </c>
       <c r="X9" s="2"/>
-      <c r="Y9" s="1"/>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="1"/>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
       <c r="AB9" s="1">
         <v>0</v>
       </c>
@@ -1222,26 +1264,30 @@
       </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG9" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI9" s="2"/>
       <c r="AJ9" s="1">
         <v>0</v>
       </c>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="2"/>
-      <c r="AM9"/>
-    </row>
-    <row r="10" spans="1:39">
+      <c r="AK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9"/>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10">
         <v>1995</v>
       </c>
@@ -1298,9 +1344,13 @@
         <v>0.0</v>
       </c>
       <c r="X10" s="2"/>
-      <c r="Y10" s="1"/>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="1"/>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
       <c r="AB10" s="1">
         <v>0</v>
       </c>
@@ -1309,26 +1359,30 @@
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG10" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI10" s="2"/>
       <c r="AJ10" s="1">
         <v>0</v>
       </c>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="2"/>
-      <c r="AM10"/>
-    </row>
-    <row r="11" spans="1:39">
+      <c r="AK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10"/>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11">
         <v>1996</v>
       </c>
@@ -1385,9 +1439,13 @@
         <v>0.0</v>
       </c>
       <c r="X11" s="2"/>
-      <c r="Y11" s="1"/>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="1"/>
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
       <c r="AB11" s="1">
         <v>0</v>
       </c>
@@ -1396,26 +1454,30 @@
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG11" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI11" s="2"/>
       <c r="AJ11" s="1">
         <v>0</v>
       </c>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="2"/>
-      <c r="AM11"/>
-    </row>
-    <row r="12" spans="1:39">
+      <c r="AK11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11"/>
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12">
         <v>1997</v>
       </c>
@@ -1472,9 +1534,13 @@
         <v>0.0</v>
       </c>
       <c r="X12" s="2"/>
-      <c r="Y12" s="1"/>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="1"/>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
       <c r="AB12" s="1">
         <v>0</v>
       </c>
@@ -1483,26 +1549,30 @@
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG12" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI12" s="2"/>
       <c r="AJ12" s="1">
         <v>0</v>
       </c>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="2"/>
-      <c r="AM12"/>
-    </row>
-    <row r="13" spans="1:39">
+      <c r="AK12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12"/>
+    </row>
+    <row r="13" spans="1:41">
       <c r="A13">
         <v>1998</v>
       </c>
@@ -1559,9 +1629,13 @@
         <v>0.0</v>
       </c>
       <c r="X13" s="2"/>
-      <c r="Y13" s="1"/>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="1"/>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
       <c r="AB13" s="1">
         <v>0</v>
       </c>
@@ -1570,26 +1644,30 @@
       </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG13" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI13" s="2"/>
       <c r="AJ13" s="1">
         <v>0</v>
       </c>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="2"/>
-      <c r="AM13"/>
-    </row>
-    <row r="14" spans="1:39">
+      <c r="AK13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13"/>
+    </row>
+    <row r="14" spans="1:41">
       <c r="A14">
         <v>1999</v>
       </c>
@@ -1646,9 +1724,13 @@
         <v>0.0</v>
       </c>
       <c r="X14" s="2"/>
-      <c r="Y14" s="1"/>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="1"/>
+      <c r="AA14" s="1">
+        <v>0</v>
+      </c>
       <c r="AB14" s="1">
         <v>0</v>
       </c>
@@ -1657,26 +1739,30 @@
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG14" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI14" s="2"/>
       <c r="AJ14" s="1">
         <v>0</v>
       </c>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="2"/>
-      <c r="AM14"/>
-    </row>
-    <row r="15" spans="1:39">
+      <c r="AK14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14"/>
+    </row>
+    <row r="15" spans="1:41">
       <c r="A15">
         <v>2000</v>
       </c>
@@ -1733,9 +1819,13 @@
         <v>0.0</v>
       </c>
       <c r="X15" s="2"/>
-      <c r="Y15" s="1"/>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="1"/>
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
       <c r="AB15" s="1">
         <v>0</v>
       </c>
@@ -1744,26 +1834,30 @@
       </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG15" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI15" s="2"/>
       <c r="AJ15" s="1">
         <v>0</v>
       </c>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="2"/>
-      <c r="AM15"/>
-    </row>
-    <row r="16" spans="1:39">
+      <c r="AK15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15"/>
+    </row>
+    <row r="16" spans="1:41">
       <c r="A16">
         <v>2001</v>
       </c>
@@ -1820,9 +1914,13 @@
         <v>0.0</v>
       </c>
       <c r="X16" s="2"/>
-      <c r="Y16" s="1"/>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="1"/>
+      <c r="AA16" s="1">
+        <v>0</v>
+      </c>
       <c r="AB16" s="1">
         <v>0</v>
       </c>
@@ -1831,26 +1929,30 @@
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG16" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI16" s="2"/>
       <c r="AJ16" s="1">
         <v>0</v>
       </c>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="2"/>
-      <c r="AM16"/>
-    </row>
-    <row r="17" spans="1:39">
+      <c r="AK16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16"/>
+    </row>
+    <row r="17" spans="1:41">
       <c r="A17">
         <v>2002</v>
       </c>
@@ -1907,9 +2009,13 @@
         <v>0.0</v>
       </c>
       <c r="X17" s="2"/>
-      <c r="Y17" s="1"/>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="1"/>
+      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
       <c r="AB17" s="1">
         <v>0</v>
       </c>
@@ -1918,26 +2024,30 @@
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG17" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI17" s="2"/>
       <c r="AJ17" s="1">
         <v>0</v>
       </c>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="2"/>
-      <c r="AM17"/>
-    </row>
-    <row r="18" spans="1:39">
+      <c r="AK17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17"/>
+    </row>
+    <row r="18" spans="1:41">
       <c r="A18">
         <v>2003</v>
       </c>
@@ -1994,9 +2104,13 @@
         <v>0.0</v>
       </c>
       <c r="X18" s="2"/>
-      <c r="Y18" s="1"/>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="1"/>
+      <c r="AA18" s="1">
+        <v>0</v>
+      </c>
       <c r="AB18" s="1">
         <v>0</v>
       </c>
@@ -2005,26 +2119,30 @@
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG18" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI18" s="2"/>
       <c r="AJ18" s="1">
         <v>0</v>
       </c>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="2"/>
-      <c r="AM18"/>
-    </row>
-    <row r="19" spans="1:39">
+      <c r="AK18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18"/>
+    </row>
+    <row r="19" spans="1:41">
       <c r="A19">
         <v>2004</v>
       </c>
@@ -2081,9 +2199,13 @@
         <v>0.0</v>
       </c>
       <c r="X19" s="2"/>
-      <c r="Y19" s="1"/>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="1"/>
+      <c r="AA19" s="1">
+        <v>0</v>
+      </c>
       <c r="AB19" s="1">
         <v>0</v>
       </c>
@@ -2092,26 +2214,30 @@
       </c>
       <c r="AD19" s="2"/>
       <c r="AE19" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF19" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG19" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI19" s="2"/>
       <c r="AJ19" s="1">
         <v>0</v>
       </c>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="2"/>
-      <c r="AM19"/>
-    </row>
-    <row r="20" spans="1:39">
+      <c r="AK19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19"/>
+    </row>
+    <row r="20" spans="1:41">
       <c r="A20">
         <v>2005</v>
       </c>
@@ -2168,9 +2294,13 @@
         <v>0.0</v>
       </c>
       <c r="X20" s="2"/>
-      <c r="Y20" s="1"/>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="1"/>
+      <c r="AA20" s="1">
+        <v>0</v>
+      </c>
       <c r="AB20" s="1">
         <v>0</v>
       </c>
@@ -2179,26 +2309,30 @@
       </c>
       <c r="AD20" s="2"/>
       <c r="AE20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG20" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI20" s="2"/>
       <c r="AJ20" s="1">
         <v>0</v>
       </c>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="2"/>
-      <c r="AM20"/>
-    </row>
-    <row r="21" spans="1:39">
+      <c r="AK20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20"/>
+    </row>
+    <row r="21" spans="1:41">
       <c r="A21">
         <v>2006</v>
       </c>
@@ -2255,9 +2389,13 @@
         <v>0.0</v>
       </c>
       <c r="X21" s="2"/>
-      <c r="Y21" s="1"/>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="1"/>
+      <c r="AA21" s="1">
+        <v>0</v>
+      </c>
       <c r="AB21" s="1">
         <v>0</v>
       </c>
@@ -2266,26 +2404,30 @@
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF21" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG21" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI21" s="2"/>
       <c r="AJ21" s="1">
         <v>0</v>
       </c>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="2"/>
-      <c r="AM21"/>
-    </row>
-    <row r="22" spans="1:39">
+      <c r="AK21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21"/>
+    </row>
+    <row r="22" spans="1:41">
       <c r="A22">
         <v>2007</v>
       </c>
@@ -2342,9 +2484,13 @@
         <v>0.0</v>
       </c>
       <c r="X22" s="2"/>
-      <c r="Y22" s="1"/>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="1"/>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
       <c r="AB22" s="1">
         <v>0</v>
       </c>
@@ -2353,26 +2499,30 @@
       </c>
       <c r="AD22" s="2"/>
       <c r="AE22" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF22" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG22" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI22" s="2"/>
       <c r="AJ22" s="1">
         <v>0</v>
       </c>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="2"/>
-      <c r="AM22"/>
-    </row>
-    <row r="23" spans="1:39">
+      <c r="AK22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22"/>
+    </row>
+    <row r="23" spans="1:41">
       <c r="A23">
         <v>2008</v>
       </c>
@@ -2429,9 +2579,13 @@
         <v>0.0</v>
       </c>
       <c r="X23" s="2"/>
-      <c r="Y23" s="1"/>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="1"/>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
       <c r="AB23" s="1">
         <v>0</v>
       </c>
@@ -2440,26 +2594,30 @@
       </c>
       <c r="AD23" s="2"/>
       <c r="AE23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG23" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI23" s="2"/>
       <c r="AJ23" s="1">
         <v>0</v>
       </c>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="2"/>
-      <c r="AM23"/>
-    </row>
-    <row r="24" spans="1:39">
+      <c r="AK23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23"/>
+    </row>
+    <row r="24" spans="1:41">
       <c r="A24">
         <v>2009</v>
       </c>
@@ -2516,9 +2674,13 @@
         <v>0.0</v>
       </c>
       <c r="X24" s="2"/>
-      <c r="Y24" s="1"/>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="1"/>
+      <c r="AA24" s="1">
+        <v>0</v>
+      </c>
       <c r="AB24" s="1">
         <v>0</v>
       </c>
@@ -2527,26 +2689,30 @@
       </c>
       <c r="AD24" s="2"/>
       <c r="AE24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG24" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI24" s="2"/>
       <c r="AJ24" s="1">
         <v>0</v>
       </c>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="2"/>
-      <c r="AM24"/>
-    </row>
-    <row r="25" spans="1:39">
+      <c r="AK24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24"/>
+    </row>
+    <row r="25" spans="1:41">
       <c r="A25">
         <v>2010</v>
       </c>
@@ -2603,9 +2769,13 @@
         <v>0.0</v>
       </c>
       <c r="X25" s="2"/>
-      <c r="Y25" s="1"/>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="1"/>
+      <c r="AA25" s="1">
+        <v>0</v>
+      </c>
       <c r="AB25" s="1">
         <v>0</v>
       </c>
@@ -2614,26 +2784,30 @@
       </c>
       <c r="AD25" s="2"/>
       <c r="AE25" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF25" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG25" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI25" s="2"/>
       <c r="AJ25" s="1">
         <v>0</v>
       </c>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="2"/>
-      <c r="AM25"/>
-    </row>
-    <row r="26" spans="1:39">
+      <c r="AK25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25"/>
+    </row>
+    <row r="26" spans="1:41">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -2690,9 +2864,13 @@
         <v>0.0</v>
       </c>
       <c r="X26" s="2"/>
-      <c r="Y26" s="1"/>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="1"/>
+      <c r="AA26" s="1">
+        <v>0</v>
+      </c>
       <c r="AB26" s="1">
         <v>0</v>
       </c>
@@ -2701,26 +2879,30 @@
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF26" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG26" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI26" s="2"/>
       <c r="AJ26" s="1">
         <v>0</v>
       </c>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="2"/>
-      <c r="AM26"/>
-    </row>
-    <row r="27" spans="1:39">
+      <c r="AK26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26"/>
+    </row>
+    <row r="27" spans="1:41">
       <c r="A27">
         <v>2012</v>
       </c>
@@ -2777,9 +2959,13 @@
         <v>0.0</v>
       </c>
       <c r="X27" s="2"/>
-      <c r="Y27" s="1"/>
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="1"/>
+      <c r="AA27" s="1">
+        <v>0</v>
+      </c>
       <c r="AB27" s="1">
         <v>0</v>
       </c>
@@ -2788,26 +2974,30 @@
       </c>
       <c r="AD27" s="2"/>
       <c r="AE27" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF27" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG27" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI27" s="2"/>
       <c r="AJ27" s="1">
         <v>0</v>
       </c>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="2"/>
-      <c r="AM27"/>
-    </row>
-    <row r="28" spans="1:39">
+      <c r="AK27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27"/>
+    </row>
+    <row r="28" spans="1:41">
       <c r="A28">
         <v>2013</v>
       </c>
@@ -2864,9 +3054,13 @@
         <v>0.0</v>
       </c>
       <c r="X28" s="2"/>
-      <c r="Y28" s="1"/>
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="1"/>
+      <c r="AA28" s="1">
+        <v>0</v>
+      </c>
       <c r="AB28" s="1">
         <v>0</v>
       </c>
@@ -2875,26 +3069,30 @@
       </c>
       <c r="AD28" s="2"/>
       <c r="AE28" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF28" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG28" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI28" s="2"/>
       <c r="AJ28" s="1">
         <v>0</v>
       </c>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="2"/>
-      <c r="AM28"/>
-    </row>
-    <row r="29" spans="1:39">
+      <c r="AK28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28"/>
+    </row>
+    <row r="29" spans="1:41">
       <c r="A29">
         <v>2014</v>
       </c>
@@ -2951,9 +3149,13 @@
         <v>0.0</v>
       </c>
       <c r="X29" s="2"/>
-      <c r="Y29" s="1"/>
+      <c r="Y29" s="1">
+        <v>0</v>
+      </c>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="1"/>
+      <c r="AA29" s="1">
+        <v>0</v>
+      </c>
       <c r="AB29" s="1">
         <v>0</v>
       </c>
@@ -2962,26 +3164,30 @@
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF29" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG29" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI29" s="2"/>
       <c r="AJ29" s="1">
         <v>0</v>
       </c>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="2"/>
-      <c r="AM29"/>
-    </row>
-    <row r="30" spans="1:39">
+      <c r="AK29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29"/>
+    </row>
+    <row r="30" spans="1:41">
       <c r="A30">
         <v>2015</v>
       </c>
@@ -3038,9 +3244,13 @@
         <v>0.0</v>
       </c>
       <c r="X30" s="2"/>
-      <c r="Y30" s="1"/>
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
       <c r="Z30" s="2"/>
-      <c r="AA30" s="1"/>
+      <c r="AA30" s="1">
+        <v>0</v>
+      </c>
       <c r="AB30" s="1">
         <v>0</v>
       </c>
@@ -3049,26 +3259,30 @@
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF30" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG30" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI30" s="2"/>
       <c r="AJ30" s="1">
         <v>0</v>
       </c>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="2"/>
-      <c r="AM30"/>
-    </row>
-    <row r="31" spans="1:39">
+      <c r="AK30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30"/>
+    </row>
+    <row r="31" spans="1:41">
       <c r="A31">
         <v>2016</v>
       </c>
@@ -3125,9 +3339,13 @@
         <v>0.0</v>
       </c>
       <c r="X31" s="2"/>
-      <c r="Y31" s="1"/>
+      <c r="Y31" s="1">
+        <v>0</v>
+      </c>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="1"/>
+      <c r="AA31" s="1">
+        <v>0</v>
+      </c>
       <c r="AB31" s="1">
         <v>0</v>
       </c>
@@ -3136,26 +3354,30 @@
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF31" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG31" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI31" s="2"/>
       <c r="AJ31" s="1">
         <v>0</v>
       </c>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="2"/>
-      <c r="AM31"/>
-    </row>
-    <row r="32" spans="1:39">
+      <c r="AK31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31"/>
+    </row>
+    <row r="32" spans="1:41">
       <c r="A32">
         <v>2017</v>
       </c>
@@ -3212,9 +3434,13 @@
         <v>0.0</v>
       </c>
       <c r="X32" s="2"/>
-      <c r="Y32" s="1"/>
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="1"/>
+      <c r="AA32" s="1">
+        <v>0</v>
+      </c>
       <c r="AB32" s="1">
         <v>0</v>
       </c>
@@ -3223,26 +3449,30 @@
       </c>
       <c r="AD32" s="2"/>
       <c r="AE32" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF32" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG32" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI32" s="2"/>
       <c r="AJ32" s="1">
         <v>0</v>
       </c>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="2"/>
-      <c r="AM32"/>
-    </row>
-    <row r="33" spans="1:39">
+      <c r="AK32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32"/>
+    </row>
+    <row r="33" spans="1:41">
       <c r="A33">
         <v>2018</v>
       </c>
@@ -3299,9 +3529,13 @@
         <v>0.0</v>
       </c>
       <c r="X33" s="2"/>
-      <c r="Y33" s="1"/>
+      <c r="Y33" s="1">
+        <v>0</v>
+      </c>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="1"/>
+      <c r="AA33" s="1">
+        <v>0</v>
+      </c>
       <c r="AB33" s="1">
         <v>0</v>
       </c>
@@ -3310,26 +3544,30 @@
       </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF33" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG33" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI33" s="2"/>
       <c r="AJ33" s="1">
         <v>0</v>
       </c>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="2"/>
-      <c r="AM33"/>
-    </row>
-    <row r="34" spans="1:39">
+      <c r="AK33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33"/>
+    </row>
+    <row r="34" spans="1:41">
       <c r="A34">
         <v>2019</v>
       </c>
@@ -3386,9 +3624,13 @@
         <v>0.0</v>
       </c>
       <c r="X34" s="2"/>
-      <c r="Y34" s="1"/>
+      <c r="Y34" s="1">
+        <v>0</v>
+      </c>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="1"/>
+      <c r="AA34" s="1">
+        <v>0</v>
+      </c>
       <c r="AB34" s="1">
         <v>0</v>
       </c>
@@ -3397,26 +3639,30 @@
       </c>
       <c r="AD34" s="2"/>
       <c r="AE34" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF34" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG34" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI34" s="2"/>
       <c r="AJ34" s="1">
         <v>0</v>
       </c>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="2"/>
-      <c r="AM34"/>
-    </row>
-    <row r="35" spans="1:39">
+      <c r="AK34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34"/>
+    </row>
+    <row r="35" spans="1:41">
       <c r="A35">
         <v>2020</v>
       </c>
@@ -3473,9 +3719,13 @@
         <v>0.0</v>
       </c>
       <c r="X35" s="2"/>
-      <c r="Y35" s="1"/>
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
       <c r="Z35" s="2"/>
-      <c r="AA35" s="1"/>
+      <c r="AA35" s="1">
+        <v>0</v>
+      </c>
       <c r="AB35" s="1">
         <v>0</v>
       </c>
@@ -3484,26 +3734,30 @@
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF35" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG35" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI35" s="2"/>
       <c r="AJ35" s="1">
         <v>0</v>
       </c>
-      <c r="AK35" s="1"/>
-      <c r="AL35" s="2"/>
-      <c r="AM35"/>
-    </row>
-    <row r="36" spans="1:39">
+      <c r="AK35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35"/>
+    </row>
+    <row r="36" spans="1:41">
       <c r="A36">
         <v>2021</v>
       </c>
@@ -3560,9 +3814,13 @@
         <v>0.0</v>
       </c>
       <c r="X36" s="2"/>
-      <c r="Y36" s="1"/>
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
       <c r="Z36" s="2"/>
-      <c r="AA36" s="1"/>
+      <c r="AA36" s="1">
+        <v>0</v>
+      </c>
       <c r="AB36" s="1">
         <v>0</v>
       </c>
@@ -3571,26 +3829,30 @@
       </c>
       <c r="AD36" s="2"/>
       <c r="AE36" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF36" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG36" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI36" s="2"/>
       <c r="AJ36" s="1">
         <v>0</v>
       </c>
-      <c r="AK36" s="1"/>
-      <c r="AL36" s="2"/>
-      <c r="AM36"/>
-    </row>
-    <row r="37" spans="1:39">
+      <c r="AK36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="2"/>
+      <c r="AO36"/>
+    </row>
+    <row r="37" spans="1:41">
       <c r="A37">
         <v>2022</v>
       </c>
@@ -3647,9 +3909,13 @@
         <v>0.0</v>
       </c>
       <c r="X37" s="2"/>
-      <c r="Y37" s="1"/>
+      <c r="Y37" s="1">
+        <v>0</v>
+      </c>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="1"/>
+      <c r="AA37" s="1">
+        <v>0</v>
+      </c>
       <c r="AB37" s="1">
         <v>0</v>
       </c>
@@ -3658,26 +3924,30 @@
       </c>
       <c r="AD37" s="2"/>
       <c r="AE37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG37" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI37" s="2"/>
       <c r="AJ37" s="1">
         <v>0</v>
       </c>
-      <c r="AK37" s="1"/>
-      <c r="AL37" s="2"/>
-      <c r="AM37"/>
-    </row>
-    <row r="38" spans="1:39">
+      <c r="AK37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="2"/>
+      <c r="AO37"/>
+    </row>
+    <row r="38" spans="1:41">
       <c r="A38">
         <v>2023</v>
       </c>
@@ -3734,9 +4004,13 @@
         <v>0.0</v>
       </c>
       <c r="X38" s="2"/>
-      <c r="Y38" s="1"/>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
       <c r="Z38" s="2"/>
-      <c r="AA38" s="1"/>
+      <c r="AA38" s="1">
+        <v>200000.0</v>
+      </c>
       <c r="AB38" s="1">
         <v>0</v>
       </c>
@@ -3745,26 +4019,30 @@
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="1">
         <v>-52800.0</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AH38" s="1">
         <v>-52800.0</v>
       </c>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI38" s="2"/>
       <c r="AJ38" s="1">
         <v>0</v>
       </c>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="2"/>
-      <c r="AM38"/>
-    </row>
-    <row r="39" spans="1:39">
+      <c r="AK38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="2"/>
+      <c r="AO38"/>
+    </row>
+    <row r="39" spans="1:41">
       <c r="A39" s="7">
         <v>2024</v>
       </c>
@@ -3821,9 +4099,13 @@
         <v>0.0</v>
       </c>
       <c r="X39" s="9"/>
-      <c r="Y39" s="8"/>
+      <c r="Y39" s="8">
+        <v>0</v>
+      </c>
       <c r="Z39" s="9"/>
-      <c r="AA39" s="8"/>
+      <c r="AA39" s="8">
+        <v>180000.0</v>
+      </c>
       <c r="AB39" s="8">
         <v>0</v>
       </c>
@@ -3832,26 +4114,30 @@
       </c>
       <c r="AD39" s="9"/>
       <c r="AE39" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="8">
         <v>-58080.0</v>
       </c>
-      <c r="AF39" s="8">
+      <c r="AH39" s="8">
         <v>-110880.0</v>
       </c>
-      <c r="AG39" s="9"/>
-      <c r="AH39" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="8">
-        <v>0</v>
-      </c>
+      <c r="AI39" s="9"/>
       <c r="AJ39" s="8">
         <v>0</v>
       </c>
-      <c r="AK39" s="8"/>
-      <c r="AL39" s="9"/>
-      <c r="AM39" s="7"/>
-    </row>
-    <row r="40" spans="1:39">
+      <c r="AK39" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="8"/>
+      <c r="AN39" s="9"/>
+      <c r="AO39" s="7"/>
+    </row>
+    <row r="40" spans="1:41">
       <c r="A40" s="10">
         <v>2025</v>
       </c>
@@ -3908,9 +4194,13 @@
         <v>0.0</v>
       </c>
       <c r="X40" s="12"/>
-      <c r="Y40" s="11"/>
+      <c r="Y40" s="11">
+        <v>0</v>
+      </c>
       <c r="Z40" s="12"/>
-      <c r="AA40" s="11"/>
+      <c r="AA40" s="11">
+        <v>162000.0</v>
+      </c>
       <c r="AB40" s="11">
         <v>0</v>
       </c>
@@ -3919,26 +4209,30 @@
       </c>
       <c r="AD40" s="12"/>
       <c r="AE40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="11">
         <v>-63888.0</v>
       </c>
-      <c r="AF40" s="11">
+      <c r="AH40" s="11">
         <v>-174768.0</v>
       </c>
-      <c r="AG40" s="12"/>
-      <c r="AH40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="11">
-        <v>0</v>
-      </c>
+      <c r="AI40" s="12"/>
       <c r="AJ40" s="11">
         <v>0</v>
       </c>
-      <c r="AK40" s="11"/>
-      <c r="AL40" s="12"/>
-      <c r="AM40" s="10"/>
-    </row>
-    <row r="41" spans="1:39">
+      <c r="AK40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="11"/>
+      <c r="AN40" s="12"/>
+      <c r="AO40" s="10"/>
+    </row>
+    <row r="41" spans="1:41">
       <c r="A41">
         <v>2026</v>
       </c>
@@ -3995,9 +4289,13 @@
         <v>0.0</v>
       </c>
       <c r="X41" s="2"/>
-      <c r="Y41" s="1"/>
+      <c r="Y41" s="1">
+        <v>0</v>
+      </c>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="1"/>
+      <c r="AA41" s="1">
+        <v>145800.0</v>
+      </c>
       <c r="AB41" s="1">
         <v>0</v>
       </c>
@@ -4006,26 +4304,30 @@
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="1">
         <v>-70276.8</v>
       </c>
-      <c r="AF41" s="1">
+      <c r="AH41" s="1">
         <v>-245044.8</v>
       </c>
-      <c r="AG41" s="2"/>
-      <c r="AH41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI41" s="2"/>
       <c r="AJ41" s="1">
         <v>0</v>
       </c>
-      <c r="AK41" s="1"/>
-      <c r="AL41" s="2"/>
-      <c r="AM41"/>
-    </row>
-    <row r="42" spans="1:39">
+      <c r="AK41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="2"/>
+      <c r="AO41"/>
+    </row>
+    <row r="42" spans="1:41">
       <c r="A42">
         <v>2027</v>
       </c>
@@ -4082,9 +4384,13 @@
         <v>0.0</v>
       </c>
       <c r="X42" s="2"/>
-      <c r="Y42" s="1"/>
+      <c r="Y42" s="1">
+        <v>0</v>
+      </c>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="1"/>
+      <c r="AA42" s="1">
+        <v>131220.0</v>
+      </c>
       <c r="AB42" s="1">
         <v>0</v>
       </c>
@@ -4093,26 +4399,30 @@
       </c>
       <c r="AD42" s="2"/>
       <c r="AE42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="1">
         <v>-77304.7</v>
       </c>
-      <c r="AF42" s="1">
+      <c r="AH42" s="1">
         <v>-322349.5</v>
       </c>
-      <c r="AG42" s="2"/>
-      <c r="AH42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI42" s="2"/>
       <c r="AJ42" s="1">
         <v>0</v>
       </c>
-      <c r="AK42" s="1"/>
-      <c r="AL42" s="2"/>
-      <c r="AM42"/>
-    </row>
-    <row r="43" spans="1:39">
+      <c r="AK42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="2"/>
+      <c r="AO42"/>
+    </row>
+    <row r="43" spans="1:41">
       <c r="A43">
         <v>2028</v>
       </c>
@@ -4169,9 +4479,13 @@
         <v>0.0</v>
       </c>
       <c r="X43" s="2"/>
-      <c r="Y43" s="1"/>
+      <c r="Y43" s="1">
+        <v>0</v>
+      </c>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="1"/>
+      <c r="AA43" s="1">
+        <v>118098.0</v>
+      </c>
       <c r="AB43" s="1">
         <v>0</v>
       </c>
@@ -4180,26 +4494,30 @@
       </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="1">
         <v>-85035.5</v>
       </c>
-      <c r="AF43" s="1">
+      <c r="AH43" s="1">
         <v>-407385.0</v>
       </c>
-      <c r="AG43" s="2"/>
-      <c r="AH43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI43" s="2"/>
       <c r="AJ43" s="1">
         <v>0</v>
       </c>
-      <c r="AK43" s="1"/>
-      <c r="AL43" s="2"/>
-      <c r="AM43"/>
-    </row>
-    <row r="44" spans="1:39">
+      <c r="AK43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="2"/>
+      <c r="AO43"/>
+    </row>
+    <row r="44" spans="1:41">
       <c r="A44">
         <v>2029</v>
       </c>
@@ -4256,9 +4574,13 @@
         <v>0.0</v>
       </c>
       <c r="X44" s="2"/>
-      <c r="Y44" s="1"/>
+      <c r="Y44" s="1">
+        <v>0</v>
+      </c>
       <c r="Z44" s="2"/>
-      <c r="AA44" s="1"/>
+      <c r="AA44" s="1">
+        <v>106288.0</v>
+      </c>
       <c r="AB44" s="1">
         <v>0</v>
       </c>
@@ -4267,26 +4589,30 @@
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="1">
         <v>-93539.6</v>
       </c>
-      <c r="AF44" s="1">
+      <c r="AH44" s="1">
         <v>-500924.6</v>
       </c>
-      <c r="AG44" s="2"/>
-      <c r="AH44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI44" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI44" s="2"/>
       <c r="AJ44" s="1">
         <v>0</v>
       </c>
-      <c r="AK44" s="1"/>
-      <c r="AL44" s="2"/>
-      <c r="AM44"/>
-    </row>
-    <row r="45" spans="1:39">
+      <c r="AK44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="2"/>
+      <c r="AO44"/>
+    </row>
+    <row r="45" spans="1:41">
       <c r="A45">
         <v>2030</v>
       </c>
@@ -4343,9 +4669,13 @@
         <v>0.0</v>
       </c>
       <c r="X45" s="2"/>
-      <c r="Y45" s="1"/>
+      <c r="Y45" s="1">
+        <v>0</v>
+      </c>
       <c r="Z45" s="2"/>
-      <c r="AA45" s="1"/>
+      <c r="AA45" s="1">
+        <v>95659.0</v>
+      </c>
       <c r="AB45" s="1">
         <v>0</v>
       </c>
@@ -4354,26 +4684,30 @@
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="1">
         <v>-102894.0</v>
       </c>
-      <c r="AF45" s="1">
+      <c r="AH45" s="1">
         <v>-603818.6</v>
       </c>
-      <c r="AG45" s="2"/>
-      <c r="AH45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI45" s="2"/>
       <c r="AJ45" s="1">
         <v>0</v>
       </c>
-      <c r="AK45" s="1"/>
-      <c r="AL45" s="2"/>
-      <c r="AM45"/>
-    </row>
-    <row r="46" spans="1:39">
+      <c r="AK45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="2"/>
+      <c r="AO45"/>
+    </row>
+    <row r="46" spans="1:41">
       <c r="A46">
         <v>2031</v>
       </c>
@@ -4430,9 +4764,13 @@
         <v>0.0</v>
       </c>
       <c r="X46" s="2"/>
-      <c r="Y46" s="1"/>
+      <c r="Y46" s="1">
+        <v>0</v>
+      </c>
       <c r="Z46" s="2"/>
-      <c r="AA46" s="1"/>
+      <c r="AA46" s="1">
+        <v>86093.0</v>
+      </c>
       <c r="AB46" s="1">
         <v>0</v>
       </c>
@@ -4441,26 +4779,30 @@
       </c>
       <c r="AD46" s="2"/>
       <c r="AE46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="1">
         <v>-113183.4</v>
       </c>
-      <c r="AF46" s="1">
+      <c r="AH46" s="1">
         <v>-717002.0</v>
       </c>
-      <c r="AG46" s="2"/>
-      <c r="AH46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI46" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI46" s="2"/>
       <c r="AJ46" s="1">
         <v>0</v>
       </c>
-      <c r="AK46" s="1"/>
-      <c r="AL46" s="2"/>
-      <c r="AM46"/>
-    </row>
-    <row r="47" spans="1:39">
+      <c r="AK46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="2"/>
+      <c r="AO46"/>
+    </row>
+    <row r="47" spans="1:41">
       <c r="A47">
         <v>2032</v>
       </c>
@@ -4517,9 +4859,13 @@
         <v>0.0</v>
       </c>
       <c r="X47" s="2"/>
-      <c r="Y47" s="1"/>
+      <c r="Y47" s="1">
+        <v>0</v>
+      </c>
       <c r="Z47" s="2"/>
-      <c r="AA47" s="1"/>
+      <c r="AA47" s="1">
+        <v>77484.0</v>
+      </c>
       <c r="AB47" s="1">
         <v>0</v>
       </c>
@@ -4528,26 +4874,30 @@
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="1">
         <v>-124501.3</v>
       </c>
-      <c r="AF47" s="1">
+      <c r="AH47" s="1">
         <v>-841503.3</v>
       </c>
-      <c r="AG47" s="2"/>
-      <c r="AH47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI47" s="2"/>
       <c r="AJ47" s="1">
         <v>0</v>
       </c>
-      <c r="AK47" s="1"/>
-      <c r="AL47" s="2"/>
-      <c r="AM47"/>
-    </row>
-    <row r="48" spans="1:39">
+      <c r="AK47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="2"/>
+      <c r="AO47"/>
+    </row>
+    <row r="48" spans="1:41">
       <c r="A48">
         <v>2033</v>
       </c>
@@ -4604,9 +4954,13 @@
         <v>0.0</v>
       </c>
       <c r="X48" s="2"/>
-      <c r="Y48" s="1"/>
+      <c r="Y48" s="1">
+        <v>0</v>
+      </c>
       <c r="Z48" s="2"/>
-      <c r="AA48" s="1"/>
+      <c r="AA48" s="1">
+        <v>69736.0</v>
+      </c>
       <c r="AB48" s="1">
         <v>0</v>
       </c>
@@ -4615,26 +4969,30 @@
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="1">
         <v>-136951.1</v>
       </c>
-      <c r="AF48" s="1">
+      <c r="AH48" s="1">
         <v>-978454.4</v>
       </c>
-      <c r="AG48" s="2"/>
-      <c r="AH48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI48" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI48" s="2"/>
       <c r="AJ48" s="1">
         <v>0</v>
       </c>
-      <c r="AK48" s="1"/>
-      <c r="AL48" s="2"/>
-      <c r="AM48"/>
-    </row>
-    <row r="49" spans="1:39">
+      <c r="AK48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="2"/>
+      <c r="AO48"/>
+    </row>
+    <row r="49" spans="1:41">
       <c r="A49">
         <v>2034</v>
       </c>
@@ -4691,9 +5049,13 @@
         <v>0.0</v>
       </c>
       <c r="X49" s="2"/>
-      <c r="Y49" s="1"/>
+      <c r="Y49" s="1">
+        <v>0</v>
+      </c>
       <c r="Z49" s="2"/>
-      <c r="AA49" s="1"/>
+      <c r="AA49" s="1">
+        <v>62762.0</v>
+      </c>
       <c r="AB49" s="1">
         <v>0</v>
       </c>
@@ -4702,26 +5064,30 @@
       </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="1">
         <v>-150646.1</v>
       </c>
-      <c r="AF49" s="1">
+      <c r="AH49" s="1">
         <v>-1129100.5</v>
       </c>
-      <c r="AG49" s="2"/>
-      <c r="AH49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI49" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI49" s="2"/>
       <c r="AJ49" s="1">
         <v>0</v>
       </c>
-      <c r="AK49" s="1"/>
-      <c r="AL49" s="2"/>
-      <c r="AM49"/>
-    </row>
-    <row r="50" spans="1:39">
+      <c r="AK49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="2"/>
+      <c r="AO49"/>
+    </row>
+    <row r="50" spans="1:41">
       <c r="A50">
         <v>2035</v>
       </c>
@@ -4778,9 +5144,13 @@
         <v>0.0</v>
       </c>
       <c r="X50" s="2"/>
-      <c r="Y50" s="1"/>
+      <c r="Y50" s="1">
+        <v>0</v>
+      </c>
       <c r="Z50" s="2"/>
-      <c r="AA50" s="1"/>
+      <c r="AA50" s="1">
+        <v>56486.0</v>
+      </c>
       <c r="AB50" s="1">
         <v>0</v>
       </c>
@@ -4789,26 +5159,30 @@
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="1">
         <v>-165710.6</v>
       </c>
-      <c r="AF50" s="1">
+      <c r="AH50" s="1">
         <v>-1294811.1</v>
       </c>
-      <c r="AG50" s="2"/>
-      <c r="AH50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI50" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI50" s="2"/>
       <c r="AJ50" s="1">
         <v>0</v>
       </c>
-      <c r="AK50" s="1"/>
-      <c r="AL50" s="2"/>
-      <c r="AM50"/>
-    </row>
-    <row r="51" spans="1:39">
+      <c r="AK50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="2"/>
+      <c r="AO50"/>
+    </row>
+    <row r="51" spans="1:41">
       <c r="A51">
         <v>2036</v>
       </c>
@@ -4865,9 +5239,13 @@
         <v>0.0</v>
       </c>
       <c r="X51" s="2"/>
-      <c r="Y51" s="1"/>
+      <c r="Y51" s="1">
+        <v>0</v>
+      </c>
       <c r="Z51" s="2"/>
-      <c r="AA51" s="1"/>
+      <c r="AA51" s="1">
+        <v>50837.0</v>
+      </c>
       <c r="AB51" s="1">
         <v>0</v>
       </c>
@@ -4876,26 +5254,30 @@
       </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="1">
         <v>-182282.1</v>
       </c>
-      <c r="AF51" s="1">
+      <c r="AH51" s="1">
         <v>-1477093.2</v>
       </c>
-      <c r="AG51" s="2"/>
-      <c r="AH51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI51" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI51" s="2"/>
       <c r="AJ51" s="1">
         <v>0</v>
       </c>
-      <c r="AK51" s="1"/>
-      <c r="AL51" s="2"/>
-      <c r="AM51"/>
-    </row>
-    <row r="52" spans="1:39">
+      <c r="AK51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="2"/>
+      <c r="AO51"/>
+    </row>
+    <row r="52" spans="1:41">
       <c r="A52">
         <v>2037</v>
       </c>
@@ -4952,9 +5334,13 @@
         <v>0.0</v>
       </c>
       <c r="X52" s="2"/>
-      <c r="Y52" s="1"/>
+      <c r="Y52" s="1">
+        <v>0</v>
+      </c>
       <c r="Z52" s="2"/>
-      <c r="AA52" s="1"/>
+      <c r="AA52" s="1">
+        <v>45753.0</v>
+      </c>
       <c r="AB52" s="1">
         <v>0</v>
       </c>
@@ -4963,26 +5349,30 @@
       </c>
       <c r="AD52" s="2"/>
       <c r="AE52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="1">
         <v>-200510.2</v>
       </c>
-      <c r="AF52" s="1">
+      <c r="AH52" s="1">
         <v>-1677603.4</v>
       </c>
-      <c r="AG52" s="2"/>
-      <c r="AH52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI52" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI52" s="2"/>
       <c r="AJ52" s="1">
         <v>0</v>
       </c>
-      <c r="AK52" s="1"/>
-      <c r="AL52" s="2"/>
-      <c r="AM52"/>
-    </row>
-    <row r="53" spans="1:39">
+      <c r="AK52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="2"/>
+      <c r="AO52"/>
+    </row>
+    <row r="53" spans="1:41">
       <c r="A53" s="3">
         <v>2038</v>
       </c>
@@ -5039,9 +5429,13 @@
         <v>0.0</v>
       </c>
       <c r="X53" s="14"/>
-      <c r="Y53" s="13"/>
+      <c r="Y53" s="13">
+        <v>0</v>
+      </c>
       <c r="Z53" s="14"/>
-      <c r="AA53" s="13"/>
+      <c r="AA53" s="13">
+        <v>41178.0</v>
+      </c>
       <c r="AB53" s="13">
         <v>0</v>
       </c>
@@ -5050,26 +5444,30 @@
       </c>
       <c r="AD53" s="14"/>
       <c r="AE53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="14"/>
+      <c r="AG53" s="13">
         <v>-220561.0</v>
       </c>
-      <c r="AF53" s="13">
+      <c r="AH53" s="13">
         <v>-1898164.4</v>
       </c>
-      <c r="AG53" s="14"/>
-      <c r="AH53" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI53" s="13">
-        <v>0</v>
-      </c>
+      <c r="AI53" s="14"/>
       <c r="AJ53" s="13">
         <v>0</v>
       </c>
-      <c r="AK53" s="13"/>
-      <c r="AL53" s="14"/>
-      <c r="AM53" s="3"/>
-    </row>
-    <row r="54" spans="1:39">
+      <c r="AK53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="13"/>
+      <c r="AN53" s="14"/>
+      <c r="AO53" s="3"/>
+    </row>
+    <row r="54" spans="1:41">
       <c r="A54">
         <v>2039</v>
       </c>
@@ -5126,9 +5524,13 @@
         <v>0.0</v>
       </c>
       <c r="X54" s="2"/>
-      <c r="Y54" s="1"/>
+      <c r="Y54" s="1">
+        <v>0</v>
+      </c>
       <c r="Z54" s="2"/>
-      <c r="AA54" s="1"/>
+      <c r="AA54" s="1">
+        <v>37060.0</v>
+      </c>
       <c r="AB54" s="1">
         <v>0</v>
       </c>
@@ -5137,26 +5539,30 @@
       </c>
       <c r="AD54" s="2"/>
       <c r="AE54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="2"/>
+      <c r="AG54" s="1">
         <v>-242617.1</v>
       </c>
-      <c r="AF54" s="1">
+      <c r="AH54" s="1">
         <v>-2140781.5</v>
       </c>
-      <c r="AG54" s="2"/>
-      <c r="AH54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI54" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI54" s="2"/>
       <c r="AJ54" s="1">
         <v>0</v>
       </c>
-      <c r="AK54" s="1"/>
-      <c r="AL54" s="2"/>
-      <c r="AM54"/>
-    </row>
-    <row r="55" spans="1:39">
+      <c r="AK54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="2"/>
+      <c r="AO54"/>
+    </row>
+    <row r="55" spans="1:41">
       <c r="A55">
         <v>2040</v>
       </c>
@@ -5213,9 +5619,13 @@
         <v>0.0</v>
       </c>
       <c r="X55" s="2"/>
-      <c r="Y55" s="1"/>
+      <c r="Y55" s="1">
+        <v>0</v>
+      </c>
       <c r="Z55" s="2"/>
-      <c r="AA55" s="1"/>
+      <c r="AA55" s="1">
+        <v>33354.0</v>
+      </c>
       <c r="AB55" s="1">
         <v>0</v>
       </c>
@@ -5224,26 +5634,30 @@
       </c>
       <c r="AD55" s="2"/>
       <c r="AE55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="1">
         <v>-266878.7</v>
       </c>
-      <c r="AF55" s="1">
+      <c r="AH55" s="1">
         <v>-2407660.2</v>
       </c>
-      <c r="AG55" s="2"/>
-      <c r="AH55" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI55" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI55" s="2"/>
       <c r="AJ55" s="1">
         <v>0</v>
       </c>
-      <c r="AK55" s="1"/>
-      <c r="AL55" s="2"/>
-      <c r="AM55"/>
-    </row>
-    <row r="56" spans="1:39">
+      <c r="AK55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="2"/>
+      <c r="AO55"/>
+    </row>
+    <row r="56" spans="1:41">
       <c r="A56">
         <v>2041</v>
       </c>
@@ -5300,9 +5714,13 @@
         <v>0.0</v>
       </c>
       <c r="X56" s="2"/>
-      <c r="Y56" s="1"/>
+      <c r="Y56" s="1">
+        <v>0</v>
+      </c>
       <c r="Z56" s="2"/>
-      <c r="AA56" s="1"/>
+      <c r="AA56" s="1">
+        <v>30019.0</v>
+      </c>
       <c r="AB56" s="1">
         <v>0</v>
       </c>
@@ -5311,26 +5729,30 @@
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="2"/>
+      <c r="AG56" s="1">
         <v>-293566.9</v>
       </c>
-      <c r="AF56" s="1">
+      <c r="AH56" s="1">
         <v>-2701227.1</v>
       </c>
-      <c r="AG56" s="2"/>
-      <c r="AH56" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI56" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI56" s="2"/>
       <c r="AJ56" s="1">
         <v>0</v>
       </c>
-      <c r="AK56" s="1"/>
-      <c r="AL56" s="2"/>
-      <c r="AM56"/>
-    </row>
-    <row r="57" spans="1:39">
+      <c r="AK56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="2"/>
+      <c r="AO56"/>
+    </row>
+    <row r="57" spans="1:41">
       <c r="A57" s="3">
         <v>2042</v>
       </c>
@@ -5387,9 +5809,13 @@
         <v>0.0</v>
       </c>
       <c r="X57" s="14"/>
-      <c r="Y57" s="13"/>
+      <c r="Y57" s="13">
+        <v>0</v>
+      </c>
       <c r="Z57" s="14"/>
-      <c r="AA57" s="13"/>
+      <c r="AA57" s="13">
+        <v>27017.0</v>
+      </c>
       <c r="AB57" s="13">
         <v>0</v>
       </c>
@@ -5398,26 +5824,30 @@
       </c>
       <c r="AD57" s="14"/>
       <c r="AE57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="14"/>
+      <c r="AG57" s="13">
         <v>-322923.7</v>
       </c>
-      <c r="AF57" s="13">
+      <c r="AH57" s="13">
         <v>-3024150.8</v>
       </c>
-      <c r="AG57" s="14"/>
-      <c r="AH57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI57" s="13">
-        <v>0</v>
-      </c>
+      <c r="AI57" s="14"/>
       <c r="AJ57" s="13">
         <v>0</v>
       </c>
-      <c r="AK57" s="13"/>
-      <c r="AL57" s="14"/>
-      <c r="AM57" s="3"/>
-    </row>
-    <row r="58" spans="1:39">
+      <c r="AK57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM57" s="13"/>
+      <c r="AN57" s="14"/>
+      <c r="AO57" s="3"/>
+    </row>
+    <row r="58" spans="1:41">
       <c r="A58">
         <v>2043</v>
       </c>
@@ -5474,9 +5904,13 @@
         <v>0.0</v>
       </c>
       <c r="X58" s="2"/>
-      <c r="Y58" s="1"/>
+      <c r="Y58" s="1">
+        <v>0</v>
+      </c>
       <c r="Z58" s="2"/>
-      <c r="AA58" s="1"/>
+      <c r="AA58" s="1">
+        <v>24315.0</v>
+      </c>
       <c r="AB58" s="1">
         <v>0</v>
       </c>
@@ -5485,26 +5919,30 @@
       </c>
       <c r="AD58" s="2"/>
       <c r="AE58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="2"/>
+      <c r="AG58" s="1">
         <v>-355216.4</v>
       </c>
-      <c r="AF58" s="1">
+      <c r="AH58" s="1">
         <v>-3379367.2</v>
       </c>
-      <c r="AG58" s="2"/>
-      <c r="AH58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI58" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI58" s="2"/>
       <c r="AJ58" s="1">
         <v>0</v>
       </c>
-      <c r="AK58" s="1"/>
-      <c r="AL58" s="2"/>
-      <c r="AM58"/>
-    </row>
-    <row r="59" spans="1:39">
+      <c r="AK58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM58" s="1"/>
+      <c r="AN58" s="2"/>
+      <c r="AO58"/>
+    </row>
+    <row r="59" spans="1:41">
       <c r="A59">
         <v>2044</v>
       </c>
@@ -5561,9 +5999,13 @@
         <v>0.0</v>
       </c>
       <c r="X59" s="2"/>
-      <c r="Y59" s="1"/>
+      <c r="Y59" s="1">
+        <v>0</v>
+      </c>
       <c r="Z59" s="2"/>
-      <c r="AA59" s="1"/>
+      <c r="AA59" s="1">
+        <v>21884.0</v>
+      </c>
       <c r="AB59" s="1">
         <v>0</v>
       </c>
@@ -5572,26 +6014,30 @@
       </c>
       <c r="AD59" s="2"/>
       <c r="AE59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="2"/>
+      <c r="AG59" s="1">
         <v>-390737.6</v>
       </c>
-      <c r="AF59" s="1">
+      <c r="AH59" s="1">
         <v>-3770104.8</v>
       </c>
-      <c r="AG59" s="2"/>
-      <c r="AH59" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI59" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI59" s="2"/>
       <c r="AJ59" s="1">
         <v>0</v>
       </c>
-      <c r="AK59" s="1"/>
-      <c r="AL59" s="2"/>
-      <c r="AM59"/>
-    </row>
-    <row r="60" spans="1:39">
+      <c r="AK59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM59" s="1"/>
+      <c r="AN59" s="2"/>
+      <c r="AO59"/>
+    </row>
+    <row r="60" spans="1:41">
       <c r="A60">
         <v>2045</v>
       </c>
@@ -5648,9 +6094,13 @@
         <v>0.0</v>
       </c>
       <c r="X60" s="2"/>
-      <c r="Y60" s="1"/>
+      <c r="Y60" s="1">
+        <v>0</v>
+      </c>
       <c r="Z60" s="2"/>
-      <c r="AA60" s="1"/>
+      <c r="AA60" s="1">
+        <v>19696.0</v>
+      </c>
       <c r="AB60" s="1">
         <v>0</v>
       </c>
@@ -5659,26 +6109,30 @@
       </c>
       <c r="AD60" s="2"/>
       <c r="AE60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="2"/>
+      <c r="AG60" s="1">
         <v>-429811.8</v>
       </c>
-      <c r="AF60" s="1">
+      <c r="AH60" s="1">
         <v>-4199916.6</v>
       </c>
-      <c r="AG60" s="2"/>
-      <c r="AH60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI60" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI60" s="2"/>
       <c r="AJ60" s="1">
         <v>0</v>
       </c>
-      <c r="AK60" s="1"/>
-      <c r="AL60" s="2"/>
-      <c r="AM60"/>
-    </row>
-    <row r="61" spans="1:39">
+      <c r="AK60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM60" s="1"/>
+      <c r="AN60" s="2"/>
+      <c r="AO60"/>
+    </row>
+    <row r="61" spans="1:41">
       <c r="A61">
         <v>2046</v>
       </c>
@@ -5735,9 +6189,13 @@
         <v>0.0</v>
       </c>
       <c r="X61" s="2"/>
-      <c r="Y61" s="1"/>
+      <c r="Y61" s="1">
+        <v>0</v>
+      </c>
       <c r="Z61" s="2"/>
-      <c r="AA61" s="1"/>
+      <c r="AA61" s="1">
+        <v>17726.0</v>
+      </c>
       <c r="AB61" s="1">
         <v>0</v>
       </c>
@@ -5746,26 +6204,30 @@
       </c>
       <c r="AD61" s="2"/>
       <c r="AE61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="2"/>
+      <c r="AG61" s="1">
         <v>-472793.2</v>
       </c>
-      <c r="AF61" s="1">
+      <c r="AH61" s="1">
         <v>-4672709.8</v>
       </c>
-      <c r="AG61" s="2"/>
-      <c r="AH61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI61" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI61" s="2"/>
       <c r="AJ61" s="1">
         <v>0</v>
       </c>
-      <c r="AK61" s="1"/>
-      <c r="AL61" s="2"/>
-      <c r="AM61"/>
-    </row>
-    <row r="62" spans="1:39">
+      <c r="AK61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM61" s="1"/>
+      <c r="AN61" s="2"/>
+      <c r="AO61"/>
+    </row>
+    <row r="62" spans="1:41">
       <c r="A62">
         <v>2047</v>
       </c>
@@ -5822,9 +6284,13 @@
         <v>0.0</v>
       </c>
       <c r="X62" s="2"/>
-      <c r="Y62" s="1"/>
+      <c r="Y62" s="1">
+        <v>0</v>
+      </c>
       <c r="Z62" s="2"/>
-      <c r="AA62" s="1"/>
+      <c r="AA62" s="1">
+        <v>15953.0</v>
+      </c>
       <c r="AB62" s="1">
         <v>0</v>
       </c>
@@ -5833,26 +6299,30 @@
       </c>
       <c r="AD62" s="2"/>
       <c r="AE62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="2"/>
+      <c r="AG62" s="1">
         <v>-520072.3</v>
       </c>
-      <c r="AF62" s="1">
+      <c r="AH62" s="1">
         <v>-5192782.1</v>
       </c>
-      <c r="AG62" s="2"/>
-      <c r="AH62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI62" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI62" s="2"/>
       <c r="AJ62" s="1">
         <v>0</v>
       </c>
-      <c r="AK62" s="1"/>
-      <c r="AL62" s="2"/>
-      <c r="AM62"/>
-    </row>
-    <row r="63" spans="1:39">
+      <c r="AK62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM62" s="1"/>
+      <c r="AN62" s="2"/>
+      <c r="AO62"/>
+    </row>
+    <row r="63" spans="1:41">
       <c r="A63">
         <v>2048</v>
       </c>
@@ -5909,9 +6379,13 @@
         <v>0.0</v>
       </c>
       <c r="X63" s="2"/>
-      <c r="Y63" s="1"/>
+      <c r="Y63" s="1">
+        <v>0</v>
+      </c>
       <c r="Z63" s="2"/>
-      <c r="AA63" s="1"/>
+      <c r="AA63" s="1">
+        <v>14358.0</v>
+      </c>
       <c r="AB63" s="1">
         <v>0</v>
       </c>
@@ -5920,26 +6394,30 @@
       </c>
       <c r="AD63" s="2"/>
       <c r="AE63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="2"/>
+      <c r="AG63" s="1">
         <v>-572079.2</v>
       </c>
-      <c r="AF63" s="1">
+      <c r="AH63" s="1">
         <v>-5764861.3</v>
       </c>
-      <c r="AG63" s="2"/>
-      <c r="AH63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI63" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI63" s="2"/>
       <c r="AJ63" s="1">
         <v>0</v>
       </c>
-      <c r="AK63" s="1"/>
-      <c r="AL63" s="2"/>
-      <c r="AM63"/>
-    </row>
-    <row r="64" spans="1:39">
+      <c r="AK63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="2"/>
+      <c r="AO63"/>
+    </row>
+    <row r="64" spans="1:41">
       <c r="A64">
         <v>2049</v>
       </c>
@@ -5996,9 +6474,13 @@
         <v>0.0</v>
       </c>
       <c r="X64" s="2"/>
-      <c r="Y64" s="1"/>
+      <c r="Y64" s="1">
+        <v>0</v>
+      </c>
       <c r="Z64" s="2"/>
-      <c r="AA64" s="1"/>
+      <c r="AA64" s="1">
+        <v>12922.0</v>
+      </c>
       <c r="AB64" s="1">
         <v>0</v>
       </c>
@@ -6007,26 +6489,30 @@
       </c>
       <c r="AD64" s="2"/>
       <c r="AE64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="2"/>
+      <c r="AG64" s="1">
         <v>-629286.9</v>
       </c>
-      <c r="AF64" s="1">
+      <c r="AH64" s="1">
         <v>-6394148.2</v>
       </c>
-      <c r="AG64" s="2"/>
-      <c r="AH64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI64" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI64" s="2"/>
       <c r="AJ64" s="1">
         <v>0</v>
       </c>
-      <c r="AK64" s="1"/>
-      <c r="AL64" s="2"/>
-      <c r="AM64"/>
-    </row>
-    <row r="65" spans="1:39">
+      <c r="AK64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM64" s="1"/>
+      <c r="AN64" s="2"/>
+      <c r="AO64"/>
+    </row>
+    <row r="65" spans="1:41">
       <c r="A65">
         <v>2050</v>
       </c>
@@ -6083,9 +6569,13 @@
         <v>0.0</v>
       </c>
       <c r="X65" s="2"/>
-      <c r="Y65" s="1"/>
+      <c r="Y65" s="1">
+        <v>0</v>
+      </c>
       <c r="Z65" s="2"/>
-      <c r="AA65" s="1"/>
+      <c r="AA65" s="1">
+        <v>11630.0</v>
+      </c>
       <c r="AB65" s="1">
         <v>0</v>
       </c>
@@ -6094,26 +6584,30 @@
       </c>
       <c r="AD65" s="2"/>
       <c r="AE65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="2"/>
+      <c r="AG65" s="1">
         <v>-692215.7</v>
       </c>
-      <c r="AF65" s="1">
+      <c r="AH65" s="1">
         <v>-7086363.9</v>
       </c>
-      <c r="AG65" s="2"/>
-      <c r="AH65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI65" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI65" s="2"/>
       <c r="AJ65" s="1">
         <v>0</v>
       </c>
-      <c r="AK65" s="1"/>
-      <c r="AL65" s="2"/>
-      <c r="AM65"/>
-    </row>
-    <row r="66" spans="1:39">
+      <c r="AK65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM65" s="1"/>
+      <c r="AN65" s="2"/>
+      <c r="AO65"/>
+    </row>
+    <row r="66" spans="1:41">
       <c r="A66">
         <v>2051</v>
       </c>
@@ -6170,9 +6664,13 @@
         <v>0.0</v>
       </c>
       <c r="X66" s="2"/>
-      <c r="Y66" s="1"/>
+      <c r="Y66" s="1">
+        <v>0</v>
+      </c>
       <c r="Z66" s="2"/>
-      <c r="AA66" s="1"/>
+      <c r="AA66" s="1">
+        <v>10467.0</v>
+      </c>
       <c r="AB66" s="1">
         <v>0</v>
       </c>
@@ -6181,26 +6679,30 @@
       </c>
       <c r="AD66" s="2"/>
       <c r="AE66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="2"/>
+      <c r="AG66" s="1">
         <v>-761437.6</v>
       </c>
-      <c r="AF66" s="1">
+      <c r="AH66" s="1">
         <v>-7847801.5</v>
       </c>
-      <c r="AG66" s="2"/>
-      <c r="AH66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI66" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI66" s="2"/>
       <c r="AJ66" s="1">
         <v>0</v>
       </c>
-      <c r="AK66" s="1"/>
-      <c r="AL66" s="2"/>
-      <c r="AM66"/>
-    </row>
-    <row r="67" spans="1:39">
+      <c r="AK66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM66" s="1"/>
+      <c r="AN66" s="2"/>
+      <c r="AO66"/>
+    </row>
+    <row r="67" spans="1:41">
       <c r="A67">
         <v>2052</v>
       </c>
@@ -6257,9 +6759,13 @@
         <v>0.0</v>
       </c>
       <c r="X67" s="2"/>
-      <c r="Y67" s="1"/>
+      <c r="Y67" s="1">
+        <v>0</v>
+      </c>
       <c r="Z67" s="2"/>
-      <c r="AA67" s="1"/>
+      <c r="AA67" s="1">
+        <v>9420.0</v>
+      </c>
       <c r="AB67" s="1">
         <v>0</v>
       </c>
@@ -6268,26 +6774,30 @@
       </c>
       <c r="AD67" s="2"/>
       <c r="AE67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="2"/>
+      <c r="AG67" s="1">
         <v>-837581.8</v>
       </c>
-      <c r="AF67" s="1">
+      <c r="AH67" s="1">
         <v>-8685383.3</v>
       </c>
-      <c r="AG67" s="2"/>
-      <c r="AH67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI67" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI67" s="2"/>
       <c r="AJ67" s="1">
         <v>0</v>
       </c>
-      <c r="AK67" s="1"/>
-      <c r="AL67" s="2"/>
-      <c r="AM67"/>
-    </row>
-    <row r="68" spans="1:39">
+      <c r="AK67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="2"/>
+      <c r="AO67"/>
+    </row>
+    <row r="68" spans="1:41">
       <c r="A68">
         <v>2053</v>
       </c>
@@ -6344,9 +6854,13 @@
         <v>0.0</v>
       </c>
       <c r="X68" s="2"/>
-      <c r="Y68" s="1"/>
+      <c r="Y68" s="1">
+        <v>0</v>
+      </c>
       <c r="Z68" s="2"/>
-      <c r="AA68" s="1"/>
+      <c r="AA68" s="1">
+        <v>8478.0</v>
+      </c>
       <c r="AB68" s="1">
         <v>0</v>
       </c>
@@ -6355,26 +6869,30 @@
       </c>
       <c r="AD68" s="2"/>
       <c r="AE68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="2"/>
+      <c r="AG68" s="1">
         <v>-921340.2</v>
       </c>
-      <c r="AF68" s="1">
+      <c r="AH68" s="1">
         <v>-9606723.5</v>
       </c>
-      <c r="AG68" s="2"/>
-      <c r="AH68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI68" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI68" s="2"/>
       <c r="AJ68" s="1">
         <v>0</v>
       </c>
-      <c r="AK68" s="1"/>
-      <c r="AL68" s="2"/>
-      <c r="AM68"/>
-    </row>
-    <row r="69" spans="1:39">
+      <c r="AK68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="2"/>
+      <c r="AO68"/>
+    </row>
+    <row r="69" spans="1:41">
       <c r="A69">
         <v>2054</v>
       </c>
@@ -6431,9 +6949,13 @@
         <v>0.0</v>
       </c>
       <c r="X69" s="2"/>
-      <c r="Y69" s="1"/>
+      <c r="Y69" s="1">
+        <v>0</v>
+      </c>
       <c r="Z69" s="2"/>
-      <c r="AA69" s="1"/>
+      <c r="AA69" s="1">
+        <v>7630.0</v>
+      </c>
       <c r="AB69" s="1">
         <v>0</v>
       </c>
@@ -6442,26 +6964,30 @@
       </c>
       <c r="AD69" s="2"/>
       <c r="AE69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="2"/>
+      <c r="AG69" s="1">
         <v>-1013474.0</v>
       </c>
-      <c r="AF69" s="1">
+      <c r="AH69" s="1">
         <v>-10620197.5</v>
       </c>
-      <c r="AG69" s="2"/>
-      <c r="AH69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI69" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI69" s="2"/>
       <c r="AJ69" s="1">
         <v>0</v>
       </c>
-      <c r="AK69" s="1"/>
-      <c r="AL69" s="2"/>
-      <c r="AM69"/>
-    </row>
-    <row r="70" spans="1:39">
+      <c r="AK69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="2"/>
+      <c r="AO69"/>
+    </row>
+    <row r="70" spans="1:41">
       <c r="A70">
         <v>2055</v>
       </c>
@@ -6518,9 +7044,13 @@
         <v>0.0</v>
       </c>
       <c r="X70" s="2"/>
-      <c r="Y70" s="1"/>
+      <c r="Y70" s="1">
+        <v>0</v>
+      </c>
       <c r="Z70" s="2"/>
-      <c r="AA70" s="1"/>
+      <c r="AA70" s="1">
+        <v>6867.0</v>
+      </c>
       <c r="AB70" s="1">
         <v>0</v>
       </c>
@@ -6529,26 +7059,30 @@
       </c>
       <c r="AD70" s="2"/>
       <c r="AE70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="2"/>
+      <c r="AG70" s="1">
         <v>-1114821.4</v>
       </c>
-      <c r="AF70" s="1">
+      <c r="AH70" s="1">
         <v>-11735018.9</v>
       </c>
-      <c r="AG70" s="2"/>
-      <c r="AH70" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI70" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI70" s="2"/>
       <c r="AJ70" s="1">
         <v>0</v>
       </c>
-      <c r="AK70" s="1"/>
-      <c r="AL70" s="2"/>
-      <c r="AM70"/>
-    </row>
-    <row r="71" spans="1:39">
+      <c r="AK70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="2"/>
+      <c r="AO70"/>
+    </row>
+    <row r="71" spans="1:41">
       <c r="A71">
         <v>2056</v>
       </c>
@@ -6605,9 +7139,13 @@
         <v>0.0</v>
       </c>
       <c r="X71" s="2"/>
-      <c r="Y71" s="1"/>
+      <c r="Y71" s="1">
+        <v>0</v>
+      </c>
       <c r="Z71" s="2"/>
-      <c r="AA71" s="1"/>
+      <c r="AA71" s="1">
+        <v>6180.0</v>
+      </c>
       <c r="AB71" s="1">
         <v>0</v>
       </c>
@@ -6616,26 +7154,30 @@
       </c>
       <c r="AD71" s="2"/>
       <c r="AE71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="2"/>
+      <c r="AG71" s="1">
         <v>-1226303.1</v>
       </c>
-      <c r="AF71" s="1">
+      <c r="AH71" s="1">
         <v>-12961322.0</v>
       </c>
-      <c r="AG71" s="2"/>
-      <c r="AH71" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI71" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI71" s="2"/>
       <c r="AJ71" s="1">
         <v>0</v>
       </c>
-      <c r="AK71" s="1"/>
-      <c r="AL71" s="2"/>
-      <c r="AM71"/>
-    </row>
-    <row r="72" spans="1:39">
+      <c r="AK71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="2"/>
+      <c r="AO71"/>
+    </row>
+    <row r="72" spans="1:41">
       <c r="A72" s="15">
         <v>2057</v>
       </c>
@@ -6692,9 +7234,13 @@
         <v>0.0</v>
       </c>
       <c r="X72" s="16"/>
-      <c r="Y72" s="5"/>
+      <c r="Y72" s="5">
+        <v>0</v>
+      </c>
       <c r="Z72" s="16"/>
-      <c r="AA72" s="5"/>
+      <c r="AA72" s="5">
+        <v>5562.0</v>
+      </c>
       <c r="AB72" s="5">
         <v>0</v>
       </c>
@@ -6703,26 +7249,30 @@
       </c>
       <c r="AD72" s="16"/>
       <c r="AE72" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="16"/>
+      <c r="AG72" s="5">
         <v>-1348933.3</v>
       </c>
-      <c r="AF72" s="5">
+      <c r="AH72" s="5">
         <v>-14310255.3</v>
       </c>
-      <c r="AG72" s="16"/>
-      <c r="AH72" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI72" s="5">
-        <v>0</v>
-      </c>
+      <c r="AI72" s="16"/>
       <c r="AJ72" s="5">
         <v>0</v>
       </c>
-      <c r="AK72" s="5"/>
-      <c r="AL72" s="16"/>
-      <c r="AM72" s="15"/>
-    </row>
-    <row r="73" spans="1:39">
+      <c r="AK72" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL72" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM72" s="5"/>
+      <c r="AN72" s="16"/>
+      <c r="AO72" s="15"/>
+    </row>
+    <row r="73" spans="1:41">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="2"/>
@@ -6753,15 +7303,17 @@
       <c r="AC73" s="1"/>
       <c r="AD73" s="2"/>
       <c r="AE73" s="1"/>
-      <c r="AF73" s="1"/>
-      <c r="AG73" s="2"/>
+      <c r="AF73" s="2"/>
+      <c r="AG73" s="1"/>
       <c r="AH73" s="1"/>
-      <c r="AI73" s="1"/>
+      <c r="AI73" s="2"/>
       <c r="AJ73" s="1"/>
       <c r="AK73" s="1"/>
-      <c r="AL73" s="2"/>
-    </row>
-    <row r="74" spans="1:39">
+      <c r="AL73" s="1"/>
+      <c r="AM73" s="1"/>
+      <c r="AN73" s="2"/>
+    </row>
+    <row r="74" spans="1:41">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="2"/>
@@ -6792,15 +7344,17 @@
       <c r="AC74" s="1"/>
       <c r="AD74" s="2"/>
       <c r="AE74" s="1"/>
-      <c r="AF74" s="1"/>
-      <c r="AG74" s="2"/>
+      <c r="AF74" s="2"/>
+      <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
-      <c r="AI74" s="1"/>
+      <c r="AI74" s="2"/>
       <c r="AJ74" s="1"/>
       <c r="AK74" s="1"/>
-      <c r="AL74" s="2"/>
-    </row>
-    <row r="75" spans="1:39">
+      <c r="AL74" s="1"/>
+      <c r="AM74" s="1"/>
+      <c r="AN74" s="2"/>
+    </row>
+    <row r="75" spans="1:41">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="2"/>
@@ -6831,15 +7385,17 @@
       <c r="AC75" s="1"/>
       <c r="AD75" s="2"/>
       <c r="AE75" s="1"/>
-      <c r="AF75" s="1"/>
-      <c r="AG75" s="2"/>
+      <c r="AF75" s="2"/>
+      <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
-      <c r="AI75" s="1"/>
+      <c r="AI75" s="2"/>
       <c r="AJ75" s="1"/>
       <c r="AK75" s="1"/>
-      <c r="AL75" s="2"/>
-    </row>
-    <row r="76" spans="1:39">
+      <c r="AL75" s="1"/>
+      <c r="AM75" s="1"/>
+      <c r="AN75" s="2"/>
+    </row>
+    <row r="76" spans="1:41">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="2"/>
@@ -6870,15 +7426,17 @@
       <c r="AC76" s="1"/>
       <c r="AD76" s="2"/>
       <c r="AE76" s="1"/>
-      <c r="AF76" s="1"/>
-      <c r="AG76" s="2"/>
+      <c r="AF76" s="2"/>
+      <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
-      <c r="AI76" s="1"/>
+      <c r="AI76" s="2"/>
       <c r="AJ76" s="1"/>
       <c r="AK76" s="1"/>
-      <c r="AL76" s="2"/>
-    </row>
-    <row r="77" spans="1:39">
+      <c r="AL76" s="1"/>
+      <c r="AM76" s="1"/>
+      <c r="AN76" s="2"/>
+    </row>
+    <row r="77" spans="1:41">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="2"/>
@@ -6909,15 +7467,17 @@
       <c r="AC77" s="1"/>
       <c r="AD77" s="2"/>
       <c r="AE77" s="1"/>
-      <c r="AF77" s="1"/>
-      <c r="AG77" s="2"/>
+      <c r="AF77" s="2"/>
+      <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
-      <c r="AI77" s="1"/>
+      <c r="AI77" s="2"/>
       <c r="AJ77" s="1"/>
       <c r="AK77" s="1"/>
-      <c r="AL77" s="2"/>
-    </row>
-    <row r="78" spans="1:39">
+      <c r="AL77" s="1"/>
+      <c r="AM77" s="1"/>
+      <c r="AN77" s="2"/>
+    </row>
+    <row r="78" spans="1:41">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="2"/>
@@ -6948,15 +7508,17 @@
       <c r="AC78" s="1"/>
       <c r="AD78" s="2"/>
       <c r="AE78" s="1"/>
-      <c r="AF78" s="1"/>
-      <c r="AG78" s="2"/>
+      <c r="AF78" s="2"/>
+      <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
-      <c r="AI78" s="1"/>
+      <c r="AI78" s="2"/>
       <c r="AJ78" s="1"/>
       <c r="AK78" s="1"/>
-      <c r="AL78" s="2"/>
-    </row>
-    <row r="79" spans="1:39">
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="2"/>
+    </row>
+    <row r="79" spans="1:41">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="2"/>
@@ -6987,15 +7549,17 @@
       <c r="AC79" s="1"/>
       <c r="AD79" s="2"/>
       <c r="AE79" s="1"/>
-      <c r="AF79" s="1"/>
-      <c r="AG79" s="2"/>
+      <c r="AF79" s="2"/>
+      <c r="AG79" s="1"/>
       <c r="AH79" s="1"/>
-      <c r="AI79" s="1"/>
+      <c r="AI79" s="2"/>
       <c r="AJ79" s="1"/>
       <c r="AK79" s="1"/>
-      <c r="AL79" s="2"/>
-    </row>
-    <row r="80" spans="1:39">
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="2"/>
+    </row>
+    <row r="80" spans="1:41">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="2"/>
@@ -7026,13 +7590,15 @@
       <c r="AC80" s="1"/>
       <c r="AD80" s="2"/>
       <c r="AE80" s="1"/>
-      <c r="AF80" s="1"/>
-      <c r="AG80" s="2"/>
+      <c r="AF80" s="2"/>
+      <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
-      <c r="AI80" s="1"/>
+      <c r="AI80" s="2"/>
       <c r="AJ80" s="1"/>
       <c r="AK80" s="1"/>
-      <c r="AL80" s="2"/>
+      <c r="AL80" s="1"/>
+      <c r="AM80" s="1"/>
+      <c r="AN80" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -7055,10 +7621,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AM80"/>
+  <dimension ref="A1:AO80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A72" sqref="A72:AM72"/>
+      <selection activeCell="A72" sqref="A72:AO72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7093,25 +7659,27 @@
     <col min="28" max="28" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="29" max="29" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="30" max="30" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="35" max="35" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="36" max="36" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="31" max="31" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="32" max="32" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="33" max="33" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="34" max="34" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="35" max="35" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="36" max="36" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="37" max="37" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="38" max="38" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -7123,7 +7691,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -7136,7 +7704,7 @@
       </c>
       <c r="J2"/>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -7164,109 +7732,112 @@
       <c r="AG4" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>16</v>
       </c>
       <c r="AJ4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:39">
+      <c r="AL4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="R5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="AF5" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="AG5" s="3" t="s">
         <v>15</v>
@@ -7275,22 +7846,28 @@
         <v>40</v>
       </c>
       <c r="AI5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AK5" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="AL5" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AM5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN5" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:39">
+      <c r="AO5" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6">
         <v>1991</v>
       </c>
@@ -7327,27 +7904,29 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="2"/>
-      <c r="AE6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG6" s="2"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI6" s="2"/>
       <c r="AJ6" s="1">
         <v>0</v>
       </c>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="2"/>
-      <c r="AM6"/>
-    </row>
-    <row r="7" spans="1:39">
+      <c r="AK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6"/>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7">
         <v>1992</v>
       </c>
@@ -7384,27 +7963,29 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG7" s="2"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI7" s="2"/>
       <c r="AJ7" s="1">
         <v>0</v>
       </c>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="2"/>
-      <c r="AM7"/>
-    </row>
-    <row r="8" spans="1:39">
+      <c r="AK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7"/>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8">
         <v>1993</v>
       </c>
@@ -7441,27 +8022,29 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG8" s="2"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI8" s="2"/>
       <c r="AJ8" s="1">
         <v>0</v>
       </c>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="2"/>
-      <c r="AM8"/>
-    </row>
-    <row r="9" spans="1:39">
+      <c r="AK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8"/>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9">
         <v>1994</v>
       </c>
@@ -7498,27 +8081,29 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG9" s="2"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI9" s="2"/>
       <c r="AJ9" s="1">
         <v>0</v>
       </c>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="2"/>
-      <c r="AM9"/>
-    </row>
-    <row r="10" spans="1:39">
+      <c r="AK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9"/>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10">
         <v>1995</v>
       </c>
@@ -7555,27 +8140,29 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="2"/>
-      <c r="AE10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG10" s="2"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI10" s="2"/>
       <c r="AJ10" s="1">
         <v>0</v>
       </c>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="2"/>
-      <c r="AM10"/>
-    </row>
-    <row r="11" spans="1:39">
+      <c r="AK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10"/>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11">
         <v>1996</v>
       </c>
@@ -7612,27 +8199,29 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG11" s="2"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI11" s="2"/>
       <c r="AJ11" s="1">
         <v>0</v>
       </c>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="2"/>
-      <c r="AM11"/>
-    </row>
-    <row r="12" spans="1:39">
+      <c r="AK11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11"/>
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12">
         <v>1997</v>
       </c>
@@ -7669,27 +8258,29 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG12" s="2"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI12" s="2"/>
       <c r="AJ12" s="1">
         <v>0</v>
       </c>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="2"/>
-      <c r="AM12"/>
-    </row>
-    <row r="13" spans="1:39">
+      <c r="AK12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12"/>
+    </row>
+    <row r="13" spans="1:41">
       <c r="A13">
         <v>1998</v>
       </c>
@@ -7726,27 +8317,29 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="2"/>
-      <c r="AE13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG13" s="2"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI13" s="2"/>
       <c r="AJ13" s="1">
         <v>0</v>
       </c>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="2"/>
-      <c r="AM13"/>
-    </row>
-    <row r="14" spans="1:39">
+      <c r="AK13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13"/>
+    </row>
+    <row r="14" spans="1:41">
       <c r="A14">
         <v>1999</v>
       </c>
@@ -7783,27 +8376,29 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="2"/>
-      <c r="AE14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG14" s="2"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI14" s="2"/>
       <c r="AJ14" s="1">
         <v>0</v>
       </c>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="2"/>
-      <c r="AM14"/>
-    </row>
-    <row r="15" spans="1:39">
+      <c r="AK14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14"/>
+    </row>
+    <row r="15" spans="1:41">
       <c r="A15">
         <v>2000</v>
       </c>
@@ -7840,27 +8435,29 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="2"/>
-      <c r="AE15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG15" s="2"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI15" s="2"/>
       <c r="AJ15" s="1">
         <v>0</v>
       </c>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="2"/>
-      <c r="AM15"/>
-    </row>
-    <row r="16" spans="1:39">
+      <c r="AK15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15"/>
+    </row>
+    <row r="16" spans="1:41">
       <c r="A16">
         <v>2001</v>
       </c>
@@ -7897,27 +8494,29 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="2"/>
-      <c r="AE16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG16" s="2"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI16" s="2"/>
       <c r="AJ16" s="1">
         <v>0</v>
       </c>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="2"/>
-      <c r="AM16"/>
-    </row>
-    <row r="17" spans="1:39">
+      <c r="AK16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16"/>
+    </row>
+    <row r="17" spans="1:41">
       <c r="A17">
         <v>2002</v>
       </c>
@@ -7954,27 +8553,29 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="2"/>
-      <c r="AE17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG17" s="2"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI17" s="2"/>
       <c r="AJ17" s="1">
         <v>0</v>
       </c>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="2"/>
-      <c r="AM17"/>
-    </row>
-    <row r="18" spans="1:39">
+      <c r="AK17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17"/>
+    </row>
+    <row r="18" spans="1:41">
       <c r="A18">
         <v>2003</v>
       </c>
@@ -8011,27 +8612,29 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="2"/>
-      <c r="AE18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG18" s="2"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI18" s="2"/>
       <c r="AJ18" s="1">
         <v>0</v>
       </c>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="2"/>
-      <c r="AM18"/>
-    </row>
-    <row r="19" spans="1:39">
+      <c r="AK18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18"/>
+    </row>
+    <row r="19" spans="1:41">
       <c r="A19">
         <v>2004</v>
       </c>
@@ -8068,27 +8671,29 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="2"/>
-      <c r="AE19" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF19" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG19" s="2"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI19" s="2"/>
       <c r="AJ19" s="1">
         <v>0</v>
       </c>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="2"/>
-      <c r="AM19"/>
-    </row>
-    <row r="20" spans="1:39">
+      <c r="AK19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19"/>
+    </row>
+    <row r="20" spans="1:41">
       <c r="A20">
         <v>2005</v>
       </c>
@@ -8125,27 +8730,29 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="2"/>
-      <c r="AE20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG20" s="2"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI20" s="2"/>
       <c r="AJ20" s="1">
         <v>0</v>
       </c>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="2"/>
-      <c r="AM20"/>
-    </row>
-    <row r="21" spans="1:39">
+      <c r="AK20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20"/>
+    </row>
+    <row r="21" spans="1:41">
       <c r="A21">
         <v>2006</v>
       </c>
@@ -8182,27 +8789,29 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="2"/>
-      <c r="AE21" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF21" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG21" s="2"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI21" s="2"/>
       <c r="AJ21" s="1">
         <v>0</v>
       </c>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="2"/>
-      <c r="AM21"/>
-    </row>
-    <row r="22" spans="1:39">
+      <c r="AK21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21"/>
+    </row>
+    <row r="22" spans="1:41">
       <c r="A22">
         <v>2007</v>
       </c>
@@ -8239,27 +8848,29 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="2"/>
-      <c r="AE22" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF22" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG22" s="2"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI22" s="2"/>
       <c r="AJ22" s="1">
         <v>0</v>
       </c>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="2"/>
-      <c r="AM22"/>
-    </row>
-    <row r="23" spans="1:39">
+      <c r="AK22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22"/>
+    </row>
+    <row r="23" spans="1:41">
       <c r="A23">
         <v>2008</v>
       </c>
@@ -8296,27 +8907,29 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="2"/>
-      <c r="AE23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG23" s="2"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI23" s="2"/>
       <c r="AJ23" s="1">
         <v>0</v>
       </c>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="2"/>
-      <c r="AM23"/>
-    </row>
-    <row r="24" spans="1:39">
+      <c r="AK23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23"/>
+    </row>
+    <row r="24" spans="1:41">
       <c r="A24">
         <v>2009</v>
       </c>
@@ -8353,27 +8966,29 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="2"/>
-      <c r="AE24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG24" s="2"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI24" s="2"/>
       <c r="AJ24" s="1">
         <v>0</v>
       </c>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="2"/>
-      <c r="AM24"/>
-    </row>
-    <row r="25" spans="1:39">
+      <c r="AK24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24"/>
+    </row>
+    <row r="25" spans="1:41">
       <c r="A25">
         <v>2010</v>
       </c>
@@ -8410,27 +9025,29 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="2"/>
-      <c r="AE25" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF25" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG25" s="2"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI25" s="2"/>
       <c r="AJ25" s="1">
         <v>0</v>
       </c>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="2"/>
-      <c r="AM25"/>
-    </row>
-    <row r="26" spans="1:39">
+      <c r="AK25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25"/>
+    </row>
+    <row r="26" spans="1:41">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -8467,27 +9084,29 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="2"/>
-      <c r="AE26" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF26" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG26" s="2"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI26" s="2"/>
       <c r="AJ26" s="1">
         <v>0</v>
       </c>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="2"/>
-      <c r="AM26"/>
-    </row>
-    <row r="27" spans="1:39">
+      <c r="AK26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26"/>
+    </row>
+    <row r="27" spans="1:41">
       <c r="A27">
         <v>2012</v>
       </c>
@@ -8524,27 +9143,29 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="2"/>
-      <c r="AE27" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF27" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG27" s="2"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI27" s="2"/>
       <c r="AJ27" s="1">
         <v>0</v>
       </c>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="2"/>
-      <c r="AM27"/>
-    </row>
-    <row r="28" spans="1:39">
+      <c r="AK27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27"/>
+    </row>
+    <row r="28" spans="1:41">
       <c r="A28">
         <v>2013</v>
       </c>
@@ -8581,27 +9202,29 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="2"/>
-      <c r="AE28" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF28" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG28" s="2"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI28" s="2"/>
       <c r="AJ28" s="1">
         <v>0</v>
       </c>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="2"/>
-      <c r="AM28"/>
-    </row>
-    <row r="29" spans="1:39">
+      <c r="AK28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28"/>
+    </row>
+    <row r="29" spans="1:41">
       <c r="A29">
         <v>2014</v>
       </c>
@@ -8638,27 +9261,29 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="2"/>
-      <c r="AE29" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF29" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG29" s="2"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI29" s="2"/>
       <c r="AJ29" s="1">
         <v>0</v>
       </c>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="2"/>
-      <c r="AM29"/>
-    </row>
-    <row r="30" spans="1:39">
+      <c r="AK29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29"/>
+    </row>
+    <row r="30" spans="1:41">
       <c r="A30">
         <v>2015</v>
       </c>
@@ -8695,27 +9320,29 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="2"/>
-      <c r="AE30" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF30" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG30" s="2"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI30" s="2"/>
       <c r="AJ30" s="1">
         <v>0</v>
       </c>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="2"/>
-      <c r="AM30"/>
-    </row>
-    <row r="31" spans="1:39">
+      <c r="AK30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30"/>
+    </row>
+    <row r="31" spans="1:41">
       <c r="A31">
         <v>2016</v>
       </c>
@@ -8752,27 +9379,29 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="2"/>
-      <c r="AE31" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF31" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG31" s="2"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI31" s="2"/>
       <c r="AJ31" s="1">
         <v>0</v>
       </c>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="2"/>
-      <c r="AM31"/>
-    </row>
-    <row r="32" spans="1:39">
+      <c r="AK31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31"/>
+    </row>
+    <row r="32" spans="1:41">
       <c r="A32">
         <v>2017</v>
       </c>
@@ -8809,27 +9438,29 @@
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="2"/>
-      <c r="AE32" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF32" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG32" s="2"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI32" s="2"/>
       <c r="AJ32" s="1">
         <v>0</v>
       </c>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="2"/>
-      <c r="AM32"/>
-    </row>
-    <row r="33" spans="1:39">
+      <c r="AK32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32"/>
+    </row>
+    <row r="33" spans="1:41">
       <c r="A33">
         <v>2018</v>
       </c>
@@ -8866,27 +9497,29 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="2"/>
-      <c r="AE33" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF33" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG33" s="2"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI33" s="2"/>
       <c r="AJ33" s="1">
         <v>0</v>
       </c>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="2"/>
-      <c r="AM33"/>
-    </row>
-    <row r="34" spans="1:39">
+      <c r="AK33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33"/>
+    </row>
+    <row r="34" spans="1:41">
       <c r="A34">
         <v>2019</v>
       </c>
@@ -8923,27 +9556,29 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="2"/>
-      <c r="AE34" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF34" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG34" s="2"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI34" s="2"/>
       <c r="AJ34" s="1">
         <v>0</v>
       </c>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="2"/>
-      <c r="AM34"/>
-    </row>
-    <row r="35" spans="1:39">
+      <c r="AK34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34"/>
+    </row>
+    <row r="35" spans="1:41">
       <c r="A35">
         <v>2020</v>
       </c>
@@ -8980,27 +9615,29 @@
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="2"/>
-      <c r="AE35" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF35" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG35" s="2"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI35" s="2"/>
       <c r="AJ35" s="1">
         <v>0</v>
       </c>
-      <c r="AK35" s="1"/>
-      <c r="AL35" s="2"/>
-      <c r="AM35"/>
-    </row>
-    <row r="36" spans="1:39">
+      <c r="AK35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35"/>
+    </row>
+    <row r="36" spans="1:41">
       <c r="A36">
         <v>2021</v>
       </c>
@@ -9037,27 +9674,29 @@
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="2"/>
-      <c r="AE36" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF36" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG36" s="2"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI36" s="2"/>
       <c r="AJ36" s="1">
         <v>0</v>
       </c>
-      <c r="AK36" s="1"/>
-      <c r="AL36" s="2"/>
-      <c r="AM36"/>
-    </row>
-    <row r="37" spans="1:39">
+      <c r="AK36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="2"/>
+      <c r="AO36"/>
+    </row>
+    <row r="37" spans="1:41">
       <c r="A37">
         <v>2022</v>
       </c>
@@ -9094,27 +9733,29 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="2"/>
-      <c r="AE37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG37" s="2"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="1">
+        <v>0.0</v>
+      </c>
       <c r="AH37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI37" s="2"/>
       <c r="AJ37" s="1">
         <v>0</v>
       </c>
-      <c r="AK37" s="1"/>
-      <c r="AL37" s="2"/>
-      <c r="AM37"/>
-    </row>
-    <row r="38" spans="1:39">
+      <c r="AK37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="2"/>
+      <c r="AO37"/>
+    </row>
+    <row r="38" spans="1:41">
       <c r="A38">
         <v>2023</v>
       </c>
@@ -9180,28 +9821,32 @@
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="1">
         <v>-52800.0</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AH38" s="1">
         <v>-52800.0</v>
       </c>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI38" s="2"/>
       <c r="AJ38" s="1">
         <v>0</v>
       </c>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="2"/>
-      <c r="AM38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39">
+      <c r="AK38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="2"/>
+      <c r="AO38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41">
       <c r="A39" s="7">
         <v>2024</v>
       </c>
@@ -9267,28 +9912,32 @@
       </c>
       <c r="AD39" s="9"/>
       <c r="AE39" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="8">
         <v>-58080.0</v>
       </c>
-      <c r="AF39" s="8">
+      <c r="AH39" s="8">
         <v>-110880.0</v>
       </c>
-      <c r="AG39" s="9"/>
-      <c r="AH39" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="8">
-        <v>0</v>
-      </c>
+      <c r="AI39" s="9"/>
       <c r="AJ39" s="8">
         <v>0</v>
       </c>
-      <c r="AK39" s="8"/>
-      <c r="AL39" s="9"/>
-      <c r="AM39" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:39">
+      <c r="AK39" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="8"/>
+      <c r="AN39" s="9"/>
+      <c r="AO39" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41">
       <c r="A40" s="10">
         <v>2025</v>
       </c>
@@ -9354,28 +10003,32 @@
       </c>
       <c r="AD40" s="12"/>
       <c r="AE40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="11">
         <v>-63888.0</v>
       </c>
-      <c r="AF40" s="11">
+      <c r="AH40" s="11">
         <v>-174768.0</v>
       </c>
-      <c r="AG40" s="12"/>
-      <c r="AH40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="11">
-        <v>0</v>
-      </c>
+      <c r="AI40" s="12"/>
       <c r="AJ40" s="11">
         <v>0</v>
       </c>
-      <c r="AK40" s="11"/>
-      <c r="AL40" s="12"/>
-      <c r="AM40" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:39">
+      <c r="AK40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="11"/>
+      <c r="AN40" s="12"/>
+      <c r="AO40" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41">
       <c r="A41">
         <v>2026</v>
       </c>
@@ -9441,28 +10094,32 @@
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="1">
         <v>-70276.8</v>
       </c>
-      <c r="AF41" s="1">
+      <c r="AH41" s="1">
         <v>-245044.8</v>
       </c>
-      <c r="AG41" s="2"/>
-      <c r="AH41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI41" s="2"/>
       <c r="AJ41" s="1">
         <v>0</v>
       </c>
-      <c r="AK41" s="1"/>
-      <c r="AL41" s="2"/>
-      <c r="AM41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:39">
+      <c r="AK41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="2"/>
+      <c r="AO41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41">
       <c r="A42">
         <v>2027</v>
       </c>
@@ -9528,28 +10185,32 @@
       </c>
       <c r="AD42" s="2"/>
       <c r="AE42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="1">
         <v>-77304.7</v>
       </c>
-      <c r="AF42" s="1">
+      <c r="AH42" s="1">
         <v>-322349.5</v>
       </c>
-      <c r="AG42" s="2"/>
-      <c r="AH42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI42" s="2"/>
       <c r="AJ42" s="1">
         <v>0</v>
       </c>
-      <c r="AK42" s="1"/>
-      <c r="AL42" s="2"/>
-      <c r="AM42" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:39">
+      <c r="AK42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="2"/>
+      <c r="AO42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41">
       <c r="A43">
         <v>2028</v>
       </c>
@@ -9615,28 +10276,32 @@
       </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="1">
         <v>-85035.5</v>
       </c>
-      <c r="AF43" s="1">
+      <c r="AH43" s="1">
         <v>-407385.0</v>
       </c>
-      <c r="AG43" s="2"/>
-      <c r="AH43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI43" s="2"/>
       <c r="AJ43" s="1">
         <v>0</v>
       </c>
-      <c r="AK43" s="1"/>
-      <c r="AL43" s="2"/>
-      <c r="AM43" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:39">
+      <c r="AK43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="2"/>
+      <c r="AO43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41">
       <c r="A44">
         <v>2029</v>
       </c>
@@ -9702,28 +10367,32 @@
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="1">
         <v>-93539.6</v>
       </c>
-      <c r="AF44" s="1">
+      <c r="AH44" s="1">
         <v>-500924.6</v>
       </c>
-      <c r="AG44" s="2"/>
-      <c r="AH44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI44" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI44" s="2"/>
       <c r="AJ44" s="1">
         <v>0</v>
       </c>
-      <c r="AK44" s="1"/>
-      <c r="AL44" s="2"/>
-      <c r="AM44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:39">
+      <c r="AK44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="2"/>
+      <c r="AO44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41">
       <c r="A45">
         <v>2030</v>
       </c>
@@ -9789,28 +10458,32 @@
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="1">
         <v>-102894.0</v>
       </c>
-      <c r="AF45" s="1">
+      <c r="AH45" s="1">
         <v>-603818.6</v>
       </c>
-      <c r="AG45" s="2"/>
-      <c r="AH45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI45" s="2"/>
       <c r="AJ45" s="1">
         <v>0</v>
       </c>
-      <c r="AK45" s="1"/>
-      <c r="AL45" s="2"/>
-      <c r="AM45" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:39">
+      <c r="AK45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="2"/>
+      <c r="AO45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41">
       <c r="A46">
         <v>2031</v>
       </c>
@@ -9876,28 +10549,32 @@
       </c>
       <c r="AD46" s="2"/>
       <c r="AE46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="1">
         <v>-113183.4</v>
       </c>
-      <c r="AF46" s="1">
+      <c r="AH46" s="1">
         <v>-717002.0</v>
       </c>
-      <c r="AG46" s="2"/>
-      <c r="AH46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI46" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI46" s="2"/>
       <c r="AJ46" s="1">
         <v>0</v>
       </c>
-      <c r="AK46" s="1"/>
-      <c r="AL46" s="2"/>
-      <c r="AM46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:39">
+      <c r="AK46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="2"/>
+      <c r="AO46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41">
       <c r="A47">
         <v>2032</v>
       </c>
@@ -9963,28 +10640,32 @@
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="1">
         <v>-124501.3</v>
       </c>
-      <c r="AF47" s="1">
+      <c r="AH47" s="1">
         <v>-841503.3</v>
       </c>
-      <c r="AG47" s="2"/>
-      <c r="AH47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI47" s="2"/>
       <c r="AJ47" s="1">
         <v>0</v>
       </c>
-      <c r="AK47" s="1"/>
-      <c r="AL47" s="2"/>
-      <c r="AM47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:39">
+      <c r="AK47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="2"/>
+      <c r="AO47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41">
       <c r="A48">
         <v>2033</v>
       </c>
@@ -10050,28 +10731,32 @@
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="1">
         <v>-136951.1</v>
       </c>
-      <c r="AF48" s="1">
+      <c r="AH48" s="1">
         <v>-978454.4</v>
       </c>
-      <c r="AG48" s="2"/>
-      <c r="AH48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI48" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI48" s="2"/>
       <c r="AJ48" s="1">
         <v>0</v>
       </c>
-      <c r="AK48" s="1"/>
-      <c r="AL48" s="2"/>
-      <c r="AM48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:39">
+      <c r="AK48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="2"/>
+      <c r="AO48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41">
       <c r="A49">
         <v>2034</v>
       </c>
@@ -10137,28 +10822,32 @@
       </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="1">
         <v>-150646.1</v>
       </c>
-      <c r="AF49" s="1">
+      <c r="AH49" s="1">
         <v>-1129100.5</v>
       </c>
-      <c r="AG49" s="2"/>
-      <c r="AH49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI49" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI49" s="2"/>
       <c r="AJ49" s="1">
         <v>0</v>
       </c>
-      <c r="AK49" s="1"/>
-      <c r="AL49" s="2"/>
-      <c r="AM49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:39">
+      <c r="AK49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="2"/>
+      <c r="AO49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41">
       <c r="A50">
         <v>2035</v>
       </c>
@@ -10224,28 +10913,32 @@
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="1">
         <v>-165710.6</v>
       </c>
-      <c r="AF50" s="1">
+      <c r="AH50" s="1">
         <v>-1294811.1</v>
       </c>
-      <c r="AG50" s="2"/>
-      <c r="AH50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI50" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI50" s="2"/>
       <c r="AJ50" s="1">
         <v>0</v>
       </c>
-      <c r="AK50" s="1"/>
-      <c r="AL50" s="2"/>
-      <c r="AM50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:39">
+      <c r="AK50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="2"/>
+      <c r="AO50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41">
       <c r="A51">
         <v>2036</v>
       </c>
@@ -10311,28 +11004,32 @@
       </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="1">
         <v>-182282.1</v>
       </c>
-      <c r="AF51" s="1">
+      <c r="AH51" s="1">
         <v>-1477093.2</v>
       </c>
-      <c r="AG51" s="2"/>
-      <c r="AH51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI51" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI51" s="2"/>
       <c r="AJ51" s="1">
         <v>0</v>
       </c>
-      <c r="AK51" s="1"/>
-      <c r="AL51" s="2"/>
-      <c r="AM51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:39">
+      <c r="AK51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="2"/>
+      <c r="AO51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41">
       <c r="A52">
         <v>2037</v>
       </c>
@@ -10398,28 +11095,32 @@
       </c>
       <c r="AD52" s="2"/>
       <c r="AE52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="1">
         <v>-200510.2</v>
       </c>
-      <c r="AF52" s="1">
+      <c r="AH52" s="1">
         <v>-1677603.4</v>
       </c>
-      <c r="AG52" s="2"/>
-      <c r="AH52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI52" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI52" s="2"/>
       <c r="AJ52" s="1">
         <v>0</v>
       </c>
-      <c r="AK52" s="1"/>
-      <c r="AL52" s="2"/>
-      <c r="AM52" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:39">
+      <c r="AK52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="2"/>
+      <c r="AO52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41">
       <c r="A53" s="3">
         <v>2038</v>
       </c>
@@ -10485,28 +11186,32 @@
       </c>
       <c r="AD53" s="14"/>
       <c r="AE53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="14"/>
+      <c r="AG53" s="13">
         <v>-220561.0</v>
       </c>
-      <c r="AF53" s="13">
+      <c r="AH53" s="13">
         <v>-1898164.4</v>
       </c>
-      <c r="AG53" s="14"/>
-      <c r="AH53" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI53" s="13">
-        <v>0</v>
-      </c>
+      <c r="AI53" s="14"/>
       <c r="AJ53" s="13">
         <v>0</v>
       </c>
-      <c r="AK53" s="13"/>
-      <c r="AL53" s="14"/>
-      <c r="AM53" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:39">
+      <c r="AK53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="13"/>
+      <c r="AN53" s="14"/>
+      <c r="AO53" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41">
       <c r="A54">
         <v>2039</v>
       </c>
@@ -10572,28 +11277,32 @@
       </c>
       <c r="AD54" s="2"/>
       <c r="AE54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="2"/>
+      <c r="AG54" s="1">
         <v>-242617.1</v>
       </c>
-      <c r="AF54" s="1">
+      <c r="AH54" s="1">
         <v>-2140781.5</v>
       </c>
-      <c r="AG54" s="2"/>
-      <c r="AH54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI54" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI54" s="2"/>
       <c r="AJ54" s="1">
         <v>0</v>
       </c>
-      <c r="AK54" s="1"/>
-      <c r="AL54" s="2"/>
-      <c r="AM54" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:39">
+      <c r="AK54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="2"/>
+      <c r="AO54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:41">
       <c r="A55">
         <v>2040</v>
       </c>
@@ -10659,28 +11368,32 @@
       </c>
       <c r="AD55" s="2"/>
       <c r="AE55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="1">
         <v>-266878.7</v>
       </c>
-      <c r="AF55" s="1">
+      <c r="AH55" s="1">
         <v>-2407660.2</v>
       </c>
-      <c r="AG55" s="2"/>
-      <c r="AH55" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI55" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI55" s="2"/>
       <c r="AJ55" s="1">
         <v>0</v>
       </c>
-      <c r="AK55" s="1"/>
-      <c r="AL55" s="2"/>
-      <c r="AM55" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:39">
+      <c r="AK55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="2"/>
+      <c r="AO55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:41">
       <c r="A56">
         <v>2041</v>
       </c>
@@ -10746,28 +11459,32 @@
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="2"/>
+      <c r="AG56" s="1">
         <v>-293566.9</v>
       </c>
-      <c r="AF56" s="1">
+      <c r="AH56" s="1">
         <v>-2701227.1</v>
       </c>
-      <c r="AG56" s="2"/>
-      <c r="AH56" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI56" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI56" s="2"/>
       <c r="AJ56" s="1">
         <v>0</v>
       </c>
-      <c r="AK56" s="1"/>
-      <c r="AL56" s="2"/>
-      <c r="AM56" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:39">
+      <c r="AK56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="2"/>
+      <c r="AO56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:41">
       <c r="A57" s="3">
         <v>2042</v>
       </c>
@@ -10833,28 +11550,32 @@
       </c>
       <c r="AD57" s="14"/>
       <c r="AE57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="14"/>
+      <c r="AG57" s="13">
         <v>-322923.7</v>
       </c>
-      <c r="AF57" s="13">
+      <c r="AH57" s="13">
         <v>-3024150.8</v>
       </c>
-      <c r="AG57" s="14"/>
-      <c r="AH57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI57" s="13">
-        <v>0</v>
-      </c>
+      <c r="AI57" s="14"/>
       <c r="AJ57" s="13">
         <v>0</v>
       </c>
-      <c r="AK57" s="13"/>
-      <c r="AL57" s="14"/>
-      <c r="AM57" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:39">
+      <c r="AK57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM57" s="13"/>
+      <c r="AN57" s="14"/>
+      <c r="AO57" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:41">
       <c r="A58">
         <v>2043</v>
       </c>
@@ -10920,28 +11641,32 @@
       </c>
       <c r="AD58" s="2"/>
       <c r="AE58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="2"/>
+      <c r="AG58" s="1">
         <v>-355216.4</v>
       </c>
-      <c r="AF58" s="1">
+      <c r="AH58" s="1">
         <v>-3379367.2</v>
       </c>
-      <c r="AG58" s="2"/>
-      <c r="AH58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI58" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI58" s="2"/>
       <c r="AJ58" s="1">
         <v>0</v>
       </c>
-      <c r="AK58" s="1"/>
-      <c r="AL58" s="2"/>
-      <c r="AM58" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:39">
+      <c r="AK58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM58" s="1"/>
+      <c r="AN58" s="2"/>
+      <c r="AO58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:41">
       <c r="A59">
         <v>2044</v>
       </c>
@@ -11007,28 +11732,32 @@
       </c>
       <c r="AD59" s="2"/>
       <c r="AE59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="2"/>
+      <c r="AG59" s="1">
         <v>-390737.6</v>
       </c>
-      <c r="AF59" s="1">
+      <c r="AH59" s="1">
         <v>-3770104.8</v>
       </c>
-      <c r="AG59" s="2"/>
-      <c r="AH59" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI59" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI59" s="2"/>
       <c r="AJ59" s="1">
         <v>0</v>
       </c>
-      <c r="AK59" s="1"/>
-      <c r="AL59" s="2"/>
-      <c r="AM59" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:39">
+      <c r="AK59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM59" s="1"/>
+      <c r="AN59" s="2"/>
+      <c r="AO59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:41">
       <c r="A60">
         <v>2045</v>
       </c>
@@ -11094,28 +11823,32 @@
       </c>
       <c r="AD60" s="2"/>
       <c r="AE60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="2"/>
+      <c r="AG60" s="1">
         <v>-429811.8</v>
       </c>
-      <c r="AF60" s="1">
+      <c r="AH60" s="1">
         <v>-4199916.6</v>
       </c>
-      <c r="AG60" s="2"/>
-      <c r="AH60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI60" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI60" s="2"/>
       <c r="AJ60" s="1">
         <v>0</v>
       </c>
-      <c r="AK60" s="1"/>
-      <c r="AL60" s="2"/>
-      <c r="AM60" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:39">
+      <c r="AK60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM60" s="1"/>
+      <c r="AN60" s="2"/>
+      <c r="AO60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:41">
       <c r="A61">
         <v>2046</v>
       </c>
@@ -11181,28 +11914,32 @@
       </c>
       <c r="AD61" s="2"/>
       <c r="AE61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="2"/>
+      <c r="AG61" s="1">
         <v>-472793.2</v>
       </c>
-      <c r="AF61" s="1">
+      <c r="AH61" s="1">
         <v>-4672709.8</v>
       </c>
-      <c r="AG61" s="2"/>
-      <c r="AH61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI61" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI61" s="2"/>
       <c r="AJ61" s="1">
         <v>0</v>
       </c>
-      <c r="AK61" s="1"/>
-      <c r="AL61" s="2"/>
-      <c r="AM61" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:39">
+      <c r="AK61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM61" s="1"/>
+      <c r="AN61" s="2"/>
+      <c r="AO61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:41">
       <c r="A62">
         <v>2047</v>
       </c>
@@ -11268,28 +12005,32 @@
       </c>
       <c r="AD62" s="2"/>
       <c r="AE62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="2"/>
+      <c r="AG62" s="1">
         <v>-520072.3</v>
       </c>
-      <c r="AF62" s="1">
+      <c r="AH62" s="1">
         <v>-5192782.1</v>
       </c>
-      <c r="AG62" s="2"/>
-      <c r="AH62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI62" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI62" s="2"/>
       <c r="AJ62" s="1">
         <v>0</v>
       </c>
-      <c r="AK62" s="1"/>
-      <c r="AL62" s="2"/>
-      <c r="AM62" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:39">
+      <c r="AK62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM62" s="1"/>
+      <c r="AN62" s="2"/>
+      <c r="AO62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:41">
       <c r="A63">
         <v>2048</v>
       </c>
@@ -11355,28 +12096,32 @@
       </c>
       <c r="AD63" s="2"/>
       <c r="AE63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="2"/>
+      <c r="AG63" s="1">
         <v>-572079.2</v>
       </c>
-      <c r="AF63" s="1">
+      <c r="AH63" s="1">
         <v>-5764861.3</v>
       </c>
-      <c r="AG63" s="2"/>
-      <c r="AH63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI63" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI63" s="2"/>
       <c r="AJ63" s="1">
         <v>0</v>
       </c>
-      <c r="AK63" s="1"/>
-      <c r="AL63" s="2"/>
-      <c r="AM63" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:39">
+      <c r="AK63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="2"/>
+      <c r="AO63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:41">
       <c r="A64">
         <v>2049</v>
       </c>
@@ -11442,28 +12187,32 @@
       </c>
       <c r="AD64" s="2"/>
       <c r="AE64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="2"/>
+      <c r="AG64" s="1">
         <v>-629286.9</v>
       </c>
-      <c r="AF64" s="1">
+      <c r="AH64" s="1">
         <v>-6394148.2</v>
       </c>
-      <c r="AG64" s="2"/>
-      <c r="AH64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI64" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI64" s="2"/>
       <c r="AJ64" s="1">
         <v>0</v>
       </c>
-      <c r="AK64" s="1"/>
-      <c r="AL64" s="2"/>
-      <c r="AM64" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:39">
+      <c r="AK64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM64" s="1"/>
+      <c r="AN64" s="2"/>
+      <c r="AO64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:41">
       <c r="A65">
         <v>2050</v>
       </c>
@@ -11529,28 +12278,32 @@
       </c>
       <c r="AD65" s="2"/>
       <c r="AE65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="2"/>
+      <c r="AG65" s="1">
         <v>-692215.7</v>
       </c>
-      <c r="AF65" s="1">
+      <c r="AH65" s="1">
         <v>-7086363.9</v>
       </c>
-      <c r="AG65" s="2"/>
-      <c r="AH65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI65" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI65" s="2"/>
       <c r="AJ65" s="1">
         <v>0</v>
       </c>
-      <c r="AK65" s="1"/>
-      <c r="AL65" s="2"/>
-      <c r="AM65" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:39">
+      <c r="AK65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM65" s="1"/>
+      <c r="AN65" s="2"/>
+      <c r="AO65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:41">
       <c r="A66">
         <v>2051</v>
       </c>
@@ -11616,28 +12369,32 @@
       </c>
       <c r="AD66" s="2"/>
       <c r="AE66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="2"/>
+      <c r="AG66" s="1">
         <v>-761437.6</v>
       </c>
-      <c r="AF66" s="1">
+      <c r="AH66" s="1">
         <v>-7847801.5</v>
       </c>
-      <c r="AG66" s="2"/>
-      <c r="AH66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI66" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI66" s="2"/>
       <c r="AJ66" s="1">
         <v>0</v>
       </c>
-      <c r="AK66" s="1"/>
-      <c r="AL66" s="2"/>
-      <c r="AM66" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:39">
+      <c r="AK66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM66" s="1"/>
+      <c r="AN66" s="2"/>
+      <c r="AO66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:41">
       <c r="A67">
         <v>2052</v>
       </c>
@@ -11703,28 +12460,32 @@
       </c>
       <c r="AD67" s="2"/>
       <c r="AE67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="2"/>
+      <c r="AG67" s="1">
         <v>-837581.8</v>
       </c>
-      <c r="AF67" s="1">
+      <c r="AH67" s="1">
         <v>-8685383.3</v>
       </c>
-      <c r="AG67" s="2"/>
-      <c r="AH67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI67" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI67" s="2"/>
       <c r="AJ67" s="1">
         <v>0</v>
       </c>
-      <c r="AK67" s="1"/>
-      <c r="AL67" s="2"/>
-      <c r="AM67" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:39">
+      <c r="AK67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="2"/>
+      <c r="AO67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:41">
       <c r="A68">
         <v>2053</v>
       </c>
@@ -11790,28 +12551,32 @@
       </c>
       <c r="AD68" s="2"/>
       <c r="AE68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="2"/>
+      <c r="AG68" s="1">
         <v>-921340.2</v>
       </c>
-      <c r="AF68" s="1">
+      <c r="AH68" s="1">
         <v>-9606723.5</v>
       </c>
-      <c r="AG68" s="2"/>
-      <c r="AH68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI68" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI68" s="2"/>
       <c r="AJ68" s="1">
         <v>0</v>
       </c>
-      <c r="AK68" s="1"/>
-      <c r="AL68" s="2"/>
-      <c r="AM68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="1:39">
+      <c r="AK68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="2"/>
+      <c r="AO68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:41">
       <c r="A69">
         <v>2054</v>
       </c>
@@ -11877,28 +12642,32 @@
       </c>
       <c r="AD69" s="2"/>
       <c r="AE69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="2"/>
+      <c r="AG69" s="1">
         <v>-1013474.0</v>
       </c>
-      <c r="AF69" s="1">
+      <c r="AH69" s="1">
         <v>-10620197.5</v>
       </c>
-      <c r="AG69" s="2"/>
-      <c r="AH69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI69" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI69" s="2"/>
       <c r="AJ69" s="1">
         <v>0</v>
       </c>
-      <c r="AK69" s="1"/>
-      <c r="AL69" s="2"/>
-      <c r="AM69" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:39">
+      <c r="AK69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="2"/>
+      <c r="AO69" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:41">
       <c r="A70">
         <v>2055</v>
       </c>
@@ -11964,28 +12733,32 @@
       </c>
       <c r="AD70" s="2"/>
       <c r="AE70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="2"/>
+      <c r="AG70" s="1">
         <v>-1114821.4</v>
       </c>
-      <c r="AF70" s="1">
+      <c r="AH70" s="1">
         <v>-11735018.9</v>
       </c>
-      <c r="AG70" s="2"/>
-      <c r="AH70" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI70" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI70" s="2"/>
       <c r="AJ70" s="1">
         <v>0</v>
       </c>
-      <c r="AK70" s="1"/>
-      <c r="AL70" s="2"/>
-      <c r="AM70" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:39">
+      <c r="AK70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="2"/>
+      <c r="AO70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:41">
       <c r="A71">
         <v>2056</v>
       </c>
@@ -12051,28 +12824,32 @@
       </c>
       <c r="AD71" s="2"/>
       <c r="AE71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="2"/>
+      <c r="AG71" s="1">
         <v>-1226303.1</v>
       </c>
-      <c r="AF71" s="1">
+      <c r="AH71" s="1">
         <v>-12961322.0</v>
       </c>
-      <c r="AG71" s="2"/>
-      <c r="AH71" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI71" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI71" s="2"/>
       <c r="AJ71" s="1">
         <v>0</v>
       </c>
-      <c r="AK71" s="1"/>
-      <c r="AL71" s="2"/>
-      <c r="AM71" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:39">
+      <c r="AK71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="2"/>
+      <c r="AO71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:41">
       <c r="A72" s="15">
         <v>2057</v>
       </c>
@@ -12138,28 +12915,32 @@
       </c>
       <c r="AD72" s="16"/>
       <c r="AE72" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="16"/>
+      <c r="AG72" s="5">
         <v>-1348933.3</v>
       </c>
-      <c r="AF72" s="5">
+      <c r="AH72" s="5">
         <v>-14310255.3</v>
       </c>
-      <c r="AG72" s="16"/>
-      <c r="AH72" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI72" s="5">
-        <v>0</v>
-      </c>
+      <c r="AI72" s="16"/>
       <c r="AJ72" s="5">
         <v>0</v>
       </c>
-      <c r="AK72" s="5"/>
-      <c r="AL72" s="16"/>
-      <c r="AM72" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="1:39">
+      <c r="AK72" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL72" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM72" s="5"/>
+      <c r="AN72" s="16"/>
+      <c r="AO72" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:41">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="2"/>
@@ -12190,15 +12971,17 @@
       <c r="AC73" s="1"/>
       <c r="AD73" s="2"/>
       <c r="AE73" s="1"/>
-      <c r="AF73" s="1"/>
-      <c r="AG73" s="2"/>
+      <c r="AF73" s="2"/>
+      <c r="AG73" s="1"/>
       <c r="AH73" s="1"/>
-      <c r="AI73" s="1"/>
+      <c r="AI73" s="2"/>
       <c r="AJ73" s="1"/>
       <c r="AK73" s="1"/>
-      <c r="AL73" s="2"/>
-    </row>
-    <row r="74" spans="1:39">
+      <c r="AL73" s="1"/>
+      <c r="AM73" s="1"/>
+      <c r="AN73" s="2"/>
+    </row>
+    <row r="74" spans="1:41">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="2"/>
@@ -12229,15 +13012,17 @@
       <c r="AC74" s="1"/>
       <c r="AD74" s="2"/>
       <c r="AE74" s="1"/>
-      <c r="AF74" s="1"/>
-      <c r="AG74" s="2"/>
+      <c r="AF74" s="2"/>
+      <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
-      <c r="AI74" s="1"/>
+      <c r="AI74" s="2"/>
       <c r="AJ74" s="1"/>
       <c r="AK74" s="1"/>
-      <c r="AL74" s="2"/>
-    </row>
-    <row r="75" spans="1:39">
+      <c r="AL74" s="1"/>
+      <c r="AM74" s="1"/>
+      <c r="AN74" s="2"/>
+    </row>
+    <row r="75" spans="1:41">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="2"/>
@@ -12268,15 +13053,17 @@
       <c r="AC75" s="1"/>
       <c r="AD75" s="2"/>
       <c r="AE75" s="1"/>
-      <c r="AF75" s="1"/>
-      <c r="AG75" s="2"/>
+      <c r="AF75" s="2"/>
+      <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
-      <c r="AI75" s="1"/>
+      <c r="AI75" s="2"/>
       <c r="AJ75" s="1"/>
       <c r="AK75" s="1"/>
-      <c r="AL75" s="2"/>
-    </row>
-    <row r="76" spans="1:39">
+      <c r="AL75" s="1"/>
+      <c r="AM75" s="1"/>
+      <c r="AN75" s="2"/>
+    </row>
+    <row r="76" spans="1:41">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="2"/>
@@ -12307,15 +13094,17 @@
       <c r="AC76" s="1"/>
       <c r="AD76" s="2"/>
       <c r="AE76" s="1"/>
-      <c r="AF76" s="1"/>
-      <c r="AG76" s="2"/>
+      <c r="AF76" s="2"/>
+      <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
-      <c r="AI76" s="1"/>
+      <c r="AI76" s="2"/>
       <c r="AJ76" s="1"/>
       <c r="AK76" s="1"/>
-      <c r="AL76" s="2"/>
-    </row>
-    <row r="77" spans="1:39">
+      <c r="AL76" s="1"/>
+      <c r="AM76" s="1"/>
+      <c r="AN76" s="2"/>
+    </row>
+    <row r="77" spans="1:41">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="2"/>
@@ -12346,15 +13135,17 @@
       <c r="AC77" s="1"/>
       <c r="AD77" s="2"/>
       <c r="AE77" s="1"/>
-      <c r="AF77" s="1"/>
-      <c r="AG77" s="2"/>
+      <c r="AF77" s="2"/>
+      <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
-      <c r="AI77" s="1"/>
+      <c r="AI77" s="2"/>
       <c r="AJ77" s="1"/>
       <c r="AK77" s="1"/>
-      <c r="AL77" s="2"/>
-    </row>
-    <row r="78" spans="1:39">
+      <c r="AL77" s="1"/>
+      <c r="AM77" s="1"/>
+      <c r="AN77" s="2"/>
+    </row>
+    <row r="78" spans="1:41">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="2"/>
@@ -12385,15 +13176,17 @@
       <c r="AC78" s="1"/>
       <c r="AD78" s="2"/>
       <c r="AE78" s="1"/>
-      <c r="AF78" s="1"/>
-      <c r="AG78" s="2"/>
+      <c r="AF78" s="2"/>
+      <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
-      <c r="AI78" s="1"/>
+      <c r="AI78" s="2"/>
       <c r="AJ78" s="1"/>
       <c r="AK78" s="1"/>
-      <c r="AL78" s="2"/>
-    </row>
-    <row r="79" spans="1:39">
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="2"/>
+    </row>
+    <row r="79" spans="1:41">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="2"/>
@@ -12424,15 +13217,17 @@
       <c r="AC79" s="1"/>
       <c r="AD79" s="2"/>
       <c r="AE79" s="1"/>
-      <c r="AF79" s="1"/>
-      <c r="AG79" s="2"/>
+      <c r="AF79" s="2"/>
+      <c r="AG79" s="1"/>
       <c r="AH79" s="1"/>
-      <c r="AI79" s="1"/>
+      <c r="AI79" s="2"/>
       <c r="AJ79" s="1"/>
       <c r="AK79" s="1"/>
-      <c r="AL79" s="2"/>
-    </row>
-    <row r="80" spans="1:39">
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="2"/>
+    </row>
+    <row r="80" spans="1:41">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="2"/>
@@ -12463,13 +13258,15 @@
       <c r="AC80" s="1"/>
       <c r="AD80" s="2"/>
       <c r="AE80" s="1"/>
-      <c r="AF80" s="1"/>
-      <c r="AG80" s="2"/>
+      <c r="AF80" s="2"/>
+      <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
-      <c r="AI80" s="1"/>
+      <c r="AI80" s="2"/>
       <c r="AJ80" s="1"/>
       <c r="AK80" s="1"/>
-      <c r="AL80" s="2"/>
+      <c r="AL80" s="1"/>
+      <c r="AM80" s="1"/>
+      <c r="AN80" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -12502,10 +13299,10 @@
   <sheetData>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3">
